--- a/Lora 2019.xlsx
+++ b/Lora 2019.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{734F61BE-2699-4EF7-96F0-411D66D0F5AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012299A8-C13B-403B-9396-23044B66564D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26844" yWindow="761" windowWidth="35049" windowHeight="13924" activeTab="1" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
+    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" activeTab="1" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="LoRa_Send (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
+    <sheet name="LoRa_Send" sheetId="2" r:id="rId3"/>
+    <sheet name="LoRa_TimerHandshakingCallback" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
   <si>
     <t>timer</t>
   </si>
@@ -167,13 +168,124 @@
   </si>
   <si>
     <t>LORAWAN_RxDone</t>
+  </si>
+  <si>
+    <t>void *</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uint8_t </t>
+  </si>
+  <si>
+    <t>bufferLength</t>
+  </si>
+  <si>
+    <t>loRa.macStatus.macState</t>
+  </si>
+  <si>
+    <t>LoRa_Idle</t>
+  </si>
+  <si>
+    <t>LoRa_SelectChannelForTransmission(0, channel)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> channel</t>
+  </si>
+  <si>
+    <t>LoRa_SelectChannelForTransmission</t>
+  </si>
+  <si>
+    <t>loRa.LoRa_lastUsedChannelIndex</t>
+  </si>
+  <si>
+    <t>loRa.LoRa_receiveChannelParameters.frequency</t>
+  </si>
+  <si>
+    <t>Channels[0].frequency;</t>
+  </si>
+  <si>
+    <t>loRa.LoRa_receiveChannelParameters.dataRate</t>
+  </si>
+  <si>
+    <t>loRa.LoRa_currentDataRate</t>
+  </si>
+  <si>
+    <t>ConfigureRadioTx</t>
+  </si>
+  <si>
+    <t>loRa.LoRa_ch0_params.LoRa_datarate</t>
+  </si>
+  <si>
+    <t>loRa.LoRa_ch0_params.frequency</t>
+  </si>
+  <si>
+    <t>ConfigureRadio</t>
+  </si>
+  <si>
+    <t>RADIO_SetOutputPower</t>
+  </si>
+  <si>
+    <t>txPower868[]</t>
+  </si>
+  <si>
+    <t>loRa.txPower</t>
+  </si>
+  <si>
+    <t>loRa.LoRa_Status</t>
+  </si>
+  <si>
+    <t>LoRa_Handshaking_start</t>
+  </si>
+  <si>
+    <t>LoRa_AssemblePacket(buffer, bufferLength, channel)</t>
+  </si>
+  <si>
+    <t>RADIO_Transmit(&amp;loRa.LoRa_HeaderBufor, loRa.LoRa_HeaderLength)</t>
+  </si>
+  <si>
+    <t>loRa.LoRa_TimerHandshaking</t>
+  </si>
+  <si>
+    <t>LoRa_Handshaking_timeout</t>
+  </si>
+  <si>
+    <t>param</t>
+  </si>
+  <si>
+    <t>LoRa_transmit_Error</t>
+  </si>
+  <si>
+    <t>RADIO_ReceiveStop();</t>
+  </si>
+  <si>
+    <t>RADIO_ReleaseData();</t>
+  </si>
+  <si>
+    <t>SwTimerStop(loRa.LoRa_TimerHandshaking)</t>
+  </si>
+  <si>
+    <t>LoRa_TimerHandshakingCallback</t>
+  </si>
+  <si>
+    <t>zdarzenia</t>
+  </si>
+  <si>
+    <t>LoRa_Send!A1</t>
+  </si>
+  <si>
+    <t>LoRa_TxDone</t>
+  </si>
+  <si>
+    <t>timeOnAir</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,8 +294,17 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +314,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -206,14 +339,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,10 +666,117 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ED78F1-4C9F-4AB8-9E14-2B2EE0D47D75}">
+  <dimension ref="B1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="44.875" customWidth="1"/>
+    <col min="6" max="7" width="36.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
+        <f>F11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D958A-2A0D-43B7-8BB2-47B52D5DCD06}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -804,16 +1052,163 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE03AC2E-289E-4D97-9034-CE8D26785EAD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="5" t="str">
+        <f>LoRa_TimerHandshakingCallback!C1</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C21" location="LoRa_TimerHandshakingCallback!A1" display="LoRa_TimerHandshakingCallback!A1" xr:uid="{0904367F-BC1E-4C92-90DE-16038FC7E0BD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1434E12F-5B70-4803-B65B-2B403FBB501B}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="LoRa_Send!A1" tooltip="LoRa_Send" display="LoRa_Send!A1" xr:uid="{5FC78CD7-B748-4A47-B253-3FD399254A81}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lora 2019.xlsx
+++ b/Lora 2019.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012299A8-C13B-403B-9396-23044B66564D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00173D3F-1BB2-4C59-89D9-E985025E3065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" activeTab="1" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="46950" windowHeight="19196" activeTab="4" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoRa_Send (2)" sheetId="3" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId2"/>
-    <sheet name="LoRa_Send" sheetId="2" r:id="rId3"/>
-    <sheet name="LoRa_TimerHandshakingCallback" sheetId="5" r:id="rId4"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="LoRa_Send" sheetId="2" r:id="rId2"/>
+    <sheet name="LoRa_TimerHandshakingCallback" sheetId="5" r:id="rId3"/>
+    <sheet name="LoRa_TxDone" sheetId="6" r:id="rId4"/>
+    <sheet name="LoRa_RxDone" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>timer</t>
   </si>
@@ -182,57 +183,18 @@
     <t>bufferLength</t>
   </si>
   <si>
-    <t>loRa.macStatus.macState</t>
-  </si>
-  <si>
     <t>LoRa_Idle</t>
   </si>
   <si>
     <t>LoRa_SelectChannelForTransmission(0, channel)</t>
   </si>
   <si>
-    <t xml:space="preserve"> channel</t>
-  </si>
-  <si>
-    <t>LoRa_SelectChannelForTransmission</t>
-  </si>
-  <si>
-    <t>loRa.LoRa_lastUsedChannelIndex</t>
-  </si>
-  <si>
     <t>loRa.LoRa_receiveChannelParameters.frequency</t>
   </si>
   <si>
-    <t>Channels[0].frequency;</t>
-  </si>
-  <si>
     <t>loRa.LoRa_receiveChannelParameters.dataRate</t>
   </si>
   <si>
-    <t>loRa.LoRa_currentDataRate</t>
-  </si>
-  <si>
-    <t>ConfigureRadioTx</t>
-  </si>
-  <si>
-    <t>loRa.LoRa_ch0_params.LoRa_datarate</t>
-  </si>
-  <si>
-    <t>loRa.LoRa_ch0_params.frequency</t>
-  </si>
-  <si>
-    <t>ConfigureRadio</t>
-  </si>
-  <si>
-    <t>RADIO_SetOutputPower</t>
-  </si>
-  <si>
-    <t>txPower868[]</t>
-  </si>
-  <si>
-    <t>loRa.txPower</t>
-  </si>
-  <si>
     <t>loRa.LoRa_Status</t>
   </si>
   <si>
@@ -279,6 +241,33 @@
   </si>
   <si>
     <t>timeOnAir</t>
+  </si>
+  <si>
+    <t>uint16_t</t>
+  </si>
+  <si>
+    <t>RADIO_ReceiveStop()</t>
+  </si>
+  <si>
+    <t>RADIO_ReleaseData()</t>
+  </si>
+  <si>
+    <t>ConfigureRadioRx</t>
+  </si>
+  <si>
+    <t>RADIO_ReceiveStart</t>
+  </si>
+  <si>
+    <t>LoRa_Send</t>
+  </si>
+  <si>
+    <t>LoRa_Handshaking_TX</t>
+  </si>
+  <si>
+    <t>LoRa_Handshaking_RX</t>
+  </si>
+  <si>
+    <t>LoRa_RxDone</t>
   </si>
 </sst>
 </file>
@@ -304,7 +293,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +318,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -343,15 +338,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -666,117 +663,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ED78F1-4C9F-4AB8-9E14-2B2EE0D47D75}">
-  <dimension ref="B1:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="44.875" customWidth="1"/>
-    <col min="6" max="7" width="36.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13">
-        <f>F11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s">
-        <v>59</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D958A-2A0D-43B7-8BB2-47B52D5DCD06}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -1052,19 +942,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE03AC2E-289E-4D97-9034-CE8D26785EAD}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="5" width="24.5" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1074,6 +964,9 @@
       <c r="B1" t="s">
         <v>45</v>
       </c>
+      <c r="C1" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1085,74 +978,75 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="5" t="str">
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="4" t="str">
         <f>LoRa_TimerHandshakingCallback!C1</f>
         <v>LoRa_TimerHandshakingCallback</v>
       </c>
     </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>80</v>
+      <c r="C22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C21" location="LoRa_TimerHandshakingCallback!A1" display="LoRa_TimerHandshakingCallback!A1" xr:uid="{0904367F-BC1E-4C92-90DE-16038FC7E0BD}"/>
+    <hyperlink ref="C20" location="LoRa_TimerHandshakingCallback!A1" display="LoRa_TimerHandshakingCallback!A1" xr:uid="{0904367F-BC1E-4C92-90DE-16038FC7E0BD}"/>
+    <hyperlink ref="C22" location="LoRa_TxDone!A3" display="LoRa_TxDone" xr:uid="{D9D323DE-C74A-4F6A-BACA-5CD348A26B3A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1434E12F-5B70-4803-B65B-2B403FBB501B}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1160,7 +1054,7 @@
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="5" width="24.5" style="4" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1168,41 +1062,46 @@
         <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>78</v>
+      <c r="A2" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1211,4 +1110,160 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF3C6C-89DA-4ED5-8A10-9B7136017476}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" location="LoRa_Send!C23" display="LoRa_Send" xr:uid="{AFBE9315-D1DE-4BE7-9753-6188152A3683}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF379FA5-3753-49BE-A417-59F503FD2628}">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20"/>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20"/>
+    </row>
+    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+    </row>
+    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Lora 2019.xlsx
+++ b/Lora 2019.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00173D3F-1BB2-4C59-89D9-E985025E3065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4D457B-1262-4041-8355-1833F5021F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="46950" windowHeight="19196" activeTab="4" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
+    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" activeTab="3" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
-    <sheet name="LoRa_Send" sheetId="2" r:id="rId2"/>
-    <sheet name="LoRa_TimerHandshakingCallback" sheetId="5" r:id="rId3"/>
-    <sheet name="LoRa_TxDone" sheetId="6" r:id="rId4"/>
-    <sheet name="LoRa_RxDone" sheetId="7" r:id="rId5"/>
+    <sheet name="function" sheetId="9" r:id="rId1"/>
+    <sheet name="enum" sheetId="8" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId3"/>
+    <sheet name="LoRa_System_Init" sheetId="10" r:id="rId4"/>
+    <sheet name="RADIO_Init" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="171">
   <si>
     <t>timer</t>
   </si>
@@ -171,96 +171,24 @@
     <t>LORAWAN_RxDone</t>
   </si>
   <si>
-    <t>void *</t>
-  </si>
-  <si>
-    <t>buffer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uint8_t </t>
-  </si>
-  <si>
     <t>bufferLength</t>
   </si>
   <si>
     <t>LoRa_Idle</t>
   </si>
   <si>
-    <t>LoRa_SelectChannelForTransmission(0, channel)</t>
-  </si>
-  <si>
-    <t>loRa.LoRa_receiveChannelParameters.frequency</t>
-  </si>
-  <si>
-    <t>loRa.LoRa_receiveChannelParameters.dataRate</t>
-  </si>
-  <si>
-    <t>loRa.LoRa_Status</t>
-  </si>
-  <si>
-    <t>LoRa_Handshaking_start</t>
-  </si>
-  <si>
-    <t>LoRa_AssemblePacket(buffer, bufferLength, channel)</t>
-  </si>
-  <si>
-    <t>RADIO_Transmit(&amp;loRa.LoRa_HeaderBufor, loRa.LoRa_HeaderLength)</t>
-  </si>
-  <si>
-    <t>loRa.LoRa_TimerHandshaking</t>
-  </si>
-  <si>
-    <t>LoRa_Handshaking_timeout</t>
-  </si>
-  <si>
-    <t>param</t>
-  </si>
-  <si>
     <t>LoRa_transmit_Error</t>
   </si>
   <si>
-    <t>RADIO_ReceiveStop();</t>
-  </si>
-  <si>
-    <t>RADIO_ReleaseData();</t>
-  </si>
-  <si>
-    <t>SwTimerStop(loRa.LoRa_TimerHandshaking)</t>
-  </si>
-  <si>
     <t>LoRa_TimerHandshakingCallback</t>
   </si>
   <si>
-    <t>zdarzenia</t>
-  </si>
-  <si>
-    <t>LoRa_Send!A1</t>
-  </si>
-  <si>
     <t>LoRa_TxDone</t>
   </si>
   <si>
-    <t>timeOnAir</t>
-  </si>
-  <si>
     <t>uint16_t</t>
   </si>
   <si>
-    <t>RADIO_ReceiveStop()</t>
-  </si>
-  <si>
-    <t>RADIO_ReleaseData()</t>
-  </si>
-  <si>
-    <t>ConfigureRadioRx</t>
-  </si>
-  <si>
-    <t>RADIO_ReceiveStart</t>
-  </si>
-  <si>
-    <t>LoRa_Send</t>
-  </si>
-  <si>
     <t>LoRa_Handshaking_TX</t>
   </si>
   <si>
@@ -268,6 +196,360 @@
   </si>
   <si>
     <t>LoRa_RxDone</t>
+  </si>
+  <si>
+    <t>uint8_t</t>
+  </si>
+  <si>
+    <t>LoRa_Addres</t>
+  </si>
+  <si>
+    <t>LoRa_TimerHandshaking</t>
+  </si>
+  <si>
+    <t>LoRa_TimerReconnect</t>
+  </si>
+  <si>
+    <t>LoRa_TimerWaitAck</t>
+  </si>
+  <si>
+    <t>LoRa_HeaderBufor</t>
+  </si>
+  <si>
+    <t>LoRa_HeaderLength</t>
+  </si>
+  <si>
+    <t>LoRa_Bufor</t>
+  </si>
+  <si>
+    <t>LoRa_BuforLength</t>
+  </si>
+  <si>
+    <t>LoRa_currentDataRate</t>
+  </si>
+  <si>
+    <t>ReceiveWindowParameters_t</t>
+  </si>
+  <si>
+    <t>LoRa_receiveChannelParameters</t>
+  </si>
+  <si>
+    <t>ChannelParams_t</t>
+  </si>
+  <si>
+    <t>LoRa_ch0_params</t>
+  </si>
+  <si>
+    <t>LoRa_lastUsedChannelIndex</t>
+  </si>
+  <si>
+    <t>LoRaMacState_t</t>
+  </si>
+  <si>
+    <t>LoRa_Status</t>
+  </si>
+  <si>
+    <t>LoRa_SendData_TX</t>
+  </si>
+  <si>
+    <t>LoRa_SendData_RX</t>
+  </si>
+  <si>
+    <t>LoRa_Wait_retrnsmit</t>
+  </si>
+  <si>
+    <t>*buffer</t>
+  </si>
+  <si>
+    <t>bufferLen</t>
+  </si>
+  <si>
+    <t>LoRa_initialised</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>LoRa_System_Init</t>
+  </si>
+  <si>
+    <t>RxData</t>
+  </si>
+  <si>
+    <t>RxAppDataCb_t</t>
+  </si>
+  <si>
+    <t>RxPayload</t>
+  </si>
+  <si>
+    <t>ENABLED</t>
+  </si>
+  <si>
+    <t>rxPayload.RxAppData</t>
+  </si>
+  <si>
+    <t>StopAllSoftwareTimers()</t>
+  </si>
+  <si>
+    <t>&amp;radioBuffer[16]</t>
+  </si>
+  <si>
+    <t>EU868_CALIBRATION_FREQ</t>
+  </si>
+  <si>
+    <t>srand</t>
+  </si>
+  <si>
+    <t>RADIO_ReadRandom()</t>
+  </si>
+  <si>
+    <t>ISM_EU868</t>
+  </si>
+  <si>
+    <t>RadioConfiguration_t</t>
+  </si>
+  <si>
+    <t>LoRa_t</t>
+  </si>
+  <si>
+    <t>frequency;</t>
+  </si>
+  <si>
+    <t>uint32_t</t>
+  </si>
+  <si>
+    <t>frequencyDeviation;</t>
+  </si>
+  <si>
+    <t>bitRate;</t>
+  </si>
+  <si>
+    <t>preambleLen;</t>
+  </si>
+  <si>
+    <t>syncWordLoRa;</t>
+  </si>
+  <si>
+    <t>int8_t</t>
+  </si>
+  <si>
+    <t>RadioErrorCodingRate_t</t>
+  </si>
+  <si>
+    <t>RadioFSKShaping_t</t>
+  </si>
+  <si>
+    <t>RadioFSKBandWidth_t</t>
+  </si>
+  <si>
+    <t>syncWord[8];</t>
+  </si>
+  <si>
+    <t>syncWordLen;</t>
+  </si>
+  <si>
+    <t>modulation;</t>
+  </si>
+  <si>
+    <t>RadioModulation_t</t>
+  </si>
+  <si>
+    <t>dataRate;</t>
+  </si>
+  <si>
+    <t>RadioDataRate_t</t>
+  </si>
+  <si>
+    <t>bandWidth;</t>
+  </si>
+  <si>
+    <t>RadioLoRaBandWidth_t</t>
+  </si>
+  <si>
+    <t>outputPower;</t>
+  </si>
+  <si>
+    <t>crcOn;</t>
+  </si>
+  <si>
+    <t>paBoost;</t>
+  </si>
+  <si>
+    <t>frequencyHopPeriod;</t>
+  </si>
+  <si>
+    <t>iqInverted;</t>
+  </si>
+  <si>
+    <t>errorCodingRate;</t>
+  </si>
+  <si>
+    <t>implicitHeaderMode;</t>
+  </si>
+  <si>
+    <t>flags;</t>
+  </si>
+  <si>
+    <t>dataBufferLen;</t>
+  </si>
+  <si>
+    <t>*dataBuffer;</t>
+  </si>
+  <si>
+    <t>timeOnAirTimerId;</t>
+  </si>
+  <si>
+    <t>fskRxWindowTimerId;</t>
+  </si>
+  <si>
+    <t>watchdogTimerId;</t>
+  </si>
+  <si>
+    <t>watchdogTimerTimeout;</t>
+  </si>
+  <si>
+    <t>initialized;</t>
+  </si>
+  <si>
+    <t>(*fhssNextFrequency)(void);</t>
+  </si>
+  <si>
+    <t>regVersion;</t>
+  </si>
+  <si>
+    <t>packetSNR;</t>
+  </si>
+  <si>
+    <t>fskDataShaping;</t>
+  </si>
+  <si>
+    <t>rxBw;</t>
+  </si>
+  <si>
+    <t>afcBw;</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>LoRaDeviceAddress</t>
+  </si>
+  <si>
+    <t>LoRa_CreateSoftwareTimers()</t>
+  </si>
+  <si>
+    <t>LoRa_SetCallbackSoftwareTimers()</t>
+  </si>
+  <si>
+    <t>LoRa_TimerReconnectCallback</t>
+  </si>
+  <si>
+    <t>LoRa_TimerWaitAckCallback</t>
+  </si>
+  <si>
+    <t>*radioBuffer</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>MODULATION_LORA</t>
+  </si>
+  <si>
+    <t>BW_125KHZ</t>
+  </si>
+  <si>
+    <t>CR_4_5</t>
+  </si>
+  <si>
+    <t>SF_12</t>
+  </si>
+  <si>
+    <t>0xc1 0x94 0xc1</t>
+  </si>
+  <si>
+    <t>0x34</t>
+  </si>
+  <si>
+    <t>WATCHDOG_DEFAULT_TIME</t>
+  </si>
+  <si>
+    <t>FSK_SHAPING_GAUSS_BT_0_5</t>
+  </si>
+  <si>
+    <t>FSKBW_50_0KHZ</t>
+  </si>
+  <si>
+    <t>FSKBW_83_3KHZ</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>RADIO_Reset()</t>
+  </si>
+  <si>
+    <t>RADIO_RegisterRead(REG_VERSION)</t>
+  </si>
+  <si>
+    <t>LoRa_Reset</t>
+  </si>
+  <si>
+    <t>LoRa_syncWord</t>
+  </si>
+  <si>
+    <t>RADIO_SetLoRaSyncWord</t>
+  </si>
+  <si>
+    <t>LoRa_batteryLevel</t>
+  </si>
+  <si>
+    <t>BATTERY_LEVEL_INVALID</t>
+  </si>
+  <si>
+    <t>IsmBand_t</t>
+  </si>
+  <si>
+    <t>LoRa_ismBand</t>
+  </si>
+  <si>
+    <t>LoRa_InitDefault868Channels</t>
+  </si>
+  <si>
+    <t>Channels</t>
+  </si>
+  <si>
+    <t>MAX_EU_SINGLE_BAND_CHANNELS</t>
+  </si>
+  <si>
+    <t>DefaultChannels868[]</t>
+  </si>
+  <si>
+    <t>LoRa_txPower</t>
+  </si>
+  <si>
+    <t>DR0</t>
+  </si>
+  <si>
+    <t>LoRa_minDataRate</t>
+  </si>
+  <si>
+    <t>LoRa_maxDataRate</t>
+  </si>
+  <si>
+    <t>LoRa_UpdateMinMaxChDataRate</t>
+  </si>
+  <si>
+    <t>DR7</t>
+  </si>
+  <si>
+    <t>LoRa_maxChannels</t>
   </si>
 </sst>
 </file>
@@ -293,7 +575,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,19 +590,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,17 +614,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -663,6 +948,613 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAFAB4C-423A-465C-95FD-D669F885255A}">
+  <dimension ref="B1:I46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="G3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E4"/>
+      <c r="G4" t="s">
+        <v>92</v>
+      </c>
+      <c r="H4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="G5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6"/>
+      <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="G7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="G8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="G10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="G11" t="s">
+        <v>106</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="G12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+      <c r="H23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="G26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="G28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="G29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="G30" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="G32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="G33" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D34"/>
+      <c r="E34"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D36"/>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D37"/>
+      <c r="E37"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D38"/>
+      <c r="E38"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D39"/>
+      <c r="E39"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D40"/>
+      <c r="E40"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H43" t="s">
+        <v>73</v>
+      </c>
+      <c r="I43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="enum!B2" display="LoRaMacState_t" xr:uid="{19A5911E-AF85-4CEF-8B92-653D5EBFCAFB}"/>
+    <hyperlink ref="G42" location="LoRa_TxDone!C1" display="LoRa_TxDone" xr:uid="{46EB252B-62AC-42C4-8582-5548B7356A92}"/>
+    <hyperlink ref="G43" location="LoRa_RxDone!C1" display="LoRa_RxDone" xr:uid="{1DD982D5-D71D-41CE-BA26-CBADBFB68FD4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C4FA0C-4642-4A66-8A67-3E077AB5CD63}">
+  <dimension ref="B2:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151D958A-2A0D-43B7-8BB2-47B52D5DCD06}">
   <dimension ref="A1:C54"/>
   <sheetViews>
@@ -942,267 +1834,933 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE03AC2E-289E-4D97-9034-CE8D26785EAD}">
-  <dimension ref="A1:E22"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F6DCA9-7D6E-45B0-BDB1-79B8F2066CB5}">
+  <dimension ref="A1:I65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="5" width="24.5" style="3" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="str">
+        <f>H3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f>enum!C2</f>
+        <v>LoRa_Idle</v>
+      </c>
+      <c r="G3" s="3" t="str">
+        <f>function!B3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>function!C3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f>enum!C2</f>
+        <v>LoRa_Idle</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="G4" t="str">
+        <f>function!B4</f>
+        <v>bool</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>function!C4</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f>function!B5</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H5" t="str">
+        <f>function!C5</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G6" t="str">
+        <f>function!B6</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f>function!C6</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="G7" t="str">
+        <f>function!B7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f>function!C7</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="G8" t="str">
+        <f>function!B8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f>function!C8</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" t="str">
+        <f>function!B9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" t="str">
+        <f>function!C9</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I9" s="2">
+        <f>function!D9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="str">
+        <f>function!B10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" t="str">
+        <f>function!C10</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I10" s="2">
+        <f>function!D10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="str">
+        <f>function!B11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" t="str">
+        <f>function!C11</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I11" s="2">
+        <f>function!D11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="4" t="str">
-        <f>LoRa_TimerHandshakingCallback!C1</f>
-        <v>LoRa_TimerHandshakingCallback</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>67</v>
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" t="str">
+        <f>function!B12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" t="str">
+        <f>function!C12</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I12" s="2">
+        <f>function!D12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13">
+        <f>function!B13</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>function!C13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <f>function!D13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" t="str">
+        <f>function!B14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" t="str">
+        <f>function!C14</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" t="str">
+        <f>function!B15</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H15" t="str">
+        <f>function!C15</f>
+        <v>LoRa_receiveChannelParameters</v>
+      </c>
+      <c r="I15" s="2">
+        <f>function!D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>H19</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="G16" t="str">
+        <f>function!B16</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H16" t="str">
+        <f>function!C16</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I16" s="2">
+        <f>function!D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C17" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="G17" t="str">
+        <f>function!B17</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H17" t="str">
+        <f>function!C17</f>
+        <v>LoRa_ch0_params</v>
+      </c>
+      <c r="I17" s="2">
+        <f>function!D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="G18" t="str">
+        <f>function!B18</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H18" t="str">
+        <f>function!C18</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="8"/>
+      <c r="G19" t="str">
+        <f>function!B19</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H19" t="str">
+        <f>function!C19</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="8"/>
+      <c r="G20" t="str">
+        <f>function!B20</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H20" t="str">
+        <f>function!C20</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+      <c r="D21" s="8"/>
+      <c r="G21" t="str">
+        <f>function!B21</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H21" t="str">
+        <f>function!C21</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I21" s="6" t="str">
+        <f>D14</f>
+        <v>ISM_EU868</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="8"/>
+      <c r="G22" t="str">
+        <f>function!B22</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H22" t="str">
+        <f>function!C22</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+      <c r="D23" s="8"/>
+      <c r="G23" t="str">
+        <f>function!B23</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H23" t="str">
+        <f>function!C23</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="8"/>
+      <c r="G24" t="str">
+        <f>function!B24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" t="str">
+        <f>function!C24</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
+      <c r="D25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+      <c r="D27" s="8"/>
+      <c r="G27" t="str">
+        <f>function!C42</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H27" t="str">
+        <f>function!G42</f>
+        <v>LoRa_TxDone</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+      <c r="G28" t="str">
+        <f>function!C43</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H28" t="str">
+        <f>function!G43</f>
+        <v>LoRa_RxDone</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
+      <c r="G29">
+        <f>function!C44</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>function!G44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+      <c r="G30">
+        <f>function!C45</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>function!G45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="G31" t="str">
+        <f>function!G3</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H31" t="str">
+        <f>function!H3</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f>RADIO_Init!I31</f>
+        <v>EU868_CALIBRATION_FREQ</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="G32" t="str">
+        <f>function!G4</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H32" t="str">
+        <f>function!H4</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I32" s="6">
+        <f>RADIO_Init!I32</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="G33" t="str">
+        <f>function!G5</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H33" t="str">
+        <f>function!H5</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I33" s="6">
+        <f>RADIO_Init!I33</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="8"/>
+      <c r="G34" t="str">
+        <f>function!G6</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H34" t="str">
+        <f>function!H6</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I34" s="6">
+        <f>RADIO_Init!I34</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="G35" t="str">
+        <f>function!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H35" t="str">
+        <f>function!H7</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I35" s="6" t="str">
+        <f>RADIO_Init!I35</f>
+        <v>0x34</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <f>function!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H36" t="str">
+        <f>function!H8</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I36" s="6" t="str">
+        <f>RADIO_Init!I36</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G37" t="str">
+        <f>function!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H37" t="str">
+        <f>function!H9</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I37" s="6">
+        <f>RADIO_Init!I37</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
+        <f>function!G10</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H38" t="str">
+        <f>function!H10</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I38" s="6" t="str">
+        <f>RADIO_Init!I38</f>
+        <v>MODULATION_LORA</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
+        <f>function!G11</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H39" t="str">
+        <f>function!H11</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I39" s="6" t="str">
+        <f>RADIO_Init!I39</f>
+        <v>SF_12</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
+        <f>function!G12</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H40" t="str">
+        <f>function!H12</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I40" s="6" t="str">
+        <f>RADIO_Init!I40</f>
+        <v>BW_125KHZ</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
+        <f>function!G13</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H41" t="str">
+        <f>function!H13</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I41" s="6">
+        <f>RADIO_Init!I41</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
+        <f>function!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H42" t="str">
+        <f>function!H14</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I42" s="6">
+        <f>RADIO_Init!I42</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
+        <f>function!G15</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H43" t="str">
+        <f>function!H15</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I43" s="6" t="str">
+        <f>RADIO_Init!I43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
+        <f>function!G16</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H44" t="str">
+        <f>function!H16</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I44" s="6" t="str">
+        <f>RADIO_Init!I44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G45" t="str">
+        <f>function!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" t="str">
+        <f>function!H17</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I45" s="6" t="str">
+        <f>RADIO_Init!I45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G46" t="str">
+        <f>function!G18</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H46" t="str">
+        <f>function!H18</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I46" s="6" t="str">
+        <f>RADIO_Init!I46</f>
+        <v>CR_4_5</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
+        <f>function!G19</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" t="str">
+        <f>function!H19</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I47" s="6" t="str">
+        <f>RADIO_Init!I47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G48" t="str">
+        <f>function!G20</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H48" t="str">
+        <f>function!H20</f>
+        <v>flags;</v>
+      </c>
+      <c r="I48" s="6" t="str">
+        <f>RADIO_Init!I48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G49" t="str">
+        <f>function!G21</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" t="str">
+        <f>function!H21</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I49" s="6" t="str">
+        <f>RADIO_Init!I49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G50" t="str">
+        <f>function!G22</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H50" t="str">
+        <f>function!H22</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I50" s="6" t="str">
+        <f>RADIO_Init!I50</f>
+        <v>&amp;radioBuffer[16]</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G51" t="str">
+        <f>function!G23</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f>function!H23</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G52" t="str">
+        <f>function!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f>function!H24</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f>RADIO_Init!I52</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G53" t="str">
+        <f>function!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f>function!H25</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I53" s="6" t="str">
+        <f>RADIO_Init!I53</f>
+        <v>RADIO_WatchdogTimeout</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G54" t="str">
+        <f>function!G26</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H54" t="str">
+        <f>function!H26</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I54" s="6" t="str">
+        <f>RADIO_Init!I54</f>
+        <v>WATCHDOG_DEFAULT_TIME</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G55" t="str">
+        <f>function!G27</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" t="str">
+        <f>function!H27</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I55" s="6">
+        <f>RADIO_Init!I55</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G56" t="str">
+        <f>function!G28</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H56" t="str">
+        <f>function!H28</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I56" s="6" t="str">
+        <f>RADIO_Init!I56</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G57" t="str">
+        <f>function!G29</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" t="str">
+        <f>function!H29</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I57" s="6" t="str">
+        <f>RADIO_Init!I57</f>
+        <v>RADIO_RegisterRead(REG_VERSION)</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
+        <f>function!G30</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H58" t="str">
+        <f>function!H30</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I58" s="6">
+        <f>RADIO_Init!I58</f>
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G59" t="str">
+        <f>function!G31</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H59" t="str">
+        <f>function!H31</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I59" s="6" t="str">
+        <f>RADIO_Init!I59</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G60" t="str">
+        <f>function!G32</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H60" t="str">
+        <f>function!H32</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I60" s="6" t="str">
+        <f>RADIO_Init!I60</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G61" t="str">
+        <f>function!G33</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H61" t="str">
+        <f>function!H33</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I61" s="6" t="str">
+        <f>RADIO_Init!I61</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <f>function!G34</f>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f>function!H34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65" t="str">
+        <f>function!B35</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H65" t="str">
+        <f>function!C35</f>
+        <v>Channels</v>
+      </c>
+      <c r="I65" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C20" location="LoRa_TimerHandshakingCallback!A1" display="LoRa_TimerHandshakingCallback!A1" xr:uid="{0904367F-BC1E-4C92-90DE-16038FC7E0BD}"/>
-    <hyperlink ref="C22" location="LoRa_TxDone!A3" display="LoRa_TxDone" xr:uid="{D9D323DE-C74A-4F6A-BACA-5CD348A26B3A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1434E12F-5B70-4803-B65B-2B403FBB501B}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="5" width="24.5" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" location="LoRa_Send!A1" tooltip="LoRa_Send" display="LoRa_Send!A1" xr:uid="{5FC78CD7-B748-4A47-B253-3FD399254A81}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9DF3C6C-89DA-4ED5-8A10-9B7136017476}">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="5" width="24.5" style="3" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" location="LoRa_Send!C23" display="LoRa_Send" xr:uid="{AFBE9315-D1DE-4BE7-9753-6188152A3683}"/>
+    <hyperlink ref="G3" location="enum!B2" display="enum!B2" xr:uid="{43750E06-A068-4752-8CD3-DDBA5A294391}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1210,59 +2768,979 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF379FA5-3753-49BE-A417-59F503FD2628}">
-  <dimension ref="A1:E22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431943CF-4535-430E-91CA-849C5AAFF0D0}">
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showZeros="0" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.25" customWidth="1"/>
     <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="5" width="24.5" style="3" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="27.5" customWidth="1"/>
+    <col min="9" max="9" width="27" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="3"/>
-      <c r="C1" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="C3" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C16" s="7"/>
-    </row>
-    <row r="20" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20"/>
-    </row>
-    <row r="21" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-    </row>
-    <row r="22" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="5" t="str">
+        <f>LoRa_System_Init!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>LoRa_System_Init!H3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f>LoRa_System_Init!I3</f>
+        <v>LoRa_Idle</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="5" t="str">
+        <f>LoRa_System_Init!G4</f>
+        <v>bool</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>LoRa_System_Init!H4</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>LoRa_System_Init!I4</f>
+        <v>ENABLED</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="str">
+        <f>LoRa_System_Init!G5</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>LoRa_System_Init!H5</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>LoRa_System_Init!I5</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="str">
+        <f>LoRa_System_Init!G6</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>LoRa_System_Init!H6</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f>LoRa_System_Init!I6</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="str">
+        <f>LoRa_System_Init!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>LoRa_System_Init!H7</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>LoRa_System_Init!I7</f>
+        <v>LoRa_TimerReconnectCallback</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="str">
+        <f>LoRa_System_Init!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f>LoRa_System_Init!H8</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f>LoRa_System_Init!I8</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="str">
+        <f>LoRa_System_Init!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>LoRa_System_Init!H9</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I9" s="8">
+        <f>LoRa_System_Init!I9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="str">
+        <f>LoRa_System_Init!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>LoRa_System_Init!H10</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I10" s="8">
+        <f>LoRa_System_Init!I10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="str">
+        <f>LoRa_System_Init!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>LoRa_System_Init!H11</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I11" s="8">
+        <f>LoRa_System_Init!I11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="str">
+        <f>LoRa_System_Init!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>LoRa_System_Init!H12</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I12" s="8">
+        <f>LoRa_System_Init!I12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G13" s="5">
+        <f>LoRa_System_Init!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <f>LoRa_System_Init!H13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <f>LoRa_System_Init!I13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="5" t="str">
+        <f>LoRa_System_Init!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>LoRa_System_Init!H14</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>LoRa_System_Init!I14</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="str">
+        <f>LoRa_System_Init!G15</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>LoRa_System_Init!H15</f>
+        <v>LoRa_receiveChannelParameters</v>
+      </c>
+      <c r="I15" s="8">
+        <f>LoRa_System_Init!I15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" s="5" t="str">
+        <f>LoRa_System_Init!G16</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>LoRa_System_Init!H16</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I16" s="8">
+        <f>LoRa_System_Init!I16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="str">
+        <f>LoRa_System_Init!G17</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>LoRa_System_Init!H17</f>
+        <v>LoRa_ch0_params</v>
+      </c>
+      <c r="I17" s="8">
+        <f>LoRa_System_Init!I17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C18" s="5"/>
+      <c r="D18" s="8"/>
+      <c r="G18" s="5" t="str">
+        <f>LoRa_System_Init!G18</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>LoRa_System_Init!H18</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I18" s="8">
+        <f>LoRa_System_Init!I18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="8"/>
+      <c r="G19" s="5" t="str">
+        <f>LoRa_System_Init!G19</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>LoRa_System_Init!H19</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>LoRa_System_Init!I19</f>
+        <v>0x34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="8"/>
+      <c r="G20" s="5" t="str">
+        <f>LoRa_System_Init!G20</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>LoRa_System_Init!H20</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I20" s="8" t="str">
+        <f>LoRa_System_Init!I20</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+      <c r="D21" s="8"/>
+      <c r="G21" s="5" t="str">
+        <f>LoRa_System_Init!G21</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>LoRa_System_Init!H21</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>LoRa_System_Init!I21</f>
+        <v>ISM_EU868</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="8"/>
+      <c r="G22" s="5" t="str">
+        <f>LoRa_System_Init!G22</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>LoRa_System_Init!H22</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>LoRa_System_Init!I22</f>
+        <v>DR0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C23" s="5"/>
+      <c r="D23" s="8"/>
+      <c r="G23" s="5" t="str">
+        <f>LoRa_System_Init!G23</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>LoRa_System_Init!H23</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>LoRa_System_Init!I23</f>
+        <v>DR0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C24" s="5"/>
+      <c r="D24" s="8"/>
+      <c r="G24" s="5" t="str">
+        <f>LoRa_System_Init!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>LoRa_System_Init!H24</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>LoRa_System_Init!I24</f>
+        <v>DR7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C25" s="5"/>
+      <c r="D25" s="8"/>
+      <c r="G25" s="5">
+        <f>LoRa_System_Init!G25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <f>LoRa_System_Init!H25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <f>LoRa_System_Init!I25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+      <c r="D26" s="8"/>
+      <c r="G26" s="5">
+        <f>LoRa_System_Init!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <f>LoRa_System_Init!H26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <f>LoRa_System_Init!I26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+      <c r="D27" s="8"/>
+      <c r="G27" s="5" t="str">
+        <f>LoRa_System_Init!G27</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f>LoRa_System_Init!H27</f>
+        <v>LoRa_TxDone</v>
+      </c>
+      <c r="I27" s="8">
+        <f>LoRa_System_Init!I27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C28" s="5"/>
+      <c r="D28" s="8"/>
+      <c r="G28" s="5" t="str">
+        <f>LoRa_System_Init!G28</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f>LoRa_System_Init!H28</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="I28" s="8">
+        <f>LoRa_System_Init!I28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C29" s="5"/>
+      <c r="D29" s="8"/>
+      <c r="G29" s="5">
+        <f>LoRa_System_Init!G29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <f>LoRa_System_Init!H29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="8">
+        <f>LoRa_System_Init!I29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="8"/>
+      <c r="G30" s="5">
+        <f>LoRa_System_Init!G30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <f>LoRa_System_Init!H30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="8">
+        <f>LoRa_System_Init!I30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="G31" s="5" t="str">
+        <f>LoRa_System_Init!G31</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f>LoRa_System_Init!H31</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I31" s="6" t="str">
+        <f>E1</f>
+        <v>EU868_CALIBRATION_FREQ</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="8"/>
+      <c r="G32" s="5" t="str">
+        <f>LoRa_System_Init!G32</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f>LoRa_System_Init!H32</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I32" s="6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="G33" s="5" t="str">
+        <f>LoRa_System_Init!G33</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>LoRa_System_Init!H33</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I33" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C34" s="5"/>
+      <c r="D34" s="8"/>
+      <c r="G34" s="5" t="str">
+        <f>LoRa_System_Init!G34</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>LoRa_System_Init!H34</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I34" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C35" s="5"/>
+      <c r="D35" s="8"/>
+      <c r="G35" s="5" t="str">
+        <f>LoRa_System_Init!G35</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>LoRa_System_Init!H35</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="str">
+        <f>LoRa_System_Init!G36</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>LoRa_System_Init!H36</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I36" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="str">
+        <f>LoRa_System_Init!G37</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f>LoRa_System_Init!H37</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I37" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="str">
+        <f>LoRa_System_Init!G38</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f>LoRa_System_Init!H38</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="str">
+        <f>LoRa_System_Init!G39</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f>LoRa_System_Init!H39</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="str">
+        <f>LoRa_System_Init!G40</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f>LoRa_System_Init!H40</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="str">
+        <f>LoRa_System_Init!G41</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>LoRa_System_Init!H41</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I41" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="str">
+        <f>LoRa_System_Init!G42</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f>LoRa_System_Init!H42</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I42" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="str">
+        <f>LoRa_System_Init!G43</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f>LoRa_System_Init!H43</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="str">
+        <f>LoRa_System_Init!G44</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f>LoRa_System_Init!H44</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="str">
+        <f>LoRa_System_Init!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f>LoRa_System_Init!H45</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="str">
+        <f>LoRa_System_Init!G46</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f>LoRa_System_Init!H46</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="str">
+        <f>LoRa_System_Init!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f>LoRa_System_Init!H47</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="str">
+        <f>LoRa_System_Init!G48</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f>LoRa_System_Init!H48</f>
+        <v>flags;</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="str">
+        <f>LoRa_System_Init!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f>LoRa_System_Init!H49</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="str">
+        <f>LoRa_System_Init!G50</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f>LoRa_System_Init!H50</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I50" s="6" t="str">
+        <f>D1</f>
+        <v>&amp;radioBuffer[16]</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="str">
+        <f>LoRa_System_Init!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" s="1" t="str">
+        <f>LoRa_System_Init!H51</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I51" s="8">
+        <f>LoRa_System_Init!I51</f>
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="str">
+        <f>LoRa_System_Init!G52</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" s="1" t="str">
+        <f>LoRa_System_Init!H52</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="str">
+        <f>LoRa_System_Init!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f>LoRa_System_Init!H53</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="str">
+        <f>LoRa_System_Init!G54</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f>LoRa_System_Init!H54</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="str">
+        <f>LoRa_System_Init!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>LoRa_System_Init!H55</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I55" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="str">
+        <f>LoRa_System_Init!G56</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f>LoRa_System_Init!H56</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="str">
+        <f>LoRa_System_Init!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f>LoRa_System_Init!H57</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="str">
+        <f>LoRa_System_Init!G58</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f>LoRa_System_Init!H58</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I58" s="6">
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="str">
+        <f>LoRa_System_Init!G59</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f>LoRa_System_Init!H59</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="str">
+        <f>LoRa_System_Init!G60</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f>LoRa_System_Init!H60</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="str">
+        <f>LoRa_System_Init!G61</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f>LoRa_System_Init!H61</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="5">
+        <f>LoRa_System_Init!G62</f>
+        <v>0</v>
+      </c>
+      <c r="H62" s="5">
+        <f>LoRa_System_Init!H62</f>
+        <v>0</v>
+      </c>
+      <c r="I62" s="8">
+        <f>LoRa_System_Init!I62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="5">
+        <f>LoRa_System_Init!G63</f>
+        <v>0</v>
+      </c>
+      <c r="H63" s="5">
+        <f>LoRa_System_Init!H63</f>
+        <v>0</v>
+      </c>
+      <c r="I63" s="8">
+        <f>LoRa_System_Init!I63</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" location="enum!B2" display="enum!B2" xr:uid="{E03095DA-6C38-4785-A550-03FAE675C4B8}"/>
+    <hyperlink ref="G4" location="enum!B2" display="enum!B2" xr:uid="{50FB957F-9AF2-4193-98A2-E9EBD959B70F}"/>
+    <hyperlink ref="G5" location="enum!B2" display="enum!B2" xr:uid="{FDD4FF89-0E32-4EBF-8064-C7885DF018E3}"/>
+    <hyperlink ref="G6" location="enum!B2" display="enum!B2" xr:uid="{7A378F0B-5528-4626-88C4-3042D450114C}"/>
+    <hyperlink ref="G7" location="enum!B2" display="enum!B2" xr:uid="{8681EA71-5809-4021-960E-3537CEAC5900}"/>
+    <hyperlink ref="G8" location="enum!B2" display="enum!B2" xr:uid="{641ACB32-41AC-4ECA-9FC5-E7F5D12B70FC}"/>
+    <hyperlink ref="G9" location="enum!B2" display="enum!B2" xr:uid="{CE435480-4A2C-4320-B61E-655F979B4471}"/>
+    <hyperlink ref="G10" location="enum!B2" display="enum!B2" xr:uid="{2E16E8F1-B224-4F30-AC93-12F01DEC955D}"/>
+    <hyperlink ref="G11" location="enum!B2" display="enum!B2" xr:uid="{27104EAA-E669-4B0C-84E3-0BBF63ED77B2}"/>
+    <hyperlink ref="G12" location="enum!B2" display="enum!B2" xr:uid="{57E8C038-B59C-4317-AC91-6A7A9570F48A}"/>
+    <hyperlink ref="G13" location="enum!B2" display="enum!B2" xr:uid="{425E5FA2-BBB1-4779-86F5-4EAAACFF0A6D}"/>
+    <hyperlink ref="G14" location="enum!B2" display="enum!B2" xr:uid="{5AD7F062-C66D-415F-89CC-A0FBFB393DAC}"/>
+    <hyperlink ref="G27" location="enum!B2" display="enum!B2" xr:uid="{B8278220-5509-45A9-8268-2D513406C700}"/>
+    <hyperlink ref="G28" location="enum!B2" display="enum!B2" xr:uid="{F9BBFE8D-F574-48CC-80AB-2F3B649F275C}"/>
+    <hyperlink ref="G29" location="enum!B2" display="enum!B2" xr:uid="{361A6AD5-4270-49E4-892B-53E02F62405E}"/>
+    <hyperlink ref="G30" location="enum!B2" display="enum!B2" xr:uid="{8A7DE7DD-2994-4B8A-90B7-F6A911DBD168}"/>
+    <hyperlink ref="G31" location="enum!B2" display="enum!B2" xr:uid="{4F8D19F8-411D-4C38-B424-FD03DBE305F3}"/>
+    <hyperlink ref="G32" location="enum!B2" display="enum!B2" xr:uid="{E8A8A343-0230-496A-965B-484554B70DD9}"/>
+    <hyperlink ref="G33" location="enum!B2" display="enum!B2" xr:uid="{2A6EE534-5605-4E4A-8B25-622B609C07F7}"/>
+    <hyperlink ref="G34" location="enum!B2" display="enum!B2" xr:uid="{646E70E0-469C-4268-A7FF-09207B8F6AC7}"/>
+    <hyperlink ref="G35" location="enum!B2" display="enum!B2" xr:uid="{DA5439A6-FDAD-4DB4-86AD-7162AF8007FE}"/>
+    <hyperlink ref="G36" location="enum!B2" display="enum!B2" xr:uid="{8CAABEC6-31F0-408A-A388-3E4E30A8ADD5}"/>
+    <hyperlink ref="G37" location="enum!B2" display="enum!B2" xr:uid="{97FE5DD7-AA9E-4C2B-90C1-C5A3C15B3724}"/>
+    <hyperlink ref="G38" location="enum!B2" display="enum!B2" xr:uid="{2DE2D02C-8381-49F7-8C21-F4492D303854}"/>
+    <hyperlink ref="G39" location="enum!B2" display="enum!B2" xr:uid="{73E06DF2-5C32-45B6-B2C0-0E63E1025901}"/>
+    <hyperlink ref="G40" location="enum!B2" display="enum!B2" xr:uid="{14B25C1F-03B0-4F28-A8EF-48CAA90F1BD5}"/>
+    <hyperlink ref="G41" location="enum!B2" display="enum!B2" xr:uid="{F52BF964-148D-4A46-98A8-5FF5A7E3615B}"/>
+    <hyperlink ref="G42" location="enum!B2" display="enum!B2" xr:uid="{BE733531-4E08-43B5-B8BD-0DC22DC09137}"/>
+    <hyperlink ref="G43" location="enum!B2" display="enum!B2" xr:uid="{058CA484-1761-4BAB-A9C4-3DD2D2F4784C}"/>
+    <hyperlink ref="G44" location="enum!B2" display="enum!B2" xr:uid="{AED9DEBF-3DEA-47FB-BB6E-0D7C9AFCB901}"/>
+    <hyperlink ref="G45" location="enum!B2" display="enum!B2" xr:uid="{52F8C632-4A0C-475A-B692-4856F520BBB8}"/>
+    <hyperlink ref="G46" location="enum!B2" display="enum!B2" xr:uid="{33CB8282-9F67-47F4-90FD-A6F50DBF7EA0}"/>
+    <hyperlink ref="G47" location="enum!B2" display="enum!B2" xr:uid="{9539A6E8-C972-417B-A1AE-A7BD49ADEEB6}"/>
+    <hyperlink ref="G48" location="enum!B2" display="enum!B2" xr:uid="{D6B58876-FE5D-4382-B4F5-CF39F2DD8E06}"/>
+    <hyperlink ref="G49" location="enum!B2" display="enum!B2" xr:uid="{ACAEAE6E-06C4-4A5C-9049-3EAF22F951CF}"/>
+    <hyperlink ref="G50" location="enum!B2" display="enum!B2" xr:uid="{7AA2BAEB-A2EE-4CD5-AE96-2D76B29D8440}"/>
+    <hyperlink ref="G51" location="enum!B2" display="enum!B2" xr:uid="{93F3E4A5-9F7C-4C1D-B464-34FF47568093}"/>
+    <hyperlink ref="G52" location="enum!B2" display="enum!B2" xr:uid="{2CA2CE6E-ECCD-4932-913A-6C3070C61E45}"/>
+    <hyperlink ref="G53" location="enum!B2" display="enum!B2" xr:uid="{2B876B5D-B2FF-4B00-A72D-E9165E99DF3C}"/>
+    <hyperlink ref="G54" location="enum!B2" display="enum!B2" xr:uid="{BFE353F9-0F6E-4C2C-998E-429DA1024B47}"/>
+    <hyperlink ref="G55" location="enum!B2" display="enum!B2" xr:uid="{F9ECC802-11C8-4DE9-82AA-AF0EDB6C3DE6}"/>
+    <hyperlink ref="G56" location="enum!B2" display="enum!B2" xr:uid="{C8B9B7DE-2571-407C-AE22-0E387D2C7E4E}"/>
+    <hyperlink ref="G57" location="enum!B2" display="enum!B2" xr:uid="{C9687D48-D4B1-499F-80D4-2066712E4C4D}"/>
+    <hyperlink ref="G58" location="enum!B2" display="enum!B2" xr:uid="{5E81F543-4F96-41EB-A177-372B3C87C47E}"/>
+    <hyperlink ref="G59" location="enum!B2" display="enum!B2" xr:uid="{CB80BAD5-379B-4BB5-B85C-05074F8CD7EA}"/>
+    <hyperlink ref="G60" location="enum!B2" display="enum!B2" xr:uid="{4E115D1C-665B-4027-AA92-4B9422ADA91E}"/>
+    <hyperlink ref="G61" location="enum!B2" display="enum!B2" xr:uid="{9162F7FC-55C6-43A5-8E36-9066C9DF0AF6}"/>
+    <hyperlink ref="G62" location="enum!B2" display="enum!B2" xr:uid="{1155B14A-907E-4288-B705-8879EC0172DC}"/>
+    <hyperlink ref="G63" location="enum!B2" display="enum!B2" xr:uid="{E4C9D445-E35E-4F34-BB5C-CC968839CC80}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Lora 2019.xlsx
+++ b/Lora 2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4D457B-1262-4041-8355-1833F5021F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB9C642-F232-4497-AF8E-1A4D38906B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" activeTab="3" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
+    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" activeTab="5" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
   <sheets>
     <sheet name="function" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Arkusz1" sheetId="1" r:id="rId3"/>
     <sheet name="LoRa_System_Init" sheetId="10" r:id="rId4"/>
     <sheet name="RADIO_Init" sheetId="11" r:id="rId5"/>
+    <sheet name="LoRa_Send" sheetId="13" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="208">
   <si>
     <t>timer</t>
   </si>
@@ -171,24 +172,36 @@
     <t>LORAWAN_RxDone</t>
   </si>
   <si>
+    <t>buffer</t>
+  </si>
+  <si>
     <t>bufferLength</t>
   </si>
   <si>
     <t>LoRa_Idle</t>
   </si>
   <si>
+    <t>LoRa_Handshaking_timeout</t>
+  </si>
+  <si>
     <t>LoRa_transmit_Error</t>
   </si>
   <si>
     <t>LoRa_TimerHandshakingCallback</t>
   </si>
   <si>
+    <t>zdarzenia</t>
+  </si>
+  <si>
     <t>LoRa_TxDone</t>
   </si>
   <si>
     <t>uint16_t</t>
   </si>
   <si>
+    <t>LoRa_Send</t>
+  </si>
+  <si>
     <t>LoRa_Handshaking_TX</t>
   </si>
   <si>
@@ -231,15 +244,9 @@
     <t>ReceiveWindowParameters_t</t>
   </si>
   <si>
-    <t>LoRa_receiveChannelParameters</t>
-  </si>
-  <si>
     <t>ChannelParams_t</t>
   </si>
   <si>
-    <t>LoRa_ch0_params</t>
-  </si>
-  <si>
     <t>LoRa_lastUsedChannelIndex</t>
   </si>
   <si>
@@ -550,6 +557,111 @@
   </si>
   <si>
     <t>LoRa_maxChannels</t>
+  </si>
+  <si>
+    <t>bufor</t>
+  </si>
+  <si>
+    <t>sizeof(bufor)</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+  <si>
+    <t>maxPayloadSize[]</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>LoRa_GetMaxPayloadSize</t>
+  </si>
+  <si>
+    <t>LoRa_SelectChannelForTransmission</t>
+  </si>
+  <si>
+    <t>CH_nr</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>LoRa_receiveChannelParameters.frequency</t>
+  </si>
+  <si>
+    <t>LoRa_receiveChannelParameters.dataRate</t>
+  </si>
+  <si>
+    <t>Channels[CH_nr].frequency</t>
+  </si>
+  <si>
+    <t>LoRa_ch0_params.frequency</t>
+  </si>
+  <si>
+    <t>LoRa_ch0_params.datarate</t>
+  </si>
+  <si>
+    <t>LoRa_CH0_frequency</t>
+  </si>
+  <si>
+    <t>LoRa_CH0_datarate</t>
+  </si>
+  <si>
+    <t>ConfigureRadioTx</t>
+  </si>
+  <si>
+    <t>dataRate</t>
+  </si>
+  <si>
+    <t>modulation[]</t>
+  </si>
+  <si>
+    <t>DISABLED</t>
+  </si>
+  <si>
+    <t>modulation[dataRate]</t>
+  </si>
+  <si>
+    <t>freq</t>
+  </si>
+  <si>
+    <t>spreadingFactor[]</t>
+  </si>
+  <si>
+    <t>spreadingFactor[dataRate]</t>
+  </si>
+  <si>
+    <t>bandwidth[dataRate]</t>
+  </si>
+  <si>
+    <t>bandwidth[]</t>
+  </si>
+  <si>
+    <t>txPower868[]</t>
+  </si>
+  <si>
+    <t>txPower868[LoRa_txPower]</t>
+  </si>
+  <si>
+    <t>LoRa_AssemblePacket</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>LoRa_Addres, nxt_channel</t>
+  </si>
+  <si>
+    <t>bufferHeadIndex</t>
+  </si>
+  <si>
+    <t>bufferIndex</t>
+  </si>
+  <si>
+    <t>bufferIndex, nxt_channel, data, CRC</t>
+  </si>
+  <si>
+    <t>watchdogTimerTimeout</t>
   </si>
 </sst>
 </file>
@@ -575,7 +687,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -600,6 +712,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -614,7 +738,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -634,6 +758,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
@@ -949,10 +1081,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAFAB4C-423A-465C-95FD-D669F885255A}">
-  <dimension ref="B1:I46"/>
+  <dimension ref="B1:I49"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -970,418 +1102,418 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E4"/>
       <c r="G4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6"/>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="G7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="G10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="G12" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D13"/>
       <c r="E13"/>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
-      <c r="G16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="G17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="H18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
       <c r="C19" t="s">
-        <v>154</v>
+        <v>186</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>158</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>158</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="G23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="G24" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>168</v>
+      </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>169</v>
+      </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="G26" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D27"/>
       <c r="E27"/>
       <c r="G27" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28"/>
       <c r="E28"/>
       <c r="G28" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="H28" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29"/>
       <c r="E29"/>
       <c r="G29" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D30"/>
       <c r="E30"/>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -1391,43 +1523,41 @@
         <v>99</v>
       </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D32"/>
       <c r="E32"/>
       <c r="G32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H32" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D33"/>
       <c r="E33"/>
       <c r="G33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D34"/>
       <c r="E34"/>
+      <c r="G34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" t="s">
-        <v>162</v>
-      </c>
+      <c r="D35"/>
       <c r="E35"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
@@ -1435,62 +1565,112 @@
       <c r="E36"/>
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
       <c r="D37"/>
       <c r="E37"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D38"/>
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" t="s">
+        <v>164</v>
+      </c>
       <c r="E38"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>191</v>
+      </c>
       <c r="D39"/>
       <c r="E39"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" t="s">
+        <v>195</v>
+      </c>
       <c r="D40"/>
       <c r="E40"/>
     </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+    </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
       <c r="C42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D43"/>
+      <c r="E43"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H43" t="s">
-        <v>73</v>
-      </c>
-      <c r="I43" t="s">
-        <v>44</v>
+      <c r="D45" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="G46" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H46" t="s">
+        <v>75</v>
+      </c>
+      <c r="I46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G49" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" location="enum!B2" display="LoRaMacState_t" xr:uid="{19A5911E-AF85-4CEF-8B92-653D5EBFCAFB}"/>
-    <hyperlink ref="G42" location="LoRa_TxDone!C1" display="LoRa_TxDone" xr:uid="{46EB252B-62AC-42C4-8582-5548B7356A92}"/>
-    <hyperlink ref="G43" location="LoRa_RxDone!C1" display="LoRa_RxDone" xr:uid="{1DD982D5-D71D-41CE-BA26-CBADBFB68FD4}"/>
+    <hyperlink ref="G45" location="LoRa_TxDone!C1" display="LoRa_TxDone" xr:uid="{46EB252B-62AC-42C4-8582-5548B7356A92}"/>
+    <hyperlink ref="G46" location="LoRa_RxDone!C1" display="LoRa_RxDone" xr:uid="{1DD982D5-D71D-41CE-BA26-CBADBFB68FD4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1513,40 +1693,40 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1836,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F6DCA9-7D6E-45B0-BDB1-79B8F2066CB5}">
-  <dimension ref="A1:I65"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showZeros="0" topLeftCell="F22" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1850,26 +2030,27 @@
     <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="27.5" customWidth="1"/>
     <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="str">
         <f>H3</f>
         <v>LoRa_Status</v>
@@ -1891,7 +2072,7 @@
         <v>LoRa_Idle</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="5"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -1904,10 +2085,10 @@
         <v>LoRa_initialised</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G5" t="str">
         <f>function!B5</f>
         <v>uint8_t</v>
@@ -1917,12 +2098,12 @@
         <v>LoRa_Addres</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G6" t="str">
         <f>function!B6</f>
@@ -1932,13 +2113,16 @@
         <f>function!C6</f>
         <v>LoRa_TimerHandshaking</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G7" t="str">
         <f>function!B7</f>
@@ -1948,13 +2132,16 @@
         <f>function!C7</f>
         <v>LoRa_TimerReconnect</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G8" t="str">
         <f>function!B8</f>
@@ -1964,11 +2151,14 @@
         <f>function!C8</f>
         <v>LoRa_TimerWaitAck</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G9" t="str">
         <f>function!B9</f>
         <v>uint8_t</v>
@@ -1982,12 +2172,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10" t="str">
         <f>function!B10</f>
@@ -2002,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11" t="str">
         <f>function!B11</f>
         <v>uint8_t</v>
@@ -2016,15 +2206,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G12" t="str">
         <f>function!B12</f>
@@ -2039,12 +2229,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G13">
         <f>function!B13</f>
@@ -2059,12 +2249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" t="str">
         <f>function!B14</f>
@@ -2075,38 +2265,38 @@
         <v>LoRa_maxChannels</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G15" t="str">
         <f>function!B15</f>
         <v>ReceiveWindowParameters_t</v>
       </c>
       <c r="H15" t="str">
         <f>function!C15</f>
-        <v>LoRa_receiveChannelParameters</v>
+        <v>LoRa_receiveChannelParameters.frequency</v>
       </c>
       <c r="I15" s="2">
         <f>function!D15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>H19</f>
+        <f>H21</f>
         <v>LoRa_syncWord</v>
       </c>
-      <c r="G16" t="str">
+      <c r="G16">
         <f>function!B16</f>
-        <v>uint8_t</v>
+        <v>0</v>
       </c>
       <c r="H16" t="str">
         <f>function!C16</f>
-        <v>LoRa_lastUsedChannelIndex</v>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
       </c>
       <c r="I16" s="2">
         <f>function!D16</f>
@@ -2115,15 +2305,15 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G17" t="str">
         <f>function!B17</f>
-        <v>ChannelParams_t</v>
+        <v>uint8_t</v>
       </c>
       <c r="H17" t="str">
         <f>function!C17</f>
-        <v>LoRa_ch0_params</v>
+        <v>LoRa_lastUsedChannelIndex</v>
       </c>
       <c r="I17" s="2">
         <f>function!D17</f>
@@ -2132,34 +2322,34 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D18" s="8"/>
       <c r="G18" t="str">
         <f>function!B18</f>
-        <v>uint8_t</v>
+        <v>ReceiveWindowParameters_t</v>
       </c>
       <c r="H18" t="str">
         <f>function!C18</f>
-        <v>LoRa_txPower</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1</v>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C19" s="5"/>
       <c r="D19" s="8"/>
-      <c r="G19" t="str">
+      <c r="G19">
         <f>function!B19</f>
-        <v>uint8_t</v>
+        <v>0</v>
       </c>
       <c r="H19" t="str">
         <f>function!C19</f>
-        <v>LoRa_syncWord</v>
+        <v>LoRa_ch0_params.datarate</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -2171,10 +2361,10 @@
       </c>
       <c r="H20" t="str">
         <f>function!C20</f>
-        <v>LoRa_batteryLevel</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>157</v>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.25">
@@ -2182,15 +2372,14 @@
       <c r="D21" s="8"/>
       <c r="G21" t="str">
         <f>function!B21</f>
-        <v>IsmBand_t</v>
+        <v>uint8_t</v>
       </c>
       <c r="H21" t="str">
         <f>function!C21</f>
-        <v>LoRa_ismBand</v>
-      </c>
-      <c r="I21" s="6" t="str">
-        <f>D14</f>
-        <v>ISM_EU868</v>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -2202,10 +2391,10 @@
       </c>
       <c r="H22" t="str">
         <f>function!C22</f>
-        <v>LoRa_currentDataRate</v>
+        <v>LoRa_batteryLevel</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -2213,14 +2402,15 @@
       <c r="D23" s="8"/>
       <c r="G23" t="str">
         <f>function!B23</f>
-        <v>uint8_t</v>
+        <v>IsmBand_t</v>
       </c>
       <c r="H23" t="str">
         <f>function!C23</f>
-        <v>LoRa_minDataRate</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>165</v>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I23" s="6" t="str">
+        <f>D14</f>
+        <v>ISM_EU868</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
@@ -2232,530 +2422,569 @@
       </c>
       <c r="H24" t="str">
         <f>function!C24</f>
-        <v>LoRa_maxDataRate</v>
+        <v>LoRa_currentDataRate</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="G25" t="str">
+        <f>function!B25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" t="str">
+        <f>function!C25</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="D26" s="8"/>
+      <c r="G26" t="str">
+        <f>function!B26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" t="str">
+        <f>function!C26</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="8"/>
-      <c r="G27" t="str">
-        <f>function!C42</f>
-        <v>RADIO_Transmit</v>
-      </c>
-      <c r="H27" t="str">
-        <f>function!G42</f>
-        <v>LoRa_TxDone</v>
-      </c>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="D28" s="8"/>
-      <c r="G28" t="str">
-        <f>function!C43</f>
-        <v>RADIO_RxDone</v>
-      </c>
-      <c r="H28" t="str">
-        <f>function!G43</f>
-        <v>LoRa_RxDone</v>
-      </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
       <c r="D29" s="8"/>
-      <c r="G29">
-        <f>function!C44</f>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <f>function!G44</f>
-        <v>0</v>
+      <c r="G29" t="str">
+        <f>function!C45</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H29" t="str">
+        <f>function!G45</f>
+        <v>LoRa_TxDone</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
       <c r="D30" s="8"/>
-      <c r="G30">
-        <f>function!C45</f>
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <f>function!G45</f>
-        <v>0</v>
+      <c r="G30" t="str">
+        <f>function!C46</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H30" t="str">
+        <f>function!G46</f>
+        <v>LoRa_RxDone</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
-      <c r="G31" t="str">
-        <f>function!G3</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H31" t="str">
-        <f>function!H3</f>
-        <v>frequency;</v>
-      </c>
-      <c r="I31" s="6" t="str">
-        <f>RADIO_Init!I31</f>
-        <v>EU868_CALIBRATION_FREQ</v>
+      <c r="G31">
+        <f>function!C47</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>function!G47</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="8"/>
-      <c r="G32" t="str">
-        <f>function!G4</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H32" t="str">
-        <f>function!H4</f>
-        <v>frequencyDeviation;</v>
-      </c>
-      <c r="I32" s="6">
-        <f>RADIO_Init!I32</f>
-        <v>25000</v>
+      <c r="G32">
+        <f>function!C48</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>function!G48</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="G33" t="str">
-        <f>function!G5</f>
+        <f>function!G3</f>
         <v>uint32_t</v>
       </c>
       <c r="H33" t="str">
-        <f>function!H5</f>
-        <v>bitRate;</v>
-      </c>
-      <c r="I33" s="6">
-        <f>RADIO_Init!I33</f>
-        <v>50000</v>
+        <f>function!H3</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I33" s="6" t="str">
+        <f>RADIO_Init!I31</f>
+        <v>EU868_CALIBRATION_FREQ</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="8"/>
       <c r="G34" t="str">
-        <f>function!G6</f>
-        <v>uint16_t</v>
+        <f>function!G4</f>
+        <v>uint32_t</v>
       </c>
       <c r="H34" t="str">
-        <f>function!H6</f>
-        <v>preambleLen;</v>
+        <f>function!H4</f>
+        <v>frequencyDeviation;</v>
       </c>
       <c r="I34" s="6">
-        <f>RADIO_Init!I34</f>
-        <v>8</v>
+        <f>RADIO_Init!I32</f>
+        <v>25000</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
       <c r="D35" s="8"/>
       <c r="G35" t="str">
+        <f>function!G5</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" t="str">
+        <f>function!H5</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I35" s="6">
+        <f>RADIO_Init!I33</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <f>function!G6</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H36" t="str">
+        <f>function!H6</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I36" s="6">
+        <f>RADIO_Init!I34</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G37" t="str">
         <f>function!G7</f>
         <v>uint8_t</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H37" t="str">
         <f>function!H7</f>
         <v>syncWordLoRa;</v>
       </c>
-      <c r="I35" s="6" t="str">
+      <c r="I37" s="6" t="str">
         <f>RADIO_Init!I35</f>
         <v>0x34</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G36" t="str">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
         <f>function!G8</f>
         <v>uint8_t</v>
       </c>
-      <c r="H36" t="str">
+      <c r="H38" t="str">
         <f>function!H8</f>
         <v>syncWord[8];</v>
       </c>
-      <c r="I36" s="6" t="str">
+      <c r="I38" s="6" t="str">
         <f>RADIO_Init!I36</f>
         <v>0xc1 0x94 0xc1</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G37" t="str">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
         <f>function!G9</f>
         <v>uint8_t</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H39" t="str">
         <f>function!H9</f>
         <v>syncWordLen;</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I39" s="6">
         <f>RADIO_Init!I37</f>
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G38" t="str">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
         <f>function!G10</f>
         <v>RadioModulation_t</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H40" t="str">
         <f>function!H10</f>
         <v>modulation;</v>
       </c>
-      <c r="I38" s="6" t="str">
+      <c r="I40" s="6" t="str">
         <f>RADIO_Init!I38</f>
         <v>MODULATION_LORA</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G39" t="str">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
         <f>function!G11</f>
         <v>RadioDataRate_t</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H41" t="str">
         <f>function!H11</f>
         <v>dataRate;</v>
       </c>
-      <c r="I39" s="6" t="str">
+      <c r="I41" s="6" t="str">
         <f>RADIO_Init!I39</f>
         <v>SF_12</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G40" t="str">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
         <f>function!G12</f>
         <v>RadioLoRaBandWidth_t</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H42" t="str">
         <f>function!H12</f>
         <v>bandWidth;</v>
       </c>
-      <c r="I40" s="6" t="str">
+      <c r="I42" s="6" t="str">
         <f>RADIO_Init!I40</f>
         <v>BW_125KHZ</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G41" t="str">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
         <f>function!G13</f>
         <v>int8_t</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H43" t="str">
         <f>function!H13</f>
         <v>outputPower;</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I43" s="6">
         <f>RADIO_Init!I41</f>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G42" t="str">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
         <f>function!G14</f>
         <v>uint8_t</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H44" t="str">
         <f>function!H14</f>
         <v>crcOn;</v>
       </c>
-      <c r="I42" s="6">
+      <c r="I44" s="6">
         <f>RADIO_Init!I42</f>
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G43" t="str">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G45" t="str">
         <f>function!G15</f>
         <v>uint8_t</v>
       </c>
-      <c r="H43" t="str">
+      <c r="H45" t="str">
         <f>function!H15</f>
         <v>paBoost;</v>
       </c>
-      <c r="I43" s="6" t="str">
+      <c r="I45" s="6" t="str">
         <f>RADIO_Init!I43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G44" t="str">
-        <f>function!G16</f>
-        <v>uint16_t</v>
-      </c>
-      <c r="H44" t="str">
-        <f>function!H16</f>
-        <v>frequencyHopPeriod;</v>
-      </c>
-      <c r="I44" s="6" t="str">
-        <f>RADIO_Init!I44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G45" t="str">
-        <f>function!G17</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H45" t="str">
-        <f>function!H17</f>
-        <v>iqInverted;</v>
-      </c>
-      <c r="I45" s="6" t="str">
-        <f>RADIO_Init!I45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G46" t="str">
+        <f>function!G17</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H46" t="str">
+        <f>function!H17</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I46" s="6" t="str">
+        <f>RADIO_Init!I44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
         <f>function!G18</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" t="str">
+        <f>function!H18</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I47" s="6" t="str">
+        <f>RADIO_Init!I45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G48" t="str">
+        <f>function!G19</f>
         <v>RadioErrorCodingRate_t</v>
       </c>
-      <c r="H46" t="str">
-        <f>function!H18</f>
+      <c r="H48" t="str">
+        <f>function!H19</f>
         <v>errorCodingRate;</v>
       </c>
-      <c r="I46" s="6" t="str">
+      <c r="I48" s="6" t="str">
         <f>RADIO_Init!I46</f>
         <v>CR_4_5</v>
       </c>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G47" t="str">
-        <f>function!G19</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H47" t="str">
-        <f>function!H19</f>
-        <v>implicitHeaderMode;</v>
-      </c>
-      <c r="I47" s="6" t="str">
-        <f>RADIO_Init!I47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G48" t="str">
-        <f>function!G20</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H48" t="str">
-        <f>function!H20</f>
-        <v>flags;</v>
-      </c>
-      <c r="I48" s="6" t="str">
-        <f>RADIO_Init!I48</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G49" t="str">
-        <f>function!G21</f>
+        <f>function!G20</f>
         <v>uint8_t</v>
       </c>
       <c r="H49" t="str">
-        <f>function!H21</f>
-        <v>dataBufferLen;</v>
+        <f>function!H20</f>
+        <v>implicitHeaderMode;</v>
       </c>
       <c r="I49" s="6" t="str">
-        <f>RADIO_Init!I49</f>
+        <f>RADIO_Init!I47</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G50" t="str">
+        <f>function!G21</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H50" t="str">
+        <f>function!H21</f>
+        <v>flags;</v>
+      </c>
+      <c r="I50" s="6" t="str">
+        <f>RADIO_Init!I48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G51" t="str">
         <f>function!G22</f>
         <v>uint8_t</v>
       </c>
-      <c r="H50" t="str">
+      <c r="H51" t="str">
         <f>function!H22</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f>RADIO_Init!I49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G52" t="str">
+        <f>function!G23</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" t="str">
+        <f>function!H23</f>
         <v>*dataBuffer;</v>
       </c>
-      <c r="I50" s="6" t="str">
+      <c r="I52" s="6" t="str">
         <f>RADIO_Init!I50</f>
         <v>&amp;radioBuffer[16]</v>
       </c>
     </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G51" t="str">
-        <f>function!G23</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H51" s="1" t="str">
-        <f>function!H23</f>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G53" t="str">
+        <f>function!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" s="1" t="str">
+        <f>function!H24</f>
         <v>timeOnAirTimerId;</v>
       </c>
     </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G52" t="str">
-        <f>function!G24</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H52" s="1" t="str">
-        <f>function!H24</f>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G54" t="str">
+        <f>function!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" s="1" t="str">
+        <f>function!H25</f>
         <v>fskRxWindowTimerId;</v>
       </c>
-      <c r="I52" s="6" t="str">
+      <c r="I54" s="6" t="str">
         <f>RADIO_Init!I52</f>
         <v>RADIO_RxFSKTimeout</v>
       </c>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G53" t="str">
-        <f>function!G25</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H53" s="1" t="str">
-        <f>function!H25</f>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G55" t="str">
+        <f>function!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" s="1" t="str">
+        <f>function!H26</f>
         <v>watchdogTimerId;</v>
       </c>
-      <c r="I53" s="6" t="str">
+      <c r="I55" s="6" t="str">
         <f>RADIO_Init!I53</f>
         <v>RADIO_WatchdogTimeout</v>
       </c>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G54" t="str">
-        <f>function!G26</f>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G56" t="str">
+        <f>function!G27</f>
         <v>uint32_t</v>
       </c>
-      <c r="H54" t="str">
-        <f>function!H26</f>
+      <c r="H56" t="str">
+        <f>function!H27</f>
         <v>watchdogTimerTimeout;</v>
       </c>
-      <c r="I54" s="6" t="str">
+      <c r="I56" s="6" t="str">
         <f>RADIO_Init!I54</f>
         <v>WATCHDOG_DEFAULT_TIME</v>
       </c>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G55" t="str">
-        <f>function!G27</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H55" t="str">
-        <f>function!H27</f>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G57" t="str">
+        <f>function!G28</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" t="str">
+        <f>function!H28</f>
         <v>initialized;</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I57" s="6">
         <f>RADIO_Init!I55</f>
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G56" t="str">
-        <f>function!G28</f>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
+        <f>function!G29</f>
         <v>uint32_t</v>
       </c>
-      <c r="H56" t="str">
-        <f>function!H28</f>
+      <c r="H58" t="str">
+        <f>function!H29</f>
         <v>(*fhssNextFrequency)(void);</v>
       </c>
-      <c r="I56" s="6" t="str">
+      <c r="I58" s="6" t="str">
         <f>RADIO_Init!I56</f>
         <v>NULL</v>
       </c>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G57" t="str">
-        <f>function!G29</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H57" t="str">
-        <f>function!H29</f>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G59" t="str">
+        <f>function!G30</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" t="str">
+        <f>function!H30</f>
         <v>regVersion;</v>
       </c>
-      <c r="I57" s="6" t="str">
+      <c r="I59" s="6" t="str">
         <f>RADIO_Init!I57</f>
         <v>RADIO_RegisterRead(REG_VERSION)</v>
       </c>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G58" t="str">
-        <f>function!G30</f>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G60" t="str">
+        <f>function!G31</f>
         <v>int8_t</v>
       </c>
-      <c r="H58" t="str">
-        <f>function!H30</f>
+      <c r="H60" t="str">
+        <f>function!H31</f>
         <v>packetSNR;</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I60" s="6">
         <f>RADIO_Init!I58</f>
         <v>-128</v>
       </c>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G59" t="str">
-        <f>function!G31</f>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G61" t="str">
+        <f>function!G32</f>
         <v>RadioFSKShaping_t</v>
       </c>
-      <c r="H59" t="str">
-        <f>function!H31</f>
+      <c r="H61" t="str">
+        <f>function!H32</f>
         <v>fskDataShaping;</v>
       </c>
-      <c r="I59" s="6" t="str">
+      <c r="I61" s="6" t="str">
         <f>RADIO_Init!I59</f>
         <v>FSK_SHAPING_GAUSS_BT_0_5</v>
       </c>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G60" t="str">
-        <f>function!G32</f>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G62" t="str">
+        <f>function!G33</f>
         <v>RadioFSKBandWidth_t</v>
       </c>
-      <c r="H60" t="str">
-        <f>function!H32</f>
+      <c r="H62" t="str">
+        <f>function!H33</f>
         <v>rxBw;</v>
       </c>
-      <c r="I60" s="6" t="str">
+      <c r="I62" s="6" t="str">
         <f>RADIO_Init!I60</f>
         <v>FSKBW_50_0KHZ</v>
       </c>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G61" t="str">
-        <f>function!G33</f>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G63" t="str">
+        <f>function!G34</f>
         <v>RadioFSKBandWidth_t</v>
       </c>
-      <c r="H61" t="str">
-        <f>function!H33</f>
+      <c r="H63" t="str">
+        <f>function!H34</f>
         <v>afcBw;</v>
       </c>
-      <c r="I61" s="6" t="str">
+      <c r="I63" s="6" t="str">
         <f>RADIO_Init!I61</f>
         <v>FSKBW_83_3KHZ</v>
       </c>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G62">
-        <f>function!G34</f>
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <f>function!H34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G65" t="str">
-        <f>function!B35</f>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G64">
+        <f>function!G37</f>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f>function!H37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G67" t="str">
+        <f>function!B37</f>
         <v>ChannelParams_t</v>
       </c>
-      <c r="H65" t="str">
-        <f>function!C35</f>
+      <c r="H67" t="str">
+        <f>function!C37</f>
         <v>Channels</v>
       </c>
-      <c r="I65" s="6" t="s">
-        <v>163</v>
+      <c r="I67" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G68" t="str">
+        <f>function!B38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H68" t="str">
+        <f>function!C38</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2769,10 +2998,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431943CF-4535-430E-91CA-849C5AAFF0D0}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showZeros="0" topLeftCell="D6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2783,34 +3012,35 @@
     <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="27.5" customWidth="1"/>
     <col min="9" max="9" width="27" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" s="5"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
@@ -2827,9 +3057,9 @@
         <v>LoRa_Idle</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -2846,7 +3076,7 @@
         <v>ENABLED</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G5" s="5" t="str">
         <f>LoRa_System_Init!G5</f>
         <v>uint8_t</v>
@@ -2860,7 +3090,7 @@
         <v>LoRaDeviceAddress</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G6" s="5" t="str">
         <f>LoRa_System_Init!G6</f>
         <v>uint8_t</v>
@@ -2871,10 +3101,18 @@
       </c>
       <c r="I6" s="8" t="str">
         <f>LoRa_System_Init!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f>LoRa_System_Init!J6</f>
         <v>LoRa_TimerHandshakingCallback</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" s="8">
+        <f>LoRa_System_Init!K6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G7" s="5" t="str">
         <f>LoRa_System_Init!G7</f>
         <v>uint8_t</v>
@@ -2885,10 +3123,18 @@
       </c>
       <c r="I7" s="8" t="str">
         <f>LoRa_System_Init!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f>LoRa_System_Init!J7</f>
         <v>LoRa_TimerReconnectCallback</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K7" s="8">
+        <f>LoRa_System_Init!K7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G8" s="5" t="str">
         <f>LoRa_System_Init!G8</f>
         <v>uint8_t</v>
@@ -2899,10 +3145,18 @@
       </c>
       <c r="I8" s="8" t="str">
         <f>LoRa_System_Init!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f>LoRa_System_Init!J8</f>
         <v>LoRa_TimerWaitAckCallback</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K8" s="8">
+        <f>LoRa_System_Init!K8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G9" s="5" t="str">
         <f>LoRa_System_Init!G9</f>
         <v>uint8_t</v>
@@ -2916,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G10" s="5" t="str">
         <f>LoRa_System_Init!G10</f>
         <v>uint8_t</v>
@@ -2930,7 +3184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G11" s="5" t="str">
         <f>LoRa_System_Init!G11</f>
         <v>uint8_t</v>
@@ -2944,7 +3198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G12" s="5" t="str">
         <f>LoRa_System_Init!G12</f>
         <v>uint8_t</v>
@@ -2958,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G13" s="5">
         <f>LoRa_System_Init!G13</f>
         <v>0</v>
@@ -2972,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G14" s="5" t="str">
         <f>LoRa_System_Init!G14</f>
         <v>uint8_t</v>
@@ -2986,61 +3240,61 @@
         <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G15" s="5" t="str">
         <f>LoRa_System_Init!G15</f>
         <v>ReceiveWindowParameters_t</v>
       </c>
       <c r="H15" s="5" t="str">
         <f>LoRa_System_Init!H15</f>
-        <v>LoRa_receiveChannelParameters</v>
+        <v>LoRa_receiveChannelParameters.frequency</v>
       </c>
       <c r="I15" s="8">
         <f>LoRa_System_Init!I15</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G16" s="5" t="str">
-        <f>LoRa_System_Init!G16</f>
+        <f>LoRa_System_Init!G17</f>
         <v>uint8_t</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f>LoRa_System_Init!H16</f>
+        <f>LoRa_System_Init!H17</f>
         <v>LoRa_lastUsedChannelIndex</v>
       </c>
       <c r="I16" s="8">
-        <f>LoRa_System_Init!I16</f>
+        <f>LoRa_System_Init!I17</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G17" s="5" t="str">
-        <f>LoRa_System_Init!G17</f>
-        <v>ChannelParams_t</v>
+        <f>LoRa_System_Init!G18</f>
+        <v>ReceiveWindowParameters_t</v>
       </c>
       <c r="H17" s="5" t="str">
-        <f>LoRa_System_Init!H17</f>
-        <v>LoRa_ch0_params</v>
-      </c>
-      <c r="I17" s="8">
-        <f>LoRa_System_Init!I17</f>
-        <v>0</v>
+        <f>LoRa_System_Init!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>LoRa_System_Init!I18</f>
+        <v>LoRa_CH0_frequency</v>
       </c>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
       <c r="D18" s="8"/>
       <c r="G18" s="5" t="str">
-        <f>LoRa_System_Init!G18</f>
+        <f>LoRa_System_Init!G20</f>
         <v>uint8_t</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f>LoRa_System_Init!H18</f>
+        <f>LoRa_System_Init!H20</f>
         <v>LoRa_txPower</v>
       </c>
       <c r="I18" s="8">
-        <f>LoRa_System_Init!I18</f>
+        <f>LoRa_System_Init!I20</f>
         <v>1</v>
       </c>
     </row>
@@ -3048,15 +3302,15 @@
       <c r="C19" s="5"/>
       <c r="D19" s="8"/>
       <c r="G19" s="5" t="str">
-        <f>LoRa_System_Init!G19</f>
+        <f>LoRa_System_Init!G21</f>
         <v>uint8_t</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f>LoRa_System_Init!H19</f>
+        <f>LoRa_System_Init!H21</f>
         <v>LoRa_syncWord</v>
       </c>
       <c r="I19" s="8" t="str">
-        <f>LoRa_System_Init!I19</f>
+        <f>LoRa_System_Init!I21</f>
         <v>0x34</v>
       </c>
     </row>
@@ -3064,15 +3318,15 @@
       <c r="C20" s="5"/>
       <c r="D20" s="8"/>
       <c r="G20" s="5" t="str">
-        <f>LoRa_System_Init!G20</f>
+        <f>LoRa_System_Init!G22</f>
         <v>uint8_t</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f>LoRa_System_Init!H20</f>
+        <f>LoRa_System_Init!H22</f>
         <v>LoRa_batteryLevel</v>
       </c>
       <c r="I20" s="8" t="str">
-        <f>LoRa_System_Init!I20</f>
+        <f>LoRa_System_Init!I22</f>
         <v>BATTERY_LEVEL_INVALID</v>
       </c>
     </row>
@@ -3080,15 +3334,15 @@
       <c r="C21" s="5"/>
       <c r="D21" s="8"/>
       <c r="G21" s="5" t="str">
-        <f>LoRa_System_Init!G21</f>
+        <f>LoRa_System_Init!G23</f>
         <v>IsmBand_t</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f>LoRa_System_Init!H21</f>
+        <f>LoRa_System_Init!H23</f>
         <v>LoRa_ismBand</v>
       </c>
       <c r="I21" s="8" t="str">
-        <f>LoRa_System_Init!I21</f>
+        <f>LoRa_System_Init!I23</f>
         <v>ISM_EU868</v>
       </c>
     </row>
@@ -3096,15 +3350,15 @@
       <c r="C22" s="5"/>
       <c r="D22" s="8"/>
       <c r="G22" s="5" t="str">
-        <f>LoRa_System_Init!G22</f>
+        <f>LoRa_System_Init!G24</f>
         <v>uint8_t</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>LoRa_System_Init!H22</f>
+        <f>LoRa_System_Init!H24</f>
         <v>LoRa_currentDataRate</v>
       </c>
       <c r="I22" s="8" t="str">
-        <f>LoRa_System_Init!I22</f>
+        <f>LoRa_System_Init!I24</f>
         <v>DR0</v>
       </c>
     </row>
@@ -3112,15 +3366,15 @@
       <c r="C23" s="5"/>
       <c r="D23" s="8"/>
       <c r="G23" s="5" t="str">
-        <f>LoRa_System_Init!G23</f>
+        <f>LoRa_System_Init!G25</f>
         <v>uint8_t</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f>LoRa_System_Init!H23</f>
+        <f>LoRa_System_Init!H25</f>
         <v>LoRa_minDataRate</v>
       </c>
       <c r="I23" s="8" t="str">
-        <f>LoRa_System_Init!I23</f>
+        <f>LoRa_System_Init!I25</f>
         <v>DR0</v>
       </c>
     </row>
@@ -3128,15 +3382,15 @@
       <c r="C24" s="5"/>
       <c r="D24" s="8"/>
       <c r="G24" s="5" t="str">
-        <f>LoRa_System_Init!G24</f>
+        <f>LoRa_System_Init!G26</f>
         <v>uint8_t</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f>LoRa_System_Init!H24</f>
+        <f>LoRa_System_Init!H26</f>
         <v>LoRa_maxDataRate</v>
       </c>
       <c r="I24" s="8" t="str">
-        <f>LoRa_System_Init!I24</f>
+        <f>LoRa_System_Init!I26</f>
         <v>DR7</v>
       </c>
     </row>
@@ -3144,15 +3398,15 @@
       <c r="C25" s="5"/>
       <c r="D25" s="8"/>
       <c r="G25" s="5">
-        <f>LoRa_System_Init!G25</f>
+        <f>LoRa_System_Init!G27</f>
         <v>0</v>
       </c>
       <c r="H25" s="5">
-        <f>LoRa_System_Init!H25</f>
+        <f>LoRa_System_Init!H27</f>
         <v>0</v>
       </c>
       <c r="I25" s="8">
-        <f>LoRa_System_Init!I25</f>
+        <f>LoRa_System_Init!I27</f>
         <v>0</v>
       </c>
     </row>
@@ -3160,15 +3414,15 @@
       <c r="C26" s="5"/>
       <c r="D26" s="8"/>
       <c r="G26" s="5">
-        <f>LoRa_System_Init!G26</f>
+        <f>LoRa_System_Init!G28</f>
         <v>0</v>
       </c>
       <c r="H26" s="5">
-        <f>LoRa_System_Init!H26</f>
+        <f>LoRa_System_Init!H28</f>
         <v>0</v>
       </c>
       <c r="I26" s="8">
-        <f>LoRa_System_Init!I26</f>
+        <f>LoRa_System_Init!I28</f>
         <v>0</v>
       </c>
     </row>
@@ -3176,15 +3430,15 @@
       <c r="C27" s="5"/>
       <c r="D27" s="8"/>
       <c r="G27" s="5" t="str">
-        <f>LoRa_System_Init!G27</f>
+        <f>LoRa_System_Init!G29</f>
         <v>RADIO_Transmit</v>
       </c>
       <c r="H27" s="5" t="str">
-        <f>LoRa_System_Init!H27</f>
+        <f>LoRa_System_Init!H29</f>
         <v>LoRa_TxDone</v>
       </c>
       <c r="I27" s="8">
-        <f>LoRa_System_Init!I27</f>
+        <f>LoRa_System_Init!I29</f>
         <v>0</v>
       </c>
     </row>
@@ -3192,15 +3446,15 @@
       <c r="C28" s="5"/>
       <c r="D28" s="8"/>
       <c r="G28" s="5" t="str">
-        <f>LoRa_System_Init!G28</f>
+        <f>LoRa_System_Init!G30</f>
         <v>RADIO_RxDone</v>
       </c>
       <c r="H28" s="5" t="str">
-        <f>LoRa_System_Init!H28</f>
+        <f>LoRa_System_Init!H30</f>
         <v>LoRa_RxDone</v>
       </c>
       <c r="I28" s="8">
-        <f>LoRa_System_Init!I28</f>
+        <f>LoRa_System_Init!I30</f>
         <v>0</v>
       </c>
     </row>
@@ -3208,15 +3462,15 @@
       <c r="C29" s="5"/>
       <c r="D29" s="8"/>
       <c r="G29" s="5">
-        <f>LoRa_System_Init!G29</f>
+        <f>LoRa_System_Init!G31</f>
         <v>0</v>
       </c>
       <c r="H29" s="5">
-        <f>LoRa_System_Init!H29</f>
+        <f>LoRa_System_Init!H31</f>
         <v>0</v>
       </c>
       <c r="I29" s="8">
-        <f>LoRa_System_Init!I29</f>
+        <f>LoRa_System_Init!I31</f>
         <v>0</v>
       </c>
     </row>
@@ -3224,15 +3478,15 @@
       <c r="C30" s="5"/>
       <c r="D30" s="8"/>
       <c r="G30" s="5">
-        <f>LoRa_System_Init!G30</f>
+        <f>LoRa_System_Init!G32</f>
         <v>0</v>
       </c>
       <c r="H30" s="5">
-        <f>LoRa_System_Init!H30</f>
+        <f>LoRa_System_Init!H32</f>
         <v>0</v>
       </c>
       <c r="I30" s="8">
-        <f>LoRa_System_Init!I30</f>
+        <f>LoRa_System_Init!I32</f>
         <v>0</v>
       </c>
     </row>
@@ -3240,11 +3494,11 @@
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
       <c r="G31" s="5" t="str">
-        <f>LoRa_System_Init!G31</f>
+        <f>LoRa_System_Init!G33</f>
         <v>uint32_t</v>
       </c>
       <c r="H31" s="5" t="str">
-        <f>LoRa_System_Init!H31</f>
+        <f>LoRa_System_Init!H33</f>
         <v>frequency;</v>
       </c>
       <c r="I31" s="6" t="str">
@@ -3256,11 +3510,11 @@
       <c r="C32" s="5"/>
       <c r="D32" s="8"/>
       <c r="G32" s="5" t="str">
-        <f>LoRa_System_Init!G32</f>
+        <f>LoRa_System_Init!G34</f>
         <v>uint32_t</v>
       </c>
       <c r="H32" s="5" t="str">
-        <f>LoRa_System_Init!H32</f>
+        <f>LoRa_System_Init!H34</f>
         <v>frequencyDeviation;</v>
       </c>
       <c r="I32" s="6">
@@ -3271,11 +3525,11 @@
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
       <c r="G33" s="5" t="str">
-        <f>LoRa_System_Init!G33</f>
+        <f>LoRa_System_Init!G35</f>
         <v>uint32_t</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f>LoRa_System_Init!H33</f>
+        <f>LoRa_System_Init!H35</f>
         <v>bitRate;</v>
       </c>
       <c r="I33" s="6">
@@ -3286,11 +3540,11 @@
       <c r="C34" s="5"/>
       <c r="D34" s="8"/>
       <c r="G34" s="5" t="str">
-        <f>LoRa_System_Init!G34</f>
+        <f>LoRa_System_Init!G36</f>
         <v>uint16_t</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f>LoRa_System_Init!H34</f>
+        <f>LoRa_System_Init!H36</f>
         <v>preambleLen;</v>
       </c>
       <c r="I34" s="6">
@@ -3301,37 +3555,37 @@
       <c r="C35" s="5"/>
       <c r="D35" s="8"/>
       <c r="G35" s="5" t="str">
-        <f>LoRa_System_Init!G35</f>
+        <f>LoRa_System_Init!G37</f>
         <v>uint8_t</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f>LoRa_System_Init!H35</f>
+        <f>LoRa_System_Init!H37</f>
         <v>syncWordLoRa;</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G36" s="5" t="str">
-        <f>LoRa_System_Init!G36</f>
+        <f>LoRa_System_Init!G38</f>
         <v>uint8_t</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f>LoRa_System_Init!H36</f>
+        <f>LoRa_System_Init!H38</f>
         <v>syncWord[8];</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G37" s="5" t="str">
-        <f>LoRa_System_Init!G37</f>
+        <f>LoRa_System_Init!G39</f>
         <v>uint8_t</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f>LoRa_System_Init!H37</f>
+        <f>LoRa_System_Init!H39</f>
         <v>syncWordLen;</v>
       </c>
       <c r="I37" s="6">
@@ -3340,50 +3594,50 @@
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G38" s="5" t="str">
-        <f>LoRa_System_Init!G38</f>
+        <f>LoRa_System_Init!G40</f>
         <v>RadioModulation_t</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f>LoRa_System_Init!H38</f>
+        <f>LoRa_System_Init!H40</f>
         <v>modulation;</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G39" s="5" t="str">
-        <f>LoRa_System_Init!G39</f>
+        <f>LoRa_System_Init!G41</f>
         <v>RadioDataRate_t</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f>LoRa_System_Init!H39</f>
+        <f>LoRa_System_Init!H41</f>
         <v>dataRate;</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G40" s="5" t="str">
-        <f>LoRa_System_Init!G40</f>
+        <f>LoRa_System_Init!G42</f>
         <v>RadioLoRaBandWidth_t</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f>LoRa_System_Init!H40</f>
+        <f>LoRa_System_Init!H42</f>
         <v>bandWidth;</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G41" s="5" t="str">
-        <f>LoRa_System_Init!G41</f>
+        <f>LoRa_System_Init!G43</f>
         <v>int8_t</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f>LoRa_System_Init!H41</f>
+        <f>LoRa_System_Init!H43</f>
         <v>outputPower;</v>
       </c>
       <c r="I41" s="6">
@@ -3392,11 +3646,11 @@
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G42" s="5" t="str">
-        <f>LoRa_System_Init!G42</f>
+        <f>LoRa_System_Init!G44</f>
         <v>uint8_t</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f>LoRa_System_Init!H42</f>
+        <f>LoRa_System_Init!H44</f>
         <v>crcOn;</v>
       </c>
       <c r="I42" s="6">
@@ -3405,102 +3659,102 @@
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G43" s="5" t="str">
-        <f>LoRa_System_Init!G43</f>
+        <f>LoRa_System_Init!G45</f>
         <v>uint8_t</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f>LoRa_System_Init!H43</f>
+        <f>LoRa_System_Init!H45</f>
         <v>paBoost;</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G44" s="5" t="str">
-        <f>LoRa_System_Init!G44</f>
+        <f>LoRa_System_Init!G46</f>
         <v>uint16_t</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f>LoRa_System_Init!H44</f>
+        <f>LoRa_System_Init!H46</f>
         <v>frequencyHopPeriod;</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G45" s="5" t="str">
-        <f>LoRa_System_Init!G45</f>
+        <f>LoRa_System_Init!G47</f>
         <v>uint8_t</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f>LoRa_System_Init!H45</f>
+        <f>LoRa_System_Init!H47</f>
         <v>iqInverted;</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G46" s="5" t="str">
-        <f>LoRa_System_Init!G46</f>
+        <f>LoRa_System_Init!G48</f>
         <v>RadioErrorCodingRate_t</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f>LoRa_System_Init!H46</f>
+        <f>LoRa_System_Init!H48</f>
         <v>errorCodingRate;</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G47" s="5" t="str">
-        <f>LoRa_System_Init!G47</f>
+        <f>LoRa_System_Init!G49</f>
         <v>uint8_t</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f>LoRa_System_Init!H47</f>
+        <f>LoRa_System_Init!H49</f>
         <v>implicitHeaderMode;</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G48" s="5" t="str">
-        <f>LoRa_System_Init!G48</f>
+        <f>LoRa_System_Init!G50</f>
         <v>uint8_t</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f>LoRa_System_Init!H48</f>
+        <f>LoRa_System_Init!H50</f>
         <v>flags;</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49" s="5" t="str">
-        <f>LoRa_System_Init!G49</f>
+        <f>LoRa_System_Init!G51</f>
         <v>uint8_t</v>
       </c>
       <c r="H49" s="5" t="str">
-        <f>LoRa_System_Init!H49</f>
+        <f>LoRa_System_Init!H51</f>
         <v>dataBufferLen;</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50" s="5" t="str">
-        <f>LoRa_System_Init!G50</f>
+        <f>LoRa_System_Init!G52</f>
         <v>uint8_t</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f>LoRa_System_Init!H50</f>
+        <f>LoRa_System_Init!H52</f>
         <v>*dataBuffer;</v>
       </c>
       <c r="I50" s="6" t="str">
@@ -3510,73 +3764,73 @@
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51" s="5" t="str">
-        <f>LoRa_System_Init!G51</f>
+        <f>LoRa_System_Init!G53</f>
         <v>uint8_t</v>
       </c>
       <c r="H51" s="1" t="str">
-        <f>LoRa_System_Init!H51</f>
+        <f>LoRa_System_Init!H53</f>
         <v>timeOnAirTimerId;</v>
       </c>
       <c r="I51" s="8">
-        <f>LoRa_System_Init!I51</f>
+        <f>LoRa_System_Init!I53</f>
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52" s="5" t="str">
-        <f>LoRa_System_Init!G52</f>
+        <f>LoRa_System_Init!G54</f>
         <v>uint8_t</v>
       </c>
       <c r="H52" s="1" t="str">
-        <f>LoRa_System_Init!H52</f>
+        <f>LoRa_System_Init!H54</f>
         <v>fskRxWindowTimerId;</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>24</v>
       </c>
       <c r="J52" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53" s="5" t="str">
-        <f>LoRa_System_Init!G53</f>
+        <f>LoRa_System_Init!G55</f>
         <v>uint8_t</v>
       </c>
       <c r="H53" s="1" t="str">
-        <f>LoRa_System_Init!H53</f>
+        <f>LoRa_System_Init!H55</f>
         <v>watchdogTimerId;</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>26</v>
       </c>
       <c r="J53" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54" s="5" t="str">
-        <f>LoRa_System_Init!G54</f>
+        <f>LoRa_System_Init!G56</f>
         <v>uint32_t</v>
       </c>
       <c r="H54" s="5" t="str">
-        <f>LoRa_System_Init!H54</f>
+        <f>LoRa_System_Init!H56</f>
         <v>watchdogTimerTimeout;</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55" s="5" t="str">
-        <f>LoRa_System_Init!G55</f>
+        <f>LoRa_System_Init!G57</f>
         <v>uint8_t</v>
       </c>
       <c r="H55" s="5" t="str">
-        <f>LoRa_System_Init!H55</f>
+        <f>LoRa_System_Init!H57</f>
         <v>initialized;</v>
       </c>
       <c r="I55" s="6">
@@ -3585,37 +3839,37 @@
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56" s="5" t="str">
-        <f>LoRa_System_Init!G56</f>
+        <f>LoRa_System_Init!G58</f>
         <v>uint32_t</v>
       </c>
       <c r="H56" s="5" t="str">
-        <f>LoRa_System_Init!H56</f>
+        <f>LoRa_System_Init!H58</f>
         <v>(*fhssNextFrequency)(void);</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57" s="5" t="str">
-        <f>LoRa_System_Init!G57</f>
+        <f>LoRa_System_Init!G59</f>
         <v>uint8_t</v>
       </c>
       <c r="H57" s="5" t="str">
-        <f>LoRa_System_Init!H57</f>
+        <f>LoRa_System_Init!H59</f>
         <v>regVersion;</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58" s="5" t="str">
-        <f>LoRa_System_Init!G58</f>
+        <f>LoRa_System_Init!G60</f>
         <v>int8_t</v>
       </c>
       <c r="H58" s="5" t="str">
-        <f>LoRa_System_Init!H58</f>
+        <f>LoRa_System_Init!H60</f>
         <v>packetSNR;</v>
       </c>
       <c r="I58" s="6">
@@ -3624,68 +3878,68 @@
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59" s="5" t="str">
-        <f>LoRa_System_Init!G59</f>
+        <f>LoRa_System_Init!G61</f>
         <v>RadioFSKShaping_t</v>
       </c>
       <c r="H59" s="5" t="str">
-        <f>LoRa_System_Init!H59</f>
+        <f>LoRa_System_Init!H61</f>
         <v>fskDataShaping;</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60" s="5" t="str">
-        <f>LoRa_System_Init!G60</f>
+        <f>LoRa_System_Init!G62</f>
         <v>RadioFSKBandWidth_t</v>
       </c>
       <c r="H60" s="5" t="str">
-        <f>LoRa_System_Init!H60</f>
+        <f>LoRa_System_Init!H62</f>
         <v>rxBw;</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61" s="5" t="str">
-        <f>LoRa_System_Init!G61</f>
+        <f>LoRa_System_Init!G63</f>
         <v>RadioFSKBandWidth_t</v>
       </c>
       <c r="H61" s="5" t="str">
-        <f>LoRa_System_Init!H61</f>
+        <f>LoRa_System_Init!H63</f>
         <v>afcBw;</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62" s="5">
-        <f>LoRa_System_Init!G62</f>
+        <f>LoRa_System_Init!G64</f>
         <v>0</v>
       </c>
       <c r="H62" s="5">
-        <f>LoRa_System_Init!H62</f>
+        <f>LoRa_System_Init!H64</f>
         <v>0</v>
       </c>
       <c r="I62" s="8">
-        <f>LoRa_System_Init!I62</f>
+        <f>LoRa_System_Init!I64</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63" s="5">
-        <f>LoRa_System_Init!G63</f>
+        <f>LoRa_System_Init!G65</f>
         <v>0</v>
       </c>
       <c r="H63" s="5">
-        <f>LoRa_System_Init!H63</f>
+        <f>LoRa_System_Init!H65</f>
         <v>0</v>
       </c>
       <c r="I63" s="8">
-        <f>LoRa_System_Init!I63</f>
+        <f>LoRa_System_Init!I65</f>
         <v>0</v>
       </c>
     </row>
@@ -3744,4 +3998,1126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E95C79-6986-417D-BB03-2118CBD6BA06}">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="str">
+        <f>LoRa_System_Init!C3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>LoRa_System_Init!E3</f>
+        <v>LoRa_Idle</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="str">
+        <f>LoRa_System_Init!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>LoRa_System_Init!H3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="str">
+        <f>LoRa_System_Init!G4</f>
+        <v>bool</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>LoRa_System_Init!H4</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>LoRa_System_Init!I4</f>
+        <v>ENABLED</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f>LoRa_System_Init!G5</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>LoRa_System_Init!H5</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>LoRa_System_Init!I5</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f>LoRa_System_Init!G6</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>LoRa_System_Init!H6</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="8" t="str">
+        <f>LoRa_System_Init!J6</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="str">
+        <f>LoRa_System_Init!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>LoRa_System_Init!H7</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>LoRa_System_Init!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="8" t="str">
+        <f>LoRa_System_Init!J7</f>
+        <v>LoRa_TimerReconnectCallback</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f>LoRa_System_Init!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f>LoRa_System_Init!H8</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f>LoRa_System_Init!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="8" t="str">
+        <f>LoRa_System_Init!J8</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="str">
+        <f>LoRa_System_Init!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>LoRa_System_Init!H9</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f>LoRa_System_Init!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>LoRa_System_Init!H10</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="str">
+        <f>LoRa_System_Init!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>LoRa_System_Init!H11</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f>LoRa_System_Init!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>LoRa_System_Init!H12</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="5">
+        <f>LoRa_System_Init!G13</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <f>LoRa_System_Init!H13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <f>LoRa_System_Init!I13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="5" t="str">
+        <f>LoRa_System_Init!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>LoRa_System_Init!H14</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>LoRa_System_Init!I14</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="str">
+        <f>LoRa_System_Init!G15</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>LoRa_System_Init!H15</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <f>LoRa_System_Init!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>LoRa_System_Init!H16</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I16" s="6" t="str">
+        <f>H24</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="str">
+        <f>LoRa_System_Init!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>LoRa_System_Init!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" s="6" t="str">
+        <f>E6</f>
+        <v>CH_nr</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f>H6</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>J6</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>LoRa_System_Init!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>LoRa_System_Init!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>LoRa_System_Init!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C19" t="str">
+        <f>H55</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f>I55</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="G19" s="5">
+        <f>LoRa_System_Init!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>LoRa_System_Init!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>LoRa_System_Init!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C20" t="str">
+        <f>function!G45</f>
+        <v>LoRa_TxDone</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f>LoRa_System_Init!G20</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>LoRa_System_Init!H20</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I20" s="8">
+        <f>LoRa_System_Init!I20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="str">
+        <f>LoRa_System_Init!G21</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>LoRa_System_Init!H21</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>LoRa_System_Init!I21</f>
+        <v>0x34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="str">
+        <f>LoRa_System_Init!G22</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>LoRa_System_Init!H22</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>LoRa_System_Init!I22</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="str">
+        <f>LoRa_System_Init!G23</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>LoRa_System_Init!H23</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>LoRa_System_Init!I23</f>
+        <v>ISM_EU868</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="str">
+        <f>LoRa_System_Init!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>LoRa_System_Init!H24</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>LoRa_System_Init!I24</f>
+        <v>DR0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="str">
+        <f>LoRa_System_Init!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>LoRa_System_Init!H25</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f>LoRa_System_Init!I25</f>
+        <v>DR0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="str">
+        <f>LoRa_System_Init!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>LoRa_System_Init!H26</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>LoRa_System_Init!I26</f>
+        <v>DR7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <f>LoRa_System_Init!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f>LoRa_System_Init!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f>LoRa_System_Init!I27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <f>LoRa_System_Init!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>LoRa_System_Init!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <f>LoRa_System_Init!I28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="str">
+        <f>LoRa_System_Init!G29</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>LoRa_System_Init!H29</f>
+        <v>LoRa_TxDone</v>
+      </c>
+      <c r="I29" s="8">
+        <f>LoRa_System_Init!I29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="str">
+        <f>LoRa_System_Init!G30</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f>LoRa_System_Init!H30</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="I30" s="8">
+        <f>LoRa_System_Init!I30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G31" s="5">
+        <f>LoRa_System_Init!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f>LoRa_System_Init!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <f>LoRa_System_Init!I31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G32" s="5">
+        <f>LoRa_System_Init!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f>LoRa_System_Init!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <f>LoRa_System_Init!I32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="str">
+        <f>LoRa_System_Init!G33</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>LoRa_System_Init!H33</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="str">
+        <f>LoRa_System_Init!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>LoRa_System_Init!H34</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I34" s="8">
+        <f>LoRa_System_Init!I34</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="str">
+        <f>LoRa_System_Init!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>LoRa_System_Init!H35</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I35" s="8">
+        <f>LoRa_System_Init!I35</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="str">
+        <f>LoRa_System_Init!G36</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>LoRa_System_Init!H36</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I36" s="8">
+        <f>LoRa_System_Init!I36</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="str">
+        <f>LoRa_System_Init!G37</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f>LoRa_System_Init!H37</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="str">
+        <f>LoRa_System_Init!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f>LoRa_System_Init!H38</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f>LoRa_System_Init!I38</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="str">
+        <f>LoRa_System_Init!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f>LoRa_System_Init!H39</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I39" s="8">
+        <f>LoRa_System_Init!I39</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="str">
+        <f>LoRa_System_Init!G40</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f>LoRa_System_Init!H40</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="str">
+        <f>LoRa_System_Init!G41</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>LoRa_System_Init!H41</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="str">
+        <f>LoRa_System_Init!G42</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f>LoRa_System_Init!H42</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="str">
+        <f>LoRa_System_Init!G43</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f>LoRa_System_Init!H43</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="str">
+        <f>LoRa_System_Init!G44</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f>LoRa_System_Init!H44</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="str">
+        <f>LoRa_System_Init!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f>LoRa_System_Init!H45</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f>LoRa_System_Init!I45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="str">
+        <f>LoRa_System_Init!G46</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f>LoRa_System_Init!H46</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="str">
+        <f>LoRa_System_Init!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f>LoRa_System_Init!H47</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="str">
+        <f>LoRa_System_Init!G48</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f>LoRa_System_Init!H48</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>LoRa_System_Init!I48</f>
+        <v>CR_4_5</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="str">
+        <f>LoRa_System_Init!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f>LoRa_System_Init!H49</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f>LoRa_System_Init!I49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="str">
+        <f>LoRa_System_Init!G50</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f>LoRa_System_Init!H50</f>
+        <v>flags;</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>LoRa_System_Init!I50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="str">
+        <f>LoRa_System_Init!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f>LoRa_System_Init!H51</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f>LoRa_System_Init!I51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="str">
+        <f>LoRa_System_Init!G52</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f>LoRa_System_Init!H52</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f>LoRa_System_Init!I52</f>
+        <v>&amp;radioBuffer[16]</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="str">
+        <f>LoRa_System_Init!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f>LoRa_System_Init!H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="str">
+        <f>LoRa_System_Init!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f>LoRa_System_Init!H54</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f>LoRa_System_Init!I54</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="str">
+        <f>LoRa_System_Init!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>LoRa_System_Init!H55</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="str">
+        <f>LoRa_System_Init!G56</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f>LoRa_System_Init!H56</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I56" s="8" t="str">
+        <f>LoRa_System_Init!I56</f>
+        <v>WATCHDOG_DEFAULT_TIME</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="str">
+        <f>LoRa_System_Init!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f>LoRa_System_Init!H57</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I57" s="8">
+        <f>LoRa_System_Init!I57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="str">
+        <f>LoRa_System_Init!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f>LoRa_System_Init!H58</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I58" s="8" t="str">
+        <f>LoRa_System_Init!I58</f>
+        <v>NULL</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="str">
+        <f>LoRa_System_Init!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f>LoRa_System_Init!H59</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I59" s="8" t="str">
+        <f>LoRa_System_Init!I59</f>
+        <v>RADIO_RegisterRead(REG_VERSION)</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="str">
+        <f>LoRa_System_Init!G60</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f>LoRa_System_Init!H60</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I60" s="8">
+        <f>LoRa_System_Init!I60</f>
+        <v>-128</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="str">
+        <f>LoRa_System_Init!G61</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f>LoRa_System_Init!H61</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I61" s="8" t="str">
+        <f>LoRa_System_Init!I61</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="str">
+        <f>LoRa_System_Init!G62</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f>LoRa_System_Init!H62</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I62" s="8" t="str">
+        <f>LoRa_System_Init!I62</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="str">
+        <f>LoRa_System_Init!G63</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f>LoRa_System_Init!H63</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I63" s="8" t="str">
+        <f>LoRa_System_Init!I63</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G64" s="5">
+        <f>LoRa_System_Init!G64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <f>LoRa_System_Init!H64</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <f>LoRa_System_Init!I64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65" s="5">
+        <f>LoRa_System_Init!G65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <f>LoRa_System_Init!H65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <f>LoRa_System_Init!I65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G66" s="5">
+        <f>LoRa_System_Init!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <f>LoRa_System_Init!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <f>LoRa_System_Init!I66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="str">
+        <f>LoRa_System_Init!G67</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f>LoRa_System_Init!H67</f>
+        <v>Channels</v>
+      </c>
+      <c r="I67" s="8" t="str">
+        <f>LoRa_System_Init!I67</f>
+        <v>DefaultChannels868[]</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="str">
+        <f>LoRa_System_Init!G68</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f>LoRa_System_Init!H68</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I68" s="8" t="str">
+        <f>LoRa_System_Init!I68</f>
+        <v>array</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G69" s="5">
+        <f>LoRa_System_Init!G69</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <f>LoRa_System_Init!H69</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
+        <f>LoRa_System_Init!I69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G70" s="5">
+        <f>LoRa_System_Init!G70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <f>LoRa_System_Init!H70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <f>LoRa_System_Init!I70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G71" s="5">
+        <f>LoRa_System_Init!G72</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <f>LoRa_System_Init!H72</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <f>LoRa_System_Init!I72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G72" s="5">
+        <f>LoRa_System_Init!G73</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <f>LoRa_System_Init!H73</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <f>LoRa_System_Init!I73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G73" s="5">
+        <f>LoRa_System_Init!G74</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <f>LoRa_System_Init!H74</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <f>LoRa_System_Init!I74</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Lora 2019.xlsx
+++ b/Lora 2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB9C642-F232-4497-AF8E-1A4D38906B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2978708D-D9D8-4823-9E32-A6506B8EDA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" activeTab="5" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
+    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" activeTab="7" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
   <sheets>
     <sheet name="function" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="LoRa_System_Init" sheetId="10" r:id="rId4"/>
     <sheet name="RADIO_Init" sheetId="11" r:id="rId5"/>
     <sheet name="LoRa_Send" sheetId="13" r:id="rId6"/>
+    <sheet name="LoRa_TxDone" sheetId="14" r:id="rId7"/>
+    <sheet name="LoRa_RxDone" sheetId="15" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="216">
   <si>
     <t>timer</t>
   </si>
@@ -196,9 +198,15 @@
     <t>LoRa_TxDone</t>
   </si>
   <si>
+    <t>timeOnAir</t>
+  </si>
+  <si>
     <t>uint16_t</t>
   </si>
   <si>
+    <t>ConfigureRadioRx</t>
+  </si>
+  <si>
     <t>LoRa_Send</t>
   </si>
   <si>
@@ -662,6 +670,24 @@
   </si>
   <si>
     <t>watchdogTimerTimeout</t>
+  </si>
+  <si>
+    <t>LoRa_EnterReceive</t>
+  </si>
+  <si>
+    <t>data in</t>
+  </si>
+  <si>
+    <t>dataBuffer</t>
+  </si>
+  <si>
+    <t>dataBufferLen</t>
+  </si>
+  <si>
+    <t>LoRa_Command</t>
+  </si>
+  <si>
+    <t>LoRa_Transmit_timeout</t>
   </si>
 </sst>
 </file>
@@ -687,7 +713,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,6 +750,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -738,7 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -764,6 +796,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1084,7 +1120,7 @@
   <dimension ref="B1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1102,458 +1138,464 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E4"/>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5"/>
       <c r="E5"/>
       <c r="G5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6"/>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D7"/>
       <c r="E7"/>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8"/>
       <c r="E8"/>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D10"/>
       <c r="E10"/>
       <c r="G10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="G11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D12"/>
       <c r="E12"/>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17"/>
       <c r="E17"/>
       <c r="G17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="G20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
       <c r="G21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
       <c r="G24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
       <c r="G25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="G26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D27"/>
       <c r="E27"/>
       <c r="G27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D28"/>
       <c r="E28"/>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29"/>
       <c r="E29"/>
       <c r="G29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D30"/>
       <c r="E30"/>
       <c r="G30" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31"/>
       <c r="E31"/>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D32"/>
       <c r="E32"/>
       <c r="G32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D33"/>
       <c r="E33"/>
       <c r="G33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D34"/>
       <c r="E34"/>
       <c r="G34" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1566,62 +1608,62 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E38"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -1635,10 +1677,10 @@
         <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>51</v>
@@ -1649,10 +1691,10 @@
         <v>34</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s">
         <v>45</v>
@@ -1660,10 +1702,10 @@
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1724,7 @@
   <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1693,7 +1735,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>46</v>
@@ -1701,27 +1743,27 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>55</v>
+      <c r="C4" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>72</v>
+      <c r="C5" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -2035,16 +2077,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>25</v>
@@ -2085,7 +2127,7 @@
         <v>LoRa_initialised</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -2098,12 +2140,12 @@
         <v>LoRa_Addres</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G6" t="str">
         <f>function!B6</f>
@@ -2114,7 +2156,7 @@
         <v>LoRa_TimerHandshaking</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>49</v>
@@ -2122,7 +2164,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G7" t="str">
         <f>function!B7</f>
@@ -2133,15 +2175,15 @@
         <v>LoRa_TimerReconnect</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G8" t="str">
         <f>function!B8</f>
@@ -2152,10 +2194,10 @@
         <v>LoRa_TimerWaitAck</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2174,10 +2216,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G10" t="str">
         <f>function!B10</f>
@@ -2211,10 +2253,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G12" t="str">
         <f>function!B12</f>
@@ -2231,18 +2273,18 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13">
+        <v>91</v>
+      </c>
+      <c r="G13" t="str">
         <f>function!B13</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" t="str">
         <f>function!C13</f>
-        <v>0</v>
+        <v>LoRa_Command</v>
       </c>
       <c r="I13" s="2">
         <f>function!D13</f>
@@ -2251,10 +2293,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G14" t="str">
         <f>function!B14</f>
@@ -2265,7 +2307,7 @@
         <v>LoRa_maxChannels</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2284,7 +2326,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>H21</f>
@@ -2305,7 +2347,7 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G17" t="str">
         <f>function!B17</f>
@@ -2322,7 +2364,7 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D18" s="8"/>
       <c r="G18" t="str">
@@ -2334,7 +2376,7 @@
         <v>LoRa_ch0_params.frequency</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -2349,7 +2391,7 @@
         <v>LoRa_ch0_params.datarate</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -2379,7 +2421,7 @@
         <v>LoRa_syncWord</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -2394,7 +2436,7 @@
         <v>LoRa_batteryLevel</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -2425,7 +2467,7 @@
         <v>LoRa_currentDataRate</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -2440,7 +2482,7 @@
         <v>LoRa_minDataRate</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
@@ -2455,7 +2497,7 @@
         <v>LoRa_maxDataRate</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
@@ -2971,7 +3013,7 @@
         <v>Channels</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="7:9" x14ac:dyDescent="0.25">
@@ -2984,7 +3026,7 @@
         <v>maxPayloadSize[]</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3017,27 +3059,27 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -3059,7 +3101,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -3213,13 +3255,13 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G13" s="5">
+      <c r="G13" s="5" t="str">
         <f>LoRa_System_Init!G13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" s="5" t="str">
         <f>LoRa_System_Init!H13</f>
-        <v>0</v>
+        <v>LoRa_Command</v>
       </c>
       <c r="I13" s="8">
         <f>LoRa_System_Init!I13</f>
@@ -3563,7 +3605,7 @@
         <v>syncWordLoRa;</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
@@ -3576,7 +3618,7 @@
         <v>syncWord[8];</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
@@ -3602,7 +3644,7 @@
         <v>modulation;</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
@@ -3615,7 +3657,7 @@
         <v>dataRate;</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
@@ -3628,7 +3670,7 @@
         <v>bandWidth;</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
@@ -3667,7 +3709,7 @@
         <v>paBoost;</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
@@ -3680,7 +3722,7 @@
         <v>frequencyHopPeriod;</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
@@ -3693,7 +3735,7 @@
         <v>iqInverted;</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
@@ -3706,7 +3748,7 @@
         <v>errorCodingRate;</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
@@ -3719,7 +3761,7 @@
         <v>implicitHeaderMode;</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
@@ -3732,7 +3774,7 @@
         <v>flags;</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.25">
@@ -3745,7 +3787,7 @@
         <v>dataBufferLen;</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.25">
@@ -3776,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.25">
@@ -3792,7 +3834,7 @@
         <v>24</v>
       </c>
       <c r="J52" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.25">
@@ -3808,7 +3850,7 @@
         <v>26</v>
       </c>
       <c r="J53" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
@@ -3821,7 +3863,7 @@
         <v>watchdogTimerTimeout;</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.25">
@@ -3847,7 +3889,7 @@
         <v>(*fhssNextFrequency)(void);</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.25">
@@ -3860,7 +3902,7 @@
         <v>regVersion;</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.25">
@@ -3886,7 +3928,7 @@
         <v>fskDataShaping;</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.25">
@@ -3899,7 +3941,7 @@
         <v>rxBw;</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
@@ -3912,7 +3954,7 @@
         <v>afcBw;</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.25">
@@ -4004,8 +4046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E95C79-6986-417D-BB03-2118CBD6BA06}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4022,19 +4064,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>25</v>
@@ -4042,7 +4084,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
@@ -4057,8 +4099,9 @@
         <f>LoRa_System_Init!E3</f>
         <v>LoRa_Idle</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>54</v>
+      <c r="E3" s="1" t="str">
+        <f>I3</f>
+        <v>LoRa_Handshaking_TX</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="str">
@@ -4069,8 +4112,9 @@
         <f>LoRa_System_Init!H3</f>
         <v>LoRa_Status</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>54</v>
+      <c r="I3" s="6" t="str">
+        <f>enum!C3</f>
+        <v>LoRa_Handshaking_TX</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -4089,7 +4133,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G5" s="5" t="str">
         <f>LoRa_System_Init!G5</f>
@@ -4106,16 +4150,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G6" s="5" t="str">
         <f>LoRa_System_Init!G6</f>
@@ -4153,13 +4197,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G8" s="5" t="str">
         <f>LoRa_System_Init!G8</f>
@@ -4188,12 +4232,12 @@
         <v>LoRa_HeaderBufor</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -4202,7 +4246,7 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G10" s="5" t="str">
         <f>LoRa_System_Init!G10</f>
@@ -4213,7 +4257,7 @@
         <v>LoRa_HeaderLength</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -4226,7 +4270,7 @@
         <v>LoRa_Bufor</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -4234,10 +4278,10 @@
         <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G12" s="5" t="str">
         <f>LoRa_System_Init!G12</f>
@@ -4248,17 +4292,17 @@
         <v>LoRa_BuforLength</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G13" s="5">
+      <c r="G13" s="5" t="str">
         <f>LoRa_System_Init!G13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" s="5" t="str">
         <f>LoRa_System_Init!H13</f>
-        <v>0</v>
+        <v>LoRa_Command</v>
       </c>
       <c r="I13" s="8">
         <f>LoRa_System_Init!I13</f>
@@ -4289,7 +4333,7 @@
         <v>LoRa_receiveChannelParameters.frequency</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4368,7 +4412,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C20" t="str">
+      <c r="C20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="16" t="str">
         <f>function!G45</f>
         <v>LoRa_TxDone</v>
       </c>
@@ -4563,7 +4610,7 @@
         <v>frequency;</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
@@ -4618,7 +4665,7 @@
         <v>syncWordLoRa;</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.25">
@@ -4659,7 +4706,7 @@
         <v>modulation;</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.25">
@@ -4672,7 +4719,7 @@
         <v>dataRate;</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.25">
@@ -4685,7 +4732,7 @@
         <v>bandWidth;</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.25">
@@ -4698,7 +4745,7 @@
         <v>outputPower;</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.25">
@@ -4711,7 +4758,7 @@
         <v>crcOn;</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.25">
@@ -4738,7 +4785,7 @@
         <v>frequencyHopPeriod;</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="7:9" x14ac:dyDescent="0.25">
@@ -4751,7 +4798,7 @@
         <v>iqInverted;</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.25">
@@ -4861,7 +4908,7 @@
         <v>watchdogTimerId;</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.25">
@@ -5103,6 +5150,2786 @@
       </c>
     </row>
     <row r="73" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G73" s="5">
+        <f>LoRa_System_Init!G74</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <f>LoRa_System_Init!H74</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <f>LoRa_System_Init!I74</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FABEB7E-43F2-42E5-B0A0-C4582FBABD80}">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="str">
+        <f>H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="str">
+        <f>LoRa_System_Init!C3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>LoRa_Send!E3</f>
+        <v>LoRa_Handshaking_TX</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>I3</f>
+        <v>LoRa_Handshaking_RX</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="str">
+        <f>LoRa_Send!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>LoRa_Send!H3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f>enum!C4</f>
+        <v>LoRa_Handshaking_RX</v>
+      </c>
+      <c r="J3" s="5">
+        <f>LoRa_Send!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="str">
+        <f>LoRa_Send!G4</f>
+        <v>bool</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>LoRa_Send!H4</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>LoRa_Send!I4</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J4" s="5">
+        <f>LoRa_Send!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f>LoRa_Send!G5</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>LoRa_Send!H5</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>LoRa_Send!I5</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+      <c r="J5" s="5">
+        <f>LoRa_Send!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="G6" s="5" t="str">
+        <f>LoRa_Send!G6</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>LoRa_Send!H6</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f>LoRa_Send!I6</f>
+        <v>LoRa_Handshaking_timeout</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>LoRa_Send!J6</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f>LoRa_Send!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>LoRa_Send!H7</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>LoRa_Send!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>LoRa_Send!J7</f>
+        <v>LoRa_TimerReconnectCallback</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f>LoRa_Send!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f>LoRa_Send!H8</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f>LoRa_Send!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>LoRa_Send!J8</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f>LoRa_Send!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>LoRa_Send!H9</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>LoRa_Send!I9</f>
+        <v>LoRa_Addres, nxt_channel</v>
+      </c>
+      <c r="J9" s="5">
+        <f>LoRa_Send!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f>LoRa_Send!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>LoRa_Send!H10</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>LoRa_Send!I10</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="J10" s="5">
+        <f>LoRa_Send!J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f>LoRa_Send!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>LoRa_Send!H11</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>LoRa_Send!I11</f>
+        <v>bufferIndex, nxt_channel, data, CRC</v>
+      </c>
+      <c r="J11" s="5">
+        <f>LoRa_Send!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f>LoRa_Send!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>LoRa_Send!H12</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>LoRa_Send!I12</f>
+        <v>bufferIndex</v>
+      </c>
+      <c r="J12" s="5">
+        <f>LoRa_Send!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f>LoRa_Send!G13</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>LoRa_Send!H13</f>
+        <v>LoRa_Command</v>
+      </c>
+      <c r="I13" s="8">
+        <f>LoRa_Send!I13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <f>LoRa_Send!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f>LoRa_Send!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>LoRa_Send!H14</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>LoRa_Send!I14</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J14" s="5">
+        <f>LoRa_Send!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f>LoRa_Send!G15</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>LoRa_Send!H15</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f>LoRa_Send!I15</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J15" s="5">
+        <f>LoRa_Send!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <f>LoRa_Send!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>LoRa_Send!H16</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f>LoRa_Send!I16</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J16" s="5">
+        <f>LoRa_Send!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="str">
+        <f>LoRa_Send!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>LoRa_Send!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>LoRa_Send!I17</f>
+        <v>CH_nr</v>
+      </c>
+      <c r="J17" s="5">
+        <f>LoRa_Send!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f>LoRa_Send!C18</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f>LoRa_Send!D18</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+      <c r="E18" s="5">
+        <f>LoRa_Send!E18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>LoRa_Send!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>LoRa_Send!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>LoRa_Send!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+      <c r="J18" s="5">
+        <f>LoRa_Send!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="str">
+        <f>LoRa_Send!C19</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="D19" s="5">
+        <f>LoRa_Send!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f>LoRa_Send!E19</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="G19" s="5">
+        <f>LoRa_Send!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>LoRa_Send!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>LoRa_Send!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+      <c r="J19" s="5">
+        <f>LoRa_Send!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f>function!G46</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="E20" s="5">
+        <f>LoRa_Send!E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f>LoRa_Send!G20</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>LoRa_Send!H20</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I20" s="8">
+        <f>LoRa_Send!I20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <f>LoRa_Send!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="str">
+        <f>LoRa_Send!G21</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>LoRa_Send!H21</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>LoRa_Send!I21</f>
+        <v>0x34</v>
+      </c>
+      <c r="J21" s="5">
+        <f>LoRa_Send!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="str">
+        <f>LoRa_Send!G22</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>LoRa_Send!H22</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>LoRa_Send!I22</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+      <c r="J22" s="5">
+        <f>LoRa_Send!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="str">
+        <f>LoRa_Send!G23</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>LoRa_Send!H23</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>LoRa_Send!I23</f>
+        <v>ISM_EU868</v>
+      </c>
+      <c r="J23" s="5">
+        <f>LoRa_Send!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="str">
+        <f>LoRa_Send!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>LoRa_Send!H24</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>LoRa_Send!I24</f>
+        <v>DR0</v>
+      </c>
+      <c r="J24" s="5">
+        <f>LoRa_Send!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="str">
+        <f>LoRa_Send!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>LoRa_Send!H25</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f>LoRa_Send!I25</f>
+        <v>DR0</v>
+      </c>
+      <c r="J25" s="5">
+        <f>LoRa_Send!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="str">
+        <f>LoRa_Send!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>LoRa_Send!H26</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>LoRa_Send!I26</f>
+        <v>DR7</v>
+      </c>
+      <c r="J26" s="5">
+        <f>LoRa_Send!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <f>LoRa_Send!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f>LoRa_Send!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f>LoRa_Send!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f>LoRa_Send!J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <f>LoRa_Send!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>LoRa_Send!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <f>LoRa_Send!I28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <f>LoRa_Send!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="str">
+        <f>LoRa_Send!G29</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>LoRa_Send!H29</f>
+        <v>LoRa_TxDone</v>
+      </c>
+      <c r="I29" s="8">
+        <f>LoRa_Send!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <f>LoRa_Send!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="str">
+        <f>LoRa_Send!G30</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f>LoRa_Send!H30</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="I30" s="8">
+        <f>LoRa_Send!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <f>LoRa_Send!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="5">
+        <f>LoRa_Send!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f>LoRa_Send!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <f>LoRa_Send!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <f>LoRa_Send!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="5">
+        <f>LoRa_Send!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f>LoRa_Send!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <f>LoRa_Send!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f>LoRa_Send!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="str">
+        <f>LoRa_Send!G33</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>LoRa_Send!H33</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f>LoRa_Send!I33</f>
+        <v>freq</v>
+      </c>
+      <c r="J33" s="5">
+        <f>LoRa_Send!J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="str">
+        <f>LoRa_Send!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>LoRa_Send!H34</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I34" s="8">
+        <f>LoRa_Send!I34</f>
+        <v>25000</v>
+      </c>
+      <c r="J34" s="5">
+        <f>LoRa_Send!J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="str">
+        <f>LoRa_Send!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>LoRa_Send!H35</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I35" s="8">
+        <f>LoRa_Send!I35</f>
+        <v>50000</v>
+      </c>
+      <c r="J35" s="5">
+        <f>LoRa_Send!J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="str">
+        <f>LoRa_Send!G36</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>LoRa_Send!H36</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I36" s="8">
+        <f>LoRa_Send!I36</f>
+        <v>8</v>
+      </c>
+      <c r="J36" s="5">
+        <f>LoRa_Send!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="str">
+        <f>LoRa_Send!G37</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f>LoRa_Send!H37</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f>LoRa_Send!I37</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="J37" s="5">
+        <f>LoRa_Send!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="str">
+        <f>LoRa_Send!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f>LoRa_Send!H38</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f>LoRa_Send!I38</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+      <c r="J38" s="5">
+        <f>LoRa_Send!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="str">
+        <f>LoRa_Send!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f>LoRa_Send!H39</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I39" s="8">
+        <f>LoRa_Send!I39</f>
+        <v>3</v>
+      </c>
+      <c r="J39" s="5">
+        <f>LoRa_Send!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="str">
+        <f>LoRa_Send!G40</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f>LoRa_Send!H40</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f>LoRa_Send!I40</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="J40" s="5">
+        <f>LoRa_Send!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="str">
+        <f>LoRa_Send!G41</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>LoRa_Send!H41</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f>LoRa_Send!I41</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="J41" s="5">
+        <f>LoRa_Send!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="str">
+        <f>LoRa_Send!G42</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f>LoRa_Send!H42</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f>LoRa_Send!I42</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="J42" s="5">
+        <f>LoRa_Send!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="str">
+        <f>LoRa_Send!G43</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f>LoRa_Send!H43</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f>LoRa_Send!I43</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="J43" s="5">
+        <f>LoRa_Send!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="str">
+        <f>LoRa_Send!G44</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f>LoRa_Send!H44</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f>LoRa_Send!I44</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J44" s="5">
+        <f>LoRa_Send!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="str">
+        <f>LoRa_Send!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f>LoRa_Send!H45</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f>LoRa_Send!I45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <f>LoRa_Send!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="str">
+        <f>LoRa_Send!G46</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f>LoRa_Send!H46</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f>LoRa_Send!I46</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J46" s="5">
+        <f>LoRa_Send!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="str">
+        <f>LoRa_Send!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f>LoRa_Send!H47</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>LoRa_Send!I47</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J47" s="5">
+        <f>LoRa_Send!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="str">
+        <f>LoRa_Send!G48</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f>LoRa_Send!H48</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>LoRa_Send!I48</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="J48" s="5">
+        <f>LoRa_Send!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="str">
+        <f>LoRa_Send!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f>LoRa_Send!H49</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f>LoRa_Send!I49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <f>LoRa_Send!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="str">
+        <f>LoRa_Send!G50</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f>LoRa_Send!H50</f>
+        <v>flags;</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>LoRa_Send!I50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f>LoRa_Send!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="str">
+        <f>LoRa_Send!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f>LoRa_Send!H51</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f>LoRa_Send!I51</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <f>LoRa_Send!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="str">
+        <f>LoRa_Send!G52</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f>LoRa_Send!H52</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f>LoRa_Send!I52</f>
+        <v>&amp;radioBuffer[16]</v>
+      </c>
+      <c r="J52" s="5">
+        <f>LoRa_Send!J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="str">
+        <f>LoRa_Send!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f>LoRa_Send!H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f>LoRa_Send!I53</f>
+        <v>TIME_ON_AIR_LOAD_VALUE</v>
+      </c>
+      <c r="J53" s="5">
+        <f>LoRa_Send!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="str">
+        <f>LoRa_Send!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f>LoRa_Send!H54</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I54" s="6" t="str">
+        <f>LoRa_Send!I54</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+      <c r="J54" s="5">
+        <f>LoRa_Send!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="str">
+        <f>LoRa_Send!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>LoRa_Send!H55</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="J55" s="5">
+        <f>LoRa_Send!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="str">
+        <f>LoRa_Send!G56</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f>LoRa_Send!H56</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I56" s="8" t="str">
+        <f>LoRa_Send!I56</f>
+        <v>WATCHDOG_DEFAULT_TIME</v>
+      </c>
+      <c r="J56" s="5">
+        <f>LoRa_Send!J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="str">
+        <f>LoRa_Send!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f>LoRa_Send!H57</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I57" s="8">
+        <f>LoRa_Send!I57</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <f>LoRa_Send!J57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="str">
+        <f>LoRa_Send!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f>LoRa_Send!H58</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I58" s="8" t="str">
+        <f>LoRa_Send!I58</f>
+        <v>NULL</v>
+      </c>
+      <c r="J58" s="5">
+        <f>LoRa_Send!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="str">
+        <f>LoRa_Send!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f>LoRa_Send!H59</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I59" s="8" t="str">
+        <f>LoRa_Send!I59</f>
+        <v>RADIO_RegisterRead(REG_VERSION)</v>
+      </c>
+      <c r="J59" s="5">
+        <f>LoRa_Send!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="str">
+        <f>LoRa_Send!G60</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f>LoRa_Send!H60</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I60" s="8">
+        <f>LoRa_Send!I60</f>
+        <v>-128</v>
+      </c>
+      <c r="J60" s="5">
+        <f>LoRa_Send!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="str">
+        <f>LoRa_Send!G61</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f>LoRa_Send!H61</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I61" s="8" t="str">
+        <f>LoRa_Send!I61</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="J61" s="5">
+        <f>LoRa_Send!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="str">
+        <f>LoRa_Send!G62</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f>LoRa_Send!H62</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I62" s="8" t="str">
+        <f>LoRa_Send!I62</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+      <c r="J62" s="5">
+        <f>LoRa_Send!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="str">
+        <f>LoRa_Send!G63</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f>LoRa_Send!H63</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I63" s="8" t="str">
+        <f>LoRa_Send!I63</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+      <c r="J63" s="5">
+        <f>LoRa_Send!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G64" s="5">
+        <f>LoRa_Send!G64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <f>LoRa_Send!H64</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <f>LoRa_Send!I64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f>LoRa_Send!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="5">
+        <f>LoRa_Send!G65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <f>LoRa_Send!H65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <f>LoRa_Send!I65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f>LoRa_Send!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G66" s="5">
+        <f>LoRa_Send!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <f>LoRa_Send!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <f>LoRa_Send!I66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <f>LoRa_Send!J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="str">
+        <f>LoRa_Send!G67</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f>LoRa_Send!H67</f>
+        <v>Channels</v>
+      </c>
+      <c r="I67" s="8" t="str">
+        <f>LoRa_Send!I67</f>
+        <v>DefaultChannels868[]</v>
+      </c>
+      <c r="J67" s="5">
+        <f>LoRa_Send!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="str">
+        <f>LoRa_Send!G68</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f>LoRa_Send!H68</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I68" s="8" t="str">
+        <f>LoRa_Send!I68</f>
+        <v>array</v>
+      </c>
+      <c r="J68" s="5">
+        <f>LoRa_Send!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G69" s="5">
+        <f>LoRa_Send!G69</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <f>LoRa_Send!H69</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
+        <f>LoRa_Send!I69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <f>LoRa_Send!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G70" s="5">
+        <f>LoRa_Send!G70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <f>LoRa_Send!H70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <f>LoRa_Send!I70</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f>LoRa_Send!J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G71" s="5">
+        <f>LoRa_Send!G71</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <f>LoRa_Send!H71</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <f>LoRa_Send!I71</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <f>LoRa_Send!J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G72" s="5">
+        <f>LoRa_Send!G72</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <f>LoRa_Send!H72</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <f>LoRa_Send!I72</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <f>LoRa_Send!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G73" s="5">
+        <f>LoRa_System_Init!G74</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <f>LoRa_System_Init!H74</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <f>LoRa_System_Init!I74</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C80F2B-5AC3-4E02-A49F-94CB470F418B}">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="str">
+        <f>LoRa_System_Init!C3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>LoRa_TxDone!E3</f>
+        <v>LoRa_Handshaking_RX</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="str">
+        <f>LoRa_TxDone!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>LoRa_TxDone!H3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f>enum!C5</f>
+        <v>LoRa_SendData_TX</v>
+      </c>
+      <c r="J3" s="5">
+        <f>LoRa_TxDone!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="str">
+        <f>LoRa_TxDone!G4</f>
+        <v>bool</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>LoRa_TxDone!H4</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>LoRa_TxDone!I4</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J4" s="5">
+        <f>LoRa_TxDone!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="str">
+        <f>LoRa_TxDone!G5</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>LoRa_TxDone!H5</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>LoRa_TxDone!I5</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+      <c r="J5" s="5">
+        <f>LoRa_TxDone!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="G6" s="5" t="str">
+        <f>LoRa_TxDone!G6</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>LoRa_TxDone!H6</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>LoRa_TxDone!J6</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f>LoRa_TxDone!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>LoRa_TxDone!H7</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>LoRa_TxDone!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>LoRa_TxDone!J7</f>
+        <v>LoRa_TimerReconnectCallback</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f>LoRa_TxDone!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f>LoRa_TxDone!H8</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>LoRa_TxDone!J8</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f>LoRa_TxDone!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>LoRa_TxDone!H9</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>LoRa_TxDone!I9</f>
+        <v>LoRa_Addres, nxt_channel</v>
+      </c>
+      <c r="J9" s="5">
+        <f>LoRa_TxDone!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f>LoRa_TxDone!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>LoRa_TxDone!H10</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>LoRa_TxDone!I10</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="J10" s="5">
+        <f>LoRa_TxDone!J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f>LoRa_TxDone!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>LoRa_TxDone!H11</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>LoRa_TxDone!I11</f>
+        <v>bufferIndex, nxt_channel, data, CRC</v>
+      </c>
+      <c r="J11" s="5">
+        <f>LoRa_TxDone!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f>LoRa_TxDone!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>LoRa_TxDone!H12</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>LoRa_TxDone!I12</f>
+        <v>bufferIndex</v>
+      </c>
+      <c r="J12" s="5">
+        <f>LoRa_TxDone!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f>LoRa_TxDone!G13</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>LoRa_TxDone!H13</f>
+        <v>LoRa_Command</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="5">
+        <f>LoRa_TxDone!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f>LoRa_TxDone!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>LoRa_TxDone!H14</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>LoRa_TxDone!I14</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J14" s="5">
+        <f>LoRa_TxDone!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f>LoRa_TxDone!G15</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>LoRa_TxDone!H15</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f>LoRa_TxDone!I15</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J15" s="5">
+        <f>LoRa_TxDone!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <f>LoRa_TxDone!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>LoRa_TxDone!H16</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f>LoRa_TxDone!I16</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J16" s="5">
+        <f>LoRa_TxDone!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="str">
+        <f>LoRa_TxDone!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>LoRa_TxDone!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>LoRa_TxDone!I17</f>
+        <v>CH_nr</v>
+      </c>
+      <c r="J17" s="5">
+        <f>LoRa_TxDone!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="5">
+        <f>LoRa_Send!E18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>LoRa_TxDone!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>LoRa_TxDone!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>LoRa_TxDone!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+      <c r="J18" s="5">
+        <f>LoRa_TxDone!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="str">
+        <f>LoRa_Send!C19</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="D19" s="5">
+        <f>LoRa_Send!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f>LoRa_Send!E19</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="G19" s="5">
+        <f>LoRa_TxDone!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>LoRa_TxDone!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>LoRa_TxDone!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+      <c r="J19" s="5">
+        <f>LoRa_TxDone!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f>function!G45</f>
+        <v>LoRa_TxDone</v>
+      </c>
+      <c r="E20" s="5">
+        <f>LoRa_Send!E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f>LoRa_TxDone!G20</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>LoRa_TxDone!H20</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I20" s="8">
+        <f>LoRa_TxDone!I20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <f>LoRa_TxDone!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="str">
+        <f>LoRa_TxDone!G21</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>LoRa_TxDone!H21</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>LoRa_TxDone!I21</f>
+        <v>0x34</v>
+      </c>
+      <c r="J21" s="5">
+        <f>LoRa_TxDone!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="str">
+        <f>LoRa_TxDone!G22</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>LoRa_TxDone!H22</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>LoRa_TxDone!I22</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+      <c r="J22" s="5">
+        <f>LoRa_TxDone!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="str">
+        <f>LoRa_TxDone!G23</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>LoRa_TxDone!H23</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>LoRa_TxDone!I23</f>
+        <v>ISM_EU868</v>
+      </c>
+      <c r="J23" s="5">
+        <f>LoRa_TxDone!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="str">
+        <f>LoRa_TxDone!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>LoRa_TxDone!H24</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>LoRa_TxDone!I24</f>
+        <v>DR0</v>
+      </c>
+      <c r="J24" s="5">
+        <f>LoRa_TxDone!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="str">
+        <f>LoRa_TxDone!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>LoRa_TxDone!H25</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f>LoRa_TxDone!I25</f>
+        <v>DR0</v>
+      </c>
+      <c r="J25" s="5">
+        <f>LoRa_TxDone!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="str">
+        <f>LoRa_TxDone!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>LoRa_TxDone!H26</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>LoRa_TxDone!I26</f>
+        <v>DR7</v>
+      </c>
+      <c r="J26" s="5">
+        <f>LoRa_TxDone!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <f>LoRa_TxDone!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f>LoRa_TxDone!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f>LoRa_TxDone!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f>LoRa_TxDone!J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <f>LoRa_TxDone!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>LoRa_TxDone!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <f>LoRa_TxDone!I28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <f>LoRa_TxDone!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="str">
+        <f>LoRa_TxDone!G29</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>LoRa_TxDone!H29</f>
+        <v>LoRa_TxDone</v>
+      </c>
+      <c r="I29" s="8">
+        <f>LoRa_TxDone!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <f>LoRa_TxDone!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="str">
+        <f>LoRa_TxDone!G30</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f>LoRa_TxDone!H30</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="I30" s="8">
+        <f>LoRa_TxDone!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <f>LoRa_TxDone!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="5">
+        <f>LoRa_TxDone!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f>LoRa_TxDone!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <f>LoRa_TxDone!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <f>LoRa_TxDone!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="5">
+        <f>LoRa_TxDone!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f>LoRa_TxDone!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <f>LoRa_TxDone!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f>LoRa_TxDone!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="str">
+        <f>LoRa_TxDone!G33</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>LoRa_TxDone!H33</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f>LoRa_TxDone!I33</f>
+        <v>freq</v>
+      </c>
+      <c r="J33" s="5">
+        <f>LoRa_TxDone!J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="str">
+        <f>LoRa_TxDone!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>LoRa_TxDone!H34</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I34" s="8">
+        <f>LoRa_TxDone!I34</f>
+        <v>25000</v>
+      </c>
+      <c r="J34" s="5">
+        <f>LoRa_TxDone!J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="str">
+        <f>LoRa_TxDone!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>LoRa_TxDone!H35</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I35" s="8">
+        <f>LoRa_TxDone!I35</f>
+        <v>50000</v>
+      </c>
+      <c r="J35" s="5">
+        <f>LoRa_TxDone!J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="str">
+        <f>LoRa_TxDone!G36</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>LoRa_TxDone!H36</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I36" s="8">
+        <f>LoRa_TxDone!I36</f>
+        <v>8</v>
+      </c>
+      <c r="J36" s="5">
+        <f>LoRa_TxDone!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="str">
+        <f>LoRa_TxDone!G37</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f>LoRa_TxDone!H37</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f>LoRa_TxDone!I37</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="J37" s="5">
+        <f>LoRa_TxDone!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="str">
+        <f>LoRa_TxDone!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f>LoRa_TxDone!H38</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f>LoRa_TxDone!I38</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+      <c r="J38" s="5">
+        <f>LoRa_TxDone!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="str">
+        <f>LoRa_TxDone!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f>LoRa_TxDone!H39</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I39" s="8">
+        <f>LoRa_TxDone!I39</f>
+        <v>3</v>
+      </c>
+      <c r="J39" s="5">
+        <f>LoRa_TxDone!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="str">
+        <f>LoRa_TxDone!G40</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f>LoRa_TxDone!H40</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f>LoRa_TxDone!I40</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="J40" s="5">
+        <f>LoRa_TxDone!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="str">
+        <f>LoRa_TxDone!G41</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>LoRa_TxDone!H41</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f>LoRa_TxDone!I41</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="J41" s="5">
+        <f>LoRa_TxDone!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="str">
+        <f>LoRa_TxDone!G42</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f>LoRa_TxDone!H42</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f>LoRa_TxDone!I42</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="J42" s="5">
+        <f>LoRa_TxDone!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="str">
+        <f>LoRa_TxDone!G43</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f>LoRa_TxDone!H43</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f>LoRa_TxDone!I43</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="J43" s="5">
+        <f>LoRa_TxDone!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="str">
+        <f>LoRa_TxDone!G44</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f>LoRa_TxDone!H44</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f>LoRa_TxDone!I44</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J44" s="5">
+        <f>LoRa_TxDone!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="str">
+        <f>LoRa_TxDone!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f>LoRa_TxDone!H45</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f>LoRa_TxDone!I45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <f>LoRa_TxDone!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="str">
+        <f>LoRa_TxDone!G46</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f>LoRa_TxDone!H46</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f>LoRa_TxDone!I46</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J46" s="5">
+        <f>LoRa_TxDone!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="str">
+        <f>LoRa_TxDone!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f>LoRa_TxDone!H47</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>LoRa_TxDone!I47</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J47" s="5">
+        <f>LoRa_TxDone!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="str">
+        <f>LoRa_TxDone!G48</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f>LoRa_TxDone!H48</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>LoRa_TxDone!I48</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="J48" s="5">
+        <f>LoRa_TxDone!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="str">
+        <f>LoRa_TxDone!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f>LoRa_TxDone!H49</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f>LoRa_TxDone!I49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <f>LoRa_TxDone!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="str">
+        <f>LoRa_TxDone!G50</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f>LoRa_TxDone!H50</f>
+        <v>flags;</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>LoRa_TxDone!I50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f>LoRa_TxDone!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="str">
+        <f>LoRa_TxDone!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f>LoRa_TxDone!H51</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J51" s="5">
+        <f>LoRa_TxDone!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="str">
+        <f>LoRa_TxDone!G52</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f>LoRa_TxDone!H52</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="J52" s="5">
+        <f>LoRa_TxDone!J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="str">
+        <f>LoRa_TxDone!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f>LoRa_TxDone!H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I53" s="6" t="str">
+        <f>LoRa_TxDone!I53</f>
+        <v>TIME_ON_AIR_LOAD_VALUE</v>
+      </c>
+      <c r="J53" s="5">
+        <f>LoRa_TxDone!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="str">
+        <f>LoRa_TxDone!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f>LoRa_TxDone!H54</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f>LoRa_TxDone!I54</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+      <c r="J54" s="5">
+        <f>LoRa_TxDone!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="str">
+        <f>LoRa_TxDone!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>LoRa_TxDone!H55</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I55" s="6" t="str">
+        <f>LoRa_TxDone!I55</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="J55" s="5">
+        <f>LoRa_TxDone!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="str">
+        <f>LoRa_TxDone!G56</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f>LoRa_TxDone!H56</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I56" s="8" t="str">
+        <f>LoRa_TxDone!I56</f>
+        <v>WATCHDOG_DEFAULT_TIME</v>
+      </c>
+      <c r="J56" s="5">
+        <f>LoRa_TxDone!J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="str">
+        <f>LoRa_TxDone!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f>LoRa_TxDone!H57</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I57" s="8">
+        <f>LoRa_TxDone!I57</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <f>LoRa_TxDone!J57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="str">
+        <f>LoRa_TxDone!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f>LoRa_TxDone!H58</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I58" s="8" t="str">
+        <f>LoRa_TxDone!I58</f>
+        <v>NULL</v>
+      </c>
+      <c r="J58" s="5">
+        <f>LoRa_TxDone!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="str">
+        <f>LoRa_TxDone!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f>LoRa_TxDone!H59</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I59" s="8" t="str">
+        <f>LoRa_TxDone!I59</f>
+        <v>RADIO_RegisterRead(REG_VERSION)</v>
+      </c>
+      <c r="J59" s="5">
+        <f>LoRa_TxDone!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="str">
+        <f>LoRa_TxDone!G60</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f>LoRa_TxDone!H60</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J60" s="5">
+        <f>LoRa_TxDone!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="str">
+        <f>LoRa_TxDone!G61</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f>LoRa_TxDone!H61</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I61" s="8" t="str">
+        <f>LoRa_TxDone!I61</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="J61" s="5">
+        <f>LoRa_TxDone!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="str">
+        <f>LoRa_TxDone!G62</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f>LoRa_TxDone!H62</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I62" s="8" t="str">
+        <f>LoRa_TxDone!I62</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+      <c r="J62" s="5">
+        <f>LoRa_TxDone!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="str">
+        <f>LoRa_TxDone!G63</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f>LoRa_TxDone!H63</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I63" s="8" t="str">
+        <f>LoRa_TxDone!I63</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+      <c r="J63" s="5">
+        <f>LoRa_TxDone!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G64" s="5">
+        <f>LoRa_TxDone!G64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <f>LoRa_TxDone!H64</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <f>LoRa_TxDone!I64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f>LoRa_TxDone!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="5">
+        <f>LoRa_TxDone!G65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <f>LoRa_TxDone!H65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <f>LoRa_TxDone!I65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f>LoRa_TxDone!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G66" s="5">
+        <f>LoRa_TxDone!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <f>LoRa_TxDone!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <f>LoRa_TxDone!I66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <f>LoRa_TxDone!J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="str">
+        <f>LoRa_TxDone!G67</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f>LoRa_TxDone!H67</f>
+        <v>Channels</v>
+      </c>
+      <c r="I67" s="8" t="str">
+        <f>LoRa_TxDone!I67</f>
+        <v>DefaultChannels868[]</v>
+      </c>
+      <c r="J67" s="5">
+        <f>LoRa_TxDone!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="str">
+        <f>LoRa_TxDone!G68</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f>LoRa_TxDone!H68</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I68" s="8" t="str">
+        <f>LoRa_TxDone!I68</f>
+        <v>array</v>
+      </c>
+      <c r="J68" s="5">
+        <f>LoRa_TxDone!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G69" s="5">
+        <f>LoRa_TxDone!G69</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <f>LoRa_TxDone!H69</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
+        <f>LoRa_TxDone!I69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <f>LoRa_TxDone!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G70" s="5">
+        <f>LoRa_TxDone!G70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <f>LoRa_TxDone!H70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <f>LoRa_TxDone!I70</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f>LoRa_TxDone!J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G71" s="5">
+        <f>LoRa_TxDone!G71</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <f>LoRa_TxDone!H71</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <f>LoRa_TxDone!I71</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <f>LoRa_TxDone!J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G72" s="5">
+        <f>LoRa_TxDone!G72</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <f>LoRa_TxDone!H72</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <f>LoRa_TxDone!I72</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <f>LoRa_TxDone!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73" s="5">
         <f>LoRa_System_Init!G74</f>
         <v>0</v>

--- a/Lora 2019.xlsx
+++ b/Lora 2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2978708D-D9D8-4823-9E32-A6506B8EDA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF408A1-8D5E-483C-8269-918BF7A605D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" activeTab="7" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
+    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" firstSheet="4" activeTab="9" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
   <sheets>
     <sheet name="function" sheetId="9" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="LoRa_System_Init" sheetId="10" r:id="rId4"/>
     <sheet name="RADIO_Init" sheetId="11" r:id="rId5"/>
     <sheet name="LoRa_Send" sheetId="13" r:id="rId6"/>
-    <sheet name="LoRa_TxDone" sheetId="14" r:id="rId7"/>
-    <sheet name="LoRa_RxDone" sheetId="15" r:id="rId8"/>
+    <sheet name="LoRa_TxDone_HTX" sheetId="14" r:id="rId7"/>
+    <sheet name="LoRa_RxDone_HRX" sheetId="15" r:id="rId8"/>
+    <sheet name="LoRa_TxDone_DTX" sheetId="16" r:id="rId9"/>
+    <sheet name="LoRa_RxDone_DRX" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="217">
   <si>
     <t>timer</t>
   </si>
@@ -688,6 +690,9 @@
   </si>
   <si>
     <t>LoRa_Transmit_timeout</t>
+  </si>
+  <si>
+    <t>LoRa_Sent</t>
   </si>
 </sst>
 </file>
@@ -713,7 +718,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,12 +755,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -770,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -798,8 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1719,12 +1717,1380 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D04122-FACB-4B12-99C1-DB7FE1128F8A}">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I55" sqref="I55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="str">
+        <f>LoRa_System_Init!C3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>LoRa_TxDone_DTX!E3</f>
+        <v>LoRa_SendData_RX</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I3</f>
+        <v>LoRa_SendData_RX</v>
+      </c>
+      <c r="J3" s="5">
+        <f>LoRa_TxDone_DTX!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G4</f>
+        <v>bool</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H4</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I4</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J4" s="5">
+        <f>LoRa_TxDone_DTX!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G5</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H5</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I5</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+      <c r="J5" s="5">
+        <f>LoRa_TxDone_DTX!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="G6" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G6</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H6</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f>LoRa_TxDone_DTX!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>LoRa_TxDone_DTX!J6</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H7</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>LoRa_TxDone_DTX!J7</f>
+        <v>LoRa_TimerReconnectCallback</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H8</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>LoRa_TxDone_DTX!J8</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H9</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I9</f>
+        <v>LoRa_Addres, nxt_channel</v>
+      </c>
+      <c r="J9" s="5">
+        <f>LoRa_TxDone_DTX!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H10</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I10</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="J10" s="5">
+        <f>LoRa_TxDone_DTX!J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H11</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I11</f>
+        <v>bufferIndex, nxt_channel, data, CRC</v>
+      </c>
+      <c r="J11" s="5">
+        <f>LoRa_TxDone_DTX!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H12</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I12</f>
+        <v>bufferIndex</v>
+      </c>
+      <c r="J12" s="5">
+        <f>LoRa_TxDone_DTX!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G13</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H13</f>
+        <v>LoRa_Command</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I13</f>
+        <v>value</v>
+      </c>
+      <c r="J13" s="5">
+        <f>LoRa_TxDone_DTX!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H14</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I14</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J14" s="5">
+        <f>LoRa_TxDone_DTX!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G15</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H15</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I15</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J15" s="5">
+        <f>LoRa_TxDone_DTX!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <f>LoRa_TxDone_DTX!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H16</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I16</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J16" s="5">
+        <f>LoRa_TxDone_DTX!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I17</f>
+        <v>CH_nr</v>
+      </c>
+      <c r="J17" s="5">
+        <f>LoRa_TxDone_DTX!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+      <c r="J18" s="5">
+        <f>LoRa_TxDone_DTX!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="G19" s="5">
+        <f>LoRa_TxDone_DTX!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+      <c r="J19" s="5">
+        <f>LoRa_TxDone_DTX!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G20</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H20</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I20" s="8">
+        <f>LoRa_TxDone_DTX!I20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <f>LoRa_TxDone_DTX!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G21</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H21</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I21</f>
+        <v>0x34</v>
+      </c>
+      <c r="J21" s="5">
+        <f>LoRa_TxDone_DTX!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G22</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H22</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I22</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+      <c r="J22" s="5">
+        <f>LoRa_TxDone_DTX!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G23</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H23</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I23</f>
+        <v>ISM_EU868</v>
+      </c>
+      <c r="J23" s="5">
+        <f>LoRa_TxDone_DTX!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H24</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I24</f>
+        <v>DR0</v>
+      </c>
+      <c r="J24" s="5">
+        <f>LoRa_TxDone_DTX!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H25</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I25</f>
+        <v>DR0</v>
+      </c>
+      <c r="J25" s="5">
+        <f>LoRa_TxDone_DTX!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H26</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I26</f>
+        <v>DR7</v>
+      </c>
+      <c r="J26" s="5">
+        <f>LoRa_TxDone_DTX!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <f>LoRa_TxDone_DTX!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f>LoRa_TxDone_DTX!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f>LoRa_TxDone_DTX!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f>LoRa_TxDone_DTX!J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <f>LoRa_TxDone_DTX!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>LoRa_TxDone_DTX!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <f>LoRa_TxDone_DTX!I28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <f>LoRa_TxDone_DTX!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G29</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H29</f>
+        <v>LoRa_TxDone</v>
+      </c>
+      <c r="I29" s="8">
+        <f>LoRa_TxDone_DTX!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <f>LoRa_TxDone_DTX!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G30</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H30</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="I30" s="8">
+        <f>LoRa_TxDone_DTX!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <f>LoRa_TxDone_DTX!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="5">
+        <f>LoRa_TxDone_DTX!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f>LoRa_TxDone_DTX!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <f>LoRa_TxDone_DTX!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <f>LoRa_TxDone_DTX!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="5">
+        <f>LoRa_TxDone_DTX!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f>LoRa_TxDone_DTX!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <f>LoRa_TxDone_DTX!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f>LoRa_TxDone_DTX!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G33</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H33</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I33</f>
+        <v>freq</v>
+      </c>
+      <c r="J33" s="5">
+        <f>LoRa_TxDone_DTX!J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H34</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I34" s="8">
+        <f>LoRa_TxDone_DTX!I34</f>
+        <v>25000</v>
+      </c>
+      <c r="J34" s="5">
+        <f>LoRa_TxDone_DTX!J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H35</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I35" s="8">
+        <f>LoRa_TxDone_DTX!I35</f>
+        <v>50000</v>
+      </c>
+      <c r="J35" s="5">
+        <f>LoRa_TxDone_DTX!J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G36</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H36</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I36" s="8">
+        <f>LoRa_TxDone_DTX!I36</f>
+        <v>8</v>
+      </c>
+      <c r="J36" s="5">
+        <f>LoRa_TxDone_DTX!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G37</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H37</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I37</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="J37" s="5">
+        <f>LoRa_TxDone_DTX!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H38</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I38</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+      <c r="J38" s="5">
+        <f>LoRa_TxDone_DTX!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H39</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I39" s="8">
+        <f>LoRa_TxDone_DTX!I39</f>
+        <v>3</v>
+      </c>
+      <c r="J39" s="5">
+        <f>LoRa_TxDone_DTX!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G40</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H40</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I40</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="J40" s="5">
+        <f>LoRa_TxDone_DTX!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G41</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H41</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I41</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="J41" s="5">
+        <f>LoRa_TxDone_DTX!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G42</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H42</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I42</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="J42" s="5">
+        <f>LoRa_TxDone_DTX!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G43</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H43</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I43</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="J43" s="5">
+        <f>LoRa_TxDone_DTX!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G44</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H44</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I44</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J44" s="5">
+        <f>LoRa_TxDone_DTX!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H45</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <f>LoRa_TxDone_DTX!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G46</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H46</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I46</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J46" s="5">
+        <f>LoRa_TxDone_DTX!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H47</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I47</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J47" s="5">
+        <f>LoRa_TxDone_DTX!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G48</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H48</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I48</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="J48" s="5">
+        <f>LoRa_TxDone_DTX!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H49</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <f>LoRa_TxDone_DTX!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G50</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H50</f>
+        <v>flags;</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f>LoRa_TxDone_DTX!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H51</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f>LoRa_TxDone_DTX!I51</f>
+        <v>value</v>
+      </c>
+      <c r="J51" s="5">
+        <f>LoRa_TxDone_DTX!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G52</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H52</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f>LoRa_TxDone_DTX!I52</f>
+        <v>data in</v>
+      </c>
+      <c r="J52" s="5">
+        <f>LoRa_TxDone_DTX!J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I53</f>
+        <v>TIME_ON_AIR_LOAD_VALUE</v>
+      </c>
+      <c r="J53" s="5">
+        <f>LoRa_TxDone_DTX!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H54</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I54</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+      <c r="J54" s="5">
+        <f>LoRa_TxDone_DTX!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H55</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J55" s="5">
+        <f>LoRa_TxDone_DTX!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G56</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H56</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I56" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I56</f>
+        <v>WATCHDOG_DEFAULT_TIME</v>
+      </c>
+      <c r="J56" s="5">
+        <f>LoRa_TxDone_DTX!J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H57</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I57" s="8">
+        <f>LoRa_TxDone_DTX!I57</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <f>LoRa_TxDone_DTX!J57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H58</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I58" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I58</f>
+        <v>NULL</v>
+      </c>
+      <c r="J58" s="5">
+        <f>LoRa_TxDone_DTX!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H59</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I59" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I59</f>
+        <v>RADIO_RegisterRead(REG_VERSION)</v>
+      </c>
+      <c r="J59" s="5">
+        <f>LoRa_TxDone_DTX!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G60</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H60</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I60" s="6" t="str">
+        <f>LoRa_TxDone_DTX!I60</f>
+        <v>value</v>
+      </c>
+      <c r="J60" s="5">
+        <f>LoRa_TxDone_DTX!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G61</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H61</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I61" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I61</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="J61" s="5">
+        <f>LoRa_TxDone_DTX!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G62</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H62</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I62" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I62</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+      <c r="J62" s="5">
+        <f>LoRa_TxDone_DTX!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G63</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H63</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I63" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I63</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+      <c r="J63" s="5">
+        <f>LoRa_TxDone_DTX!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G64" s="5">
+        <f>LoRa_TxDone_DTX!G64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <f>LoRa_TxDone_DTX!H64</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <f>LoRa_TxDone_DTX!I64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f>LoRa_TxDone_DTX!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="5">
+        <f>LoRa_TxDone_DTX!G65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <f>LoRa_TxDone_DTX!H65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <f>LoRa_TxDone_DTX!I65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f>LoRa_TxDone_DTX!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G66" s="5">
+        <f>LoRa_TxDone_DTX!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <f>LoRa_TxDone_DTX!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <f>LoRa_TxDone_DTX!I66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <f>LoRa_TxDone_DTX!J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G67</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H67</f>
+        <v>Channels</v>
+      </c>
+      <c r="I67" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I67</f>
+        <v>DefaultChannels868[]</v>
+      </c>
+      <c r="J67" s="5">
+        <f>LoRa_TxDone_DTX!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G68</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H68</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I68" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I68</f>
+        <v>array</v>
+      </c>
+      <c r="J68" s="5">
+        <f>LoRa_TxDone_DTX!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G69" s="5">
+        <f>LoRa_TxDone_DTX!G69</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <f>LoRa_TxDone_DTX!H69</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
+        <f>LoRa_TxDone_DTX!I69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <f>LoRa_TxDone_DTX!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G70" s="5">
+        <f>LoRa_TxDone_DTX!G70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <f>LoRa_TxDone_DTX!H70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <f>LoRa_TxDone_DTX!I70</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f>LoRa_TxDone_DTX!J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G71" s="5">
+        <f>LoRa_RxDone_HRX!G71</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <f>LoRa_RxDone_HRX!H71</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <f>LoRa_RxDone_HRX!I71</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <f>LoRa_RxDone_HRX!J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G72" s="5">
+        <f>LoRa_TxDone_HTX!G72</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <f>LoRa_TxDone_HTX!H72</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <f>LoRa_TxDone_HTX!I72</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <f>LoRa_TxDone_HTX!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G73" s="5">
+        <f>LoRa_System_Init!G74</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <f>LoRa_System_Init!H74</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <f>LoRa_System_Init!I74</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C4FA0C-4642-4A66-8A67-3E077AB5CD63}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1763,11 +3129,16 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4047,7 +5418,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4412,10 +5783,10 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="16" t="str">
+      <c r="D20" s="15" t="str">
         <f>function!G45</f>
         <v>LoRa_TxDone</v>
       </c>
@@ -5174,7 +6545,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -5578,10 +6949,10 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="5" t="str">
+      <c r="D20" s="4" t="str">
         <f>function!G46</f>
         <v>LoRa_RxDone</v>
       </c>
@@ -6565,8 +7936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C80F2B-5AC3-4E02-A49F-94CB470F418B}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -6622,7 +7993,7 @@
         <v>LoRa_Status</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f>LoRa_TxDone!E3</f>
+        <f>LoRa_TxDone_HTX!E3</f>
         <v>LoRa_Handshaking_RX</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -6630,11 +8001,11 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="str">
-        <f>LoRa_TxDone!G3</f>
+        <f>LoRa_TxDone_HTX!G3</f>
         <v>LoRaMacState_t</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f>LoRa_TxDone!H3</f>
+        <f>LoRa_TxDone_HTX!H3</f>
         <v>LoRa_Status</v>
       </c>
       <c r="I3" s="6" t="str">
@@ -6642,43 +8013,43 @@
         <v>LoRa_SendData_TX</v>
       </c>
       <c r="J3" s="5">
-        <f>LoRa_TxDone!J3</f>
+        <f>LoRa_TxDone_HTX!J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="str">
-        <f>LoRa_TxDone!G4</f>
+        <f>LoRa_TxDone_HTX!G4</f>
         <v>bool</v>
       </c>
       <c r="H4" s="5" t="str">
-        <f>LoRa_TxDone!H4</f>
+        <f>LoRa_TxDone_HTX!H4</f>
         <v>LoRa_initialised</v>
       </c>
       <c r="I4" s="8" t="str">
-        <f>LoRa_TxDone!I4</f>
+        <f>LoRa_TxDone_HTX!I4</f>
         <v>ENABLED</v>
       </c>
       <c r="J4" s="5">
-        <f>LoRa_TxDone!J4</f>
+        <f>LoRa_TxDone_HTX!J4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G5" s="5" t="str">
-        <f>LoRa_TxDone!G5</f>
+        <f>LoRa_TxDone_HTX!G5</f>
         <v>uint8_t</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f>LoRa_TxDone!H5</f>
+        <f>LoRa_TxDone_HTX!H5</f>
         <v>LoRa_Addres</v>
       </c>
       <c r="I5" s="8" t="str">
-        <f>LoRa_TxDone!I5</f>
+        <f>LoRa_TxDone_HTX!I5</f>
         <v>LoRaDeviceAddress</v>
       </c>
       <c r="J5" s="5">
-        <f>LoRa_TxDone!J5</f>
+        <f>LoRa_TxDone_HTX!J5</f>
         <v>0</v>
       </c>
     </row>
@@ -6686,223 +8057,223 @@
       <c r="C6" s="5"/>
       <c r="D6" s="11"/>
       <c r="G6" s="5" t="str">
-        <f>LoRa_TxDone!G6</f>
+        <f>LoRa_TxDone_HTX!G6</f>
         <v>uint8_t</v>
       </c>
       <c r="H6" s="5" t="str">
-        <f>LoRa_TxDone!H6</f>
+        <f>LoRa_TxDone_HTX!H6</f>
         <v>LoRa_TimerHandshaking</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>152</v>
       </c>
       <c r="J6" s="5" t="str">
-        <f>LoRa_TxDone!J6</f>
+        <f>LoRa_TxDone_HTX!J6</f>
         <v>LoRa_TimerHandshakingCallback</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
       <c r="G7" s="5" t="str">
-        <f>LoRa_TxDone!G7</f>
+        <f>LoRa_TxDone_HTX!G7</f>
         <v>uint8_t</v>
       </c>
       <c r="H7" s="5" t="str">
-        <f>LoRa_TxDone!H7</f>
+        <f>LoRa_TxDone_HTX!H7</f>
         <v>LoRa_TimerReconnect</v>
       </c>
       <c r="I7" s="8" t="str">
-        <f>LoRa_TxDone!I7</f>
+        <f>LoRa_TxDone_HTX!I7</f>
         <v>0</v>
       </c>
       <c r="J7" s="5" t="str">
-        <f>LoRa_TxDone!J7</f>
+        <f>LoRa_TxDone_HTX!J7</f>
         <v>LoRa_TimerReconnectCallback</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
       <c r="G8" s="5" t="str">
-        <f>LoRa_TxDone!G8</f>
+        <f>LoRa_TxDone_HTX!G8</f>
         <v>uint8_t</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f>LoRa_TxDone!H8</f>
+        <f>LoRa_TxDone_HTX!H8</f>
         <v>LoRa_TimerWaitAck</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>215</v>
       </c>
       <c r="J8" s="5" t="str">
-        <f>LoRa_TxDone!J8</f>
+        <f>LoRa_TxDone_HTX!J8</f>
         <v>LoRa_TimerWaitAckCallback</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="G9" s="5" t="str">
-        <f>LoRa_TxDone!G9</f>
+        <f>LoRa_TxDone_HTX!G9</f>
         <v>uint8_t</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f>LoRa_TxDone!H9</f>
+        <f>LoRa_TxDone_HTX!H9</f>
         <v>LoRa_HeaderBufor</v>
       </c>
       <c r="I9" s="8" t="str">
-        <f>LoRa_TxDone!I9</f>
+        <f>LoRa_TxDone_HTX!I9</f>
         <v>LoRa_Addres, nxt_channel</v>
       </c>
       <c r="J9" s="5">
-        <f>LoRa_TxDone!J9</f>
+        <f>LoRa_TxDone_HTX!J9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="G10" s="5" t="str">
-        <f>LoRa_TxDone!G10</f>
+        <f>LoRa_TxDone_HTX!G10</f>
         <v>uint8_t</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f>LoRa_TxDone!H10</f>
+        <f>LoRa_TxDone_HTX!H10</f>
         <v>LoRa_HeaderLength</v>
       </c>
       <c r="I10" s="8" t="str">
-        <f>LoRa_TxDone!I10</f>
+        <f>LoRa_TxDone_HTX!I10</f>
         <v>bufferHeadIndex</v>
       </c>
       <c r="J10" s="5">
-        <f>LoRa_TxDone!J10</f>
+        <f>LoRa_TxDone_HTX!J10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="G11" s="5" t="str">
-        <f>LoRa_TxDone!G11</f>
+        <f>LoRa_TxDone_HTX!G11</f>
         <v>uint8_t</v>
       </c>
       <c r="H11" s="5" t="str">
-        <f>LoRa_TxDone!H11</f>
+        <f>LoRa_TxDone_HTX!H11</f>
         <v>LoRa_Bufor</v>
       </c>
       <c r="I11" s="8" t="str">
-        <f>LoRa_TxDone!I11</f>
+        <f>LoRa_TxDone_HTX!I11</f>
         <v>bufferIndex, nxt_channel, data, CRC</v>
       </c>
       <c r="J11" s="5">
-        <f>LoRa_TxDone!J11</f>
+        <f>LoRa_TxDone_HTX!J11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="G12" s="5" t="str">
-        <f>LoRa_TxDone!G12</f>
+        <f>LoRa_TxDone_HTX!G12</f>
         <v>uint8_t</v>
       </c>
       <c r="H12" s="5" t="str">
-        <f>LoRa_TxDone!H12</f>
+        <f>LoRa_TxDone_HTX!H12</f>
         <v>LoRa_BuforLength</v>
       </c>
       <c r="I12" s="8" t="str">
-        <f>LoRa_TxDone!I12</f>
+        <f>LoRa_TxDone_HTX!I12</f>
         <v>bufferIndex</v>
       </c>
       <c r="J12" s="5">
-        <f>LoRa_TxDone!J12</f>
+        <f>LoRa_TxDone_HTX!J12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
       <c r="G13" s="5" t="str">
-        <f>LoRa_TxDone!G13</f>
+        <f>LoRa_TxDone_HTX!G13</f>
         <v>uint8_t</v>
       </c>
       <c r="H13" s="5" t="str">
-        <f>LoRa_TxDone!H13</f>
+        <f>LoRa_TxDone_HTX!H13</f>
         <v>LoRa_Command</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="5">
-        <f>LoRa_TxDone!J13</f>
+        <f>LoRa_TxDone_HTX!J13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
       <c r="G14" s="5" t="str">
-        <f>LoRa_TxDone!G14</f>
+        <f>LoRa_TxDone_HTX!G14</f>
         <v>uint8_t</v>
       </c>
       <c r="H14" s="5" t="str">
-        <f>LoRa_TxDone!H14</f>
+        <f>LoRa_TxDone_HTX!H14</f>
         <v>LoRa_maxChannels</v>
       </c>
       <c r="I14" s="8" t="str">
-        <f>LoRa_TxDone!I14</f>
+        <f>LoRa_TxDone_HTX!I14</f>
         <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
       </c>
       <c r="J14" s="5">
-        <f>LoRa_TxDone!J14</f>
+        <f>LoRa_TxDone_HTX!J14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
       <c r="G15" s="5" t="str">
-        <f>LoRa_TxDone!G15</f>
+        <f>LoRa_TxDone_HTX!G15</f>
         <v>ReceiveWindowParameters_t</v>
       </c>
       <c r="H15" s="5" t="str">
-        <f>LoRa_TxDone!H15</f>
+        <f>LoRa_TxDone_HTX!H15</f>
         <v>LoRa_receiveChannelParameters.frequency</v>
       </c>
       <c r="I15" s="8" t="str">
-        <f>LoRa_TxDone!I15</f>
+        <f>LoRa_TxDone_HTX!I15</f>
         <v>Channels[CH_nr].frequency</v>
       </c>
       <c r="J15" s="5">
-        <f>LoRa_TxDone!J15</f>
+        <f>LoRa_TxDone_HTX!J15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="5">
-        <f>LoRa_TxDone!G16</f>
+        <f>LoRa_TxDone_HTX!G16</f>
         <v>0</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f>LoRa_TxDone!H16</f>
+        <f>LoRa_TxDone_HTX!H16</f>
         <v>LoRa_receiveChannelParameters.dataRate</v>
       </c>
       <c r="I16" s="8" t="str">
-        <f>LoRa_TxDone!I16</f>
+        <f>LoRa_TxDone_HTX!I16</f>
         <v>LoRa_currentDataRate</v>
       </c>
       <c r="J16" s="5">
-        <f>LoRa_TxDone!J16</f>
+        <f>LoRa_TxDone_HTX!J16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G17" s="5" t="str">
-        <f>LoRa_TxDone!G17</f>
+        <f>LoRa_TxDone_HTX!G17</f>
         <v>uint8_t</v>
       </c>
       <c r="H17" s="5" t="str">
-        <f>LoRa_TxDone!H17</f>
+        <f>LoRa_TxDone_HTX!H17</f>
         <v>LoRa_lastUsedChannelIndex</v>
       </c>
       <c r="I17" s="8" t="str">
-        <f>LoRa_TxDone!I17</f>
+        <f>LoRa_TxDone_HTX!I17</f>
         <v>CH_nr</v>
       </c>
       <c r="J17" s="5">
-        <f>LoRa_TxDone!J17</f>
+        <f>LoRa_TxDone_HTX!J17</f>
         <v>0</v>
       </c>
     </row>
@@ -6921,19 +8292,19 @@
         <v>0</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f>LoRa_TxDone!G18</f>
+        <f>LoRa_TxDone_HTX!G18</f>
         <v>ReceiveWindowParameters_t</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f>LoRa_TxDone!H18</f>
+        <f>LoRa_TxDone_HTX!H18</f>
         <v>LoRa_ch0_params.frequency</v>
       </c>
       <c r="I18" s="8" t="str">
-        <f>LoRa_TxDone!I18</f>
+        <f>LoRa_TxDone_HTX!I18</f>
         <v>LoRa_CH0_frequency</v>
       </c>
       <c r="J18" s="5">
-        <f>LoRa_TxDone!J18</f>
+        <f>LoRa_TxDone_HTX!J18</f>
         <v>0</v>
       </c>
     </row>
@@ -6951,27 +8322,27 @@
         <v>watchdogTimerTimeout</v>
       </c>
       <c r="G19" s="5">
-        <f>LoRa_TxDone!G19</f>
+        <f>LoRa_TxDone_HTX!G19</f>
         <v>0</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f>LoRa_TxDone!H19</f>
+        <f>LoRa_TxDone_HTX!H19</f>
         <v>LoRa_ch0_params.datarate</v>
       </c>
       <c r="I19" s="8" t="str">
-        <f>LoRa_TxDone!I19</f>
+        <f>LoRa_TxDone_HTX!I19</f>
         <v>LoRa_CH0_datarate</v>
       </c>
       <c r="J19" s="5">
-        <f>LoRa_TxDone!J19</f>
+        <f>LoRa_TxDone_HTX!J19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="5" t="str">
+      <c r="D20" s="4" t="str">
         <f>function!G45</f>
         <v>LoRa_TxDone</v>
       </c>
@@ -6980,952 +8351,2336 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f>LoRa_TxDone!G20</f>
+        <f>LoRa_TxDone_HTX!G20</f>
         <v>uint8_t</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f>LoRa_TxDone!H20</f>
+        <f>LoRa_TxDone_HTX!H20</f>
         <v>LoRa_txPower</v>
       </c>
       <c r="I20" s="8">
-        <f>LoRa_TxDone!I20</f>
+        <f>LoRa_TxDone_HTX!I20</f>
         <v>1</v>
       </c>
       <c r="J20" s="5">
-        <f>LoRa_TxDone!J20</f>
+        <f>LoRa_TxDone_HTX!J20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G21" s="5" t="str">
-        <f>LoRa_TxDone!G21</f>
+        <f>LoRa_TxDone_HTX!G21</f>
         <v>uint8_t</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f>LoRa_TxDone!H21</f>
+        <f>LoRa_TxDone_HTX!H21</f>
         <v>LoRa_syncWord</v>
       </c>
       <c r="I21" s="8" t="str">
-        <f>LoRa_TxDone!I21</f>
+        <f>LoRa_TxDone_HTX!I21</f>
         <v>0x34</v>
       </c>
       <c r="J21" s="5">
-        <f>LoRa_TxDone!J21</f>
+        <f>LoRa_TxDone_HTX!J21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G22" s="5" t="str">
-        <f>LoRa_TxDone!G22</f>
+        <f>LoRa_TxDone_HTX!G22</f>
         <v>uint8_t</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>LoRa_TxDone!H22</f>
+        <f>LoRa_TxDone_HTX!H22</f>
         <v>LoRa_batteryLevel</v>
       </c>
       <c r="I22" s="8" t="str">
-        <f>LoRa_TxDone!I22</f>
+        <f>LoRa_TxDone_HTX!I22</f>
         <v>BATTERY_LEVEL_INVALID</v>
       </c>
       <c r="J22" s="5">
-        <f>LoRa_TxDone!J22</f>
+        <f>LoRa_TxDone_HTX!J22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G23" s="5" t="str">
-        <f>LoRa_TxDone!G23</f>
+        <f>LoRa_TxDone_HTX!G23</f>
         <v>IsmBand_t</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f>LoRa_TxDone!H23</f>
+        <f>LoRa_TxDone_HTX!H23</f>
         <v>LoRa_ismBand</v>
       </c>
       <c r="I23" s="8" t="str">
-        <f>LoRa_TxDone!I23</f>
+        <f>LoRa_TxDone_HTX!I23</f>
         <v>ISM_EU868</v>
       </c>
       <c r="J23" s="5">
-        <f>LoRa_TxDone!J23</f>
+        <f>LoRa_TxDone_HTX!J23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G24" s="5" t="str">
-        <f>LoRa_TxDone!G24</f>
+        <f>LoRa_TxDone_HTX!G24</f>
         <v>uint8_t</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f>LoRa_TxDone!H24</f>
+        <f>LoRa_TxDone_HTX!H24</f>
         <v>LoRa_currentDataRate</v>
       </c>
       <c r="I24" s="8" t="str">
-        <f>LoRa_TxDone!I24</f>
+        <f>LoRa_TxDone_HTX!I24</f>
         <v>DR0</v>
       </c>
       <c r="J24" s="5">
-        <f>LoRa_TxDone!J24</f>
+        <f>LoRa_TxDone_HTX!J24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G25" s="5" t="str">
-        <f>LoRa_TxDone!G25</f>
+        <f>LoRa_TxDone_HTX!G25</f>
         <v>uint8_t</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f>LoRa_TxDone!H25</f>
+        <f>LoRa_TxDone_HTX!H25</f>
         <v>LoRa_minDataRate</v>
       </c>
       <c r="I25" s="8" t="str">
-        <f>LoRa_TxDone!I25</f>
+        <f>LoRa_TxDone_HTX!I25</f>
         <v>DR0</v>
       </c>
       <c r="J25" s="5">
-        <f>LoRa_TxDone!J25</f>
+        <f>LoRa_TxDone_HTX!J25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G26" s="5" t="str">
-        <f>LoRa_TxDone!G26</f>
+        <f>LoRa_TxDone_HTX!G26</f>
         <v>uint8_t</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f>LoRa_TxDone!H26</f>
+        <f>LoRa_TxDone_HTX!H26</f>
         <v>LoRa_maxDataRate</v>
       </c>
       <c r="I26" s="8" t="str">
-        <f>LoRa_TxDone!I26</f>
+        <f>LoRa_TxDone_HTX!I26</f>
         <v>DR7</v>
       </c>
       <c r="J26" s="5">
-        <f>LoRa_TxDone!J26</f>
+        <f>LoRa_TxDone_HTX!J26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G27" s="5">
-        <f>LoRa_TxDone!G27</f>
+        <f>LoRa_TxDone_HTX!G27</f>
         <v>0</v>
       </c>
       <c r="H27" s="5">
-        <f>LoRa_TxDone!H27</f>
+        <f>LoRa_TxDone_HTX!H27</f>
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <f>LoRa_TxDone!I27</f>
+        <f>LoRa_TxDone_HTX!I27</f>
         <v>0</v>
       </c>
       <c r="J27" s="5">
-        <f>LoRa_TxDone!J27</f>
+        <f>LoRa_TxDone_HTX!J27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G28" s="5">
-        <f>LoRa_TxDone!G28</f>
+        <f>LoRa_TxDone_HTX!G28</f>
         <v>0</v>
       </c>
       <c r="H28" s="5">
-        <f>LoRa_TxDone!H28</f>
+        <f>LoRa_TxDone_HTX!H28</f>
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <f>LoRa_TxDone!I28</f>
+        <f>LoRa_TxDone_HTX!I28</f>
         <v>0</v>
       </c>
       <c r="J28" s="5">
-        <f>LoRa_TxDone!J28</f>
+        <f>LoRa_TxDone_HTX!J28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G29" s="5" t="str">
-        <f>LoRa_TxDone!G29</f>
+        <f>LoRa_TxDone_HTX!G29</f>
         <v>RADIO_Transmit</v>
       </c>
       <c r="H29" s="5" t="str">
-        <f>LoRa_TxDone!H29</f>
+        <f>LoRa_TxDone_HTX!H29</f>
         <v>LoRa_TxDone</v>
       </c>
       <c r="I29" s="8">
-        <f>LoRa_TxDone!I29</f>
+        <f>LoRa_TxDone_HTX!I29</f>
         <v>0</v>
       </c>
       <c r="J29" s="5">
-        <f>LoRa_TxDone!J29</f>
+        <f>LoRa_TxDone_HTX!J29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G30" s="5" t="str">
-        <f>LoRa_TxDone!G30</f>
+        <f>LoRa_TxDone_HTX!G30</f>
         <v>RADIO_RxDone</v>
       </c>
       <c r="H30" s="5" t="str">
-        <f>LoRa_TxDone!H30</f>
+        <f>LoRa_TxDone_HTX!H30</f>
         <v>LoRa_RxDone</v>
       </c>
       <c r="I30" s="8">
-        <f>LoRa_TxDone!I30</f>
+        <f>LoRa_TxDone_HTX!I30</f>
         <v>0</v>
       </c>
       <c r="J30" s="5">
-        <f>LoRa_TxDone!J30</f>
+        <f>LoRa_TxDone_HTX!J30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G31" s="5">
-        <f>LoRa_TxDone!G31</f>
+        <f>LoRa_TxDone_HTX!G31</f>
         <v>0</v>
       </c>
       <c r="H31" s="5">
-        <f>LoRa_TxDone!H31</f>
+        <f>LoRa_TxDone_HTX!H31</f>
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <f>LoRa_TxDone!I31</f>
+        <f>LoRa_TxDone_HTX!I31</f>
         <v>0</v>
       </c>
       <c r="J31" s="5">
-        <f>LoRa_TxDone!J31</f>
+        <f>LoRa_TxDone_HTX!J31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G32" s="5">
-        <f>LoRa_TxDone!G32</f>
+        <f>LoRa_TxDone_HTX!G32</f>
         <v>0</v>
       </c>
       <c r="H32" s="5">
-        <f>LoRa_TxDone!H32</f>
+        <f>LoRa_TxDone_HTX!H32</f>
         <v>0</v>
       </c>
       <c r="I32" s="8">
-        <f>LoRa_TxDone!I32</f>
+        <f>LoRa_TxDone_HTX!I32</f>
         <v>0</v>
       </c>
       <c r="J32" s="5">
-        <f>LoRa_TxDone!J32</f>
+        <f>LoRa_TxDone_HTX!J32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" s="5" t="str">
-        <f>LoRa_TxDone!G33</f>
+        <f>LoRa_TxDone_HTX!G33</f>
         <v>uint32_t</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f>LoRa_TxDone!H33</f>
+        <f>LoRa_TxDone_HTX!H33</f>
         <v>frequency;</v>
       </c>
       <c r="I33" s="8" t="str">
-        <f>LoRa_TxDone!I33</f>
+        <f>LoRa_TxDone_HTX!I33</f>
         <v>freq</v>
       </c>
       <c r="J33" s="5">
-        <f>LoRa_TxDone!J33</f>
+        <f>LoRa_TxDone_HTX!J33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34" s="5" t="str">
-        <f>LoRa_TxDone!G34</f>
+        <f>LoRa_TxDone_HTX!G34</f>
         <v>uint32_t</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f>LoRa_TxDone!H34</f>
+        <f>LoRa_TxDone_HTX!H34</f>
         <v>frequencyDeviation;</v>
       </c>
       <c r="I34" s="8">
-        <f>LoRa_TxDone!I34</f>
+        <f>LoRa_TxDone_HTX!I34</f>
         <v>25000</v>
       </c>
       <c r="J34" s="5">
-        <f>LoRa_TxDone!J34</f>
+        <f>LoRa_TxDone_HTX!J34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35" s="5" t="str">
-        <f>LoRa_TxDone!G35</f>
+        <f>LoRa_TxDone_HTX!G35</f>
         <v>uint32_t</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f>LoRa_TxDone!H35</f>
+        <f>LoRa_TxDone_HTX!H35</f>
         <v>bitRate;</v>
       </c>
       <c r="I35" s="8">
-        <f>LoRa_TxDone!I35</f>
+        <f>LoRa_TxDone_HTX!I35</f>
         <v>50000</v>
       </c>
       <c r="J35" s="5">
-        <f>LoRa_TxDone!J35</f>
+        <f>LoRa_TxDone_HTX!J35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G36" s="5" t="str">
-        <f>LoRa_TxDone!G36</f>
+        <f>LoRa_TxDone_HTX!G36</f>
         <v>uint16_t</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f>LoRa_TxDone!H36</f>
+        <f>LoRa_TxDone_HTX!H36</f>
         <v>preambleLen;</v>
       </c>
       <c r="I36" s="8">
-        <f>LoRa_TxDone!I36</f>
+        <f>LoRa_TxDone_HTX!I36</f>
         <v>8</v>
       </c>
       <c r="J36" s="5">
-        <f>LoRa_TxDone!J36</f>
+        <f>LoRa_TxDone_HTX!J36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G37" s="5" t="str">
-        <f>LoRa_TxDone!G37</f>
+        <f>LoRa_TxDone_HTX!G37</f>
         <v>uint8_t</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f>LoRa_TxDone!H37</f>
+        <f>LoRa_TxDone_HTX!H37</f>
         <v>syncWordLoRa;</v>
       </c>
       <c r="I37" s="8" t="str">
-        <f>LoRa_TxDone!I37</f>
+        <f>LoRa_TxDone_HTX!I37</f>
         <v>LoRa_syncWord</v>
       </c>
       <c r="J37" s="5">
-        <f>LoRa_TxDone!J37</f>
+        <f>LoRa_TxDone_HTX!J37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G38" s="5" t="str">
-        <f>LoRa_TxDone!G38</f>
+        <f>LoRa_TxDone_HTX!G38</f>
         <v>uint8_t</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f>LoRa_TxDone!H38</f>
+        <f>LoRa_TxDone_HTX!H38</f>
         <v>syncWord[8];</v>
       </c>
       <c r="I38" s="8" t="str">
-        <f>LoRa_TxDone!I38</f>
+        <f>LoRa_TxDone_HTX!I38</f>
         <v>0xc1 0x94 0xc1</v>
       </c>
       <c r="J38" s="5">
-        <f>LoRa_TxDone!J38</f>
+        <f>LoRa_TxDone_HTX!J38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G39" s="5" t="str">
-        <f>LoRa_TxDone!G39</f>
+        <f>LoRa_TxDone_HTX!G39</f>
         <v>uint8_t</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f>LoRa_TxDone!H39</f>
+        <f>LoRa_TxDone_HTX!H39</f>
         <v>syncWordLen;</v>
       </c>
       <c r="I39" s="8">
-        <f>LoRa_TxDone!I39</f>
+        <f>LoRa_TxDone_HTX!I39</f>
         <v>3</v>
       </c>
       <c r="J39" s="5">
-        <f>LoRa_TxDone!J39</f>
+        <f>LoRa_TxDone_HTX!J39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G40" s="5" t="str">
-        <f>LoRa_TxDone!G40</f>
+        <f>LoRa_TxDone_HTX!G40</f>
         <v>RadioModulation_t</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f>LoRa_TxDone!H40</f>
+        <f>LoRa_TxDone_HTX!H40</f>
         <v>modulation;</v>
       </c>
       <c r="I40" s="8" t="str">
-        <f>LoRa_TxDone!I40</f>
+        <f>LoRa_TxDone_HTX!I40</f>
         <v>modulation[dataRate]</v>
       </c>
       <c r="J40" s="5">
-        <f>LoRa_TxDone!J40</f>
+        <f>LoRa_TxDone_HTX!J40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G41" s="5" t="str">
-        <f>LoRa_TxDone!G41</f>
+        <f>LoRa_TxDone_HTX!G41</f>
         <v>RadioDataRate_t</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f>LoRa_TxDone!H41</f>
+        <f>LoRa_TxDone_HTX!H41</f>
         <v>dataRate;</v>
       </c>
       <c r="I41" s="8" t="str">
-        <f>LoRa_TxDone!I41</f>
+        <f>LoRa_TxDone_HTX!I41</f>
         <v>spreadingFactor[dataRate]</v>
       </c>
       <c r="J41" s="5">
-        <f>LoRa_TxDone!J41</f>
+        <f>LoRa_TxDone_HTX!J41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42" s="5" t="str">
-        <f>LoRa_TxDone!G42</f>
+        <f>LoRa_TxDone_HTX!G42</f>
         <v>RadioLoRaBandWidth_t</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f>LoRa_TxDone!H42</f>
+        <f>LoRa_TxDone_HTX!H42</f>
         <v>bandWidth;</v>
       </c>
       <c r="I42" s="8" t="str">
-        <f>LoRa_TxDone!I42</f>
+        <f>LoRa_TxDone_HTX!I42</f>
         <v>bandwidth[dataRate]</v>
       </c>
       <c r="J42" s="5">
-        <f>LoRa_TxDone!J42</f>
+        <f>LoRa_TxDone_HTX!J42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G43" s="5" t="str">
-        <f>LoRa_TxDone!G43</f>
+        <f>LoRa_TxDone_HTX!G43</f>
         <v>int8_t</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f>LoRa_TxDone!H43</f>
+        <f>LoRa_TxDone_HTX!H43</f>
         <v>outputPower;</v>
       </c>
       <c r="I43" s="8" t="str">
-        <f>LoRa_TxDone!I43</f>
+        <f>LoRa_TxDone_HTX!I43</f>
         <v>txPower868[LoRa_txPower]</v>
       </c>
       <c r="J43" s="5">
-        <f>LoRa_TxDone!J43</f>
+        <f>LoRa_TxDone_HTX!J43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G44" s="5" t="str">
-        <f>LoRa_TxDone!G44</f>
+        <f>LoRa_TxDone_HTX!G44</f>
         <v>uint8_t</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f>LoRa_TxDone!H44</f>
+        <f>LoRa_TxDone_HTX!H44</f>
         <v>crcOn;</v>
       </c>
       <c r="I44" s="8" t="str">
-        <f>LoRa_TxDone!I44</f>
+        <f>LoRa_TxDone_HTX!I44</f>
         <v>ENABLED</v>
       </c>
       <c r="J44" s="5">
-        <f>LoRa_TxDone!J44</f>
+        <f>LoRa_TxDone_HTX!J44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G45" s="5" t="str">
-        <f>LoRa_TxDone!G45</f>
+        <f>LoRa_TxDone_HTX!G45</f>
         <v>uint8_t</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f>LoRa_TxDone!H45</f>
+        <f>LoRa_TxDone_HTX!H45</f>
         <v>paBoost;</v>
       </c>
       <c r="I45" s="8" t="str">
-        <f>LoRa_TxDone!I45</f>
+        <f>LoRa_TxDone_HTX!I45</f>
         <v>0</v>
       </c>
       <c r="J45" s="5">
-        <f>LoRa_TxDone!J45</f>
+        <f>LoRa_TxDone_HTX!J45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G46" s="5" t="str">
-        <f>LoRa_TxDone!G46</f>
+        <f>LoRa_TxDone_HTX!G46</f>
         <v>uint16_t</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f>LoRa_TxDone!H46</f>
+        <f>LoRa_TxDone_HTX!H46</f>
         <v>frequencyHopPeriod;</v>
       </c>
       <c r="I46" s="8" t="str">
-        <f>LoRa_TxDone!I46</f>
+        <f>LoRa_TxDone_HTX!I46</f>
         <v>DISABLED</v>
       </c>
       <c r="J46" s="5">
-        <f>LoRa_TxDone!J46</f>
+        <f>LoRa_TxDone_HTX!J46</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G47" s="5" t="str">
-        <f>LoRa_TxDone!G47</f>
+        <f>LoRa_TxDone_HTX!G47</f>
         <v>uint8_t</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f>LoRa_TxDone!H47</f>
+        <f>LoRa_TxDone_HTX!H47</f>
         <v>iqInverted;</v>
       </c>
       <c r="I47" s="8" t="str">
-        <f>LoRa_TxDone!I47</f>
+        <f>LoRa_TxDone_HTX!I47</f>
         <v>DISABLED</v>
       </c>
       <c r="J47" s="5">
-        <f>LoRa_TxDone!J47</f>
+        <f>LoRa_TxDone_HTX!J47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G48" s="5" t="str">
-        <f>LoRa_TxDone!G48</f>
+        <f>LoRa_TxDone_HTX!G48</f>
         <v>RadioErrorCodingRate_t</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f>LoRa_TxDone!H48</f>
+        <f>LoRa_TxDone_HTX!H48</f>
         <v>errorCodingRate;</v>
       </c>
       <c r="I48" s="8" t="str">
-        <f>LoRa_TxDone!I48</f>
+        <f>LoRa_TxDone_HTX!I48</f>
         <v>CR_4_5</v>
       </c>
       <c r="J48" s="5">
-        <f>LoRa_TxDone!J48</f>
+        <f>LoRa_TxDone_HTX!J48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49" s="5" t="str">
-        <f>LoRa_TxDone!G49</f>
+        <f>LoRa_TxDone_HTX!G49</f>
         <v>uint8_t</v>
       </c>
       <c r="H49" s="5" t="str">
-        <f>LoRa_TxDone!H49</f>
+        <f>LoRa_TxDone_HTX!H49</f>
         <v>implicitHeaderMode;</v>
       </c>
       <c r="I49" s="8" t="str">
-        <f>LoRa_TxDone!I49</f>
+        <f>LoRa_TxDone_HTX!I49</f>
         <v>0</v>
       </c>
       <c r="J49" s="5">
-        <f>LoRa_TxDone!J49</f>
+        <f>LoRa_TxDone_HTX!J49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50" s="5" t="str">
-        <f>LoRa_TxDone!G50</f>
+        <f>LoRa_TxDone_HTX!G50</f>
         <v>uint8_t</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f>LoRa_TxDone!H50</f>
+        <f>LoRa_TxDone_HTX!H50</f>
         <v>flags;</v>
       </c>
       <c r="I50" s="8" t="str">
-        <f>LoRa_TxDone!I50</f>
+        <f>LoRa_TxDone_HTX!I50</f>
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <f>LoRa_TxDone!J50</f>
+        <f>LoRa_TxDone_HTX!J50</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51" s="5" t="str">
-        <f>LoRa_TxDone!G51</f>
+        <f>LoRa_TxDone_HTX!G51</f>
         <v>uint8_t</v>
       </c>
       <c r="H51" s="5" t="str">
-        <f>LoRa_TxDone!H51</f>
+        <f>LoRa_TxDone_HTX!H51</f>
         <v>dataBufferLen;</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J51" s="5">
-        <f>LoRa_TxDone!J51</f>
+        <f>LoRa_TxDone_HTX!J51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52" s="5" t="str">
-        <f>LoRa_TxDone!G52</f>
+        <f>LoRa_TxDone_HTX!G52</f>
         <v>uint8_t</v>
       </c>
       <c r="H52" s="5" t="str">
-        <f>LoRa_TxDone!H52</f>
+        <f>LoRa_TxDone_HTX!H52</f>
         <v>*dataBuffer;</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>211</v>
       </c>
       <c r="J52" s="5">
-        <f>LoRa_TxDone!J52</f>
+        <f>LoRa_TxDone_HTX!J52</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53" s="5" t="str">
-        <f>LoRa_TxDone!G53</f>
+        <f>LoRa_TxDone_HTX!G53</f>
         <v>uint8_t</v>
       </c>
       <c r="H53" s="5" t="str">
-        <f>LoRa_TxDone!H53</f>
+        <f>LoRa_TxDone_HTX!H53</f>
         <v>timeOnAirTimerId;</v>
       </c>
       <c r="I53" s="6" t="str">
-        <f>LoRa_TxDone!I53</f>
+        <f>LoRa_TxDone_HTX!I53</f>
         <v>TIME_ON_AIR_LOAD_VALUE</v>
       </c>
       <c r="J53" s="5">
-        <f>LoRa_TxDone!J53</f>
+        <f>LoRa_TxDone_HTX!J53</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54" s="5" t="str">
-        <f>LoRa_TxDone!G54</f>
+        <f>LoRa_TxDone_HTX!G54</f>
         <v>uint8_t</v>
       </c>
       <c r="H54" s="5" t="str">
-        <f>LoRa_TxDone!H54</f>
+        <f>LoRa_TxDone_HTX!H54</f>
         <v>fskRxWindowTimerId;</v>
       </c>
       <c r="I54" s="8" t="str">
-        <f>LoRa_TxDone!I54</f>
+        <f>LoRa_TxDone_HTX!I54</f>
         <v>RADIO_RxFSKTimeout</v>
       </c>
       <c r="J54" s="5">
-        <f>LoRa_TxDone!J54</f>
+        <f>LoRa_TxDone_HTX!J54</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55" s="5" t="str">
-        <f>LoRa_TxDone!G55</f>
+        <f>LoRa_TxDone_HTX!G55</f>
         <v>uint8_t</v>
       </c>
       <c r="H55" s="5" t="str">
-        <f>LoRa_TxDone!H55</f>
+        <f>LoRa_TxDone_HTX!H55</f>
         <v>watchdogTimerId;</v>
       </c>
       <c r="I55" s="6" t="str">
-        <f>LoRa_TxDone!I55</f>
+        <f>LoRa_TxDone_HTX!I55</f>
         <v>watchdogTimerTimeout</v>
       </c>
       <c r="J55" s="5">
-        <f>LoRa_TxDone!J55</f>
+        <f>LoRa_TxDone_HTX!J55</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56" s="5" t="str">
-        <f>LoRa_TxDone!G56</f>
+        <f>LoRa_TxDone_HTX!G56</f>
         <v>uint32_t</v>
       </c>
       <c r="H56" s="5" t="str">
-        <f>LoRa_TxDone!H56</f>
+        <f>LoRa_TxDone_HTX!H56</f>
         <v>watchdogTimerTimeout;</v>
       </c>
       <c r="I56" s="8" t="str">
-        <f>LoRa_TxDone!I56</f>
+        <f>LoRa_TxDone_HTX!I56</f>
         <v>WATCHDOG_DEFAULT_TIME</v>
       </c>
       <c r="J56" s="5">
-        <f>LoRa_TxDone!J56</f>
+        <f>LoRa_TxDone_HTX!J56</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57" s="5" t="str">
-        <f>LoRa_TxDone!G57</f>
+        <f>LoRa_TxDone_HTX!G57</f>
         <v>uint8_t</v>
       </c>
       <c r="H57" s="5" t="str">
-        <f>LoRa_TxDone!H57</f>
+        <f>LoRa_TxDone_HTX!H57</f>
         <v>initialized;</v>
       </c>
       <c r="I57" s="8">
-        <f>LoRa_TxDone!I57</f>
+        <f>LoRa_TxDone_HTX!I57</f>
         <v>1</v>
       </c>
       <c r="J57" s="5">
-        <f>LoRa_TxDone!J57</f>
+        <f>LoRa_TxDone_HTX!J57</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58" s="5" t="str">
-        <f>LoRa_TxDone!G58</f>
+        <f>LoRa_TxDone_HTX!G58</f>
         <v>uint32_t</v>
       </c>
       <c r="H58" s="5" t="str">
-        <f>LoRa_TxDone!H58</f>
+        <f>LoRa_TxDone_HTX!H58</f>
         <v>(*fhssNextFrequency)(void);</v>
       </c>
       <c r="I58" s="8" t="str">
-        <f>LoRa_TxDone!I58</f>
+        <f>LoRa_TxDone_HTX!I58</f>
         <v>NULL</v>
       </c>
       <c r="J58" s="5">
-        <f>LoRa_TxDone!J58</f>
+        <f>LoRa_TxDone_HTX!J58</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59" s="5" t="str">
-        <f>LoRa_TxDone!G59</f>
+        <f>LoRa_TxDone_HTX!G59</f>
         <v>uint8_t</v>
       </c>
       <c r="H59" s="5" t="str">
-        <f>LoRa_TxDone!H59</f>
+        <f>LoRa_TxDone_HTX!H59</f>
         <v>regVersion;</v>
       </c>
       <c r="I59" s="8" t="str">
-        <f>LoRa_TxDone!I59</f>
+        <f>LoRa_TxDone_HTX!I59</f>
         <v>RADIO_RegisterRead(REG_VERSION)</v>
       </c>
       <c r="J59" s="5">
-        <f>LoRa_TxDone!J59</f>
+        <f>LoRa_TxDone_HTX!J59</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60" s="5" t="str">
-        <f>LoRa_TxDone!G60</f>
+        <f>LoRa_TxDone_HTX!G60</f>
         <v>int8_t</v>
       </c>
       <c r="H60" s="5" t="str">
-        <f>LoRa_TxDone!H60</f>
+        <f>LoRa_TxDone_HTX!H60</f>
         <v>packetSNR;</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J60" s="5">
-        <f>LoRa_TxDone!J60</f>
+        <f>LoRa_TxDone_HTX!J60</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61" s="5" t="str">
-        <f>LoRa_TxDone!G61</f>
+        <f>LoRa_TxDone_HTX!G61</f>
         <v>RadioFSKShaping_t</v>
       </c>
       <c r="H61" s="5" t="str">
-        <f>LoRa_TxDone!H61</f>
+        <f>LoRa_TxDone_HTX!H61</f>
         <v>fskDataShaping;</v>
       </c>
       <c r="I61" s="8" t="str">
-        <f>LoRa_TxDone!I61</f>
+        <f>LoRa_TxDone_HTX!I61</f>
         <v>FSK_SHAPING_GAUSS_BT_0_5</v>
       </c>
       <c r="J61" s="5">
-        <f>LoRa_TxDone!J61</f>
+        <f>LoRa_TxDone_HTX!J61</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62" s="5" t="str">
-        <f>LoRa_TxDone!G62</f>
+        <f>LoRa_TxDone_HTX!G62</f>
         <v>RadioFSKBandWidth_t</v>
       </c>
       <c r="H62" s="5" t="str">
-        <f>LoRa_TxDone!H62</f>
+        <f>LoRa_TxDone_HTX!H62</f>
         <v>rxBw;</v>
       </c>
       <c r="I62" s="8" t="str">
-        <f>LoRa_TxDone!I62</f>
+        <f>LoRa_TxDone_HTX!I62</f>
         <v>FSKBW_50_0KHZ</v>
       </c>
       <c r="J62" s="5">
-        <f>LoRa_TxDone!J62</f>
+        <f>LoRa_TxDone_HTX!J62</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63" s="5" t="str">
-        <f>LoRa_TxDone!G63</f>
+        <f>LoRa_TxDone_HTX!G63</f>
         <v>RadioFSKBandWidth_t</v>
       </c>
       <c r="H63" s="5" t="str">
-        <f>LoRa_TxDone!H63</f>
+        <f>LoRa_TxDone_HTX!H63</f>
         <v>afcBw;</v>
       </c>
       <c r="I63" s="8" t="str">
-        <f>LoRa_TxDone!I63</f>
+        <f>LoRa_TxDone_HTX!I63</f>
         <v>FSKBW_83_3KHZ</v>
       </c>
       <c r="J63" s="5">
-        <f>LoRa_TxDone!J63</f>
+        <f>LoRa_TxDone_HTX!J63</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64" s="5">
-        <f>LoRa_TxDone!G64</f>
+        <f>LoRa_TxDone_HTX!G64</f>
         <v>0</v>
       </c>
       <c r="H64" s="5">
-        <f>LoRa_TxDone!H64</f>
+        <f>LoRa_TxDone_HTX!H64</f>
         <v>0</v>
       </c>
       <c r="I64" s="8">
-        <f>LoRa_TxDone!I64</f>
+        <f>LoRa_TxDone_HTX!I64</f>
         <v>0</v>
       </c>
       <c r="J64" s="5">
-        <f>LoRa_TxDone!J64</f>
+        <f>LoRa_TxDone_HTX!J64</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65" s="5">
-        <f>LoRa_TxDone!G65</f>
+        <f>LoRa_TxDone_HTX!G65</f>
         <v>0</v>
       </c>
       <c r="H65" s="5">
-        <f>LoRa_TxDone!H65</f>
+        <f>LoRa_TxDone_HTX!H65</f>
         <v>0</v>
       </c>
       <c r="I65" s="8">
-        <f>LoRa_TxDone!I65</f>
+        <f>LoRa_TxDone_HTX!I65</f>
         <v>0</v>
       </c>
       <c r="J65" s="5">
-        <f>LoRa_TxDone!J65</f>
+        <f>LoRa_TxDone_HTX!J65</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66" s="5">
-        <f>LoRa_TxDone!G66</f>
+        <f>LoRa_TxDone_HTX!G66</f>
         <v>0</v>
       </c>
       <c r="H66" s="5">
-        <f>LoRa_TxDone!H66</f>
+        <f>LoRa_TxDone_HTX!H66</f>
         <v>0</v>
       </c>
       <c r="I66" s="8">
-        <f>LoRa_TxDone!I66</f>
+        <f>LoRa_TxDone_HTX!I66</f>
         <v>0</v>
       </c>
       <c r="J66" s="5">
-        <f>LoRa_TxDone!J66</f>
+        <f>LoRa_TxDone_HTX!J66</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67" s="5" t="str">
-        <f>LoRa_TxDone!G67</f>
+        <f>LoRa_TxDone_HTX!G67</f>
         <v>ChannelParams_t</v>
       </c>
       <c r="H67" s="5" t="str">
-        <f>LoRa_TxDone!H67</f>
+        <f>LoRa_TxDone_HTX!H67</f>
         <v>Channels</v>
       </c>
       <c r="I67" s="8" t="str">
-        <f>LoRa_TxDone!I67</f>
+        <f>LoRa_TxDone_HTX!I67</f>
         <v>DefaultChannels868[]</v>
       </c>
       <c r="J67" s="5">
-        <f>LoRa_TxDone!J67</f>
+        <f>LoRa_TxDone_HTX!J67</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68" s="5" t="str">
-        <f>LoRa_TxDone!G68</f>
+        <f>LoRa_TxDone_HTX!G68</f>
         <v>uint8_t</v>
       </c>
       <c r="H68" s="5" t="str">
-        <f>LoRa_TxDone!H68</f>
+        <f>LoRa_TxDone_HTX!H68</f>
         <v>maxPayloadSize[]</v>
       </c>
       <c r="I68" s="8" t="str">
-        <f>LoRa_TxDone!I68</f>
+        <f>LoRa_TxDone_HTX!I68</f>
         <v>array</v>
       </c>
       <c r="J68" s="5">
-        <f>LoRa_TxDone!J68</f>
+        <f>LoRa_TxDone_HTX!J68</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69" s="5">
-        <f>LoRa_TxDone!G69</f>
+        <f>LoRa_TxDone_HTX!G69</f>
         <v>0</v>
       </c>
       <c r="H69" s="5">
-        <f>LoRa_TxDone!H69</f>
+        <f>LoRa_TxDone_HTX!H69</f>
         <v>0</v>
       </c>
       <c r="I69" s="8">
-        <f>LoRa_TxDone!I69</f>
+        <f>LoRa_TxDone_HTX!I69</f>
         <v>0</v>
       </c>
       <c r="J69" s="5">
-        <f>LoRa_TxDone!J69</f>
+        <f>LoRa_TxDone_HTX!J69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70" s="5">
-        <f>LoRa_TxDone!G70</f>
+        <f>LoRa_TxDone_HTX!G70</f>
         <v>0</v>
       </c>
       <c r="H70" s="5">
-        <f>LoRa_TxDone!H70</f>
+        <f>LoRa_TxDone_HTX!H70</f>
         <v>0</v>
       </c>
       <c r="I70" s="8">
-        <f>LoRa_TxDone!I70</f>
+        <f>LoRa_TxDone_HTX!I70</f>
         <v>0</v>
       </c>
       <c r="J70" s="5">
-        <f>LoRa_TxDone!J70</f>
+        <f>LoRa_TxDone_HTX!J70</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71" s="5">
-        <f>LoRa_TxDone!G71</f>
+        <f>LoRa_TxDone_HTX!G71</f>
         <v>0</v>
       </c>
       <c r="H71" s="5">
-        <f>LoRa_TxDone!H71</f>
+        <f>LoRa_TxDone_HTX!H71</f>
         <v>0</v>
       </c>
       <c r="I71" s="8">
-        <f>LoRa_TxDone!I71</f>
+        <f>LoRa_TxDone_HTX!I71</f>
         <v>0</v>
       </c>
       <c r="J71" s="5">
-        <f>LoRa_TxDone!J71</f>
+        <f>LoRa_TxDone_HTX!J71</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72" s="5">
-        <f>LoRa_TxDone!G72</f>
+        <f>LoRa_TxDone_HTX!G72</f>
         <v>0</v>
       </c>
       <c r="H72" s="5">
-        <f>LoRa_TxDone!H72</f>
+        <f>LoRa_TxDone_HTX!H72</f>
         <v>0</v>
       </c>
       <c r="I72" s="8">
-        <f>LoRa_TxDone!I72</f>
+        <f>LoRa_TxDone_HTX!I72</f>
         <v>0</v>
       </c>
       <c r="J72" s="5">
-        <f>LoRa_TxDone!J72</f>
+        <f>LoRa_TxDone_HTX!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G73" s="5">
+        <f>LoRa_System_Init!G74</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <f>LoRa_System_Init!H74</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <f>LoRa_System_Init!I74</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B789C39B-08C9-49EB-85D5-D2F0C6C277D6}">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="str">
+        <f>H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="str">
+        <f>LoRa_System_Init!C3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>LoRa_RxDone_HRX!E3</f>
+        <v>LoRa_SendData_TX</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="5">
+        <f>LoRa_RxDone_HRX!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G4</f>
+        <v>bool</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H4</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I4</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J4" s="5">
+        <f>LoRa_RxDone_HRX!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G5</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H5</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I5</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+      <c r="J5" s="5">
+        <f>LoRa_RxDone_HRX!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="G6" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G6</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H6</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>LoRa_RxDone_HRX!J6</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H7</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>LoRa_RxDone_HRX!J7</f>
+        <v>LoRa_TimerReconnectCallback</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H8</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I8</f>
+        <v>LoRa_Transmit_timeout</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>LoRa_RxDone_HRX!J8</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H9</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I9</f>
+        <v>LoRa_Addres, nxt_channel</v>
+      </c>
+      <c r="J9" s="5">
+        <f>LoRa_RxDone_HRX!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H10</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I10</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="J10" s="5">
+        <f>LoRa_RxDone_HRX!J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H11</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I11</f>
+        <v>bufferIndex, nxt_channel, data, CRC</v>
+      </c>
+      <c r="J11" s="5">
+        <f>LoRa_RxDone_HRX!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H12</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I12</f>
+        <v>bufferIndex</v>
+      </c>
+      <c r="J12" s="5">
+        <f>LoRa_RxDone_HRX!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G13</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H13</f>
+        <v>LoRa_Command</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I13</f>
+        <v>value</v>
+      </c>
+      <c r="J13" s="5">
+        <f>LoRa_RxDone_HRX!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H14</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I14</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J14" s="5">
+        <f>LoRa_RxDone_HRX!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G15</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H15</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I15</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J15" s="5">
+        <f>LoRa_RxDone_HRX!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <f>LoRa_RxDone_HRX!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H16</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I16</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J16" s="5">
+        <f>LoRa_RxDone_HRX!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I17</f>
+        <v>CH_nr</v>
+      </c>
+      <c r="J17" s="5">
+        <f>LoRa_RxDone_HRX!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="5">
+        <f>LoRa_Send!E18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+      <c r="J18" s="5">
+        <f>LoRa_RxDone_HRX!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="str">
+        <f>LoRa_Send!C19</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="D19" s="5">
+        <f>LoRa_Send!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f>LoRa_Send!E19</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="G19" s="5">
+        <f>LoRa_RxDone_HRX!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+      <c r="J19" s="5">
+        <f>LoRa_RxDone_HRX!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f>function!G46</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="E20" s="5">
+        <f>LoRa_Send!E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G20</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H20</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I20" s="8">
+        <f>LoRa_RxDone_HRX!I20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <f>LoRa_RxDone_HRX!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G21</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H21</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I21</f>
+        <v>0x34</v>
+      </c>
+      <c r="J21" s="5">
+        <f>LoRa_RxDone_HRX!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G22</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H22</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I22</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+      <c r="J22" s="5">
+        <f>LoRa_RxDone_HRX!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G23</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H23</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I23</f>
+        <v>ISM_EU868</v>
+      </c>
+      <c r="J23" s="5">
+        <f>LoRa_RxDone_HRX!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H24</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I24</f>
+        <v>DR0</v>
+      </c>
+      <c r="J24" s="5">
+        <f>LoRa_RxDone_HRX!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H25</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I25</f>
+        <v>DR0</v>
+      </c>
+      <c r="J25" s="5">
+        <f>LoRa_RxDone_HRX!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H26</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I26</f>
+        <v>DR7</v>
+      </c>
+      <c r="J26" s="5">
+        <f>LoRa_RxDone_HRX!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <f>LoRa_RxDone_HRX!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f>LoRa_RxDone_HRX!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f>LoRa_RxDone_HRX!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f>LoRa_RxDone_HRX!J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <f>LoRa_RxDone_HRX!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>LoRa_RxDone_HRX!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <f>LoRa_RxDone_HRX!I28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <f>LoRa_RxDone_HRX!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G29</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H29</f>
+        <v>LoRa_TxDone</v>
+      </c>
+      <c r="I29" s="8">
+        <f>LoRa_RxDone_HRX!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <f>LoRa_RxDone_HRX!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G30</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H30</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="I30" s="8">
+        <f>LoRa_RxDone_HRX!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <f>LoRa_RxDone_HRX!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="5">
+        <f>LoRa_RxDone_HRX!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f>LoRa_RxDone_HRX!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <f>LoRa_RxDone_HRX!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <f>LoRa_RxDone_HRX!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="5">
+        <f>LoRa_RxDone_HRX!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f>LoRa_RxDone_HRX!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <f>LoRa_RxDone_HRX!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f>LoRa_RxDone_HRX!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G33</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H33</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I33</f>
+        <v>freq</v>
+      </c>
+      <c r="J33" s="5">
+        <f>LoRa_RxDone_HRX!J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H34</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I34" s="8">
+        <f>LoRa_RxDone_HRX!I34</f>
+        <v>25000</v>
+      </c>
+      <c r="J34" s="5">
+        <f>LoRa_RxDone_HRX!J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H35</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I35" s="8">
+        <f>LoRa_RxDone_HRX!I35</f>
+        <v>50000</v>
+      </c>
+      <c r="J35" s="5">
+        <f>LoRa_RxDone_HRX!J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G36</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H36</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I36" s="8">
+        <f>LoRa_RxDone_HRX!I36</f>
+        <v>8</v>
+      </c>
+      <c r="J36" s="5">
+        <f>LoRa_RxDone_HRX!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G37</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H37</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I37</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="J37" s="5">
+        <f>LoRa_RxDone_HRX!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H38</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I38</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+      <c r="J38" s="5">
+        <f>LoRa_RxDone_HRX!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H39</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I39" s="8">
+        <f>LoRa_RxDone_HRX!I39</f>
+        <v>3</v>
+      </c>
+      <c r="J39" s="5">
+        <f>LoRa_RxDone_HRX!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G40</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H40</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I40</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="J40" s="5">
+        <f>LoRa_RxDone_HRX!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G41</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H41</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I41</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="J41" s="5">
+        <f>LoRa_RxDone_HRX!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G42</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H42</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I42</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="J42" s="5">
+        <f>LoRa_RxDone_HRX!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G43</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H43</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I43</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="J43" s="5">
+        <f>LoRa_RxDone_HRX!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G44</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H44</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I44</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J44" s="5">
+        <f>LoRa_RxDone_HRX!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H45</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <f>LoRa_RxDone_HRX!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G46</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H46</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I46</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J46" s="5">
+        <f>LoRa_RxDone_HRX!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H47</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I47</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J47" s="5">
+        <f>LoRa_RxDone_HRX!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G48</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H48</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I48</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="J48" s="5">
+        <f>LoRa_RxDone_HRX!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H49</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <f>LoRa_RxDone_HRX!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G50</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H50</f>
+        <v>flags;</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f>LoRa_RxDone_HRX!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H51</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I51</f>
+        <v>value</v>
+      </c>
+      <c r="J51" s="5">
+        <f>LoRa_RxDone_HRX!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G52</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H52</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I52</f>
+        <v>data in</v>
+      </c>
+      <c r="J52" s="5">
+        <f>LoRa_RxDone_HRX!J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I53</f>
+        <v>TIME_ON_AIR_LOAD_VALUE</v>
+      </c>
+      <c r="J53" s="5">
+        <f>LoRa_RxDone_HRX!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H54</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I54</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+      <c r="J54" s="5">
+        <f>LoRa_RxDone_HRX!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H55</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I55" s="6" t="str">
+        <f>LoRa_RxDone_HRX!I55</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="J55" s="5">
+        <f>LoRa_RxDone_HRX!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G56</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H56</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I56" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I56</f>
+        <v>WATCHDOG_DEFAULT_TIME</v>
+      </c>
+      <c r="J56" s="5">
+        <f>LoRa_RxDone_HRX!J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H57</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I57" s="8">
+        <f>LoRa_RxDone_HRX!I57</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <f>LoRa_RxDone_HRX!J57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H58</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I58" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I58</f>
+        <v>NULL</v>
+      </c>
+      <c r="J58" s="5">
+        <f>LoRa_RxDone_HRX!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H59</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I59" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I59</f>
+        <v>RADIO_RegisterRead(REG_VERSION)</v>
+      </c>
+      <c r="J59" s="5">
+        <f>LoRa_RxDone_HRX!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G60</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H60</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I60" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I60</f>
+        <v>value</v>
+      </c>
+      <c r="J60" s="5">
+        <f>LoRa_RxDone_HRX!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G61</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H61</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I61" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I61</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="J61" s="5">
+        <f>LoRa_RxDone_HRX!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G62</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H62</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I62" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I62</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+      <c r="J62" s="5">
+        <f>LoRa_RxDone_HRX!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G63</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H63</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I63" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I63</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+      <c r="J63" s="5">
+        <f>LoRa_RxDone_HRX!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G64" s="5">
+        <f>LoRa_RxDone_HRX!G64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <f>LoRa_RxDone_HRX!H64</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <f>LoRa_RxDone_HRX!I64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f>LoRa_RxDone_HRX!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="5">
+        <f>LoRa_RxDone_HRX!G65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <f>LoRa_RxDone_HRX!H65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <f>LoRa_RxDone_HRX!I65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f>LoRa_RxDone_HRX!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G66" s="5">
+        <f>LoRa_RxDone_HRX!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <f>LoRa_RxDone_HRX!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <f>LoRa_RxDone_HRX!I66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <f>LoRa_RxDone_HRX!J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G67</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H67</f>
+        <v>Channels</v>
+      </c>
+      <c r="I67" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I67</f>
+        <v>DefaultChannels868[]</v>
+      </c>
+      <c r="J67" s="5">
+        <f>LoRa_RxDone_HRX!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G68</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H68</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I68" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I68</f>
+        <v>array</v>
+      </c>
+      <c r="J68" s="5">
+        <f>LoRa_RxDone_HRX!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G69" s="5">
+        <f>LoRa_RxDone_HRX!G69</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <f>LoRa_RxDone_HRX!H69</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
+        <f>LoRa_RxDone_HRX!I69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <f>LoRa_RxDone_HRX!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G70" s="5">
+        <f>LoRa_RxDone_HRX!G70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <f>LoRa_RxDone_HRX!H70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <f>LoRa_RxDone_HRX!I70</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f>LoRa_RxDone_HRX!J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G71" s="5">
+        <f>LoRa_RxDone_HRX!G71</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <f>LoRa_RxDone_HRX!H71</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <f>LoRa_RxDone_HRX!I71</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <f>LoRa_RxDone_HRX!J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G72" s="5">
+        <f>LoRa_TxDone_HTX!G72</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <f>LoRa_TxDone_HTX!H72</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <f>LoRa_TxDone_HTX!I72</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <f>LoRa_TxDone_HTX!J72</f>
         <v>0</v>
       </c>
     </row>

--- a/Lora 2019.xlsx
+++ b/Lora 2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2978708D-D9D8-4823-9E32-A6506B8EDA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D244A22-94EF-4707-A00D-4A4DF42188E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" activeTab="7" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
+    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" firstSheet="4" activeTab="9" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
   <sheets>
     <sheet name="function" sheetId="9" r:id="rId1"/>
@@ -19,8 +19,10 @@
     <sheet name="LoRa_System_Init" sheetId="10" r:id="rId4"/>
     <sheet name="RADIO_Init" sheetId="11" r:id="rId5"/>
     <sheet name="LoRa_Send" sheetId="13" r:id="rId6"/>
-    <sheet name="LoRa_TxDone" sheetId="14" r:id="rId7"/>
-    <sheet name="LoRa_RxDone" sheetId="15" r:id="rId8"/>
+    <sheet name="LoRa_TxDone_HTX" sheetId="14" r:id="rId7"/>
+    <sheet name="LoRa_RxDone_HRX" sheetId="15" r:id="rId8"/>
+    <sheet name="LoRa_TxDone_DTX" sheetId="16" r:id="rId9"/>
+    <sheet name="LoRa_RxDone_DRX" sheetId="17" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="217">
   <si>
     <t>timer</t>
   </si>
@@ -688,6 +690,9 @@
   </si>
   <si>
     <t>LoRa_Transmit_timeout</t>
+  </si>
+  <si>
+    <t>LoRa_Sent</t>
   </si>
 </sst>
 </file>
@@ -740,6 +745,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -747,12 +758,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,13 +798,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1719,12 +1726,1381 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D04122-FACB-4B12-99C1-DB7FE1128F8A}">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C16:C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="str">
+        <f>LoRa_System_Init!C3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>LoRa_TxDone_DTX!E3</f>
+        <v>LoRa_SendData_RX</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="I3" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I3</f>
+        <v>LoRa_SendData_RX</v>
+      </c>
+      <c r="J3" s="5">
+        <f>LoRa_TxDone_DTX!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G4</f>
+        <v>bool</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H4</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I4</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J4" s="5">
+        <f>LoRa_TxDone_DTX!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G5</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H5</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I5</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+      <c r="J5" s="5">
+        <f>LoRa_TxDone_DTX!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="G6" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G6</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H6</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f>LoRa_TxDone_DTX!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>LoRa_TxDone_DTX!J6</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H7</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>LoRa_TxDone_DTX!J7</f>
+        <v>LoRa_TimerReconnectCallback</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H8</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>LoRa_TxDone_DTX!J8</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H9</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I9</f>
+        <v>LoRa_Addres, nxt_channel</v>
+      </c>
+      <c r="J9" s="5">
+        <f>LoRa_TxDone_DTX!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H10</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I10</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="J10" s="5">
+        <f>LoRa_TxDone_DTX!J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H11</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I11</f>
+        <v>bufferIndex, nxt_channel, data, CRC</v>
+      </c>
+      <c r="J11" s="5">
+        <f>LoRa_TxDone_DTX!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H12</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I12</f>
+        <v>bufferIndex</v>
+      </c>
+      <c r="J12" s="5">
+        <f>LoRa_TxDone_DTX!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G13</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H13</f>
+        <v>LoRa_Command</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I13</f>
+        <v>value</v>
+      </c>
+      <c r="J13" s="5">
+        <f>LoRa_TxDone_DTX!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H14</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I14</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J14" s="5">
+        <f>LoRa_TxDone_DTX!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G15</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H15</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I15</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J15" s="5">
+        <f>LoRa_TxDone_DTX!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <f>LoRa_TxDone_DTX!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H16</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I16</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J16" s="5">
+        <f>LoRa_TxDone_DTX!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I17</f>
+        <v>CH_nr</v>
+      </c>
+      <c r="J17" s="5">
+        <f>LoRa_TxDone_DTX!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+      <c r="J18" s="5">
+        <f>LoRa_TxDone_DTX!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="G19" s="5">
+        <f>LoRa_TxDone_DTX!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+      <c r="J19" s="5">
+        <f>LoRa_TxDone_DTX!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G20</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H20</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I20" s="8">
+        <f>LoRa_TxDone_DTX!I20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <f>LoRa_TxDone_DTX!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G21</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H21</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I21</f>
+        <v>0x34</v>
+      </c>
+      <c r="J21" s="5">
+        <f>LoRa_TxDone_DTX!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G22</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H22</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I22</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+      <c r="J22" s="5">
+        <f>LoRa_TxDone_DTX!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G23</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H23</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I23</f>
+        <v>ISM_EU868</v>
+      </c>
+      <c r="J23" s="5">
+        <f>LoRa_TxDone_DTX!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H24</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I24</f>
+        <v>DR0</v>
+      </c>
+      <c r="J24" s="5">
+        <f>LoRa_TxDone_DTX!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H25</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I25</f>
+        <v>DR0</v>
+      </c>
+      <c r="J25" s="5">
+        <f>LoRa_TxDone_DTX!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H26</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I26</f>
+        <v>DR7</v>
+      </c>
+      <c r="J26" s="5">
+        <f>LoRa_TxDone_DTX!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <f>LoRa_TxDone_DTX!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f>LoRa_TxDone_DTX!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f>LoRa_TxDone_DTX!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f>LoRa_TxDone_DTX!J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <f>LoRa_TxDone_DTX!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>LoRa_TxDone_DTX!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <f>LoRa_TxDone_DTX!I28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <f>LoRa_TxDone_DTX!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G29</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H29</f>
+        <v>LoRa_TxDone</v>
+      </c>
+      <c r="I29" s="8">
+        <f>LoRa_TxDone_DTX!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <f>LoRa_TxDone_DTX!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G30</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H30</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="I30" s="8">
+        <f>LoRa_TxDone_DTX!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <f>LoRa_TxDone_DTX!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="5">
+        <f>LoRa_TxDone_DTX!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f>LoRa_TxDone_DTX!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <f>LoRa_TxDone_DTX!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <f>LoRa_TxDone_DTX!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="5">
+        <f>LoRa_TxDone_DTX!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f>LoRa_TxDone_DTX!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <f>LoRa_TxDone_DTX!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f>LoRa_TxDone_DTX!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G33</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H33</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I33</f>
+        <v>freq</v>
+      </c>
+      <c r="J33" s="5">
+        <f>LoRa_TxDone_DTX!J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H34</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I34" s="8">
+        <f>LoRa_TxDone_DTX!I34</f>
+        <v>25000</v>
+      </c>
+      <c r="J34" s="5">
+        <f>LoRa_TxDone_DTX!J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H35</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I35" s="8">
+        <f>LoRa_TxDone_DTX!I35</f>
+        <v>50000</v>
+      </c>
+      <c r="J35" s="5">
+        <f>LoRa_TxDone_DTX!J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G36</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H36</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I36" s="8">
+        <f>LoRa_TxDone_DTX!I36</f>
+        <v>8</v>
+      </c>
+      <c r="J36" s="5">
+        <f>LoRa_TxDone_DTX!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G37</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H37</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I37</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="J37" s="5">
+        <f>LoRa_TxDone_DTX!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H38</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I38</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+      <c r="J38" s="5">
+        <f>LoRa_TxDone_DTX!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H39</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I39" s="8">
+        <f>LoRa_TxDone_DTX!I39</f>
+        <v>3</v>
+      </c>
+      <c r="J39" s="5">
+        <f>LoRa_TxDone_DTX!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G40</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H40</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I40</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="J40" s="5">
+        <f>LoRa_TxDone_DTX!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G41</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H41</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I41</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="J41" s="5">
+        <f>LoRa_TxDone_DTX!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G42</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H42</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I42</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="J42" s="5">
+        <f>LoRa_TxDone_DTX!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G43</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H43</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I43</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="J43" s="5">
+        <f>LoRa_TxDone_DTX!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G44</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H44</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I44</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J44" s="5">
+        <f>LoRa_TxDone_DTX!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H45</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <f>LoRa_TxDone_DTX!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G46</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H46</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I46</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J46" s="5">
+        <f>LoRa_TxDone_DTX!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H47</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I47</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J47" s="5">
+        <f>LoRa_TxDone_DTX!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G48</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H48</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I48</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="J48" s="5">
+        <f>LoRa_TxDone_DTX!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H49</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <f>LoRa_TxDone_DTX!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G50</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H50</f>
+        <v>flags;</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f>LoRa_TxDone_DTX!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H51</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I51" s="6" t="str">
+        <f>LoRa_TxDone_DTX!I51</f>
+        <v>value</v>
+      </c>
+      <c r="J51" s="5">
+        <f>LoRa_TxDone_DTX!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G52</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H52</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f>LoRa_TxDone_DTX!I52</f>
+        <v>data in</v>
+      </c>
+      <c r="J52" s="5">
+        <f>LoRa_TxDone_DTX!J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I53</f>
+        <v>TIME_ON_AIR_LOAD_VALUE</v>
+      </c>
+      <c r="J53" s="5">
+        <f>LoRa_TxDone_DTX!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H54</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I54</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+      <c r="J54" s="5">
+        <f>LoRa_TxDone_DTX!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H55</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I55" s="15" t="str">
+        <f>LoRa_TxDone_DTX!I55</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="J55" s="5">
+        <f>LoRa_TxDone_DTX!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G56</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H56</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I56" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I56</f>
+        <v>WATCHDOG_DEFAULT_TIME</v>
+      </c>
+      <c r="J56" s="5">
+        <f>LoRa_TxDone_DTX!J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H57</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I57" s="8">
+        <f>LoRa_TxDone_DTX!I57</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <f>LoRa_TxDone_DTX!J57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H58</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I58" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I58</f>
+        <v>NULL</v>
+      </c>
+      <c r="J58" s="5">
+        <f>LoRa_TxDone_DTX!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H59</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I59" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I59</f>
+        <v>RADIO_RegisterRead(REG_VERSION)</v>
+      </c>
+      <c r="J59" s="5">
+        <f>LoRa_TxDone_DTX!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G60</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H60</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I60" s="6" t="str">
+        <f>LoRa_TxDone_DTX!I60</f>
+        <v>value</v>
+      </c>
+      <c r="J60" s="5">
+        <f>LoRa_TxDone_DTX!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G61</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H61</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I61" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I61</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="J61" s="5">
+        <f>LoRa_TxDone_DTX!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G62</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H62</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I62" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I62</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+      <c r="J62" s="5">
+        <f>LoRa_TxDone_DTX!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G63</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H63</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I63" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I63</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+      <c r="J63" s="5">
+        <f>LoRa_TxDone_DTX!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G64" s="5">
+        <f>LoRa_TxDone_DTX!G64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <f>LoRa_TxDone_DTX!H64</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <f>LoRa_TxDone_DTX!I64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f>LoRa_TxDone_DTX!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="5">
+        <f>LoRa_TxDone_DTX!G65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <f>LoRa_TxDone_DTX!H65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <f>LoRa_TxDone_DTX!I65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f>LoRa_TxDone_DTX!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G66" s="5">
+        <f>LoRa_TxDone_DTX!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <f>LoRa_TxDone_DTX!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <f>LoRa_TxDone_DTX!I66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <f>LoRa_TxDone_DTX!J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G67</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H67</f>
+        <v>Channels</v>
+      </c>
+      <c r="I67" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I67</f>
+        <v>DefaultChannels868[]</v>
+      </c>
+      <c r="J67" s="5">
+        <f>LoRa_TxDone_DTX!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G68</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H68</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I68" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I68</f>
+        <v>array</v>
+      </c>
+      <c r="J68" s="5">
+        <f>LoRa_TxDone_DTX!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G69" s="5">
+        <f>LoRa_TxDone_DTX!G69</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <f>LoRa_TxDone_DTX!H69</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
+        <f>LoRa_TxDone_DTX!I69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <f>LoRa_TxDone_DTX!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G70" s="5">
+        <f>LoRa_TxDone_DTX!G70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <f>LoRa_TxDone_DTX!H70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <f>LoRa_TxDone_DTX!I70</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f>LoRa_TxDone_DTX!J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G71" s="5">
+        <f>LoRa_RxDone_HRX!G71</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <f>LoRa_RxDone_HRX!H71</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <f>LoRa_RxDone_HRX!I71</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <f>LoRa_RxDone_HRX!J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G72" s="5">
+        <f>LoRa_TxDone_HTX!G72</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <f>LoRa_TxDone_HTX!H72</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <f>LoRa_TxDone_HTX!I72</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <f>LoRa_TxDone_HTX!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G73" s="5">
+        <f>LoRa_System_Init!G74</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <f>LoRa_System_Init!H74</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <f>LoRa_System_Init!I74</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C4FA0C-4642-4A66-8A67-3E077AB5CD63}">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1763,11 +3139,16 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -4047,7 +5428,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -4412,7 +5793,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="16" t="str">
@@ -5174,7 +6555,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -5578,10 +6959,10 @@
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="5" t="str">
+      <c r="D20" s="4" t="str">
         <f>function!G46</f>
         <v>LoRa_RxDone</v>
       </c>
@@ -6565,8 +7946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C80F2B-5AC3-4E02-A49F-94CB470F418B}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -6622,7 +8003,7 @@
         <v>LoRa_Status</v>
       </c>
       <c r="D3" s="5" t="str">
-        <f>LoRa_TxDone!E3</f>
+        <f>LoRa_TxDone_HTX!E3</f>
         <v>LoRa_Handshaking_RX</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -6630,11 +8011,11 @@
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="str">
-        <f>LoRa_TxDone!G3</f>
+        <f>LoRa_TxDone_HTX!G3</f>
         <v>LoRaMacState_t</v>
       </c>
       <c r="H3" s="5" t="str">
-        <f>LoRa_TxDone!H3</f>
+        <f>LoRa_TxDone_HTX!H3</f>
         <v>LoRa_Status</v>
       </c>
       <c r="I3" s="6" t="str">
@@ -6642,43 +8023,43 @@
         <v>LoRa_SendData_TX</v>
       </c>
       <c r="J3" s="5">
-        <f>LoRa_TxDone!J3</f>
+        <f>LoRa_TxDone_HTX!J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G4" s="5" t="str">
-        <f>LoRa_TxDone!G4</f>
+        <f>LoRa_TxDone_HTX!G4</f>
         <v>bool</v>
       </c>
       <c r="H4" s="5" t="str">
-        <f>LoRa_TxDone!H4</f>
+        <f>LoRa_TxDone_HTX!H4</f>
         <v>LoRa_initialised</v>
       </c>
       <c r="I4" s="8" t="str">
-        <f>LoRa_TxDone!I4</f>
+        <f>LoRa_TxDone_HTX!I4</f>
         <v>ENABLED</v>
       </c>
       <c r="J4" s="5">
-        <f>LoRa_TxDone!J4</f>
+        <f>LoRa_TxDone_HTX!J4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G5" s="5" t="str">
-        <f>LoRa_TxDone!G5</f>
+        <f>LoRa_TxDone_HTX!G5</f>
         <v>uint8_t</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f>LoRa_TxDone!H5</f>
+        <f>LoRa_TxDone_HTX!H5</f>
         <v>LoRa_Addres</v>
       </c>
       <c r="I5" s="8" t="str">
-        <f>LoRa_TxDone!I5</f>
+        <f>LoRa_TxDone_HTX!I5</f>
         <v>LoRaDeviceAddress</v>
       </c>
       <c r="J5" s="5">
-        <f>LoRa_TxDone!J5</f>
+        <f>LoRa_TxDone_HTX!J5</f>
         <v>0</v>
       </c>
     </row>
@@ -6686,223 +8067,223 @@
       <c r="C6" s="5"/>
       <c r="D6" s="11"/>
       <c r="G6" s="5" t="str">
-        <f>LoRa_TxDone!G6</f>
+        <f>LoRa_TxDone_HTX!G6</f>
         <v>uint8_t</v>
       </c>
       <c r="H6" s="5" t="str">
-        <f>LoRa_TxDone!H6</f>
+        <f>LoRa_TxDone_HTX!H6</f>
         <v>LoRa_TimerHandshaking</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>152</v>
       </c>
       <c r="J6" s="5" t="str">
-        <f>LoRa_TxDone!J6</f>
+        <f>LoRa_TxDone_HTX!J6</f>
         <v>LoRa_TimerHandshakingCallback</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="5"/>
       <c r="G7" s="5" t="str">
-        <f>LoRa_TxDone!G7</f>
+        <f>LoRa_TxDone_HTX!G7</f>
         <v>uint8_t</v>
       </c>
       <c r="H7" s="5" t="str">
-        <f>LoRa_TxDone!H7</f>
+        <f>LoRa_TxDone_HTX!H7</f>
         <v>LoRa_TimerReconnect</v>
       </c>
       <c r="I7" s="8" t="str">
-        <f>LoRa_TxDone!I7</f>
+        <f>LoRa_TxDone_HTX!I7</f>
         <v>0</v>
       </c>
       <c r="J7" s="5" t="str">
-        <f>LoRa_TxDone!J7</f>
+        <f>LoRa_TxDone_HTX!J7</f>
         <v>LoRa_TimerReconnectCallback</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="5"/>
       <c r="G8" s="5" t="str">
-        <f>LoRa_TxDone!G8</f>
+        <f>LoRa_TxDone_HTX!G8</f>
         <v>uint8_t</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f>LoRa_TxDone!H8</f>
+        <f>LoRa_TxDone_HTX!H8</f>
         <v>LoRa_TimerWaitAck</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>215</v>
       </c>
       <c r="J8" s="5" t="str">
-        <f>LoRa_TxDone!J8</f>
+        <f>LoRa_TxDone_HTX!J8</f>
         <v>LoRa_TimerWaitAckCallback</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" s="5"/>
       <c r="G9" s="5" t="str">
-        <f>LoRa_TxDone!G9</f>
+        <f>LoRa_TxDone_HTX!G9</f>
         <v>uint8_t</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f>LoRa_TxDone!H9</f>
+        <f>LoRa_TxDone_HTX!H9</f>
         <v>LoRa_HeaderBufor</v>
       </c>
       <c r="I9" s="8" t="str">
-        <f>LoRa_TxDone!I9</f>
+        <f>LoRa_TxDone_HTX!I9</f>
         <v>LoRa_Addres, nxt_channel</v>
       </c>
       <c r="J9" s="5">
-        <f>LoRa_TxDone!J9</f>
+        <f>LoRa_TxDone_HTX!J9</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="5"/>
       <c r="G10" s="5" t="str">
-        <f>LoRa_TxDone!G10</f>
+        <f>LoRa_TxDone_HTX!G10</f>
         <v>uint8_t</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f>LoRa_TxDone!H10</f>
+        <f>LoRa_TxDone_HTX!H10</f>
         <v>LoRa_HeaderLength</v>
       </c>
       <c r="I10" s="8" t="str">
-        <f>LoRa_TxDone!I10</f>
+        <f>LoRa_TxDone_HTX!I10</f>
         <v>bufferHeadIndex</v>
       </c>
       <c r="J10" s="5">
-        <f>LoRa_TxDone!J10</f>
+        <f>LoRa_TxDone_HTX!J10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C11" s="5"/>
       <c r="G11" s="5" t="str">
-        <f>LoRa_TxDone!G11</f>
+        <f>LoRa_TxDone_HTX!G11</f>
         <v>uint8_t</v>
       </c>
       <c r="H11" s="5" t="str">
-        <f>LoRa_TxDone!H11</f>
+        <f>LoRa_TxDone_HTX!H11</f>
         <v>LoRa_Bufor</v>
       </c>
       <c r="I11" s="8" t="str">
-        <f>LoRa_TxDone!I11</f>
+        <f>LoRa_TxDone_HTX!I11</f>
         <v>bufferIndex, nxt_channel, data, CRC</v>
       </c>
       <c r="J11" s="5">
-        <f>LoRa_TxDone!J11</f>
+        <f>LoRa_TxDone_HTX!J11</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C12" s="5"/>
       <c r="G12" s="5" t="str">
-        <f>LoRa_TxDone!G12</f>
+        <f>LoRa_TxDone_HTX!G12</f>
         <v>uint8_t</v>
       </c>
       <c r="H12" s="5" t="str">
-        <f>LoRa_TxDone!H12</f>
+        <f>LoRa_TxDone_HTX!H12</f>
         <v>LoRa_BuforLength</v>
       </c>
       <c r="I12" s="8" t="str">
-        <f>LoRa_TxDone!I12</f>
+        <f>LoRa_TxDone_HTX!I12</f>
         <v>bufferIndex</v>
       </c>
       <c r="J12" s="5">
-        <f>LoRa_TxDone!J12</f>
+        <f>LoRa_TxDone_HTX!J12</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" s="5"/>
       <c r="G13" s="5" t="str">
-        <f>LoRa_TxDone!G13</f>
+        <f>LoRa_TxDone_HTX!G13</f>
         <v>uint8_t</v>
       </c>
       <c r="H13" s="5" t="str">
-        <f>LoRa_TxDone!H13</f>
+        <f>LoRa_TxDone_HTX!H13</f>
         <v>LoRa_Command</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J13" s="5">
-        <f>LoRa_TxDone!J13</f>
+        <f>LoRa_TxDone_HTX!J13</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="5"/>
       <c r="G14" s="5" t="str">
-        <f>LoRa_TxDone!G14</f>
+        <f>LoRa_TxDone_HTX!G14</f>
         <v>uint8_t</v>
       </c>
       <c r="H14" s="5" t="str">
-        <f>LoRa_TxDone!H14</f>
+        <f>LoRa_TxDone_HTX!H14</f>
         <v>LoRa_maxChannels</v>
       </c>
       <c r="I14" s="8" t="str">
-        <f>LoRa_TxDone!I14</f>
+        <f>LoRa_TxDone_HTX!I14</f>
         <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
       </c>
       <c r="J14" s="5">
-        <f>LoRa_TxDone!J14</f>
+        <f>LoRa_TxDone_HTX!J14</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="5"/>
       <c r="G15" s="5" t="str">
-        <f>LoRa_TxDone!G15</f>
+        <f>LoRa_TxDone_HTX!G15</f>
         <v>ReceiveWindowParameters_t</v>
       </c>
       <c r="H15" s="5" t="str">
-        <f>LoRa_TxDone!H15</f>
+        <f>LoRa_TxDone_HTX!H15</f>
         <v>LoRa_receiveChannelParameters.frequency</v>
       </c>
       <c r="I15" s="8" t="str">
-        <f>LoRa_TxDone!I15</f>
+        <f>LoRa_TxDone_HTX!I15</f>
         <v>Channels[CH_nr].frequency</v>
       </c>
       <c r="J15" s="5">
-        <f>LoRa_TxDone!J15</f>
+        <f>LoRa_TxDone_HTX!J15</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G16" s="5">
-        <f>LoRa_TxDone!G16</f>
+        <f>LoRa_TxDone_HTX!G16</f>
         <v>0</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f>LoRa_TxDone!H16</f>
+        <f>LoRa_TxDone_HTX!H16</f>
         <v>LoRa_receiveChannelParameters.dataRate</v>
       </c>
       <c r="I16" s="8" t="str">
-        <f>LoRa_TxDone!I16</f>
+        <f>LoRa_TxDone_HTX!I16</f>
         <v>LoRa_currentDataRate</v>
       </c>
       <c r="J16" s="5">
-        <f>LoRa_TxDone!J16</f>
+        <f>LoRa_TxDone_HTX!J16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G17" s="5" t="str">
-        <f>LoRa_TxDone!G17</f>
+        <f>LoRa_TxDone_HTX!G17</f>
         <v>uint8_t</v>
       </c>
       <c r="H17" s="5" t="str">
-        <f>LoRa_TxDone!H17</f>
+        <f>LoRa_TxDone_HTX!H17</f>
         <v>LoRa_lastUsedChannelIndex</v>
       </c>
       <c r="I17" s="8" t="str">
-        <f>LoRa_TxDone!I17</f>
+        <f>LoRa_TxDone_HTX!I17</f>
         <v>CH_nr</v>
       </c>
       <c r="J17" s="5">
-        <f>LoRa_TxDone!J17</f>
+        <f>LoRa_TxDone_HTX!J17</f>
         <v>0</v>
       </c>
     </row>
@@ -6921,19 +8302,19 @@
         <v>0</v>
       </c>
       <c r="G18" s="5" t="str">
-        <f>LoRa_TxDone!G18</f>
+        <f>LoRa_TxDone_HTX!G18</f>
         <v>ReceiveWindowParameters_t</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f>LoRa_TxDone!H18</f>
+        <f>LoRa_TxDone_HTX!H18</f>
         <v>LoRa_ch0_params.frequency</v>
       </c>
       <c r="I18" s="8" t="str">
-        <f>LoRa_TxDone!I18</f>
+        <f>LoRa_TxDone_HTX!I18</f>
         <v>LoRa_CH0_frequency</v>
       </c>
       <c r="J18" s="5">
-        <f>LoRa_TxDone!J18</f>
+        <f>LoRa_TxDone_HTX!J18</f>
         <v>0</v>
       </c>
     </row>
@@ -6951,19 +8332,19 @@
         <v>watchdogTimerTimeout</v>
       </c>
       <c r="G19" s="5">
-        <f>LoRa_TxDone!G19</f>
+        <f>LoRa_TxDone_HTX!G19</f>
         <v>0</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f>LoRa_TxDone!H19</f>
+        <f>LoRa_TxDone_HTX!H19</f>
         <v>LoRa_ch0_params.datarate</v>
       </c>
       <c r="I19" s="8" t="str">
-        <f>LoRa_TxDone!I19</f>
+        <f>LoRa_TxDone_HTX!I19</f>
         <v>LoRa_CH0_datarate</v>
       </c>
       <c r="J19" s="5">
-        <f>LoRa_TxDone!J19</f>
+        <f>LoRa_TxDone_HTX!J19</f>
         <v>0</v>
       </c>
     </row>
@@ -6980,952 +8361,2336 @@
         <v>0</v>
       </c>
       <c r="G20" s="5" t="str">
-        <f>LoRa_TxDone!G20</f>
+        <f>LoRa_TxDone_HTX!G20</f>
         <v>uint8_t</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f>LoRa_TxDone!H20</f>
+        <f>LoRa_TxDone_HTX!H20</f>
         <v>LoRa_txPower</v>
       </c>
       <c r="I20" s="8">
-        <f>LoRa_TxDone!I20</f>
+        <f>LoRa_TxDone_HTX!I20</f>
         <v>1</v>
       </c>
       <c r="J20" s="5">
-        <f>LoRa_TxDone!J20</f>
+        <f>LoRa_TxDone_HTX!J20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G21" s="5" t="str">
-        <f>LoRa_TxDone!G21</f>
+        <f>LoRa_TxDone_HTX!G21</f>
         <v>uint8_t</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f>LoRa_TxDone!H21</f>
+        <f>LoRa_TxDone_HTX!H21</f>
         <v>LoRa_syncWord</v>
       </c>
       <c r="I21" s="8" t="str">
-        <f>LoRa_TxDone!I21</f>
+        <f>LoRa_TxDone_HTX!I21</f>
         <v>0x34</v>
       </c>
       <c r="J21" s="5">
-        <f>LoRa_TxDone!J21</f>
+        <f>LoRa_TxDone_HTX!J21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G22" s="5" t="str">
-        <f>LoRa_TxDone!G22</f>
+        <f>LoRa_TxDone_HTX!G22</f>
         <v>uint8_t</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f>LoRa_TxDone!H22</f>
+        <f>LoRa_TxDone_HTX!H22</f>
         <v>LoRa_batteryLevel</v>
       </c>
       <c r="I22" s="8" t="str">
-        <f>LoRa_TxDone!I22</f>
+        <f>LoRa_TxDone_HTX!I22</f>
         <v>BATTERY_LEVEL_INVALID</v>
       </c>
       <c r="J22" s="5">
-        <f>LoRa_TxDone!J22</f>
+        <f>LoRa_TxDone_HTX!J22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G23" s="5" t="str">
-        <f>LoRa_TxDone!G23</f>
+        <f>LoRa_TxDone_HTX!G23</f>
         <v>IsmBand_t</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f>LoRa_TxDone!H23</f>
+        <f>LoRa_TxDone_HTX!H23</f>
         <v>LoRa_ismBand</v>
       </c>
       <c r="I23" s="8" t="str">
-        <f>LoRa_TxDone!I23</f>
+        <f>LoRa_TxDone_HTX!I23</f>
         <v>ISM_EU868</v>
       </c>
       <c r="J23" s="5">
-        <f>LoRa_TxDone!J23</f>
+        <f>LoRa_TxDone_HTX!J23</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G24" s="5" t="str">
-        <f>LoRa_TxDone!G24</f>
+        <f>LoRa_TxDone_HTX!G24</f>
         <v>uint8_t</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f>LoRa_TxDone!H24</f>
+        <f>LoRa_TxDone_HTX!H24</f>
         <v>LoRa_currentDataRate</v>
       </c>
       <c r="I24" s="8" t="str">
-        <f>LoRa_TxDone!I24</f>
+        <f>LoRa_TxDone_HTX!I24</f>
         <v>DR0</v>
       </c>
       <c r="J24" s="5">
-        <f>LoRa_TxDone!J24</f>
+        <f>LoRa_TxDone_HTX!J24</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G25" s="5" t="str">
-        <f>LoRa_TxDone!G25</f>
+        <f>LoRa_TxDone_HTX!G25</f>
         <v>uint8_t</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f>LoRa_TxDone!H25</f>
+        <f>LoRa_TxDone_HTX!H25</f>
         <v>LoRa_minDataRate</v>
       </c>
       <c r="I25" s="8" t="str">
-        <f>LoRa_TxDone!I25</f>
+        <f>LoRa_TxDone_HTX!I25</f>
         <v>DR0</v>
       </c>
       <c r="J25" s="5">
-        <f>LoRa_TxDone!J25</f>
+        <f>LoRa_TxDone_HTX!J25</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G26" s="5" t="str">
-        <f>LoRa_TxDone!G26</f>
+        <f>LoRa_TxDone_HTX!G26</f>
         <v>uint8_t</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f>LoRa_TxDone!H26</f>
+        <f>LoRa_TxDone_HTX!H26</f>
         <v>LoRa_maxDataRate</v>
       </c>
       <c r="I26" s="8" t="str">
-        <f>LoRa_TxDone!I26</f>
+        <f>LoRa_TxDone_HTX!I26</f>
         <v>DR7</v>
       </c>
       <c r="J26" s="5">
-        <f>LoRa_TxDone!J26</f>
+        <f>LoRa_TxDone_HTX!J26</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G27" s="5">
-        <f>LoRa_TxDone!G27</f>
+        <f>LoRa_TxDone_HTX!G27</f>
         <v>0</v>
       </c>
       <c r="H27" s="5">
-        <f>LoRa_TxDone!H27</f>
+        <f>LoRa_TxDone_HTX!H27</f>
         <v>0</v>
       </c>
       <c r="I27" s="8">
-        <f>LoRa_TxDone!I27</f>
+        <f>LoRa_TxDone_HTX!I27</f>
         <v>0</v>
       </c>
       <c r="J27" s="5">
-        <f>LoRa_TxDone!J27</f>
+        <f>LoRa_TxDone_HTX!J27</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G28" s="5">
-        <f>LoRa_TxDone!G28</f>
+        <f>LoRa_TxDone_HTX!G28</f>
         <v>0</v>
       </c>
       <c r="H28" s="5">
-        <f>LoRa_TxDone!H28</f>
+        <f>LoRa_TxDone_HTX!H28</f>
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <f>LoRa_TxDone!I28</f>
+        <f>LoRa_TxDone_HTX!I28</f>
         <v>0</v>
       </c>
       <c r="J28" s="5">
-        <f>LoRa_TxDone!J28</f>
+        <f>LoRa_TxDone_HTX!J28</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G29" s="5" t="str">
-        <f>LoRa_TxDone!G29</f>
+        <f>LoRa_TxDone_HTX!G29</f>
         <v>RADIO_Transmit</v>
       </c>
       <c r="H29" s="5" t="str">
-        <f>LoRa_TxDone!H29</f>
+        <f>LoRa_TxDone_HTX!H29</f>
         <v>LoRa_TxDone</v>
       </c>
       <c r="I29" s="8">
-        <f>LoRa_TxDone!I29</f>
+        <f>LoRa_TxDone_HTX!I29</f>
         <v>0</v>
       </c>
       <c r="J29" s="5">
-        <f>LoRa_TxDone!J29</f>
+        <f>LoRa_TxDone_HTX!J29</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G30" s="5" t="str">
-        <f>LoRa_TxDone!G30</f>
+        <f>LoRa_TxDone_HTX!G30</f>
         <v>RADIO_RxDone</v>
       </c>
       <c r="H30" s="5" t="str">
-        <f>LoRa_TxDone!H30</f>
+        <f>LoRa_TxDone_HTX!H30</f>
         <v>LoRa_RxDone</v>
       </c>
       <c r="I30" s="8">
-        <f>LoRa_TxDone!I30</f>
+        <f>LoRa_TxDone_HTX!I30</f>
         <v>0</v>
       </c>
       <c r="J30" s="5">
-        <f>LoRa_TxDone!J30</f>
+        <f>LoRa_TxDone_HTX!J30</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G31" s="5">
-        <f>LoRa_TxDone!G31</f>
+        <f>LoRa_TxDone_HTX!G31</f>
         <v>0</v>
       </c>
       <c r="H31" s="5">
-        <f>LoRa_TxDone!H31</f>
+        <f>LoRa_TxDone_HTX!H31</f>
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <f>LoRa_TxDone!I31</f>
+        <f>LoRa_TxDone_HTX!I31</f>
         <v>0</v>
       </c>
       <c r="J31" s="5">
-        <f>LoRa_TxDone!J31</f>
+        <f>LoRa_TxDone_HTX!J31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G32" s="5">
-        <f>LoRa_TxDone!G32</f>
+        <f>LoRa_TxDone_HTX!G32</f>
         <v>0</v>
       </c>
       <c r="H32" s="5">
-        <f>LoRa_TxDone!H32</f>
+        <f>LoRa_TxDone_HTX!H32</f>
         <v>0</v>
       </c>
       <c r="I32" s="8">
-        <f>LoRa_TxDone!I32</f>
+        <f>LoRa_TxDone_HTX!I32</f>
         <v>0</v>
       </c>
       <c r="J32" s="5">
-        <f>LoRa_TxDone!J32</f>
+        <f>LoRa_TxDone_HTX!J32</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" s="5" t="str">
-        <f>LoRa_TxDone!G33</f>
+        <f>LoRa_TxDone_HTX!G33</f>
         <v>uint32_t</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f>LoRa_TxDone!H33</f>
+        <f>LoRa_TxDone_HTX!H33</f>
         <v>frequency;</v>
       </c>
       <c r="I33" s="8" t="str">
-        <f>LoRa_TxDone!I33</f>
+        <f>LoRa_TxDone_HTX!I33</f>
         <v>freq</v>
       </c>
       <c r="J33" s="5">
-        <f>LoRa_TxDone!J33</f>
+        <f>LoRa_TxDone_HTX!J33</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34" s="5" t="str">
-        <f>LoRa_TxDone!G34</f>
+        <f>LoRa_TxDone_HTX!G34</f>
         <v>uint32_t</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f>LoRa_TxDone!H34</f>
+        <f>LoRa_TxDone_HTX!H34</f>
         <v>frequencyDeviation;</v>
       </c>
       <c r="I34" s="8">
-        <f>LoRa_TxDone!I34</f>
+        <f>LoRa_TxDone_HTX!I34</f>
         <v>25000</v>
       </c>
       <c r="J34" s="5">
-        <f>LoRa_TxDone!J34</f>
+        <f>LoRa_TxDone_HTX!J34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35" s="5" t="str">
-        <f>LoRa_TxDone!G35</f>
+        <f>LoRa_TxDone_HTX!G35</f>
         <v>uint32_t</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f>LoRa_TxDone!H35</f>
+        <f>LoRa_TxDone_HTX!H35</f>
         <v>bitRate;</v>
       </c>
       <c r="I35" s="8">
-        <f>LoRa_TxDone!I35</f>
+        <f>LoRa_TxDone_HTX!I35</f>
         <v>50000</v>
       </c>
       <c r="J35" s="5">
-        <f>LoRa_TxDone!J35</f>
+        <f>LoRa_TxDone_HTX!J35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G36" s="5" t="str">
-        <f>LoRa_TxDone!G36</f>
+        <f>LoRa_TxDone_HTX!G36</f>
         <v>uint16_t</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f>LoRa_TxDone!H36</f>
+        <f>LoRa_TxDone_HTX!H36</f>
         <v>preambleLen;</v>
       </c>
       <c r="I36" s="8">
-        <f>LoRa_TxDone!I36</f>
+        <f>LoRa_TxDone_HTX!I36</f>
         <v>8</v>
       </c>
       <c r="J36" s="5">
-        <f>LoRa_TxDone!J36</f>
+        <f>LoRa_TxDone_HTX!J36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G37" s="5" t="str">
-        <f>LoRa_TxDone!G37</f>
+        <f>LoRa_TxDone_HTX!G37</f>
         <v>uint8_t</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f>LoRa_TxDone!H37</f>
+        <f>LoRa_TxDone_HTX!H37</f>
         <v>syncWordLoRa;</v>
       </c>
       <c r="I37" s="8" t="str">
-        <f>LoRa_TxDone!I37</f>
+        <f>LoRa_TxDone_HTX!I37</f>
         <v>LoRa_syncWord</v>
       </c>
       <c r="J37" s="5">
-        <f>LoRa_TxDone!J37</f>
+        <f>LoRa_TxDone_HTX!J37</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G38" s="5" t="str">
-        <f>LoRa_TxDone!G38</f>
+        <f>LoRa_TxDone_HTX!G38</f>
         <v>uint8_t</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f>LoRa_TxDone!H38</f>
+        <f>LoRa_TxDone_HTX!H38</f>
         <v>syncWord[8];</v>
       </c>
       <c r="I38" s="8" t="str">
-        <f>LoRa_TxDone!I38</f>
+        <f>LoRa_TxDone_HTX!I38</f>
         <v>0xc1 0x94 0xc1</v>
       </c>
       <c r="J38" s="5">
-        <f>LoRa_TxDone!J38</f>
+        <f>LoRa_TxDone_HTX!J38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G39" s="5" t="str">
-        <f>LoRa_TxDone!G39</f>
+        <f>LoRa_TxDone_HTX!G39</f>
         <v>uint8_t</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f>LoRa_TxDone!H39</f>
+        <f>LoRa_TxDone_HTX!H39</f>
         <v>syncWordLen;</v>
       </c>
       <c r="I39" s="8">
-        <f>LoRa_TxDone!I39</f>
+        <f>LoRa_TxDone_HTX!I39</f>
         <v>3</v>
       </c>
       <c r="J39" s="5">
-        <f>LoRa_TxDone!J39</f>
+        <f>LoRa_TxDone_HTX!J39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G40" s="5" t="str">
-        <f>LoRa_TxDone!G40</f>
+        <f>LoRa_TxDone_HTX!G40</f>
         <v>RadioModulation_t</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f>LoRa_TxDone!H40</f>
+        <f>LoRa_TxDone_HTX!H40</f>
         <v>modulation;</v>
       </c>
       <c r="I40" s="8" t="str">
-        <f>LoRa_TxDone!I40</f>
+        <f>LoRa_TxDone_HTX!I40</f>
         <v>modulation[dataRate]</v>
       </c>
       <c r="J40" s="5">
-        <f>LoRa_TxDone!J40</f>
+        <f>LoRa_TxDone_HTX!J40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G41" s="5" t="str">
-        <f>LoRa_TxDone!G41</f>
+        <f>LoRa_TxDone_HTX!G41</f>
         <v>RadioDataRate_t</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f>LoRa_TxDone!H41</f>
+        <f>LoRa_TxDone_HTX!H41</f>
         <v>dataRate;</v>
       </c>
       <c r="I41" s="8" t="str">
-        <f>LoRa_TxDone!I41</f>
+        <f>LoRa_TxDone_HTX!I41</f>
         <v>spreadingFactor[dataRate]</v>
       </c>
       <c r="J41" s="5">
-        <f>LoRa_TxDone!J41</f>
+        <f>LoRa_TxDone_HTX!J41</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42" s="5" t="str">
-        <f>LoRa_TxDone!G42</f>
+        <f>LoRa_TxDone_HTX!G42</f>
         <v>RadioLoRaBandWidth_t</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f>LoRa_TxDone!H42</f>
+        <f>LoRa_TxDone_HTX!H42</f>
         <v>bandWidth;</v>
       </c>
       <c r="I42" s="8" t="str">
-        <f>LoRa_TxDone!I42</f>
+        <f>LoRa_TxDone_HTX!I42</f>
         <v>bandwidth[dataRate]</v>
       </c>
       <c r="J42" s="5">
-        <f>LoRa_TxDone!J42</f>
+        <f>LoRa_TxDone_HTX!J42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G43" s="5" t="str">
-        <f>LoRa_TxDone!G43</f>
+        <f>LoRa_TxDone_HTX!G43</f>
         <v>int8_t</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f>LoRa_TxDone!H43</f>
+        <f>LoRa_TxDone_HTX!H43</f>
         <v>outputPower;</v>
       </c>
       <c r="I43" s="8" t="str">
-        <f>LoRa_TxDone!I43</f>
+        <f>LoRa_TxDone_HTX!I43</f>
         <v>txPower868[LoRa_txPower]</v>
       </c>
       <c r="J43" s="5">
-        <f>LoRa_TxDone!J43</f>
+        <f>LoRa_TxDone_HTX!J43</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G44" s="5" t="str">
-        <f>LoRa_TxDone!G44</f>
+        <f>LoRa_TxDone_HTX!G44</f>
         <v>uint8_t</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f>LoRa_TxDone!H44</f>
+        <f>LoRa_TxDone_HTX!H44</f>
         <v>crcOn;</v>
       </c>
       <c r="I44" s="8" t="str">
-        <f>LoRa_TxDone!I44</f>
+        <f>LoRa_TxDone_HTX!I44</f>
         <v>ENABLED</v>
       </c>
       <c r="J44" s="5">
-        <f>LoRa_TxDone!J44</f>
+        <f>LoRa_TxDone_HTX!J44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G45" s="5" t="str">
-        <f>LoRa_TxDone!G45</f>
+        <f>LoRa_TxDone_HTX!G45</f>
         <v>uint8_t</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f>LoRa_TxDone!H45</f>
+        <f>LoRa_TxDone_HTX!H45</f>
         <v>paBoost;</v>
       </c>
       <c r="I45" s="8" t="str">
-        <f>LoRa_TxDone!I45</f>
+        <f>LoRa_TxDone_HTX!I45</f>
         <v>0</v>
       </c>
       <c r="J45" s="5">
-        <f>LoRa_TxDone!J45</f>
+        <f>LoRa_TxDone_HTX!J45</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G46" s="5" t="str">
-        <f>LoRa_TxDone!G46</f>
+        <f>LoRa_TxDone_HTX!G46</f>
         <v>uint16_t</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f>LoRa_TxDone!H46</f>
+        <f>LoRa_TxDone_HTX!H46</f>
         <v>frequencyHopPeriod;</v>
       </c>
       <c r="I46" s="8" t="str">
-        <f>LoRa_TxDone!I46</f>
+        <f>LoRa_TxDone_HTX!I46</f>
         <v>DISABLED</v>
       </c>
       <c r="J46" s="5">
-        <f>LoRa_TxDone!J46</f>
+        <f>LoRa_TxDone_HTX!J46</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G47" s="5" t="str">
-        <f>LoRa_TxDone!G47</f>
+        <f>LoRa_TxDone_HTX!G47</f>
         <v>uint8_t</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f>LoRa_TxDone!H47</f>
+        <f>LoRa_TxDone_HTX!H47</f>
         <v>iqInverted;</v>
       </c>
       <c r="I47" s="8" t="str">
-        <f>LoRa_TxDone!I47</f>
+        <f>LoRa_TxDone_HTX!I47</f>
         <v>DISABLED</v>
       </c>
       <c r="J47" s="5">
-        <f>LoRa_TxDone!J47</f>
+        <f>LoRa_TxDone_HTX!J47</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G48" s="5" t="str">
-        <f>LoRa_TxDone!G48</f>
+        <f>LoRa_TxDone_HTX!G48</f>
         <v>RadioErrorCodingRate_t</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f>LoRa_TxDone!H48</f>
+        <f>LoRa_TxDone_HTX!H48</f>
         <v>errorCodingRate;</v>
       </c>
       <c r="I48" s="8" t="str">
-        <f>LoRa_TxDone!I48</f>
+        <f>LoRa_TxDone_HTX!I48</f>
         <v>CR_4_5</v>
       </c>
       <c r="J48" s="5">
-        <f>LoRa_TxDone!J48</f>
+        <f>LoRa_TxDone_HTX!J48</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49" s="5" t="str">
-        <f>LoRa_TxDone!G49</f>
+        <f>LoRa_TxDone_HTX!G49</f>
         <v>uint8_t</v>
       </c>
       <c r="H49" s="5" t="str">
-        <f>LoRa_TxDone!H49</f>
+        <f>LoRa_TxDone_HTX!H49</f>
         <v>implicitHeaderMode;</v>
       </c>
       <c r="I49" s="8" t="str">
-        <f>LoRa_TxDone!I49</f>
+        <f>LoRa_TxDone_HTX!I49</f>
         <v>0</v>
       </c>
       <c r="J49" s="5">
-        <f>LoRa_TxDone!J49</f>
+        <f>LoRa_TxDone_HTX!J49</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50" s="5" t="str">
-        <f>LoRa_TxDone!G50</f>
+        <f>LoRa_TxDone_HTX!G50</f>
         <v>uint8_t</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f>LoRa_TxDone!H50</f>
+        <f>LoRa_TxDone_HTX!H50</f>
         <v>flags;</v>
       </c>
       <c r="I50" s="8" t="str">
-        <f>LoRa_TxDone!I50</f>
+        <f>LoRa_TxDone_HTX!I50</f>
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <f>LoRa_TxDone!J50</f>
+        <f>LoRa_TxDone_HTX!J50</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51" s="5" t="str">
-        <f>LoRa_TxDone!G51</f>
+        <f>LoRa_TxDone_HTX!G51</f>
         <v>uint8_t</v>
       </c>
       <c r="H51" s="5" t="str">
-        <f>LoRa_TxDone!H51</f>
+        <f>LoRa_TxDone_HTX!H51</f>
         <v>dataBufferLen;</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J51" s="5">
-        <f>LoRa_TxDone!J51</f>
+        <f>LoRa_TxDone_HTX!J51</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52" s="5" t="str">
-        <f>LoRa_TxDone!G52</f>
+        <f>LoRa_TxDone_HTX!G52</f>
         <v>uint8_t</v>
       </c>
       <c r="H52" s="5" t="str">
-        <f>LoRa_TxDone!H52</f>
+        <f>LoRa_TxDone_HTX!H52</f>
         <v>*dataBuffer;</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>211</v>
       </c>
       <c r="J52" s="5">
-        <f>LoRa_TxDone!J52</f>
+        <f>LoRa_TxDone_HTX!J52</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53" s="5" t="str">
-        <f>LoRa_TxDone!G53</f>
+        <f>LoRa_TxDone_HTX!G53</f>
         <v>uint8_t</v>
       </c>
       <c r="H53" s="5" t="str">
-        <f>LoRa_TxDone!H53</f>
+        <f>LoRa_TxDone_HTX!H53</f>
         <v>timeOnAirTimerId;</v>
       </c>
       <c r="I53" s="6" t="str">
-        <f>LoRa_TxDone!I53</f>
+        <f>LoRa_TxDone_HTX!I53</f>
         <v>TIME_ON_AIR_LOAD_VALUE</v>
       </c>
       <c r="J53" s="5">
-        <f>LoRa_TxDone!J53</f>
+        <f>LoRa_TxDone_HTX!J53</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54" s="5" t="str">
-        <f>LoRa_TxDone!G54</f>
+        <f>LoRa_TxDone_HTX!G54</f>
         <v>uint8_t</v>
       </c>
       <c r="H54" s="5" t="str">
-        <f>LoRa_TxDone!H54</f>
+        <f>LoRa_TxDone_HTX!H54</f>
         <v>fskRxWindowTimerId;</v>
       </c>
       <c r="I54" s="8" t="str">
-        <f>LoRa_TxDone!I54</f>
+        <f>LoRa_TxDone_HTX!I54</f>
         <v>RADIO_RxFSKTimeout</v>
       </c>
       <c r="J54" s="5">
-        <f>LoRa_TxDone!J54</f>
+        <f>LoRa_TxDone_HTX!J54</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55" s="5" t="str">
-        <f>LoRa_TxDone!G55</f>
+        <f>LoRa_TxDone_HTX!G55</f>
         <v>uint8_t</v>
       </c>
       <c r="H55" s="5" t="str">
-        <f>LoRa_TxDone!H55</f>
+        <f>LoRa_TxDone_HTX!H55</f>
         <v>watchdogTimerId;</v>
       </c>
       <c r="I55" s="6" t="str">
-        <f>LoRa_TxDone!I55</f>
+        <f>LoRa_TxDone_HTX!I55</f>
         <v>watchdogTimerTimeout</v>
       </c>
       <c r="J55" s="5">
-        <f>LoRa_TxDone!J55</f>
+        <f>LoRa_TxDone_HTX!J55</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56" s="5" t="str">
-        <f>LoRa_TxDone!G56</f>
+        <f>LoRa_TxDone_HTX!G56</f>
         <v>uint32_t</v>
       </c>
       <c r="H56" s="5" t="str">
-        <f>LoRa_TxDone!H56</f>
+        <f>LoRa_TxDone_HTX!H56</f>
         <v>watchdogTimerTimeout;</v>
       </c>
       <c r="I56" s="8" t="str">
-        <f>LoRa_TxDone!I56</f>
+        <f>LoRa_TxDone_HTX!I56</f>
         <v>WATCHDOG_DEFAULT_TIME</v>
       </c>
       <c r="J56" s="5">
-        <f>LoRa_TxDone!J56</f>
+        <f>LoRa_TxDone_HTX!J56</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57" s="5" t="str">
-        <f>LoRa_TxDone!G57</f>
+        <f>LoRa_TxDone_HTX!G57</f>
         <v>uint8_t</v>
       </c>
       <c r="H57" s="5" t="str">
-        <f>LoRa_TxDone!H57</f>
+        <f>LoRa_TxDone_HTX!H57</f>
         <v>initialized;</v>
       </c>
       <c r="I57" s="8">
-        <f>LoRa_TxDone!I57</f>
+        <f>LoRa_TxDone_HTX!I57</f>
         <v>1</v>
       </c>
       <c r="J57" s="5">
-        <f>LoRa_TxDone!J57</f>
+        <f>LoRa_TxDone_HTX!J57</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58" s="5" t="str">
-        <f>LoRa_TxDone!G58</f>
+        <f>LoRa_TxDone_HTX!G58</f>
         <v>uint32_t</v>
       </c>
       <c r="H58" s="5" t="str">
-        <f>LoRa_TxDone!H58</f>
+        <f>LoRa_TxDone_HTX!H58</f>
         <v>(*fhssNextFrequency)(void);</v>
       </c>
       <c r="I58" s="8" t="str">
-        <f>LoRa_TxDone!I58</f>
+        <f>LoRa_TxDone_HTX!I58</f>
         <v>NULL</v>
       </c>
       <c r="J58" s="5">
-        <f>LoRa_TxDone!J58</f>
+        <f>LoRa_TxDone_HTX!J58</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59" s="5" t="str">
-        <f>LoRa_TxDone!G59</f>
+        <f>LoRa_TxDone_HTX!G59</f>
         <v>uint8_t</v>
       </c>
       <c r="H59" s="5" t="str">
-        <f>LoRa_TxDone!H59</f>
+        <f>LoRa_TxDone_HTX!H59</f>
         <v>regVersion;</v>
       </c>
       <c r="I59" s="8" t="str">
-        <f>LoRa_TxDone!I59</f>
+        <f>LoRa_TxDone_HTX!I59</f>
         <v>RADIO_RegisterRead(REG_VERSION)</v>
       </c>
       <c r="J59" s="5">
-        <f>LoRa_TxDone!J59</f>
+        <f>LoRa_TxDone_HTX!J59</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60" s="5" t="str">
-        <f>LoRa_TxDone!G60</f>
+        <f>LoRa_TxDone_HTX!G60</f>
         <v>int8_t</v>
       </c>
       <c r="H60" s="5" t="str">
-        <f>LoRa_TxDone!H60</f>
+        <f>LoRa_TxDone_HTX!H60</f>
         <v>packetSNR;</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>28</v>
       </c>
       <c r="J60" s="5">
-        <f>LoRa_TxDone!J60</f>
+        <f>LoRa_TxDone_HTX!J60</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61" s="5" t="str">
-        <f>LoRa_TxDone!G61</f>
+        <f>LoRa_TxDone_HTX!G61</f>
         <v>RadioFSKShaping_t</v>
       </c>
       <c r="H61" s="5" t="str">
-        <f>LoRa_TxDone!H61</f>
+        <f>LoRa_TxDone_HTX!H61</f>
         <v>fskDataShaping;</v>
       </c>
       <c r="I61" s="8" t="str">
-        <f>LoRa_TxDone!I61</f>
+        <f>LoRa_TxDone_HTX!I61</f>
         <v>FSK_SHAPING_GAUSS_BT_0_5</v>
       </c>
       <c r="J61" s="5">
-        <f>LoRa_TxDone!J61</f>
+        <f>LoRa_TxDone_HTX!J61</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62" s="5" t="str">
-        <f>LoRa_TxDone!G62</f>
+        <f>LoRa_TxDone_HTX!G62</f>
         <v>RadioFSKBandWidth_t</v>
       </c>
       <c r="H62" s="5" t="str">
-        <f>LoRa_TxDone!H62</f>
+        <f>LoRa_TxDone_HTX!H62</f>
         <v>rxBw;</v>
       </c>
       <c r="I62" s="8" t="str">
-        <f>LoRa_TxDone!I62</f>
+        <f>LoRa_TxDone_HTX!I62</f>
         <v>FSKBW_50_0KHZ</v>
       </c>
       <c r="J62" s="5">
-        <f>LoRa_TxDone!J62</f>
+        <f>LoRa_TxDone_HTX!J62</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63" s="5" t="str">
-        <f>LoRa_TxDone!G63</f>
+        <f>LoRa_TxDone_HTX!G63</f>
         <v>RadioFSKBandWidth_t</v>
       </c>
       <c r="H63" s="5" t="str">
-        <f>LoRa_TxDone!H63</f>
+        <f>LoRa_TxDone_HTX!H63</f>
         <v>afcBw;</v>
       </c>
       <c r="I63" s="8" t="str">
-        <f>LoRa_TxDone!I63</f>
+        <f>LoRa_TxDone_HTX!I63</f>
         <v>FSKBW_83_3KHZ</v>
       </c>
       <c r="J63" s="5">
-        <f>LoRa_TxDone!J63</f>
+        <f>LoRa_TxDone_HTX!J63</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64" s="5">
-        <f>LoRa_TxDone!G64</f>
+        <f>LoRa_TxDone_HTX!G64</f>
         <v>0</v>
       </c>
       <c r="H64" s="5">
-        <f>LoRa_TxDone!H64</f>
+        <f>LoRa_TxDone_HTX!H64</f>
         <v>0</v>
       </c>
       <c r="I64" s="8">
-        <f>LoRa_TxDone!I64</f>
+        <f>LoRa_TxDone_HTX!I64</f>
         <v>0</v>
       </c>
       <c r="J64" s="5">
-        <f>LoRa_TxDone!J64</f>
+        <f>LoRa_TxDone_HTX!J64</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65" s="5">
-        <f>LoRa_TxDone!G65</f>
+        <f>LoRa_TxDone_HTX!G65</f>
         <v>0</v>
       </c>
       <c r="H65" s="5">
-        <f>LoRa_TxDone!H65</f>
+        <f>LoRa_TxDone_HTX!H65</f>
         <v>0</v>
       </c>
       <c r="I65" s="8">
-        <f>LoRa_TxDone!I65</f>
+        <f>LoRa_TxDone_HTX!I65</f>
         <v>0</v>
       </c>
       <c r="J65" s="5">
-        <f>LoRa_TxDone!J65</f>
+        <f>LoRa_TxDone_HTX!J65</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66" s="5">
-        <f>LoRa_TxDone!G66</f>
+        <f>LoRa_TxDone_HTX!G66</f>
         <v>0</v>
       </c>
       <c r="H66" s="5">
-        <f>LoRa_TxDone!H66</f>
+        <f>LoRa_TxDone_HTX!H66</f>
         <v>0</v>
       </c>
       <c r="I66" s="8">
-        <f>LoRa_TxDone!I66</f>
+        <f>LoRa_TxDone_HTX!I66</f>
         <v>0</v>
       </c>
       <c r="J66" s="5">
-        <f>LoRa_TxDone!J66</f>
+        <f>LoRa_TxDone_HTX!J66</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67" s="5" t="str">
-        <f>LoRa_TxDone!G67</f>
+        <f>LoRa_TxDone_HTX!G67</f>
         <v>ChannelParams_t</v>
       </c>
       <c r="H67" s="5" t="str">
-        <f>LoRa_TxDone!H67</f>
+        <f>LoRa_TxDone_HTX!H67</f>
         <v>Channels</v>
       </c>
       <c r="I67" s="8" t="str">
-        <f>LoRa_TxDone!I67</f>
+        <f>LoRa_TxDone_HTX!I67</f>
         <v>DefaultChannels868[]</v>
       </c>
       <c r="J67" s="5">
-        <f>LoRa_TxDone!J67</f>
+        <f>LoRa_TxDone_HTX!J67</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68" s="5" t="str">
-        <f>LoRa_TxDone!G68</f>
+        <f>LoRa_TxDone_HTX!G68</f>
         <v>uint8_t</v>
       </c>
       <c r="H68" s="5" t="str">
-        <f>LoRa_TxDone!H68</f>
+        <f>LoRa_TxDone_HTX!H68</f>
         <v>maxPayloadSize[]</v>
       </c>
       <c r="I68" s="8" t="str">
-        <f>LoRa_TxDone!I68</f>
+        <f>LoRa_TxDone_HTX!I68</f>
         <v>array</v>
       </c>
       <c r="J68" s="5">
-        <f>LoRa_TxDone!J68</f>
+        <f>LoRa_TxDone_HTX!J68</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69" s="5">
-        <f>LoRa_TxDone!G69</f>
+        <f>LoRa_TxDone_HTX!G69</f>
         <v>0</v>
       </c>
       <c r="H69" s="5">
-        <f>LoRa_TxDone!H69</f>
+        <f>LoRa_TxDone_HTX!H69</f>
         <v>0</v>
       </c>
       <c r="I69" s="8">
-        <f>LoRa_TxDone!I69</f>
+        <f>LoRa_TxDone_HTX!I69</f>
         <v>0</v>
       </c>
       <c r="J69" s="5">
-        <f>LoRa_TxDone!J69</f>
+        <f>LoRa_TxDone_HTX!J69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70" s="5">
-        <f>LoRa_TxDone!G70</f>
+        <f>LoRa_TxDone_HTX!G70</f>
         <v>0</v>
       </c>
       <c r="H70" s="5">
-        <f>LoRa_TxDone!H70</f>
+        <f>LoRa_TxDone_HTX!H70</f>
         <v>0</v>
       </c>
       <c r="I70" s="8">
-        <f>LoRa_TxDone!I70</f>
+        <f>LoRa_TxDone_HTX!I70</f>
         <v>0</v>
       </c>
       <c r="J70" s="5">
-        <f>LoRa_TxDone!J70</f>
+        <f>LoRa_TxDone_HTX!J70</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71" s="5">
-        <f>LoRa_TxDone!G71</f>
+        <f>LoRa_TxDone_HTX!G71</f>
         <v>0</v>
       </c>
       <c r="H71" s="5">
-        <f>LoRa_TxDone!H71</f>
+        <f>LoRa_TxDone_HTX!H71</f>
         <v>0</v>
       </c>
       <c r="I71" s="8">
-        <f>LoRa_TxDone!I71</f>
+        <f>LoRa_TxDone_HTX!I71</f>
         <v>0</v>
       </c>
       <c r="J71" s="5">
-        <f>LoRa_TxDone!J71</f>
+        <f>LoRa_TxDone_HTX!J71</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72" s="5">
-        <f>LoRa_TxDone!G72</f>
+        <f>LoRa_TxDone_HTX!G72</f>
         <v>0</v>
       </c>
       <c r="H72" s="5">
-        <f>LoRa_TxDone!H72</f>
+        <f>LoRa_TxDone_HTX!H72</f>
         <v>0</v>
       </c>
       <c r="I72" s="8">
-        <f>LoRa_TxDone!I72</f>
+        <f>LoRa_TxDone_HTX!I72</f>
         <v>0</v>
       </c>
       <c r="J72" s="5">
-        <f>LoRa_TxDone!J72</f>
+        <f>LoRa_TxDone_HTX!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G73" s="5">
+        <f>LoRa_System_Init!G74</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <f>LoRa_System_Init!H74</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <f>LoRa_System_Init!I74</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B789C39B-08C9-49EB-85D5-D2F0C6C277D6}">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="str">
+        <f>H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="str">
+        <f>LoRa_System_Init!C3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>LoRa_RxDone_HRX!E3</f>
+        <v>LoRa_SendData_TX</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="5">
+        <f>LoRa_RxDone_HRX!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G4</f>
+        <v>bool</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H4</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I4</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J4" s="5">
+        <f>LoRa_RxDone_HRX!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G5</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H5</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I5</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+      <c r="J5" s="5">
+        <f>LoRa_RxDone_HRX!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="G6" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G6</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H6</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>LoRa_RxDone_HRX!J6</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H7</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>LoRa_RxDone_HRX!J7</f>
+        <v>LoRa_TimerReconnectCallback</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H8</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I8</f>
+        <v>LoRa_Transmit_timeout</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>LoRa_RxDone_HRX!J8</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H9</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I9</f>
+        <v>LoRa_Addres, nxt_channel</v>
+      </c>
+      <c r="J9" s="5">
+        <f>LoRa_RxDone_HRX!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H10</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I10</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="J10" s="5">
+        <f>LoRa_RxDone_HRX!J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H11</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I11</f>
+        <v>bufferIndex, nxt_channel, data, CRC</v>
+      </c>
+      <c r="J11" s="5">
+        <f>LoRa_RxDone_HRX!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H12</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I12</f>
+        <v>bufferIndex</v>
+      </c>
+      <c r="J12" s="5">
+        <f>LoRa_RxDone_HRX!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G13</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H13</f>
+        <v>LoRa_Command</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I13</f>
+        <v>value</v>
+      </c>
+      <c r="J13" s="5">
+        <f>LoRa_RxDone_HRX!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H14</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I14</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J14" s="5">
+        <f>LoRa_RxDone_HRX!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G15</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H15</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I15</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J15" s="5">
+        <f>LoRa_RxDone_HRX!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <f>LoRa_RxDone_HRX!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H16</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I16</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J16" s="5">
+        <f>LoRa_RxDone_HRX!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I17</f>
+        <v>CH_nr</v>
+      </c>
+      <c r="J17" s="5">
+        <f>LoRa_RxDone_HRX!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="5">
+        <f>LoRa_Send!E18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+      <c r="J18" s="5">
+        <f>LoRa_RxDone_HRX!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="str">
+        <f>LoRa_Send!C19</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="D19" s="5">
+        <f>LoRa_Send!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f>LoRa_Send!E19</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="G19" s="5">
+        <f>LoRa_RxDone_HRX!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+      <c r="J19" s="5">
+        <f>LoRa_RxDone_HRX!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f>function!G46</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="E20" s="5">
+        <f>LoRa_Send!E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G20</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H20</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I20" s="8">
+        <f>LoRa_RxDone_HRX!I20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <f>LoRa_RxDone_HRX!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G21</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H21</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I21</f>
+        <v>0x34</v>
+      </c>
+      <c r="J21" s="5">
+        <f>LoRa_RxDone_HRX!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G22</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H22</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I22</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+      <c r="J22" s="5">
+        <f>LoRa_RxDone_HRX!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G23</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H23</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I23</f>
+        <v>ISM_EU868</v>
+      </c>
+      <c r="J23" s="5">
+        <f>LoRa_RxDone_HRX!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H24</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I24</f>
+        <v>DR0</v>
+      </c>
+      <c r="J24" s="5">
+        <f>LoRa_RxDone_HRX!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H25</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I25</f>
+        <v>DR0</v>
+      </c>
+      <c r="J25" s="5">
+        <f>LoRa_RxDone_HRX!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H26</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I26</f>
+        <v>DR7</v>
+      </c>
+      <c r="J26" s="5">
+        <f>LoRa_RxDone_HRX!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <f>LoRa_RxDone_HRX!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f>LoRa_RxDone_HRX!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f>LoRa_RxDone_HRX!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f>LoRa_RxDone_HRX!J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <f>LoRa_RxDone_HRX!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>LoRa_RxDone_HRX!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <f>LoRa_RxDone_HRX!I28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <f>LoRa_RxDone_HRX!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G29</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H29</f>
+        <v>LoRa_TxDone</v>
+      </c>
+      <c r="I29" s="8">
+        <f>LoRa_RxDone_HRX!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <f>LoRa_RxDone_HRX!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G30</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H30</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="I30" s="8">
+        <f>LoRa_RxDone_HRX!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <f>LoRa_RxDone_HRX!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="5">
+        <f>LoRa_RxDone_HRX!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f>LoRa_RxDone_HRX!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <f>LoRa_RxDone_HRX!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <f>LoRa_RxDone_HRX!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="5">
+        <f>LoRa_RxDone_HRX!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f>LoRa_RxDone_HRX!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <f>LoRa_RxDone_HRX!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f>LoRa_RxDone_HRX!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G33</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H33</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I33</f>
+        <v>freq</v>
+      </c>
+      <c r="J33" s="5">
+        <f>LoRa_RxDone_HRX!J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H34</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I34" s="8">
+        <f>LoRa_RxDone_HRX!I34</f>
+        <v>25000</v>
+      </c>
+      <c r="J34" s="5">
+        <f>LoRa_RxDone_HRX!J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H35</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I35" s="8">
+        <f>LoRa_RxDone_HRX!I35</f>
+        <v>50000</v>
+      </c>
+      <c r="J35" s="5">
+        <f>LoRa_RxDone_HRX!J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G36</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H36</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I36" s="8">
+        <f>LoRa_RxDone_HRX!I36</f>
+        <v>8</v>
+      </c>
+      <c r="J36" s="5">
+        <f>LoRa_RxDone_HRX!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G37</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H37</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I37</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="J37" s="5">
+        <f>LoRa_RxDone_HRX!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H38</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I38</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+      <c r="J38" s="5">
+        <f>LoRa_RxDone_HRX!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H39</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I39" s="8">
+        <f>LoRa_RxDone_HRX!I39</f>
+        <v>3</v>
+      </c>
+      <c r="J39" s="5">
+        <f>LoRa_RxDone_HRX!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G40</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H40</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I40</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="J40" s="5">
+        <f>LoRa_RxDone_HRX!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G41</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H41</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I41</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="J41" s="5">
+        <f>LoRa_RxDone_HRX!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G42</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H42</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I42</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="J42" s="5">
+        <f>LoRa_RxDone_HRX!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G43</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H43</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I43</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="J43" s="5">
+        <f>LoRa_RxDone_HRX!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G44</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H44</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I44</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J44" s="5">
+        <f>LoRa_RxDone_HRX!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H45</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <f>LoRa_RxDone_HRX!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G46</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H46</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I46</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J46" s="5">
+        <f>LoRa_RxDone_HRX!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H47</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I47</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J47" s="5">
+        <f>LoRa_RxDone_HRX!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G48</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H48</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I48</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="J48" s="5">
+        <f>LoRa_RxDone_HRX!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H49</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <f>LoRa_RxDone_HRX!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G50</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H50</f>
+        <v>flags;</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f>LoRa_RxDone_HRX!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H51</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I51</f>
+        <v>value</v>
+      </c>
+      <c r="J51" s="5">
+        <f>LoRa_RxDone_HRX!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G52</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H52</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I52</f>
+        <v>data in</v>
+      </c>
+      <c r="J52" s="5">
+        <f>LoRa_RxDone_HRX!J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I53</f>
+        <v>TIME_ON_AIR_LOAD_VALUE</v>
+      </c>
+      <c r="J53" s="5">
+        <f>LoRa_RxDone_HRX!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H54</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I54</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+      <c r="J54" s="5">
+        <f>LoRa_RxDone_HRX!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H55</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I55" s="6" t="str">
+        <f>LoRa_RxDone_HRX!I55</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="J55" s="5">
+        <f>LoRa_RxDone_HRX!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G56</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H56</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I56" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I56</f>
+        <v>WATCHDOG_DEFAULT_TIME</v>
+      </c>
+      <c r="J56" s="5">
+        <f>LoRa_RxDone_HRX!J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H57</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I57" s="8">
+        <f>LoRa_RxDone_HRX!I57</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <f>LoRa_RxDone_HRX!J57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H58</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I58" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I58</f>
+        <v>NULL</v>
+      </c>
+      <c r="J58" s="5">
+        <f>LoRa_RxDone_HRX!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H59</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I59" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I59</f>
+        <v>RADIO_RegisterRead(REG_VERSION)</v>
+      </c>
+      <c r="J59" s="5">
+        <f>LoRa_RxDone_HRX!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G60</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H60</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I60" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I60</f>
+        <v>value</v>
+      </c>
+      <c r="J60" s="5">
+        <f>LoRa_RxDone_HRX!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G61</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H61</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I61" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I61</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="J61" s="5">
+        <f>LoRa_RxDone_HRX!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G62</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H62</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I62" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I62</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+      <c r="J62" s="5">
+        <f>LoRa_RxDone_HRX!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G63</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H63</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I63" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I63</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+      <c r="J63" s="5">
+        <f>LoRa_RxDone_HRX!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G64" s="5">
+        <f>LoRa_RxDone_HRX!G64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <f>LoRa_RxDone_HRX!H64</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <f>LoRa_RxDone_HRX!I64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f>LoRa_RxDone_HRX!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="5">
+        <f>LoRa_RxDone_HRX!G65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <f>LoRa_RxDone_HRX!H65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <f>LoRa_RxDone_HRX!I65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f>LoRa_RxDone_HRX!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G66" s="5">
+        <f>LoRa_RxDone_HRX!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <f>LoRa_RxDone_HRX!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <f>LoRa_RxDone_HRX!I66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <f>LoRa_RxDone_HRX!J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G67</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H67</f>
+        <v>Channels</v>
+      </c>
+      <c r="I67" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I67</f>
+        <v>DefaultChannels868[]</v>
+      </c>
+      <c r="J67" s="5">
+        <f>LoRa_RxDone_HRX!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G68</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H68</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I68" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I68</f>
+        <v>array</v>
+      </c>
+      <c r="J68" s="5">
+        <f>LoRa_RxDone_HRX!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G69" s="5">
+        <f>LoRa_RxDone_HRX!G69</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <f>LoRa_RxDone_HRX!H69</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
+        <f>LoRa_RxDone_HRX!I69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <f>LoRa_RxDone_HRX!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G70" s="5">
+        <f>LoRa_RxDone_HRX!G70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <f>LoRa_RxDone_HRX!H70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <f>LoRa_RxDone_HRX!I70</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f>LoRa_RxDone_HRX!J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G71" s="5">
+        <f>LoRa_RxDone_HRX!G71</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <f>LoRa_RxDone_HRX!H71</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <f>LoRa_RxDone_HRX!I71</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <f>LoRa_RxDone_HRX!J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G72" s="5">
+        <f>LoRa_TxDone_HTX!G72</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <f>LoRa_TxDone_HTX!H72</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <f>LoRa_TxDone_HTX!I72</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <f>LoRa_TxDone_HTX!J72</f>
         <v>0</v>
       </c>
     </row>

--- a/Lora 2019.xlsx
+++ b/Lora 2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF408A1-8D5E-483C-8269-918BF7A605D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBFC1BE-1BE6-4ABA-B955-8B14B42ED707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" firstSheet="4" activeTab="9" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
+    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" firstSheet="6" activeTab="10" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
   <sheets>
     <sheet name="function" sheetId="9" r:id="rId1"/>
@@ -20,9 +20,11 @@
     <sheet name="RADIO_Init" sheetId="11" r:id="rId5"/>
     <sheet name="LoRa_Send" sheetId="13" r:id="rId6"/>
     <sheet name="LoRa_TxDone_HTX" sheetId="14" r:id="rId7"/>
-    <sheet name="LoRa_RxDone_HRX" sheetId="15" r:id="rId8"/>
-    <sheet name="LoRa_TxDone_DTX" sheetId="16" r:id="rId9"/>
-    <sheet name="LoRa_RxDone_DRX" sheetId="17" r:id="rId10"/>
+    <sheet name="LoRa_RxTimeout_HTX" sheetId="18" r:id="rId8"/>
+    <sheet name="LoRa_RxDone_HRX" sheetId="15" r:id="rId9"/>
+    <sheet name="LoRa_TxDone_DTX" sheetId="16" r:id="rId10"/>
+    <sheet name="LoRa_RxTimeout_DTX" sheetId="19" r:id="rId11"/>
+    <sheet name="LoRa_RxDone_DRX" sheetId="17" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="219">
   <si>
     <t>timer</t>
   </si>
@@ -693,6 +695,12 @@
   </si>
   <si>
     <t>LoRa_Sent</t>
+  </si>
+  <si>
+    <t>LoRa_RxTimeout</t>
+  </si>
+  <si>
+    <t>LoRa_SendFailed</t>
   </si>
 </sst>
 </file>
@@ -1718,10 +1726,2743 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B789C39B-08C9-49EB-85D5-D2F0C6C277D6}">
+  <dimension ref="A1:J73"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="str">
+        <f>H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="str">
+        <f>LoRa_System_Init!C3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>LoRa_RxDone_HRX!E3</f>
+        <v>LoRa_SendData_TX</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="5">
+        <f>LoRa_RxDone_HRX!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G4</f>
+        <v>bool</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H4</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I4</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J4" s="5">
+        <f>LoRa_RxDone_HRX!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G5</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H5</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I5</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+      <c r="J5" s="5">
+        <f>LoRa_RxDone_HRX!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="G6" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G6</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H6</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>LoRa_RxDone_HRX!J6</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H7</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>LoRa_RxDone_HRX!J7</f>
+        <v>LoRa_TimerReconnectCallback</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H8</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I8</f>
+        <v>LoRa_Transmit_timeout</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>LoRa_RxDone_HRX!J8</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H9</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I9</f>
+        <v>LoRa_Addres, nxt_channel</v>
+      </c>
+      <c r="J9" s="5">
+        <f>LoRa_RxDone_HRX!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H10</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I10</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="J10" s="5">
+        <f>LoRa_RxDone_HRX!J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H11</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I11</f>
+        <v>bufferIndex, nxt_channel, data, CRC</v>
+      </c>
+      <c r="J11" s="5">
+        <f>LoRa_RxDone_HRX!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H12</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I12</f>
+        <v>bufferIndex</v>
+      </c>
+      <c r="J12" s="5">
+        <f>LoRa_RxDone_HRX!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G13</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H13</f>
+        <v>LoRa_Command</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I13</f>
+        <v>value</v>
+      </c>
+      <c r="J13" s="5">
+        <f>LoRa_RxDone_HRX!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H14</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I14</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J14" s="5">
+        <f>LoRa_RxDone_HRX!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G15</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H15</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I15</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J15" s="5">
+        <f>LoRa_RxDone_HRX!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <f>LoRa_RxDone_HRX!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H16</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I16</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J16" s="5">
+        <f>LoRa_RxDone_HRX!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I17</f>
+        <v>CH_nr</v>
+      </c>
+      <c r="J17" s="5">
+        <f>LoRa_RxDone_HRX!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="5">
+        <f>LoRa_Send!E18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+      <c r="J18" s="5">
+        <f>LoRa_RxDone_HRX!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="str">
+        <f>LoRa_Send!C19</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="D19" s="5">
+        <f>LoRa_Send!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5" t="str">
+        <f>LoRa_Send!E19</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="G19" s="5">
+        <f>LoRa_RxDone_HRX!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+      <c r="J19" s="5">
+        <f>LoRa_RxDone_HRX!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="4" t="str">
+        <f>function!G46</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="E20" s="5">
+        <f>LoRa_Send!E20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G20</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H20</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I20" s="8">
+        <f>LoRa_RxDone_HRX!I20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <f>LoRa_RxDone_HRX!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G21" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G21</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H21</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I21</f>
+        <v>0x34</v>
+      </c>
+      <c r="J21" s="5">
+        <f>LoRa_RxDone_HRX!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G22</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H22</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I22</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+      <c r="J22" s="5">
+        <f>LoRa_RxDone_HRX!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G23</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H23</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I23</f>
+        <v>ISM_EU868</v>
+      </c>
+      <c r="J23" s="5">
+        <f>LoRa_RxDone_HRX!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H24</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I24</f>
+        <v>DR0</v>
+      </c>
+      <c r="J24" s="5">
+        <f>LoRa_RxDone_HRX!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H25</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I25</f>
+        <v>DR0</v>
+      </c>
+      <c r="J25" s="5">
+        <f>LoRa_RxDone_HRX!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H26</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I26</f>
+        <v>DR7</v>
+      </c>
+      <c r="J26" s="5">
+        <f>LoRa_RxDone_HRX!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <f>LoRa_RxDone_HRX!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f>LoRa_RxDone_HRX!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f>LoRa_RxDone_HRX!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f>LoRa_RxDone_HRX!J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <f>LoRa_RxDone_HRX!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>LoRa_RxDone_HRX!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <f>LoRa_RxDone_HRX!I28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <f>LoRa_RxDone_HRX!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G29</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H29</f>
+        <v>LoRa_TxDone</v>
+      </c>
+      <c r="I29" s="8">
+        <f>LoRa_RxDone_HRX!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <f>LoRa_RxDone_HRX!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G30</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H30</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="I30" s="8">
+        <f>LoRa_RxDone_HRX!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <f>LoRa_RxDone_HRX!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="5">
+        <f>LoRa_RxDone_HRX!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f>LoRa_RxDone_HRX!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <f>LoRa_RxDone_HRX!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <f>LoRa_RxDone_HRX!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="5">
+        <f>LoRa_RxDone_HRX!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f>LoRa_RxDone_HRX!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <f>LoRa_RxDone_HRX!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f>LoRa_RxDone_HRX!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G33</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H33</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I33</f>
+        <v>freq</v>
+      </c>
+      <c r="J33" s="5">
+        <f>LoRa_RxDone_HRX!J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H34</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I34" s="8">
+        <f>LoRa_RxDone_HRX!I34</f>
+        <v>25000</v>
+      </c>
+      <c r="J34" s="5">
+        <f>LoRa_RxDone_HRX!J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H35</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I35" s="8">
+        <f>LoRa_RxDone_HRX!I35</f>
+        <v>50000</v>
+      </c>
+      <c r="J35" s="5">
+        <f>LoRa_RxDone_HRX!J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G36</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H36</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I36" s="8">
+        <f>LoRa_RxDone_HRX!I36</f>
+        <v>8</v>
+      </c>
+      <c r="J36" s="5">
+        <f>LoRa_RxDone_HRX!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G37</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H37</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I37</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="J37" s="5">
+        <f>LoRa_RxDone_HRX!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H38</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I38</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+      <c r="J38" s="5">
+        <f>LoRa_RxDone_HRX!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H39</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I39" s="8">
+        <f>LoRa_RxDone_HRX!I39</f>
+        <v>3</v>
+      </c>
+      <c r="J39" s="5">
+        <f>LoRa_RxDone_HRX!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G40</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H40</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I40</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="J40" s="5">
+        <f>LoRa_RxDone_HRX!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G41</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H41</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I41</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="J41" s="5">
+        <f>LoRa_RxDone_HRX!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G42</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H42</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I42</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="J42" s="5">
+        <f>LoRa_RxDone_HRX!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G43</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H43</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I43</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="J43" s="5">
+        <f>LoRa_RxDone_HRX!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G44</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H44</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I44</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J44" s="5">
+        <f>LoRa_RxDone_HRX!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H45</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <f>LoRa_RxDone_HRX!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G46</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H46</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I46</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J46" s="5">
+        <f>LoRa_RxDone_HRX!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H47</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I47</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J47" s="5">
+        <f>LoRa_RxDone_HRX!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G48</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H48</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I48</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="J48" s="5">
+        <f>LoRa_RxDone_HRX!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H49</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <f>LoRa_RxDone_HRX!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G50</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H50</f>
+        <v>flags;</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f>LoRa_RxDone_HRX!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H51</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I51</f>
+        <v>value</v>
+      </c>
+      <c r="J51" s="5">
+        <f>LoRa_RxDone_HRX!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G52</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H52</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I52</f>
+        <v>data in</v>
+      </c>
+      <c r="J52" s="5">
+        <f>LoRa_RxDone_HRX!J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I53</f>
+        <v>TIME_ON_AIR_LOAD_VALUE</v>
+      </c>
+      <c r="J53" s="5">
+        <f>LoRa_RxDone_HRX!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H54</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I54</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+      <c r="J54" s="5">
+        <f>LoRa_RxDone_HRX!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H55</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I55" s="6" t="str">
+        <f>LoRa_RxDone_HRX!I55</f>
+        <v>watchdogTimerTimeout</v>
+      </c>
+      <c r="J55" s="5">
+        <f>LoRa_RxDone_HRX!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G56</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H56</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I56" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I56</f>
+        <v>WATCHDOG_DEFAULT_TIME</v>
+      </c>
+      <c r="J56" s="5">
+        <f>LoRa_RxDone_HRX!J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H57</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I57" s="8">
+        <f>LoRa_RxDone_HRX!I57</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <f>LoRa_RxDone_HRX!J57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H58</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I58" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I58</f>
+        <v>NULL</v>
+      </c>
+      <c r="J58" s="5">
+        <f>LoRa_RxDone_HRX!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H59</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I59" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I59</f>
+        <v>RADIO_RegisterRead(REG_VERSION)</v>
+      </c>
+      <c r="J59" s="5">
+        <f>LoRa_RxDone_HRX!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G60</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H60</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I60" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I60</f>
+        <v>value</v>
+      </c>
+      <c r="J60" s="5">
+        <f>LoRa_RxDone_HRX!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G61</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H61</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I61" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I61</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="J61" s="5">
+        <f>LoRa_RxDone_HRX!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G62</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H62</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I62" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I62</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+      <c r="J62" s="5">
+        <f>LoRa_RxDone_HRX!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G63</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H63</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I63" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I63</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+      <c r="J63" s="5">
+        <f>LoRa_RxDone_HRX!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G64" s="5">
+        <f>LoRa_RxDone_HRX!G64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <f>LoRa_RxDone_HRX!H64</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <f>LoRa_RxDone_HRX!I64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f>LoRa_RxDone_HRX!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="5">
+        <f>LoRa_RxDone_HRX!G65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <f>LoRa_RxDone_HRX!H65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <f>LoRa_RxDone_HRX!I65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f>LoRa_RxDone_HRX!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G66" s="5">
+        <f>LoRa_RxDone_HRX!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <f>LoRa_RxDone_HRX!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <f>LoRa_RxDone_HRX!I66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <f>LoRa_RxDone_HRX!J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G67</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H67</f>
+        <v>Channels</v>
+      </c>
+      <c r="I67" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I67</f>
+        <v>DefaultChannels868[]</v>
+      </c>
+      <c r="J67" s="5">
+        <f>LoRa_RxDone_HRX!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="str">
+        <f>LoRa_RxDone_HRX!G68</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f>LoRa_RxDone_HRX!H68</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I68" s="8" t="str">
+        <f>LoRa_RxDone_HRX!I68</f>
+        <v>array</v>
+      </c>
+      <c r="J68" s="5">
+        <f>LoRa_RxDone_HRX!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G69" s="5">
+        <f>LoRa_RxDone_HRX!G69</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <f>LoRa_RxDone_HRX!H69</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
+        <f>LoRa_RxDone_HRX!I69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <f>LoRa_RxDone_HRX!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G70" s="5">
+        <f>LoRa_RxDone_HRX!G70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <f>LoRa_RxDone_HRX!H70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <f>LoRa_RxDone_HRX!I70</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f>LoRa_RxDone_HRX!J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G71" s="5">
+        <f>LoRa_RxDone_HRX!G71</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <f>LoRa_RxDone_HRX!H71</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <f>LoRa_RxDone_HRX!I71</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <f>LoRa_RxDone_HRX!J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G72" s="5">
+        <f>LoRa_TxDone_HTX!G72</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <f>LoRa_TxDone_HTX!H72</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <f>LoRa_TxDone_HTX!I72</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <f>LoRa_TxDone_HTX!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G73" s="5">
+        <f>LoRa_System_Init!G74</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <f>LoRa_System_Init!H74</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <f>LoRa_System_Init!I74</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF22491-3CBA-4F11-8023-21D3CD1AB166}">
+  <dimension ref="B1:K73"/>
+  <sheetViews>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="str">
+        <f>H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="str">
+        <f>LoRa_System_Init!C3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>LoRa_TxDone_DTX!E3</f>
+        <v>LoRa_SendData_RX</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>I3</f>
+        <v>LoRa_SendFailed</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f>enum!C8</f>
+        <v>LoRa_SendFailed</v>
+      </c>
+      <c r="J3" s="5">
+        <f>LoRa_TxDone_DTX!J3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="5"/>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G4</f>
+        <v>bool</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H4</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I4</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J4" s="5">
+        <f>LoRa_TxDone_DTX!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G5</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H5</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I5</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+      <c r="J5" s="5">
+        <f>LoRa_TxDone_DTX!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="G6" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G6</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H6</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I6" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>LoRa_TxDone_DTX!J6</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H7</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>LoRa_TxDone_DTX!J7</f>
+        <v>LoRa_TimerReconnectCallback</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H8</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>LoRa_TxDone_DTX!J8</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H9</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I9</f>
+        <v>LoRa_Addres, nxt_channel</v>
+      </c>
+      <c r="J9" s="5">
+        <f>LoRa_TxDone_DTX!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H10</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I10</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="J10" s="5">
+        <f>LoRa_TxDone_DTX!J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H11</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I11</f>
+        <v>bufferIndex, nxt_channel, data, CRC</v>
+      </c>
+      <c r="J11" s="5">
+        <f>LoRa_TxDone_DTX!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H12</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I12</f>
+        <v>bufferIndex</v>
+      </c>
+      <c r="J12" s="5">
+        <f>LoRa_TxDone_DTX!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G13</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H13</f>
+        <v>LoRa_Command</v>
+      </c>
+      <c r="I13" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I13</f>
+        <v>value</v>
+      </c>
+      <c r="J13" s="5">
+        <f>LoRa_TxDone_DTX!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H14</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I14</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J14" s="5">
+        <f>LoRa_TxDone_DTX!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G15</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H15</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I15</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J15" s="5">
+        <f>LoRa_TxDone_DTX!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <f>LoRa_TxDone_DTX!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H16</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I16</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J16" s="5">
+        <f>LoRa_TxDone_DTX!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I17</f>
+        <v>CH_nr</v>
+      </c>
+      <c r="J17" s="5">
+        <f>LoRa_TxDone_DTX!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+      <c r="J18" s="5">
+        <f>LoRa_TxDone_DTX!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="5">
+        <f>LoRa_TxDone_DTX!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+      <c r="J19" s="5">
+        <f>LoRa_TxDone_DTX!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G20</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H20</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I20" s="8">
+        <f>LoRa_TxDone_DTX!I20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <f>LoRa_TxDone_DTX!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G21</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H21</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I21</f>
+        <v>0x34</v>
+      </c>
+      <c r="J21" s="5">
+        <f>LoRa_TxDone_DTX!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G22</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H22</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I22</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+      <c r="J22" s="5">
+        <f>LoRa_TxDone_DTX!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G23</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H23</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I23</f>
+        <v>ISM_EU868</v>
+      </c>
+      <c r="J23" s="5">
+        <f>LoRa_TxDone_DTX!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H24</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I24</f>
+        <v>DR0</v>
+      </c>
+      <c r="J24" s="5">
+        <f>LoRa_TxDone_DTX!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H25</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I25</f>
+        <v>DR0</v>
+      </c>
+      <c r="J25" s="5">
+        <f>LoRa_TxDone_DTX!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H26</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I26</f>
+        <v>DR7</v>
+      </c>
+      <c r="J26" s="5">
+        <f>LoRa_TxDone_DTX!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <f>LoRa_TxDone_DTX!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f>LoRa_TxDone_DTX!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f>LoRa_TxDone_DTX!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f>LoRa_TxDone_DTX!J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <f>LoRa_TxDone_DTX!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>LoRa_TxDone_DTX!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <f>LoRa_TxDone_DTX!I28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <f>LoRa_TxDone_DTX!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G29</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H29</f>
+        <v>LoRa_TxDone</v>
+      </c>
+      <c r="I29" s="8">
+        <f>LoRa_TxDone_DTX!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <f>LoRa_TxDone_DTX!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G30</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H30</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="I30" s="8">
+        <f>LoRa_TxDone_DTX!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <f>LoRa_TxDone_DTX!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="5">
+        <f>LoRa_TxDone_DTX!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f>LoRa_TxDone_DTX!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <f>LoRa_TxDone_DTX!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <f>LoRa_TxDone_DTX!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="5">
+        <f>LoRa_TxDone_DTX!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f>LoRa_TxDone_DTX!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <f>LoRa_TxDone_DTX!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f>LoRa_TxDone_DTX!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G33</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H33</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I33</f>
+        <v>freq</v>
+      </c>
+      <c r="J33" s="5">
+        <f>LoRa_TxDone_DTX!J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H34</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I34" s="8">
+        <f>LoRa_TxDone_DTX!I34</f>
+        <v>25000</v>
+      </c>
+      <c r="J34" s="5">
+        <f>LoRa_TxDone_DTX!J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H35</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I35" s="8">
+        <f>LoRa_TxDone_DTX!I35</f>
+        <v>50000</v>
+      </c>
+      <c r="J35" s="5">
+        <f>LoRa_TxDone_DTX!J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G36</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H36</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I36" s="8">
+        <f>LoRa_TxDone_DTX!I36</f>
+        <v>8</v>
+      </c>
+      <c r="J36" s="5">
+        <f>LoRa_TxDone_DTX!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G37</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H37</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I37</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="J37" s="5">
+        <f>LoRa_TxDone_DTX!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H38</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I38</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+      <c r="J38" s="5">
+        <f>LoRa_TxDone_DTX!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H39</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I39" s="8">
+        <f>LoRa_TxDone_DTX!I39</f>
+        <v>3</v>
+      </c>
+      <c r="J39" s="5">
+        <f>LoRa_TxDone_DTX!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G40</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H40</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I40</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="J40" s="5">
+        <f>LoRa_TxDone_DTX!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G41</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H41</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I41</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="J41" s="5">
+        <f>LoRa_TxDone_DTX!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G42</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H42</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I42</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="J42" s="5">
+        <f>LoRa_TxDone_DTX!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G43</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H43</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I43</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="J43" s="5">
+        <f>LoRa_TxDone_DTX!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G44</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H44</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I44</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J44" s="5">
+        <f>LoRa_TxDone_DTX!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H45</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <f>LoRa_TxDone_DTX!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G46</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H46</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I46</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J46" s="5">
+        <f>LoRa_TxDone_DTX!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H47</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I47</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J47" s="5">
+        <f>LoRa_TxDone_DTX!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G48</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H48</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I48</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="J48" s="5">
+        <f>LoRa_TxDone_DTX!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H49</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <f>LoRa_TxDone_DTX!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G50</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H50</f>
+        <v>flags;</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f>LoRa_TxDone_DTX!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H51</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I51</f>
+        <v>value</v>
+      </c>
+      <c r="J51" s="5">
+        <f>LoRa_TxDone_DTX!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G52</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H52</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I52</f>
+        <v>data in</v>
+      </c>
+      <c r="J52" s="5">
+        <f>LoRa_TxDone_DTX!J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I53</f>
+        <v>TIME_ON_AIR_LOAD_VALUE</v>
+      </c>
+      <c r="J53" s="5">
+        <f>LoRa_TxDone_DTX!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H54</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I54</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+      <c r="J54" s="5">
+        <f>LoRa_TxDone_DTX!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H55</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J55" s="5">
+        <f>LoRa_TxDone_DTX!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G56</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H56</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I56" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I56</f>
+        <v>WATCHDOG_DEFAULT_TIME</v>
+      </c>
+      <c r="J56" s="5">
+        <f>LoRa_TxDone_DTX!J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H57</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I57" s="8">
+        <f>LoRa_TxDone_DTX!I57</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <f>LoRa_TxDone_DTX!J57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H58</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I58" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I58</f>
+        <v>NULL</v>
+      </c>
+      <c r="J58" s="5">
+        <f>LoRa_TxDone_DTX!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H59</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I59" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I59</f>
+        <v>RADIO_RegisterRead(REG_VERSION)</v>
+      </c>
+      <c r="J59" s="5">
+        <f>LoRa_TxDone_DTX!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G60</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H60</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I60" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I60</f>
+        <v>value</v>
+      </c>
+      <c r="J60" s="5">
+        <f>LoRa_TxDone_DTX!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G61</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H61</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I61" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I61</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="J61" s="5">
+        <f>LoRa_TxDone_DTX!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G62</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H62</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I62" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I62</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+      <c r="J62" s="5">
+        <f>LoRa_TxDone_DTX!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G63</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H63</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I63" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I63</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+      <c r="J63" s="5">
+        <f>LoRa_TxDone_DTX!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G64" s="5">
+        <f>LoRa_TxDone_DTX!G64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <f>LoRa_TxDone_DTX!H64</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <f>LoRa_TxDone_DTX!I64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f>LoRa_TxDone_DTX!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="5">
+        <f>LoRa_TxDone_DTX!G65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <f>LoRa_TxDone_DTX!H65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <f>LoRa_TxDone_DTX!I65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f>LoRa_TxDone_DTX!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G66" s="5">
+        <f>LoRa_TxDone_DTX!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <f>LoRa_TxDone_DTX!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <f>LoRa_TxDone_DTX!I66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <f>LoRa_TxDone_DTX!J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G67</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H67</f>
+        <v>Channels</v>
+      </c>
+      <c r="I67" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I67</f>
+        <v>DefaultChannels868[]</v>
+      </c>
+      <c r="J67" s="5">
+        <f>LoRa_TxDone_DTX!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="str">
+        <f>LoRa_TxDone_DTX!G68</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f>LoRa_TxDone_DTX!H68</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I68" s="8" t="str">
+        <f>LoRa_TxDone_DTX!I68</f>
+        <v>array</v>
+      </c>
+      <c r="J68" s="5">
+        <f>LoRa_TxDone_DTX!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G69" s="5">
+        <f>LoRa_TxDone_DTX!G69</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <f>LoRa_TxDone_DTX!H69</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
+        <f>LoRa_TxDone_DTX!I69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <f>LoRa_TxDone_DTX!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G70" s="5">
+        <f>LoRa_TxDone_DTX!G70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <f>LoRa_TxDone_DTX!H70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <f>LoRa_TxDone_DTX!I70</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f>LoRa_TxDone_DTX!J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G71" s="5">
+        <f>LoRa_TxDone_DTX!G71</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <f>LoRa_TxDone_DTX!H71</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <f>LoRa_TxDone_DTX!I71</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <f>LoRa_TxDone_DTX!J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G72" s="5">
+        <f>LoRa_TxDone_HTX!G72</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <f>LoRa_TxDone_HTX!H72</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <f>LoRa_TxDone_HTX!I72</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <f>LoRa_TxDone_HTX!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G73" s="5">
+        <f>LoRa_System_Init!G74</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <f>LoRa_System_Init!H74</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <f>LoRa_System_Init!I74</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2D04122-FACB-4B12-99C1-DB7FE1128F8A}">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
@@ -3087,10 +5828,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C4FA0C-4642-4A66-8A67-3E077AB5CD63}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -3134,11 +5875,16 @@
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6545,7 +9291,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F2"/>
+      <selection activeCell="C21" sqref="C21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -6978,6 +9724,12 @@
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>217</v>
+      </c>
       <c r="G21" s="5" t="str">
         <f>LoRa_Send!G21</f>
         <v>uint8_t</v>
@@ -7933,6 +10685,1357 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E9F640-4FA3-4D7B-AC5B-3B8FA795E544}">
+  <dimension ref="B1:J73"/>
+  <sheetViews>
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="44.875" customWidth="1"/>
+    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="8" max="8" width="37.5" customWidth="1"/>
+    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="str">
+        <f>LoRa_System_Init!C3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>LoRa_TxDone_HTX!E3</f>
+        <v>LoRa_Handshaking_RX</v>
+      </c>
+      <c r="E3" s="1" t="str">
+        <f>I3</f>
+        <v>LoRa_SendFailed</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G3</f>
+        <v>LoRaMacState_t</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H3</f>
+        <v>LoRa_Status</v>
+      </c>
+      <c r="I3" s="6" t="str">
+        <f>enum!C8</f>
+        <v>LoRa_SendFailed</v>
+      </c>
+      <c r="J3" s="5">
+        <f>LoRa_TxDone_HTX!J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G4</f>
+        <v>bool</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H4</f>
+        <v>LoRa_initialised</v>
+      </c>
+      <c r="I4" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I4</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J4" s="5">
+        <f>LoRa_TxDone_HTX!J4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G5</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H5</f>
+        <v>LoRa_Addres</v>
+      </c>
+      <c r="I5" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I5</f>
+        <v>LoRaDeviceAddress</v>
+      </c>
+      <c r="J5" s="5">
+        <f>LoRa_TxDone_HTX!J5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="G6" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G6</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H6</f>
+        <v>LoRa_TimerHandshaking</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>LoRa_TxDone_HTX!J6</f>
+        <v>LoRa_TimerHandshakingCallback</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="G7" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G7</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H7</f>
+        <v>LoRa_TimerReconnect</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f>LoRa_TxDone_HTX!J7</f>
+        <v>LoRa_TimerReconnectCallback</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C8" s="5"/>
+      <c r="G8" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G8</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H8</f>
+        <v>LoRa_TimerWaitAck</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f>LoRa_TxDone_HTX!J8</f>
+        <v>LoRa_TimerWaitAckCallback</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="G9" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G9</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H9</f>
+        <v>LoRa_HeaderBufor</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I9</f>
+        <v>LoRa_Addres, nxt_channel</v>
+      </c>
+      <c r="J9" s="5">
+        <f>LoRa_TxDone_HTX!J9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="G10" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G10</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H10</f>
+        <v>LoRa_HeaderLength</v>
+      </c>
+      <c r="I10" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I10</f>
+        <v>bufferHeadIndex</v>
+      </c>
+      <c r="J10" s="5">
+        <f>LoRa_TxDone_HTX!J10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="G11" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G11</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H11</f>
+        <v>LoRa_Bufor</v>
+      </c>
+      <c r="I11" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I11</f>
+        <v>bufferIndex, nxt_channel, data, CRC</v>
+      </c>
+      <c r="J11" s="5">
+        <f>LoRa_TxDone_HTX!J11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="G12" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G12</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H12</f>
+        <v>LoRa_BuforLength</v>
+      </c>
+      <c r="I12" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I12</f>
+        <v>bufferIndex</v>
+      </c>
+      <c r="J12" s="5">
+        <f>LoRa_TxDone_HTX!J12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="5"/>
+      <c r="G13" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G13</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H13</f>
+        <v>LoRa_Command</v>
+      </c>
+      <c r="I13" s="8">
+        <f>LoRa_TxDone_HTX!I13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <f>LoRa_TxDone_HTX!J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="5"/>
+      <c r="G14" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G14</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H14</f>
+        <v>LoRa_maxChannels</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I14</f>
+        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
+      </c>
+      <c r="J14" s="5">
+        <f>LoRa_TxDone_HTX!J14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+      <c r="G15" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G15</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H15</f>
+        <v>LoRa_receiveChannelParameters.frequency</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I15</f>
+        <v>Channels[CH_nr].frequency</v>
+      </c>
+      <c r="J15" s="5">
+        <f>LoRa_TxDone_HTX!J15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <f>LoRa_TxDone_HTX!G16</f>
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H16</f>
+        <v>LoRa_receiveChannelParameters.dataRate</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I16</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="J16" s="5">
+        <f>LoRa_TxDone_HTX!J16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G17</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H17</f>
+        <v>LoRa_lastUsedChannelIndex</v>
+      </c>
+      <c r="I17" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I17</f>
+        <v>CH_nr</v>
+      </c>
+      <c r="J17" s="5">
+        <f>LoRa_TxDone_HTX!J17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="G18" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G18</f>
+        <v>ReceiveWindowParameters_t</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H18</f>
+        <v>LoRa_ch0_params.frequency</v>
+      </c>
+      <c r="I18" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I18</f>
+        <v>LoRa_CH0_frequency</v>
+      </c>
+      <c r="J18" s="5">
+        <f>LoRa_TxDone_HTX!J18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="G19" s="5">
+        <f>LoRa_TxDone_HTX!G19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H19</f>
+        <v>LoRa_ch0_params.datarate</v>
+      </c>
+      <c r="I19" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I19</f>
+        <v>LoRa_CH0_datarate</v>
+      </c>
+      <c r="J19" s="5">
+        <f>LoRa_TxDone_HTX!J19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="G20" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G20</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H20</f>
+        <v>LoRa_txPower</v>
+      </c>
+      <c r="I20" s="8">
+        <f>LoRa_TxDone_HTX!I20</f>
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <f>LoRa_TxDone_HTX!J20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C21" s="5"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="G21" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G21</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H21</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I21</f>
+        <v>0x34</v>
+      </c>
+      <c r="J21" s="5">
+        <f>LoRa_TxDone_HTX!J21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C22" s="5"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="G22" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G22</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H22</f>
+        <v>LoRa_batteryLevel</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I22</f>
+        <v>BATTERY_LEVEL_INVALID</v>
+      </c>
+      <c r="J22" s="5">
+        <f>LoRa_TxDone_HTX!J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G23</f>
+        <v>IsmBand_t</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H23</f>
+        <v>LoRa_ismBand</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I23</f>
+        <v>ISM_EU868</v>
+      </c>
+      <c r="J23" s="5">
+        <f>LoRa_TxDone_HTX!J23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G24</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H24</f>
+        <v>LoRa_currentDataRate</v>
+      </c>
+      <c r="I24" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I24</f>
+        <v>DR0</v>
+      </c>
+      <c r="J24" s="5">
+        <f>LoRa_TxDone_HTX!J24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G25</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H25</f>
+        <v>LoRa_minDataRate</v>
+      </c>
+      <c r="I25" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I25</f>
+        <v>DR0</v>
+      </c>
+      <c r="J25" s="5">
+        <f>LoRa_TxDone_HTX!J25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G26</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H26</f>
+        <v>LoRa_maxDataRate</v>
+      </c>
+      <c r="I26" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I26</f>
+        <v>DR7</v>
+      </c>
+      <c r="J26" s="5">
+        <f>LoRa_TxDone_HTX!J26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <f>LoRa_TxDone_HTX!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f>LoRa_TxDone_HTX!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <f>LoRa_TxDone_HTX!I27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5">
+        <f>LoRa_TxDone_HTX!J27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <f>LoRa_TxDone_HTX!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f>LoRa_TxDone_HTX!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <f>LoRa_TxDone_HTX!I28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5">
+        <f>LoRa_TxDone_HTX!J28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G29</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H29</f>
+        <v>LoRa_TxDone</v>
+      </c>
+      <c r="I29" s="8">
+        <f>LoRa_TxDone_HTX!I29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5">
+        <f>LoRa_TxDone_HTX!J29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G30</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H30</f>
+        <v>LoRa_RxDone</v>
+      </c>
+      <c r="I30" s="8">
+        <f>LoRa_TxDone_HTX!I30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5">
+        <f>LoRa_TxDone_HTX!J30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G31" s="5">
+        <f>LoRa_TxDone_HTX!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f>LoRa_TxDone_HTX!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <f>LoRa_TxDone_HTX!I31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5">
+        <f>LoRa_TxDone_HTX!J31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G32" s="5">
+        <f>LoRa_TxDone_HTX!G32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f>LoRa_TxDone_HTX!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <f>LoRa_TxDone_HTX!I32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <f>LoRa_TxDone_HTX!J32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G33</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H33</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I33" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I33</f>
+        <v>freq</v>
+      </c>
+      <c r="J33" s="5">
+        <f>LoRa_TxDone_HTX!J33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G34</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H34</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I34" s="8">
+        <f>LoRa_TxDone_HTX!I34</f>
+        <v>25000</v>
+      </c>
+      <c r="J34" s="5">
+        <f>LoRa_TxDone_HTX!J34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G35</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H35</f>
+        <v>bitRate;</v>
+      </c>
+      <c r="I35" s="8">
+        <f>LoRa_TxDone_HTX!I35</f>
+        <v>50000</v>
+      </c>
+      <c r="J35" s="5">
+        <f>LoRa_TxDone_HTX!J35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G36</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H36</f>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I36" s="8">
+        <f>LoRa_TxDone_HTX!I36</f>
+        <v>8</v>
+      </c>
+      <c r="J36" s="5">
+        <f>LoRa_TxDone_HTX!J36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G37</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H37</f>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I37" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I37</f>
+        <v>LoRa_syncWord</v>
+      </c>
+      <c r="J37" s="5">
+        <f>LoRa_TxDone_HTX!J37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G38</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H38</f>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I38" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I38</f>
+        <v>0xc1 0x94 0xc1</v>
+      </c>
+      <c r="J38" s="5">
+        <f>LoRa_TxDone_HTX!J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G39</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H39</f>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I39" s="8">
+        <f>LoRa_TxDone_HTX!I39</f>
+        <v>3</v>
+      </c>
+      <c r="J39" s="5">
+        <f>LoRa_TxDone_HTX!J39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G40</f>
+        <v>RadioModulation_t</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H40</f>
+        <v>modulation;</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I40</f>
+        <v>modulation[dataRate]</v>
+      </c>
+      <c r="J40" s="5">
+        <f>LoRa_TxDone_HTX!J40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G41</f>
+        <v>RadioDataRate_t</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H41</f>
+        <v>dataRate;</v>
+      </c>
+      <c r="I41" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I41</f>
+        <v>spreadingFactor[dataRate]</v>
+      </c>
+      <c r="J41" s="5">
+        <f>LoRa_TxDone_HTX!J41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G42</f>
+        <v>RadioLoRaBandWidth_t</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H42</f>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I42" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I42</f>
+        <v>bandwidth[dataRate]</v>
+      </c>
+      <c r="J42" s="5">
+        <f>LoRa_TxDone_HTX!J42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G43</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H43</f>
+        <v>outputPower;</v>
+      </c>
+      <c r="I43" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I43</f>
+        <v>txPower868[LoRa_txPower]</v>
+      </c>
+      <c r="J43" s="5">
+        <f>LoRa_TxDone_HTX!J43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G44</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H44</f>
+        <v>crcOn;</v>
+      </c>
+      <c r="I44" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I44</f>
+        <v>ENABLED</v>
+      </c>
+      <c r="J44" s="5">
+        <f>LoRa_TxDone_HTX!J44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G45</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H45</f>
+        <v>paBoost;</v>
+      </c>
+      <c r="I45" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="5">
+        <f>LoRa_TxDone_HTX!J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G46</f>
+        <v>uint16_t</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H46</f>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I46" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I46</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J46" s="5">
+        <f>LoRa_TxDone_HTX!J46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G47</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H47</f>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I47</f>
+        <v>DISABLED</v>
+      </c>
+      <c r="J47" s="5">
+        <f>LoRa_TxDone_HTX!J47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G48</f>
+        <v>RadioErrorCodingRate_t</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H48</f>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I48" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I48</f>
+        <v>CR_4_5</v>
+      </c>
+      <c r="J48" s="5">
+        <f>LoRa_TxDone_HTX!J48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G49</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H49</f>
+        <v>implicitHeaderMode;</v>
+      </c>
+      <c r="I49" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="5">
+        <f>LoRa_TxDone_HTX!J49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G50</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H50</f>
+        <v>flags;</v>
+      </c>
+      <c r="I50" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="5">
+        <f>LoRa_TxDone_HTX!J50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G51" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G51</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H51</f>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I51" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I51</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="5">
+        <f>LoRa_TxDone_HTX!J51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G52" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G52</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H52</f>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I52" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I52</f>
+        <v>&amp;radioBuffer[16]</v>
+      </c>
+      <c r="J52" s="5">
+        <f>LoRa_TxDone_HTX!J52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G53" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G53</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H53</f>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I53</f>
+        <v>TIME_ON_AIR_LOAD_VALUE</v>
+      </c>
+      <c r="J53" s="5">
+        <f>LoRa_TxDone_HTX!J53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G54</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H54</f>
+        <v>fskRxWindowTimerId;</v>
+      </c>
+      <c r="I54" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I54</f>
+        <v>RADIO_RxFSKTimeout</v>
+      </c>
+      <c r="J54" s="5">
+        <f>LoRa_TxDone_HTX!J54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G55" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G55</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H55</f>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="J55" s="5">
+        <f>LoRa_TxDone_HTX!J55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G56" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G56</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H56</f>
+        <v>watchdogTimerTimeout;</v>
+      </c>
+      <c r="I56" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I56</f>
+        <v>WATCHDOG_DEFAULT_TIME</v>
+      </c>
+      <c r="J56" s="5">
+        <f>LoRa_TxDone_HTX!J56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G57" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G57</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H57</f>
+        <v>initialized;</v>
+      </c>
+      <c r="I57" s="8">
+        <f>LoRa_TxDone_HTX!I57</f>
+        <v>1</v>
+      </c>
+      <c r="J57" s="5">
+        <f>LoRa_TxDone_HTX!J57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G58" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G58</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H58</f>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I58" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I58</f>
+        <v>NULL</v>
+      </c>
+      <c r="J58" s="5">
+        <f>LoRa_TxDone_HTX!J58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G59" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G59</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H59</f>
+        <v>regVersion;</v>
+      </c>
+      <c r="I59" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I59</f>
+        <v>RADIO_RegisterRead(REG_VERSION)</v>
+      </c>
+      <c r="J59" s="5">
+        <f>LoRa_TxDone_HTX!J59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G60" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G60</f>
+        <v>int8_t</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H60</f>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I60" s="8">
+        <f>LoRa_TxDone_HTX!I60</f>
+        <v>-128</v>
+      </c>
+      <c r="J60" s="5">
+        <f>LoRa_TxDone_HTX!J60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G61" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G61</f>
+        <v>RadioFSKShaping_t</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H61</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I61" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I61</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+      <c r="J61" s="5">
+        <f>LoRa_TxDone_HTX!J61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G62</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H62</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I62" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I62</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+      <c r="J62" s="5">
+        <f>LoRa_TxDone_HTX!J62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G63</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H63</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I63" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I63</f>
+        <v>FSKBW_83_3KHZ</v>
+      </c>
+      <c r="J63" s="5">
+        <f>LoRa_TxDone_HTX!J63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G64" s="5">
+        <f>LoRa_TxDone_HTX!G64</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <f>LoRa_TxDone_HTX!H64</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <f>LoRa_TxDone_HTX!I64</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f>LoRa_TxDone_HTX!J64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G65" s="5">
+        <f>LoRa_TxDone_HTX!G65</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <f>LoRa_TxDone_HTX!H65</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <f>LoRa_TxDone_HTX!I65</f>
+        <v>0</v>
+      </c>
+      <c r="J65" s="5">
+        <f>LoRa_TxDone_HTX!J65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G66" s="5">
+        <f>LoRa_TxDone_HTX!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="5">
+        <f>LoRa_TxDone_HTX!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66" s="8">
+        <f>LoRa_TxDone_HTX!I66</f>
+        <v>0</v>
+      </c>
+      <c r="J66" s="5">
+        <f>LoRa_TxDone_HTX!J66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G67" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G67</f>
+        <v>ChannelParams_t</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H67</f>
+        <v>Channels</v>
+      </c>
+      <c r="I67" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I67</f>
+        <v>DefaultChannels868[]</v>
+      </c>
+      <c r="J67" s="5">
+        <f>LoRa_TxDone_HTX!J67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G68" s="5" t="str">
+        <f>LoRa_TxDone_HTX!G68</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f>LoRa_TxDone_HTX!H68</f>
+        <v>maxPayloadSize[]</v>
+      </c>
+      <c r="I68" s="8" t="str">
+        <f>LoRa_TxDone_HTX!I68</f>
+        <v>array</v>
+      </c>
+      <c r="J68" s="5">
+        <f>LoRa_TxDone_HTX!J68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G69" s="5">
+        <f>LoRa_TxDone_HTX!G69</f>
+        <v>0</v>
+      </c>
+      <c r="H69" s="5">
+        <f>LoRa_TxDone_HTX!H69</f>
+        <v>0</v>
+      </c>
+      <c r="I69" s="8">
+        <f>LoRa_TxDone_HTX!I69</f>
+        <v>0</v>
+      </c>
+      <c r="J69" s="5">
+        <f>LoRa_TxDone_HTX!J69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G70" s="5">
+        <f>LoRa_TxDone_HTX!G70</f>
+        <v>0</v>
+      </c>
+      <c r="H70" s="5">
+        <f>LoRa_TxDone_HTX!H70</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
+        <f>LoRa_TxDone_HTX!I70</f>
+        <v>0</v>
+      </c>
+      <c r="J70" s="5">
+        <f>LoRa_TxDone_HTX!J70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G71" s="5">
+        <f>LoRa_TxDone_HTX!G71</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="5">
+        <f>LoRa_TxDone_HTX!H71</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="8">
+        <f>LoRa_TxDone_HTX!I71</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="5">
+        <f>LoRa_TxDone_HTX!J71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G72" s="5">
+        <f>LoRa_Send!G72</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="5">
+        <f>LoRa_Send!H72</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="8">
+        <f>LoRa_Send!I72</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="5">
+        <f>LoRa_Send!J72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G73" s="5">
+        <f>LoRa_System_Init!G74</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="5">
+        <f>LoRa_System_Init!H74</f>
+        <v>0</v>
+      </c>
+      <c r="I73" s="8">
+        <f>LoRa_System_Init!I74</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C80F2B-5AC3-4E02-A49F-94CB470F418B}">
   <dimension ref="A1:J73"/>
   <sheetViews>
@@ -9318,1388 +13421,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B789C39B-08C9-49EB-85D5-D2F0C6C277D6}">
-  <dimension ref="A1:J73"/>
-  <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="15.25" customWidth="1"/>
-    <col min="3" max="3" width="44.875" customWidth="1"/>
-    <col min="4" max="5" width="24.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="16.125" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="37.5" customWidth="1"/>
-    <col min="9" max="9" width="31.875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="28.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D2" s="2" t="str">
-        <f>H53</f>
-        <v>timeOnAirTimerId;</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="str">
-        <f>LoRa_System_Init!C3</f>
-        <v>LoRa_Status</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f>LoRa_RxDone_HRX!E3</f>
-        <v>LoRa_SendData_TX</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G3</f>
-        <v>LoRaMacState_t</v>
-      </c>
-      <c r="H3" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H3</f>
-        <v>LoRa_Status</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" s="5">
-        <f>LoRa_RxDone_HRX!J3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G4" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G4</f>
-        <v>bool</v>
-      </c>
-      <c r="H4" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H4</f>
-        <v>LoRa_initialised</v>
-      </c>
-      <c r="I4" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I4</f>
-        <v>ENABLED</v>
-      </c>
-      <c r="J4" s="5">
-        <f>LoRa_RxDone_HRX!J4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G5" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G5</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H5" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H5</f>
-        <v>LoRa_Addres</v>
-      </c>
-      <c r="I5" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I5</f>
-        <v>LoRaDeviceAddress</v>
-      </c>
-      <c r="J5" s="5">
-        <f>LoRa_RxDone_HRX!J5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
-      <c r="D6" s="11"/>
-      <c r="G6" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G6</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H6" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H6</f>
-        <v>LoRa_TimerHandshaking</v>
-      </c>
-      <c r="I6" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I6</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="str">
-        <f>LoRa_RxDone_HRX!J6</f>
-        <v>LoRa_TimerHandshakingCallback</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
-      <c r="G7" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G7</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H7" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H7</f>
-        <v>LoRa_TimerReconnect</v>
-      </c>
-      <c r="I7" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I7</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="str">
-        <f>LoRa_RxDone_HRX!J7</f>
-        <v>LoRa_TimerReconnectCallback</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
-      <c r="G8" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G8</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H8" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H8</f>
-        <v>LoRa_TimerWaitAck</v>
-      </c>
-      <c r="I8" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I8</f>
-        <v>LoRa_Transmit_timeout</v>
-      </c>
-      <c r="J8" s="5" t="str">
-        <f>LoRa_RxDone_HRX!J8</f>
-        <v>LoRa_TimerWaitAckCallback</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="5"/>
-      <c r="G9" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G9</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H9" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H9</f>
-        <v>LoRa_HeaderBufor</v>
-      </c>
-      <c r="I9" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I9</f>
-        <v>LoRa_Addres, nxt_channel</v>
-      </c>
-      <c r="J9" s="5">
-        <f>LoRa_RxDone_HRX!J9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="5"/>
-      <c r="G10" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G10</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H10" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H10</f>
-        <v>LoRa_HeaderLength</v>
-      </c>
-      <c r="I10" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I10</f>
-        <v>bufferHeadIndex</v>
-      </c>
-      <c r="J10" s="5">
-        <f>LoRa_RxDone_HRX!J10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="5"/>
-      <c r="G11" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G11</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H11" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H11</f>
-        <v>LoRa_Bufor</v>
-      </c>
-      <c r="I11" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I11</f>
-        <v>bufferIndex, nxt_channel, data, CRC</v>
-      </c>
-      <c r="J11" s="5">
-        <f>LoRa_RxDone_HRX!J11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C12" s="5"/>
-      <c r="G12" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G12</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H12" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H12</f>
-        <v>LoRa_BuforLength</v>
-      </c>
-      <c r="I12" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I12</f>
-        <v>bufferIndex</v>
-      </c>
-      <c r="J12" s="5">
-        <f>LoRa_RxDone_HRX!J12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="5"/>
-      <c r="G13" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G13</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H13" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H13</f>
-        <v>LoRa_Command</v>
-      </c>
-      <c r="I13" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I13</f>
-        <v>value</v>
-      </c>
-      <c r="J13" s="5">
-        <f>LoRa_RxDone_HRX!J13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="5"/>
-      <c r="G14" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G14</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H14" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H14</f>
-        <v>LoRa_maxChannels</v>
-      </c>
-      <c r="I14" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I14</f>
-        <v>MAX_EU_SINGLE_BAND_CHANNELS</v>
-      </c>
-      <c r="J14" s="5">
-        <f>LoRa_RxDone_HRX!J14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="5"/>
-      <c r="G15" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G15</f>
-        <v>ReceiveWindowParameters_t</v>
-      </c>
-      <c r="H15" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H15</f>
-        <v>LoRa_receiveChannelParameters.frequency</v>
-      </c>
-      <c r="I15" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I15</f>
-        <v>Channels[CH_nr].frequency</v>
-      </c>
-      <c r="J15" s="5">
-        <f>LoRa_RxDone_HRX!J15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G16" s="5">
-        <f>LoRa_RxDone_HRX!G16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H16</f>
-        <v>LoRa_receiveChannelParameters.dataRate</v>
-      </c>
-      <c r="I16" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I16</f>
-        <v>LoRa_currentDataRate</v>
-      </c>
-      <c r="J16" s="5">
-        <f>LoRa_RxDone_HRX!J16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G17" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G17</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H17" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H17</f>
-        <v>LoRa_lastUsedChannelIndex</v>
-      </c>
-      <c r="I17" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I17</f>
-        <v>CH_nr</v>
-      </c>
-      <c r="J17" s="5">
-        <f>LoRa_RxDone_HRX!J17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="5">
-        <f>LoRa_Send!E18</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G18</f>
-        <v>ReceiveWindowParameters_t</v>
-      </c>
-      <c r="H18" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H18</f>
-        <v>LoRa_ch0_params.frequency</v>
-      </c>
-      <c r="I18" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I18</f>
-        <v>LoRa_CH0_frequency</v>
-      </c>
-      <c r="J18" s="5">
-        <f>LoRa_RxDone_HRX!J18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="str">
-        <f>LoRa_Send!C19</f>
-        <v>watchdogTimerId;</v>
-      </c>
-      <c r="D19" s="5">
-        <f>LoRa_Send!D19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="str">
-        <f>LoRa_Send!E19</f>
-        <v>watchdogTimerTimeout</v>
-      </c>
-      <c r="G19" s="5">
-        <f>LoRa_RxDone_HRX!G19</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H19</f>
-        <v>LoRa_ch0_params.datarate</v>
-      </c>
-      <c r="I19" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I19</f>
-        <v>LoRa_CH0_datarate</v>
-      </c>
-      <c r="J19" s="5">
-        <f>LoRa_RxDone_HRX!J19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="4" t="str">
-        <f>function!G46</f>
-        <v>LoRa_RxDone</v>
-      </c>
-      <c r="E20" s="5">
-        <f>LoRa_Send!E20</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G20</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H20" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H20</f>
-        <v>LoRa_txPower</v>
-      </c>
-      <c r="I20" s="8">
-        <f>LoRa_RxDone_HRX!I20</f>
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
-        <f>LoRa_RxDone_HRX!J20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G21" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G21</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H21" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H21</f>
-        <v>LoRa_syncWord</v>
-      </c>
-      <c r="I21" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I21</f>
-        <v>0x34</v>
-      </c>
-      <c r="J21" s="5">
-        <f>LoRa_RxDone_HRX!J21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G22" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G22</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H22" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H22</f>
-        <v>LoRa_batteryLevel</v>
-      </c>
-      <c r="I22" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I22</f>
-        <v>BATTERY_LEVEL_INVALID</v>
-      </c>
-      <c r="J22" s="5">
-        <f>LoRa_RxDone_HRX!J22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G23" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G23</f>
-        <v>IsmBand_t</v>
-      </c>
-      <c r="H23" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H23</f>
-        <v>LoRa_ismBand</v>
-      </c>
-      <c r="I23" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I23</f>
-        <v>ISM_EU868</v>
-      </c>
-      <c r="J23" s="5">
-        <f>LoRa_RxDone_HRX!J23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G24" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G24</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H24" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H24</f>
-        <v>LoRa_currentDataRate</v>
-      </c>
-      <c r="I24" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I24</f>
-        <v>DR0</v>
-      </c>
-      <c r="J24" s="5">
-        <f>LoRa_RxDone_HRX!J24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G25" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G25</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H25" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H25</f>
-        <v>LoRa_minDataRate</v>
-      </c>
-      <c r="I25" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I25</f>
-        <v>DR0</v>
-      </c>
-      <c r="J25" s="5">
-        <f>LoRa_RxDone_HRX!J25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G26" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G26</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H26" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H26</f>
-        <v>LoRa_maxDataRate</v>
-      </c>
-      <c r="I26" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I26</f>
-        <v>DR7</v>
-      </c>
-      <c r="J26" s="5">
-        <f>LoRa_RxDone_HRX!J26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="5">
-        <f>LoRa_RxDone_HRX!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
-        <f>LoRa_RxDone_HRX!H27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <f>LoRa_RxDone_HRX!I27</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="5">
-        <f>LoRa_RxDone_HRX!J27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G28" s="5">
-        <f>LoRa_RxDone_HRX!G28</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
-        <f>LoRa_RxDone_HRX!H28</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
-        <f>LoRa_RxDone_HRX!I28</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="5">
-        <f>LoRa_RxDone_HRX!J28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G29" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G29</f>
-        <v>RADIO_Transmit</v>
-      </c>
-      <c r="H29" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H29</f>
-        <v>LoRa_TxDone</v>
-      </c>
-      <c r="I29" s="8">
-        <f>LoRa_RxDone_HRX!I29</f>
-        <v>0</v>
-      </c>
-      <c r="J29" s="5">
-        <f>LoRa_RxDone_HRX!J29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G30" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G30</f>
-        <v>RADIO_RxDone</v>
-      </c>
-      <c r="H30" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H30</f>
-        <v>LoRa_RxDone</v>
-      </c>
-      <c r="I30" s="8">
-        <f>LoRa_RxDone_HRX!I30</f>
-        <v>0</v>
-      </c>
-      <c r="J30" s="5">
-        <f>LoRa_RxDone_HRX!J30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G31" s="5">
-        <f>LoRa_RxDone_HRX!G31</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
-        <f>LoRa_RxDone_HRX!H31</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="8">
-        <f>LoRa_RxDone_HRX!I31</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5">
-        <f>LoRa_RxDone_HRX!J31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G32" s="5">
-        <f>LoRa_RxDone_HRX!G32</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
-        <f>LoRa_RxDone_HRX!H32</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="8">
-        <f>LoRa_RxDone_HRX!I32</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="5">
-        <f>LoRa_RxDone_HRX!J32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G33" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G33</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H33" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H33</f>
-        <v>frequency;</v>
-      </c>
-      <c r="I33" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I33</f>
-        <v>freq</v>
-      </c>
-      <c r="J33" s="5">
-        <f>LoRa_RxDone_HRX!J33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G34" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G34</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H34" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H34</f>
-        <v>frequencyDeviation;</v>
-      </c>
-      <c r="I34" s="8">
-        <f>LoRa_RxDone_HRX!I34</f>
-        <v>25000</v>
-      </c>
-      <c r="J34" s="5">
-        <f>LoRa_RxDone_HRX!J34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G35" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G35</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H35" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H35</f>
-        <v>bitRate;</v>
-      </c>
-      <c r="I35" s="8">
-        <f>LoRa_RxDone_HRX!I35</f>
-        <v>50000</v>
-      </c>
-      <c r="J35" s="5">
-        <f>LoRa_RxDone_HRX!J35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G36" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G36</f>
-        <v>uint16_t</v>
-      </c>
-      <c r="H36" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H36</f>
-        <v>preambleLen;</v>
-      </c>
-      <c r="I36" s="8">
-        <f>LoRa_RxDone_HRX!I36</f>
-        <v>8</v>
-      </c>
-      <c r="J36" s="5">
-        <f>LoRa_RxDone_HRX!J36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G37" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G37</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H37" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H37</f>
-        <v>syncWordLoRa;</v>
-      </c>
-      <c r="I37" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I37</f>
-        <v>LoRa_syncWord</v>
-      </c>
-      <c r="J37" s="5">
-        <f>LoRa_RxDone_HRX!J37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G38</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H38" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H38</f>
-        <v>syncWord[8];</v>
-      </c>
-      <c r="I38" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I38</f>
-        <v>0xc1 0x94 0xc1</v>
-      </c>
-      <c r="J38" s="5">
-        <f>LoRa_RxDone_HRX!J38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G39" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G39</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H39" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H39</f>
-        <v>syncWordLen;</v>
-      </c>
-      <c r="I39" s="8">
-        <f>LoRa_RxDone_HRX!I39</f>
-        <v>3</v>
-      </c>
-      <c r="J39" s="5">
-        <f>LoRa_RxDone_HRX!J39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G40" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G40</f>
-        <v>RadioModulation_t</v>
-      </c>
-      <c r="H40" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H40</f>
-        <v>modulation;</v>
-      </c>
-      <c r="I40" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I40</f>
-        <v>modulation[dataRate]</v>
-      </c>
-      <c r="J40" s="5">
-        <f>LoRa_RxDone_HRX!J40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G41" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G41</f>
-        <v>RadioDataRate_t</v>
-      </c>
-      <c r="H41" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H41</f>
-        <v>dataRate;</v>
-      </c>
-      <c r="I41" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I41</f>
-        <v>spreadingFactor[dataRate]</v>
-      </c>
-      <c r="J41" s="5">
-        <f>LoRa_RxDone_HRX!J41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G42" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G42</f>
-        <v>RadioLoRaBandWidth_t</v>
-      </c>
-      <c r="H42" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H42</f>
-        <v>bandWidth;</v>
-      </c>
-      <c r="I42" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I42</f>
-        <v>bandwidth[dataRate]</v>
-      </c>
-      <c r="J42" s="5">
-        <f>LoRa_RxDone_HRX!J42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G43" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G43</f>
-        <v>int8_t</v>
-      </c>
-      <c r="H43" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H43</f>
-        <v>outputPower;</v>
-      </c>
-      <c r="I43" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I43</f>
-        <v>txPower868[LoRa_txPower]</v>
-      </c>
-      <c r="J43" s="5">
-        <f>LoRa_RxDone_HRX!J43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G44" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G44</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H44" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H44</f>
-        <v>crcOn;</v>
-      </c>
-      <c r="I44" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I44</f>
-        <v>ENABLED</v>
-      </c>
-      <c r="J44" s="5">
-        <f>LoRa_RxDone_HRX!J44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G45" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G45</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H45" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H45</f>
-        <v>paBoost;</v>
-      </c>
-      <c r="I45" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I45</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="5">
-        <f>LoRa_RxDone_HRX!J45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G46" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G46</f>
-        <v>uint16_t</v>
-      </c>
-      <c r="H46" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H46</f>
-        <v>frequencyHopPeriod;</v>
-      </c>
-      <c r="I46" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I46</f>
-        <v>DISABLED</v>
-      </c>
-      <c r="J46" s="5">
-        <f>LoRa_RxDone_HRX!J46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G47" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G47</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H47" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H47</f>
-        <v>iqInverted;</v>
-      </c>
-      <c r="I47" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I47</f>
-        <v>DISABLED</v>
-      </c>
-      <c r="J47" s="5">
-        <f>LoRa_RxDone_HRX!J47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G48" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G48</f>
-        <v>RadioErrorCodingRate_t</v>
-      </c>
-      <c r="H48" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H48</f>
-        <v>errorCodingRate;</v>
-      </c>
-      <c r="I48" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I48</f>
-        <v>CR_4_5</v>
-      </c>
-      <c r="J48" s="5">
-        <f>LoRa_RxDone_HRX!J48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G49" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G49</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H49" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H49</f>
-        <v>implicitHeaderMode;</v>
-      </c>
-      <c r="I49" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I49</f>
-        <v>0</v>
-      </c>
-      <c r="J49" s="5">
-        <f>LoRa_RxDone_HRX!J49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G50" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G50</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H50" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H50</f>
-        <v>flags;</v>
-      </c>
-      <c r="I50" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I50</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="5">
-        <f>LoRa_RxDone_HRX!J50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G51" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G51</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H51" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H51</f>
-        <v>dataBufferLen;</v>
-      </c>
-      <c r="I51" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I51</f>
-        <v>value</v>
-      </c>
-      <c r="J51" s="5">
-        <f>LoRa_RxDone_HRX!J51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G52" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G52</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H52" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H52</f>
-        <v>*dataBuffer;</v>
-      </c>
-      <c r="I52" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I52</f>
-        <v>data in</v>
-      </c>
-      <c r="J52" s="5">
-        <f>LoRa_RxDone_HRX!J52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G53" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G53</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H53" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H53</f>
-        <v>timeOnAirTimerId;</v>
-      </c>
-      <c r="I53" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I53</f>
-        <v>TIME_ON_AIR_LOAD_VALUE</v>
-      </c>
-      <c r="J53" s="5">
-        <f>LoRa_RxDone_HRX!J53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G54" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G54</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H54" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H54</f>
-        <v>fskRxWindowTimerId;</v>
-      </c>
-      <c r="I54" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I54</f>
-        <v>RADIO_RxFSKTimeout</v>
-      </c>
-      <c r="J54" s="5">
-        <f>LoRa_RxDone_HRX!J54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G55" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G55</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H55" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H55</f>
-        <v>watchdogTimerId;</v>
-      </c>
-      <c r="I55" s="6" t="str">
-        <f>LoRa_RxDone_HRX!I55</f>
-        <v>watchdogTimerTimeout</v>
-      </c>
-      <c r="J55" s="5">
-        <f>LoRa_RxDone_HRX!J55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G56" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G56</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H56" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H56</f>
-        <v>watchdogTimerTimeout;</v>
-      </c>
-      <c r="I56" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I56</f>
-        <v>WATCHDOG_DEFAULT_TIME</v>
-      </c>
-      <c r="J56" s="5">
-        <f>LoRa_RxDone_HRX!J56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G57" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G57</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H57" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H57</f>
-        <v>initialized;</v>
-      </c>
-      <c r="I57" s="8">
-        <f>LoRa_RxDone_HRX!I57</f>
-        <v>1</v>
-      </c>
-      <c r="J57" s="5">
-        <f>LoRa_RxDone_HRX!J57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G58" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G58</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H58" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H58</f>
-        <v>(*fhssNextFrequency)(void);</v>
-      </c>
-      <c r="I58" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I58</f>
-        <v>NULL</v>
-      </c>
-      <c r="J58" s="5">
-        <f>LoRa_RxDone_HRX!J58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G59" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G59</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H59" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H59</f>
-        <v>regVersion;</v>
-      </c>
-      <c r="I59" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I59</f>
-        <v>RADIO_RegisterRead(REG_VERSION)</v>
-      </c>
-      <c r="J59" s="5">
-        <f>LoRa_RxDone_HRX!J59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G60" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G60</f>
-        <v>int8_t</v>
-      </c>
-      <c r="H60" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H60</f>
-        <v>packetSNR;</v>
-      </c>
-      <c r="I60" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I60</f>
-        <v>value</v>
-      </c>
-      <c r="J60" s="5">
-        <f>LoRa_RxDone_HRX!J60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G61" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G61</f>
-        <v>RadioFSKShaping_t</v>
-      </c>
-      <c r="H61" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H61</f>
-        <v>fskDataShaping;</v>
-      </c>
-      <c r="I61" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I61</f>
-        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
-      </c>
-      <c r="J61" s="5">
-        <f>LoRa_RxDone_HRX!J61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G62" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G62</f>
-        <v>RadioFSKBandWidth_t</v>
-      </c>
-      <c r="H62" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H62</f>
-        <v>rxBw;</v>
-      </c>
-      <c r="I62" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I62</f>
-        <v>FSKBW_50_0KHZ</v>
-      </c>
-      <c r="J62" s="5">
-        <f>LoRa_RxDone_HRX!J62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G63" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G63</f>
-        <v>RadioFSKBandWidth_t</v>
-      </c>
-      <c r="H63" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H63</f>
-        <v>afcBw;</v>
-      </c>
-      <c r="I63" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I63</f>
-        <v>FSKBW_83_3KHZ</v>
-      </c>
-      <c r="J63" s="5">
-        <f>LoRa_RxDone_HRX!J63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G64" s="5">
-        <f>LoRa_RxDone_HRX!G64</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="5">
-        <f>LoRa_RxDone_HRX!H64</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="8">
-        <f>LoRa_RxDone_HRX!I64</f>
-        <v>0</v>
-      </c>
-      <c r="J64" s="5">
-        <f>LoRa_RxDone_HRX!J64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G65" s="5">
-        <f>LoRa_RxDone_HRX!G65</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="5">
-        <f>LoRa_RxDone_HRX!H65</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="8">
-        <f>LoRa_RxDone_HRX!I65</f>
-        <v>0</v>
-      </c>
-      <c r="J65" s="5">
-        <f>LoRa_RxDone_HRX!J65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G66" s="5">
-        <f>LoRa_RxDone_HRX!G66</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="5">
-        <f>LoRa_RxDone_HRX!H66</f>
-        <v>0</v>
-      </c>
-      <c r="I66" s="8">
-        <f>LoRa_RxDone_HRX!I66</f>
-        <v>0</v>
-      </c>
-      <c r="J66" s="5">
-        <f>LoRa_RxDone_HRX!J66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G67" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G67</f>
-        <v>ChannelParams_t</v>
-      </c>
-      <c r="H67" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H67</f>
-        <v>Channels</v>
-      </c>
-      <c r="I67" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I67</f>
-        <v>DefaultChannels868[]</v>
-      </c>
-      <c r="J67" s="5">
-        <f>LoRa_RxDone_HRX!J67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G68" s="5" t="str">
-        <f>LoRa_RxDone_HRX!G68</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H68" s="5" t="str">
-        <f>LoRa_RxDone_HRX!H68</f>
-        <v>maxPayloadSize[]</v>
-      </c>
-      <c r="I68" s="8" t="str">
-        <f>LoRa_RxDone_HRX!I68</f>
-        <v>array</v>
-      </c>
-      <c r="J68" s="5">
-        <f>LoRa_RxDone_HRX!J68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G69" s="5">
-        <f>LoRa_RxDone_HRX!G69</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="5">
-        <f>LoRa_RxDone_HRX!H69</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="8">
-        <f>LoRa_RxDone_HRX!I69</f>
-        <v>0</v>
-      </c>
-      <c r="J69" s="5">
-        <f>LoRa_RxDone_HRX!J69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G70" s="5">
-        <f>LoRa_RxDone_HRX!G70</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="5">
-        <f>LoRa_RxDone_HRX!H70</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="8">
-        <f>LoRa_RxDone_HRX!I70</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="5">
-        <f>LoRa_RxDone_HRX!J70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G71" s="5">
-        <f>LoRa_RxDone_HRX!G71</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="5">
-        <f>LoRa_RxDone_HRX!H71</f>
-        <v>0</v>
-      </c>
-      <c r="I71" s="8">
-        <f>LoRa_RxDone_HRX!I71</f>
-        <v>0</v>
-      </c>
-      <c r="J71" s="5">
-        <f>LoRa_RxDone_HRX!J71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G72" s="5">
-        <f>LoRa_TxDone_HTX!G72</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="5">
-        <f>LoRa_TxDone_HTX!H72</f>
-        <v>0</v>
-      </c>
-      <c r="I72" s="8">
-        <f>LoRa_TxDone_HTX!I72</f>
-        <v>0</v>
-      </c>
-      <c r="J72" s="5">
-        <f>LoRa_TxDone_HTX!J72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G73" s="5">
-        <f>LoRa_System_Init!G74</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="5">
-        <f>LoRa_System_Init!H74</f>
-        <v>0</v>
-      </c>
-      <c r="I73" s="8">
-        <f>LoRa_System_Init!I74</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Lora 2019.xlsx
+++ b/Lora 2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DEF8D2-5546-45F4-96A5-E1DDE17AEB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415900A3-ADBF-42BD-A081-6CDB7A452AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="46950" windowHeight="19196" activeTab="1" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
+    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" firstSheet="1" activeTab="7" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
   <sheets>
     <sheet name="function" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="222">
   <si>
     <t>timer</t>
   </si>
@@ -701,6 +701,15 @@
   </si>
   <si>
     <t>LoRa_SendFailed</t>
+  </si>
+  <si>
+    <t>RADIO_standby();</t>
+  </si>
+  <si>
+    <t>RADIO_clearTransmittingFlag();</t>
+  </si>
+  <si>
+    <t>RADIO_clearReceivingFlag();</t>
   </si>
 </sst>
 </file>
@@ -5830,7 +5839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1C4FA0C-4642-4A66-8A67-3E077AB5CD63}">
   <dimension ref="B2:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6:C8"/>
     </sheetView>
   </sheetViews>
@@ -6177,7 +6186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F6DCA9-7D6E-45B0-BDB1-79B8F2066CB5}">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F22" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
@@ -7159,7 +7168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431943CF-4535-430E-91CA-849C5AAFF0D0}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -8164,7 +8173,7 @@
   <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:D20"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -10688,8 +10697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E9F640-4FA3-4D7B-AC5B-3B8FA795E544}">
   <dimension ref="B1:J73"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -10783,7 +10792,9 @@
       </c>
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>219</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="G6" s="5" t="str">
         <f>LoRa_TxDone_HTX!G6</f>
@@ -10802,7 +10813,9 @@
       </c>
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="G7" s="5" t="str">
         <f>LoRa_TxDone_HTX!G7</f>
         <v>uint8_t</v>
@@ -10821,7 +10834,9 @@
       </c>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="G8" s="5" t="str">
         <f>LoRa_TxDone_HTX!G8</f>
         <v>uint8_t</v>

--- a/Lora 2019.xlsx
+++ b/Lora 2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415900A3-ADBF-42BD-A081-6CDB7A452AE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5CBF90-48EF-4206-8B09-7479C05C97E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" firstSheet="1" activeTab="7" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
+    <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" activeTab="5" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
   <sheets>
     <sheet name="function" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="229">
   <si>
     <t>timer</t>
   </si>
@@ -265,9 +265,6 @@
     <t>LoRaMacState_t</t>
   </si>
   <si>
-    <t>LoRa_Status</t>
-  </si>
-  <si>
     <t>LoRa_SendData_TX</t>
   </si>
   <si>
@@ -710,13 +707,37 @@
   </si>
   <si>
     <t>RADIO_clearReceivingFlag();</t>
+  </si>
+  <si>
+    <t>LoRa_transmitStatus</t>
+  </si>
+  <si>
+    <t>LoRaStatus_t</t>
+  </si>
+  <si>
+    <t>LoRa_StatusDanych</t>
+  </si>
+  <si>
+    <t>LoRa_transmitIdle</t>
+  </si>
+  <si>
+    <t>LoRa_transmiting</t>
+  </si>
+  <si>
+    <t>LoRa_Counnter</t>
+  </si>
+  <si>
+    <t>FCnt_t</t>
+  </si>
+  <si>
+    <t>++</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -729,6 +750,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1135,7 +1163,7 @@
   <dimension ref="B1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1153,10 +1181,10 @@
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
@@ -1164,33 +1192,33 @@
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4"/>
       <c r="G4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" t="s">
         <v>96</v>
-      </c>
-      <c r="H4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -1203,10 +1231,10 @@
       <c r="D5"/>
       <c r="E5"/>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -1222,7 +1250,7 @@
         <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -1238,7 +1266,7 @@
         <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -1254,7 +1282,7 @@
         <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -1270,7 +1298,7 @@
         <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -1283,10 +1311,10 @@
       <c r="D10"/>
       <c r="E10"/>
       <c r="G10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -1299,10 +1327,10 @@
       <c r="D11"/>
       <c r="E11"/>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -1315,10 +1343,10 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -1326,15 +1354,15 @@
         <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13"/>
       <c r="E13"/>
       <c r="G13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -1342,7 +1370,7 @@
         <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -1350,7 +1378,7 @@
         <v>59</v>
       </c>
       <c r="H14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -1358,7 +1386,7 @@
         <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -1366,12 +1394,12 @@
         <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
@@ -1389,7 +1417,7 @@
         <v>53</v>
       </c>
       <c r="H17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1397,7 +1425,7 @@
         <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D18"/>
       <c r="E18"/>
@@ -1405,20 +1433,20 @@
         <v>59</v>
       </c>
       <c r="H18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -1426,7 +1454,7 @@
         <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
@@ -1434,7 +1462,7 @@
         <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -1442,7 +1470,7 @@
         <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21"/>
       <c r="E21"/>
@@ -1450,7 +1478,7 @@
         <v>59</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -1458,7 +1486,7 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D22"/>
       <c r="E22"/>
@@ -1466,15 +1494,15 @@
         <v>59</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
         <v>162</v>
-      </c>
-      <c r="C23" t="s">
-        <v>163</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -1482,7 +1510,7 @@
         <v>59</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -1498,7 +1526,7 @@
         <v>59</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1506,7 +1534,7 @@
         <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -1514,7 +1542,7 @@
         <v>59</v>
       </c>
       <c r="H25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -1522,7 +1550,7 @@
         <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
@@ -1530,37 +1558,49 @@
         <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" t="s">
+        <v>223</v>
+      </c>
       <c r="D27"/>
       <c r="E27"/>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" t="s">
+        <v>226</v>
+      </c>
       <c r="D28"/>
       <c r="E28"/>
       <c r="G28" t="s">
         <v>59</v>
       </c>
       <c r="H28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D29"/>
       <c r="E29"/>
       <c r="G29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
@@ -1570,47 +1610,47 @@
         <v>59</v>
       </c>
       <c r="H30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D31"/>
       <c r="E31"/>
       <c r="G31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D32"/>
       <c r="E32"/>
       <c r="G32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D33"/>
       <c r="E33"/>
       <c r="G33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H33" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D34"/>
       <c r="E34"/>
       <c r="G34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H34" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
@@ -1626,7 +1666,7 @@
         <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
@@ -1636,10 +1676,10 @@
         <v>59</v>
       </c>
       <c r="C38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E38"/>
     </row>
@@ -1648,7 +1688,7 @@
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
@@ -1658,7 +1698,7 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D40"/>
       <c r="E40"/>
@@ -1668,7 +1708,7 @@
         <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D41"/>
       <c r="E41"/>
@@ -1678,7 +1718,7 @@
         <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -1692,10 +1732,10 @@
         <v>19</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>51</v>
@@ -1709,7 +1749,7 @@
         <v>58</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s">
         <v>45</v>
@@ -1717,10 +1757,10 @@
     </row>
     <row r="49" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1783,14 +1823,14 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="str">
         <f>LoRa_System_Init!C3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>LoRa_RxDone_HRX!E3</f>
         <v>LoRa_SendData_TX</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="str">
@@ -1799,10 +1839,10 @@
       </c>
       <c r="H3" s="5" t="str">
         <f>LoRa_RxDone_HRX!H3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3" s="5">
         <f>LoRa_RxDone_HRX!J3</f>
@@ -2080,7 +2120,7 @@
         <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="5">
         <f>LoRa_Send!E18</f>
@@ -2167,7 +2207,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G21" s="5" t="str">
         <f>LoRa_RxDone_HRX!G21</f>
@@ -2277,17 +2317,17 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="5">
+      <c r="G27" s="5" t="str">
         <f>LoRa_RxDone_HRX!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
+        <v>LoRaStatus_t</v>
+      </c>
+      <c r="H27" s="5" t="str">
         <f>LoRa_RxDone_HRX!H27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="I27" s="8" t="str">
         <f>LoRa_RxDone_HRX!I27</f>
-        <v>0</v>
+        <v>LoRa_transmiting</v>
       </c>
       <c r="J27" s="5">
         <f>LoRa_RxDone_HRX!J27</f>
@@ -3106,15 +3146,15 @@
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73" s="5">
-        <f>LoRa_System_Init!G74</f>
+        <f>LoRa_System_Init!G76</f>
         <v>0</v>
       </c>
       <c r="H73" s="5">
-        <f>LoRa_System_Init!H74</f>
+        <f>LoRa_System_Init!H76</f>
         <v>0</v>
       </c>
       <c r="I73" s="8">
-        <f>LoRa_System_Init!I74</f>
+        <f>LoRa_System_Init!I76</f>
         <v>0</v>
       </c>
     </row>
@@ -3146,7 +3186,7 @@
   <sheetData>
     <row r="1" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
         <v>37</v>
@@ -3164,7 +3204,7 @@
     <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="str">
         <f>LoRa_System_Init!C3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>LoRa_TxDone_DTX!E3</f>
@@ -3181,7 +3221,7 @@
       </c>
       <c r="H3" s="5" t="str">
         <f>LoRa_TxDone_DTX!H3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="I3" s="6" t="str">
         <f>enum!C8</f>
@@ -3279,7 +3319,7 @@
         <v>LoRa_TimerWaitAck</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J8" s="5" t="str">
         <f>LoRa_TxDone_DTX!J8</f>
@@ -3621,17 +3661,17 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="5">
+      <c r="G27" s="5" t="str">
         <f>LoRa_TxDone_DTX!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
+        <v>LoRaStatus_t</v>
+      </c>
+      <c r="H27" s="5" t="str">
         <f>LoRa_TxDone_DTX!H27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="I27" s="8" t="str">
         <f>LoRa_TxDone_DTX!I27</f>
-        <v>0</v>
+        <v>LoRa_transmiting</v>
       </c>
       <c r="J27" s="5">
         <f>LoRa_TxDone_DTX!J27</f>
@@ -4134,7 +4174,7 @@
         <v>watchdogTimerId;</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J55" s="5">
         <f>LoRa_TxDone_DTX!J55</f>
@@ -4449,15 +4489,15 @@
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73" s="5">
-        <f>LoRa_System_Init!G74</f>
+        <f>LoRa_System_Init!G76</f>
         <v>0</v>
       </c>
       <c r="H73" s="5">
-        <f>LoRa_System_Init!H74</f>
+        <f>LoRa_System_Init!H76</f>
         <v>0</v>
       </c>
       <c r="I73" s="8">
-        <f>LoRa_System_Init!I74</f>
+        <f>LoRa_System_Init!I76</f>
         <v>0</v>
       </c>
     </row>
@@ -4492,16 +4532,16 @@
         <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="F1" t="s">
         <v>34</v>
@@ -4525,14 +4565,14 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="str">
         <f>LoRa_System_Init!C3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>LoRa_TxDone_DTX!E3</f>
         <v>LoRa_SendData_RX</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="str">
@@ -4541,7 +4581,7 @@
       </c>
       <c r="H3" s="5" t="str">
         <f>LoRa_TxDone_DTX!H3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="I3" s="8" t="str">
         <f>LoRa_TxDone_DTX!I3</f>
@@ -4638,7 +4678,7 @@
         <v>LoRa_TimerWaitAck</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J8" s="5" t="str">
         <f>LoRa_TxDone_DTX!J8</f>
@@ -4989,17 +5029,17 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="5">
+      <c r="G27" s="5" t="str">
         <f>LoRa_TxDone_DTX!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
+        <v>LoRaStatus_t</v>
+      </c>
+      <c r="H27" s="5" t="str">
         <f>LoRa_TxDone_DTX!H27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="I27" s="8" t="str">
         <f>LoRa_TxDone_DTX!I27</f>
-        <v>0</v>
+        <v>LoRa_transmiting</v>
       </c>
       <c r="J27" s="5">
         <f>LoRa_TxDone_DTX!J27</f>
@@ -5502,7 +5542,7 @@
         <v>watchdogTimerId;</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J55" s="5">
         <f>LoRa_TxDone_DTX!J55</f>
@@ -5817,15 +5857,15 @@
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73" s="5">
-        <f>LoRa_System_Init!G74</f>
+        <f>LoRa_System_Init!G76</f>
         <v>0</v>
       </c>
       <c r="H73" s="5">
-        <f>LoRa_System_Init!H74</f>
+        <f>LoRa_System_Init!H76</f>
         <v>0</v>
       </c>
       <c r="I73" s="8">
-        <f>LoRa_System_Init!I74</f>
+        <f>LoRa_System_Init!I76</f>
         <v>0</v>
       </c>
     </row>
@@ -5869,27 +5909,27 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -6184,10 +6224,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F6DCA9-7D6E-45B0-BDB1-79B8F2066CB5}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView showZeros="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -6203,16 +6243,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>25</v>
@@ -6221,7 +6261,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="str">
         <f>H3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>enum!C2</f>
@@ -6233,7 +6273,7 @@
       </c>
       <c r="H3" s="5" t="str">
         <f>function!C3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="I3" s="6" t="str">
         <f>enum!C2</f>
@@ -6253,7 +6293,7 @@
         <v>LoRa_initialised</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -6266,12 +6306,12 @@
         <v>LoRa_Addres</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G6" t="str">
         <f>function!B6</f>
@@ -6282,7 +6322,7 @@
         <v>LoRa_TimerHandshaking</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>49</v>
@@ -6290,7 +6330,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G7" t="str">
         <f>function!B7</f>
@@ -6301,15 +6341,15 @@
         <v>LoRa_TimerReconnect</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G8" t="str">
         <f>function!B8</f>
@@ -6320,10 +6360,10 @@
         <v>LoRa_TimerWaitAck</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -6342,10 +6382,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" t="str">
         <f>function!B10</f>
@@ -6379,10 +6419,10 @@
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="G12" t="str">
         <f>function!B12</f>
@@ -6399,10 +6439,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="G13" t="str">
         <f>function!B13</f>
@@ -6419,10 +6459,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" t="str">
         <f>function!B14</f>
@@ -6433,7 +6473,7 @@
         <v>LoRa_maxChannels</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -6452,7 +6492,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C16" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="2" t="str">
         <f>H21</f>
@@ -6473,7 +6513,7 @@
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" t="str">
         <f>function!B17</f>
@@ -6490,7 +6530,7 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D18" s="8"/>
       <c r="G18" t="str">
@@ -6502,7 +6542,7 @@
         <v>LoRa_ch0_params.frequency</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.25">
@@ -6517,7 +6557,7 @@
         <v>LoRa_ch0_params.datarate</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.25">
@@ -6547,7 +6587,7 @@
         <v>LoRa_syncWord</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.25">
@@ -6562,7 +6602,7 @@
         <v>LoRa_batteryLevel</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
@@ -6593,7 +6633,7 @@
         <v>LoRa_currentDataRate</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
@@ -6608,7 +6648,7 @@
         <v>LoRa_minDataRate</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
@@ -6623,539 +6663,574 @@
         <v>LoRa_maxDataRate</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="G27" t="str">
+        <f>function!B27</f>
+        <v>LoRaStatus_t</v>
+      </c>
+      <c r="H27" t="str">
+        <f>function!C27</f>
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="D28" s="8"/>
+      <c r="G28" t="str">
+        <f>function!B28</f>
+        <v>FCnt_t</v>
+      </c>
+      <c r="H28" t="str">
+        <f>function!C28</f>
+        <v>LoRa_Counnter</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
       <c r="D29" s="8"/>
-      <c r="G29" t="str">
-        <f>function!C45</f>
-        <v>RADIO_Transmit</v>
-      </c>
-      <c r="H29" t="str">
-        <f>function!G45</f>
-        <v>LoRa_TxDone</v>
-      </c>
+      <c r="G29">
+        <f>function!B29</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>function!C29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
       <c r="D30" s="8"/>
-      <c r="G30" t="str">
-        <f>function!C46</f>
-        <v>RADIO_RxDone</v>
-      </c>
-      <c r="H30" t="str">
-        <f>function!G46</f>
-        <v>LoRa_RxDone</v>
-      </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
-      <c r="G31">
-        <f>function!C47</f>
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <f>function!G47</f>
-        <v>0</v>
+      <c r="G31" t="str">
+        <f>function!C45</f>
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H31" t="str">
+        <f>function!G45</f>
+        <v>LoRa_TxDone</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="8"/>
-      <c r="G32">
-        <f>function!C48</f>
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <f>function!G48</f>
-        <v>0</v>
+      <c r="G32" t="str">
+        <f>function!C46</f>
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H32" t="str">
+        <f>function!G46</f>
+        <v>LoRa_RxDone</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C33" s="7"/>
       <c r="D33" s="8"/>
-      <c r="G33" t="str">
-        <f>function!G3</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H33" t="str">
-        <f>function!H3</f>
-        <v>frequency;</v>
-      </c>
-      <c r="I33" s="6" t="str">
-        <f>RADIO_Init!I31</f>
-        <v>EU868_CALIBRATION_FREQ</v>
+      <c r="G33">
+        <f>function!C47</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>function!G47</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C34" s="5"/>
       <c r="D34" s="8"/>
-      <c r="G34" t="str">
-        <f>function!G4</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H34" t="str">
-        <f>function!H4</f>
-        <v>frequencyDeviation;</v>
-      </c>
-      <c r="I34" s="6">
-        <f>RADIO_Init!I32</f>
-        <v>25000</v>
+      <c r="G34">
+        <f>function!C48</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>function!G48</f>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C35" s="5"/>
       <c r="D35" s="8"/>
       <c r="G35" t="str">
+        <f>function!G3</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H35" t="str">
+        <f>function!H3</f>
+        <v>frequency;</v>
+      </c>
+      <c r="I35" s="6" t="str">
+        <f>RADIO_Init!I33</f>
+        <v>EU868_CALIBRATION_FREQ</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G36" t="str">
+        <f>function!G4</f>
+        <v>uint32_t</v>
+      </c>
+      <c r="H36" t="str">
+        <f>function!H4</f>
+        <v>frequencyDeviation;</v>
+      </c>
+      <c r="I36" s="6">
+        <f>RADIO_Init!I34</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G37" t="str">
         <f>function!G5</f>
         <v>uint32_t</v>
       </c>
-      <c r="H35" t="str">
+      <c r="H37" t="str">
         <f>function!H5</f>
         <v>bitRate;</v>
       </c>
-      <c r="I35" s="6">
-        <f>RADIO_Init!I33</f>
+      <c r="I37" s="6">
+        <f>RADIO_Init!I35</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G36" t="str">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G38" t="str">
         <f>function!G6</f>
         <v>uint16_t</v>
       </c>
-      <c r="H36" t="str">
+      <c r="H38" t="str">
         <f>function!H6</f>
         <v>preambleLen;</v>
       </c>
-      <c r="I36" s="6">
-        <f>RADIO_Init!I34</f>
+      <c r="I38" s="6">
+        <f>RADIO_Init!I36</f>
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G37" t="str">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G39" t="str">
         <f>function!G7</f>
         <v>uint8_t</v>
       </c>
-      <c r="H37" t="str">
+      <c r="H39" t="str">
         <f>function!H7</f>
         <v>syncWordLoRa;</v>
       </c>
-      <c r="I37" s="6" t="str">
-        <f>RADIO_Init!I35</f>
+      <c r="I39" s="6" t="str">
+        <f>RADIO_Init!I37</f>
         <v>0x34</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G38" t="str">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G40" t="str">
         <f>function!G8</f>
         <v>uint8_t</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H40" t="str">
         <f>function!H8</f>
         <v>syncWord[8];</v>
       </c>
-      <c r="I38" s="6" t="str">
-        <f>RADIO_Init!I36</f>
+      <c r="I40" s="6" t="str">
+        <f>RADIO_Init!I38</f>
         <v>0xc1 0x94 0xc1</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G39" t="str">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G41" t="str">
         <f>function!G9</f>
         <v>uint8_t</v>
       </c>
-      <c r="H39" t="str">
+      <c r="H41" t="str">
         <f>function!H9</f>
         <v>syncWordLen;</v>
       </c>
-      <c r="I39" s="6">
-        <f>RADIO_Init!I37</f>
+      <c r="I41" s="6">
+        <f>RADIO_Init!I39</f>
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G40" t="str">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G42" t="str">
         <f>function!G10</f>
         <v>RadioModulation_t</v>
       </c>
-      <c r="H40" t="str">
+      <c r="H42" t="str">
         <f>function!H10</f>
         <v>modulation;</v>
       </c>
-      <c r="I40" s="6" t="str">
-        <f>RADIO_Init!I38</f>
+      <c r="I42" s="6" t="str">
+        <f>RADIO_Init!I40</f>
         <v>MODULATION_LORA</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G41" t="str">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G43" t="str">
         <f>function!G11</f>
         <v>RadioDataRate_t</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H43" t="str">
         <f>function!H11</f>
         <v>dataRate;</v>
       </c>
-      <c r="I41" s="6" t="str">
-        <f>RADIO_Init!I39</f>
+      <c r="I43" s="6" t="str">
+        <f>RADIO_Init!I41</f>
         <v>SF_12</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G42" t="str">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G44" t="str">
         <f>function!G12</f>
         <v>RadioLoRaBandWidth_t</v>
       </c>
-      <c r="H42" t="str">
+      <c r="H44" t="str">
         <f>function!H12</f>
         <v>bandWidth;</v>
       </c>
-      <c r="I42" s="6" t="str">
-        <f>RADIO_Init!I40</f>
+      <c r="I44" s="6" t="str">
+        <f>RADIO_Init!I42</f>
         <v>BW_125KHZ</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G43" t="str">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G45" t="str">
         <f>function!G13</f>
         <v>int8_t</v>
       </c>
-      <c r="H43" t="str">
+      <c r="H45" t="str">
         <f>function!H13</f>
         <v>outputPower;</v>
       </c>
-      <c r="I43" s="6">
-        <f>RADIO_Init!I41</f>
+      <c r="I45" s="6">
+        <f>RADIO_Init!I43</f>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G44" t="str">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G46" t="str">
         <f>function!G14</f>
         <v>uint8_t</v>
       </c>
-      <c r="H44" t="str">
+      <c r="H46" t="str">
         <f>function!H14</f>
         <v>crcOn;</v>
       </c>
-      <c r="I44" s="6">
-        <f>RADIO_Init!I42</f>
+      <c r="I46" s="6">
+        <f>RADIO_Init!I44</f>
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G45" t="str">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G47" t="str">
         <f>function!G15</f>
         <v>uint8_t</v>
       </c>
-      <c r="H45" t="str">
+      <c r="H47" t="str">
         <f>function!H15</f>
         <v>paBoost;</v>
       </c>
-      <c r="I45" s="6" t="str">
-        <f>RADIO_Init!I43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G46" t="str">
+      <c r="I47" s="6" t="str">
+        <f>RADIO_Init!I45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="G48" t="str">
         <f>function!G17</f>
         <v>uint16_t</v>
       </c>
-      <c r="H46" t="str">
+      <c r="H48" t="str">
         <f>function!H17</f>
         <v>frequencyHopPeriod;</v>
       </c>
-      <c r="I46" s="6" t="str">
-        <f>RADIO_Init!I44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G47" t="str">
+      <c r="I48" s="6" t="str">
+        <f>RADIO_Init!I46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G49" t="str">
         <f>function!G18</f>
         <v>uint8_t</v>
       </c>
-      <c r="H47" t="str">
+      <c r="H49" t="str">
         <f>function!H18</f>
         <v>iqInverted;</v>
       </c>
-      <c r="I47" s="6" t="str">
-        <f>RADIO_Init!I45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G48" t="str">
+      <c r="I49" s="6" t="str">
+        <f>RADIO_Init!I47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G50" t="str">
         <f>function!G19</f>
         <v>RadioErrorCodingRate_t</v>
       </c>
-      <c r="H48" t="str">
+      <c r="H50" t="str">
         <f>function!H19</f>
         <v>errorCodingRate;</v>
       </c>
-      <c r="I48" s="6" t="str">
-        <f>RADIO_Init!I46</f>
+      <c r="I50" s="6" t="str">
+        <f>RADIO_Init!I48</f>
         <v>CR_4_5</v>
       </c>
     </row>
-    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G49" t="str">
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G51" t="str">
         <f>function!G20</f>
         <v>uint8_t</v>
       </c>
-      <c r="H49" t="str">
+      <c r="H51" t="str">
         <f>function!H20</f>
         <v>implicitHeaderMode;</v>
       </c>
-      <c r="I49" s="6" t="str">
-        <f>RADIO_Init!I47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G50" t="str">
+      <c r="I51" s="6" t="str">
+        <f>RADIO_Init!I49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G52" t="str">
         <f>function!G21</f>
         <v>uint8_t</v>
       </c>
-      <c r="H50" t="str">
+      <c r="H52" t="str">
         <f>function!H21</f>
         <v>flags;</v>
       </c>
-      <c r="I50" s="6" t="str">
-        <f>RADIO_Init!I48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G51" t="str">
+      <c r="I52" s="6" t="str">
+        <f>RADIO_Init!I50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G53" t="str">
         <f>function!G22</f>
         <v>uint8_t</v>
       </c>
-      <c r="H51" t="str">
+      <c r="H53" t="str">
         <f>function!H22</f>
         <v>dataBufferLen;</v>
       </c>
-      <c r="I51" s="6" t="str">
-        <f>RADIO_Init!I49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G52" t="str">
+      <c r="I53" s="6" t="str">
+        <f>RADIO_Init!I51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G54" t="str">
         <f>function!G23</f>
         <v>uint8_t</v>
       </c>
-      <c r="H52" t="str">
+      <c r="H54" t="str">
         <f>function!H23</f>
         <v>*dataBuffer;</v>
       </c>
-      <c r="I52" s="6" t="str">
-        <f>RADIO_Init!I50</f>
+      <c r="I54" s="6" t="str">
+        <f>RADIO_Init!I52</f>
         <v>&amp;radioBuffer[16]</v>
       </c>
     </row>
-    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G53" t="str">
+    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G55" t="str">
         <f>function!G24</f>
         <v>uint8_t</v>
       </c>
-      <c r="H53" s="1" t="str">
+      <c r="H55" s="1" t="str">
         <f>function!H24</f>
         <v>timeOnAirTimerId;</v>
       </c>
     </row>
-    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G54" t="str">
+    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G56" t="str">
         <f>function!G25</f>
         <v>uint8_t</v>
       </c>
-      <c r="H54" s="1" t="str">
+      <c r="H56" s="1" t="str">
         <f>function!H25</f>
         <v>fskRxWindowTimerId;</v>
       </c>
-      <c r="I54" s="6" t="str">
-        <f>RADIO_Init!I52</f>
+      <c r="I56" s="6" t="str">
+        <f>RADIO_Init!I54</f>
         <v>RADIO_RxFSKTimeout</v>
       </c>
     </row>
-    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G55" t="str">
+    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G57" t="str">
         <f>function!G26</f>
         <v>uint8_t</v>
       </c>
-      <c r="H55" s="1" t="str">
+      <c r="H57" s="1" t="str">
         <f>function!H26</f>
         <v>watchdogTimerId;</v>
       </c>
-      <c r="I55" s="6" t="str">
-        <f>RADIO_Init!I53</f>
+      <c r="I57" s="6" t="str">
+        <f>RADIO_Init!I55</f>
         <v>RADIO_WatchdogTimeout</v>
       </c>
     </row>
-    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G56" t="str">
+    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G58" t="str">
         <f>function!G27</f>
         <v>uint32_t</v>
       </c>
-      <c r="H56" t="str">
+      <c r="H58" t="str">
         <f>function!H27</f>
         <v>watchdogTimerTimeout;</v>
       </c>
-      <c r="I56" s="6" t="str">
-        <f>RADIO_Init!I54</f>
+      <c r="I58" s="6" t="str">
+        <f>RADIO_Init!I56</f>
         <v>WATCHDOG_DEFAULT_TIME</v>
       </c>
     </row>
-    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G57" t="str">
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G59" t="str">
         <f>function!G28</f>
         <v>uint8_t</v>
       </c>
-      <c r="H57" t="str">
+      <c r="H59" t="str">
         <f>function!H28</f>
         <v>initialized;</v>
       </c>
-      <c r="I57" s="6">
-        <f>RADIO_Init!I55</f>
+      <c r="I59" s="6">
+        <f>RADIO_Init!I57</f>
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G58" t="str">
+    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G60" t="str">
         <f>function!G29</f>
         <v>uint32_t</v>
       </c>
-      <c r="H58" t="str">
+      <c r="H60" t="str">
         <f>function!H29</f>
         <v>(*fhssNextFrequency)(void);</v>
       </c>
-      <c r="I58" s="6" t="str">
-        <f>RADIO_Init!I56</f>
+      <c r="I60" s="6" t="str">
+        <f>RADIO_Init!I58</f>
         <v>NULL</v>
       </c>
     </row>
-    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G59" t="str">
+    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G61" t="str">
         <f>function!G30</f>
         <v>uint8_t</v>
       </c>
-      <c r="H59" t="str">
+      <c r="H61" t="str">
         <f>function!H30</f>
         <v>regVersion;</v>
       </c>
-      <c r="I59" s="6" t="str">
-        <f>RADIO_Init!I57</f>
+      <c r="I61" s="6" t="str">
+        <f>RADIO_Init!I59</f>
         <v>RADIO_RegisterRead(REG_VERSION)</v>
       </c>
     </row>
-    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G60" t="str">
+    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G62" t="str">
         <f>function!G31</f>
         <v>int8_t</v>
       </c>
-      <c r="H60" t="str">
+      <c r="H62" t="str">
         <f>function!H31</f>
         <v>packetSNR;</v>
       </c>
-      <c r="I60" s="6">
-        <f>RADIO_Init!I58</f>
+      <c r="I62" s="6">
+        <f>RADIO_Init!I60</f>
         <v>-128</v>
       </c>
     </row>
-    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G61" t="str">
+    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G63" t="str">
         <f>function!G32</f>
         <v>RadioFSKShaping_t</v>
       </c>
-      <c r="H61" t="str">
+      <c r="H63" t="str">
         <f>function!H32</f>
         <v>fskDataShaping;</v>
       </c>
-      <c r="I61" s="6" t="str">
-        <f>RADIO_Init!I59</f>
+      <c r="I63" s="6" t="str">
+        <f>RADIO_Init!I61</f>
         <v>FSK_SHAPING_GAUSS_BT_0_5</v>
       </c>
     </row>
-    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G62" t="str">
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G64" t="str">
         <f>function!G33</f>
         <v>RadioFSKBandWidth_t</v>
       </c>
-      <c r="H62" t="str">
+      <c r="H64" t="str">
         <f>function!H33</f>
         <v>rxBw;</v>
       </c>
-      <c r="I62" s="6" t="str">
-        <f>RADIO_Init!I60</f>
+      <c r="I64" s="6" t="str">
+        <f>RADIO_Init!I62</f>
         <v>FSKBW_50_0KHZ</v>
       </c>
     </row>
-    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G63" t="str">
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65" t="str">
         <f>function!G34</f>
         <v>RadioFSKBandWidth_t</v>
       </c>
-      <c r="H63" t="str">
+      <c r="H65" t="str">
         <f>function!H34</f>
         <v>afcBw;</v>
       </c>
-      <c r="I63" s="6" t="str">
-        <f>RADIO_Init!I61</f>
+      <c r="I65" s="6" t="str">
+        <f>RADIO_Init!I63</f>
         <v>FSKBW_83_3KHZ</v>
       </c>
     </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G64">
+    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G66">
         <f>function!G37</f>
         <v>0</v>
       </c>
-      <c r="H64">
+      <c r="H66">
         <f>function!H37</f>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G67" t="str">
+    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G69" t="str">
         <f>function!B37</f>
         <v>ChannelParams_t</v>
       </c>
-      <c r="H67" t="str">
+      <c r="H69" t="str">
         <f>function!C37</f>
         <v>Channels</v>
       </c>
-      <c r="I67" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G68" t="str">
+      <c r="I69" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G70" t="str">
         <f>function!B38</f>
         <v>uint8_t</v>
       </c>
-      <c r="H68" t="str">
+      <c r="H70" t="str">
         <f>function!C38</f>
         <v>maxPayloadSize[]</v>
       </c>
-      <c r="I68" s="2" t="s">
-        <v>179</v>
+      <c r="I70" s="2" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G3" location="enum!B2" display="enum!B2" xr:uid="{43750E06-A068-4752-8CD3-DDBA5A294391}"/>
   </hyperlinks>
@@ -7166,10 +7241,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431943CF-4535-430E-91CA-849C5AAFF0D0}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView showZeros="0" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -7188,24 +7263,24 @@
         <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -7218,7 +7293,7 @@
       </c>
       <c r="H3" s="5" t="str">
         <f>LoRa_System_Init!H3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="I3" s="8" t="str">
         <f>LoRa_System_Init!I3</f>
@@ -7227,7 +7302,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C4" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
@@ -7565,31 +7640,31 @@
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="8"/>
-      <c r="G25" s="5">
+      <c r="G25" s="5" t="str">
         <f>LoRa_System_Init!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="5">
+        <v>LoRaStatus_t</v>
+      </c>
+      <c r="H25" s="5" t="str">
         <f>LoRa_System_Init!H27</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="I25" s="8" t="str">
         <f>LoRa_System_Init!I27</f>
-        <v>0</v>
+        <v>LoRa_transmitIdle</v>
       </c>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C26" s="5"/>
       <c r="D26" s="8"/>
-      <c r="G26" s="5">
+      <c r="G26" s="5" t="str">
         <f>LoRa_System_Init!G28</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="5">
+        <v>FCnt_t</v>
+      </c>
+      <c r="H26" s="5" t="str">
         <f>LoRa_System_Init!H28</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
+        <v>LoRa_Counnter</v>
+      </c>
+      <c r="I26" s="8" t="str">
         <f>LoRa_System_Init!I28</f>
         <v>0</v>
       </c>
@@ -7597,13 +7672,13 @@
     <row r="27" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C27" s="5"/>
       <c r="D27" s="8"/>
-      <c r="G27" s="5" t="str">
+      <c r="G27" s="5">
         <f>LoRa_System_Init!G29</f>
-        <v>RADIO_Transmit</v>
-      </c>
-      <c r="H27" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <f>LoRa_System_Init!H29</f>
-        <v>LoRa_TxDone</v>
+        <v>0</v>
       </c>
       <c r="I27" s="8">
         <f>LoRa_System_Init!I29</f>
@@ -7613,13 +7688,13 @@
     <row r="28" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C28" s="5"/>
       <c r="D28" s="8"/>
-      <c r="G28" s="5" t="str">
+      <c r="G28" s="5">
         <f>LoRa_System_Init!G30</f>
-        <v>RADIO_RxDone</v>
-      </c>
-      <c r="H28" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
         <f>LoRa_System_Init!H30</f>
-        <v>LoRa_RxDone</v>
+        <v>0</v>
       </c>
       <c r="I28" s="8">
         <f>LoRa_System_Init!I30</f>
@@ -7629,13 +7704,13 @@
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="5"/>
       <c r="D29" s="8"/>
-      <c r="G29" s="5">
+      <c r="G29" s="5" t="str">
         <f>LoRa_System_Init!G31</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="5">
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H29" s="5" t="str">
         <f>LoRa_System_Init!H31</f>
-        <v>0</v>
+        <v>LoRa_TxDone</v>
       </c>
       <c r="I29" s="8">
         <f>LoRa_System_Init!I31</f>
@@ -7645,13 +7720,13 @@
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="5"/>
       <c r="D30" s="8"/>
-      <c r="G30" s="5">
+      <c r="G30" s="5" t="str">
         <f>LoRa_System_Init!G32</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="5">
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H30" s="5" t="str">
         <f>LoRa_System_Init!H32</f>
-        <v>0</v>
+        <v>LoRa_RxDone</v>
       </c>
       <c r="I30" s="8">
         <f>LoRa_System_Init!I32</f>
@@ -7661,32 +7736,33 @@
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="7"/>
       <c r="D31" s="8"/>
-      <c r="G31" s="5" t="str">
+      <c r="G31" s="5">
         <f>LoRa_System_Init!G33</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H31" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
         <f>LoRa_System_Init!H33</f>
-        <v>frequency;</v>
-      </c>
-      <c r="I31" s="6" t="str">
-        <f>E1</f>
-        <v>EU868_CALIBRATION_FREQ</v>
+        <v>0</v>
+      </c>
+      <c r="I31" s="8">
+        <f>LoRa_System_Init!I33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C32" s="5"/>
       <c r="D32" s="8"/>
-      <c r="G32" s="5" t="str">
+      <c r="G32" s="5">
         <f>LoRa_System_Init!G34</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H32" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <f>LoRa_System_Init!H34</f>
-        <v>frequencyDeviation;</v>
-      </c>
-      <c r="I32" s="6">
-        <v>25000</v>
+        <v>0</v>
+      </c>
+      <c r="I32" s="8">
+        <f>LoRa_System_Init!I34</f>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.25">
@@ -7698,10 +7774,11 @@
       </c>
       <c r="H33" s="5" t="str">
         <f>LoRa_System_Init!H35</f>
-        <v>bitRate;</v>
-      </c>
-      <c r="I33" s="6">
-        <v>50000</v>
+        <v>frequency;</v>
+      </c>
+      <c r="I33" s="6" t="str">
+        <f>E1</f>
+        <v>EU868_CALIBRATION_FREQ</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
@@ -7709,14 +7786,14 @@
       <c r="D34" s="8"/>
       <c r="G34" s="5" t="str">
         <f>LoRa_System_Init!G36</f>
-        <v>uint16_t</v>
+        <v>uint32_t</v>
       </c>
       <c r="H34" s="5" t="str">
         <f>LoRa_System_Init!H36</f>
-        <v>preambleLen;</v>
+        <v>frequencyDeviation;</v>
       </c>
       <c r="I34" s="6">
-        <v>8</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
@@ -7724,27 +7801,27 @@
       <c r="D35" s="8"/>
       <c r="G35" s="5" t="str">
         <f>LoRa_System_Init!G37</f>
-        <v>uint8_t</v>
+        <v>uint32_t</v>
       </c>
       <c r="H35" s="5" t="str">
         <f>LoRa_System_Init!H37</f>
-        <v>syncWordLoRa;</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>147</v>
+        <v>bitRate;</v>
+      </c>
+      <c r="I35" s="6">
+        <v>50000</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G36" s="5" t="str">
         <f>LoRa_System_Init!G38</f>
-        <v>uint8_t</v>
+        <v>uint16_t</v>
       </c>
       <c r="H36" s="5" t="str">
         <f>LoRa_System_Init!H38</f>
-        <v>syncWord[8];</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>146</v>
+        <v>preambleLen;</v>
+      </c>
+      <c r="I36" s="6">
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
@@ -7754,101 +7831,101 @@
       </c>
       <c r="H37" s="5" t="str">
         <f>LoRa_System_Init!H39</f>
-        <v>syncWordLen;</v>
-      </c>
-      <c r="I37" s="6">
-        <v>3</v>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G38" s="5" t="str">
         <f>LoRa_System_Init!G40</f>
-        <v>RadioModulation_t</v>
+        <v>uint8_t</v>
       </c>
       <c r="H38" s="5" t="str">
         <f>LoRa_System_Init!H40</f>
-        <v>modulation;</v>
+        <v>syncWord[8];</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G39" s="5" t="str">
         <f>LoRa_System_Init!G41</f>
-        <v>RadioDataRate_t</v>
+        <v>uint8_t</v>
       </c>
       <c r="H39" s="5" t="str">
         <f>LoRa_System_Init!H41</f>
-        <v>dataRate;</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>145</v>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I39" s="6">
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G40" s="5" t="str">
         <f>LoRa_System_Init!G42</f>
-        <v>RadioLoRaBandWidth_t</v>
+        <v>RadioModulation_t</v>
       </c>
       <c r="H40" s="5" t="str">
         <f>LoRa_System_Init!H42</f>
-        <v>bandWidth;</v>
+        <v>modulation;</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G41" s="5" t="str">
         <f>LoRa_System_Init!G43</f>
-        <v>int8_t</v>
+        <v>RadioDataRate_t</v>
       </c>
       <c r="H41" s="5" t="str">
         <f>LoRa_System_Init!H43</f>
-        <v>outputPower;</v>
-      </c>
-      <c r="I41" s="6">
-        <v>1</v>
+        <v>dataRate;</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G42" s="5" t="str">
         <f>LoRa_System_Init!G44</f>
-        <v>uint8_t</v>
+        <v>RadioLoRaBandWidth_t</v>
       </c>
       <c r="H42" s="5" t="str">
         <f>LoRa_System_Init!H44</f>
-        <v>crcOn;</v>
-      </c>
-      <c r="I42" s="6">
-        <v>1</v>
+        <v>bandWidth;</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G43" s="5" t="str">
         <f>LoRa_System_Init!G45</f>
-        <v>uint8_t</v>
+        <v>int8_t</v>
       </c>
       <c r="H43" s="5" t="str">
         <f>LoRa_System_Init!H45</f>
-        <v>paBoost;</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>152</v>
+        <v>outputPower;</v>
+      </c>
+      <c r="I43" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G44" s="5" t="str">
         <f>LoRa_System_Init!G46</f>
-        <v>uint16_t</v>
+        <v>uint8_t</v>
       </c>
       <c r="H44" s="5" t="str">
         <f>LoRa_System_Init!H46</f>
-        <v>frequencyHopPeriod;</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>152</v>
+        <v>crcOn;</v>
+      </c>
+      <c r="I44" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.25">
@@ -7858,23 +7935,23 @@
       </c>
       <c r="H45" s="5" t="str">
         <f>LoRa_System_Init!H47</f>
-        <v>iqInverted;</v>
+        <v>paBoost;</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G46" s="5" t="str">
         <f>LoRa_System_Init!G48</f>
-        <v>RadioErrorCodingRate_t</v>
+        <v>uint16_t</v>
       </c>
       <c r="H46" s="5" t="str">
         <f>LoRa_System_Init!H48</f>
-        <v>errorCodingRate;</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>144</v>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.25">
@@ -7884,23 +7961,23 @@
       </c>
       <c r="H47" s="5" t="str">
         <f>LoRa_System_Init!H49</f>
-        <v>implicitHeaderMode;</v>
+        <v>iqInverted;</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.25">
       <c r="G48" s="5" t="str">
         <f>LoRa_System_Init!G50</f>
-        <v>uint8_t</v>
+        <v>RadioErrorCodingRate_t</v>
       </c>
       <c r="H48" s="5" t="str">
         <f>LoRa_System_Init!H50</f>
-        <v>flags;</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>152</v>
+        <v>errorCodingRate;</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.25">
@@ -7910,10 +7987,10 @@
       </c>
       <c r="H49" s="5" t="str">
         <f>LoRa_System_Init!H51</f>
-        <v>dataBufferLen;</v>
+        <v>implicitHeaderMode;</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.25">
@@ -7923,11 +8000,10 @@
       </c>
       <c r="H50" s="5" t="str">
         <f>LoRa_System_Init!H52</f>
-        <v>*dataBuffer;</v>
-      </c>
-      <c r="I50" s="6" t="str">
-        <f>D1</f>
-        <v>&amp;radioBuffer[16]</v>
+        <v>flags;</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.25">
@@ -7935,16 +8011,12 @@
         <f>LoRa_System_Init!G53</f>
         <v>uint8_t</v>
       </c>
-      <c r="H51" s="1" t="str">
+      <c r="H51" s="5" t="str">
         <f>LoRa_System_Init!H53</f>
-        <v>timeOnAirTimerId;</v>
-      </c>
-      <c r="I51" s="8">
-        <f>LoRa_System_Init!I53</f>
-        <v>0</v>
-      </c>
-      <c r="J51" t="s">
-        <v>154</v>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.25">
@@ -7952,15 +8024,13 @@
         <f>LoRa_System_Init!G54</f>
         <v>uint8_t</v>
       </c>
-      <c r="H52" s="1" t="str">
+      <c r="H52" s="5" t="str">
         <f>LoRa_System_Init!H54</f>
-        <v>fskRxWindowTimerId;</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" t="s">
-        <v>154</v>
+        <v>*dataBuffer;</v>
+      </c>
+      <c r="I52" s="6" t="str">
+        <f>D1</f>
+        <v>&amp;radioBuffer[16]</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.25">
@@ -7970,26 +8040,30 @@
       </c>
       <c r="H53" s="1" t="str">
         <f>LoRa_System_Init!H55</f>
-        <v>watchdogTimerId;</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>26</v>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I53" s="8">
+        <f>LoRa_System_Init!I55</f>
+        <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54" s="5" t="str">
         <f>LoRa_System_Init!G56</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H54" s="5" t="str">
+        <v>uint8_t</v>
+      </c>
+      <c r="H54" s="1" t="str">
         <f>LoRa_System_Init!H56</f>
-        <v>watchdogTimerTimeout;</v>
+        <v>fskRxWindowTimerId;</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>148</v>
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.25">
@@ -7997,12 +8071,15 @@
         <f>LoRa_System_Init!G57</f>
         <v>uint8_t</v>
       </c>
-      <c r="H55" s="5" t="str">
+      <c r="H55" s="1" t="str">
         <f>LoRa_System_Init!H57</f>
-        <v>initialized;</v>
-      </c>
-      <c r="I55" s="6">
-        <v>1</v>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J55" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.25">
@@ -8012,10 +8089,10 @@
       </c>
       <c r="H56" s="5" t="str">
         <f>LoRa_System_Init!H58</f>
-        <v>(*fhssNextFrequency)(void);</v>
+        <v>watchdogTimerTimeout;</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.25">
@@ -8025,89 +8102,115 @@
       </c>
       <c r="H57" s="5" t="str">
         <f>LoRa_System_Init!H59</f>
-        <v>regVersion;</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>156</v>
+        <v>initialized;</v>
+      </c>
+      <c r="I57" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58" s="5" t="str">
         <f>LoRa_System_Init!G60</f>
-        <v>int8_t</v>
+        <v>uint32_t</v>
       </c>
       <c r="H58" s="5" t="str">
         <f>LoRa_System_Init!H60</f>
-        <v>packetSNR;</v>
-      </c>
-      <c r="I58" s="6">
-        <v>-128</v>
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59" s="5" t="str">
         <f>LoRa_System_Init!G61</f>
-        <v>RadioFSKShaping_t</v>
+        <v>uint8_t</v>
       </c>
       <c r="H59" s="5" t="str">
         <f>LoRa_System_Init!H61</f>
-        <v>fskDataShaping;</v>
+        <v>regVersion;</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60" s="5" t="str">
         <f>LoRa_System_Init!G62</f>
-        <v>RadioFSKBandWidth_t</v>
+        <v>int8_t</v>
       </c>
       <c r="H60" s="5" t="str">
         <f>LoRa_System_Init!H62</f>
-        <v>rxBw;</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>150</v>
+        <v>packetSNR;</v>
+      </c>
+      <c r="I60" s="6">
+        <v>-128</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61" s="5" t="str">
         <f>LoRa_System_Init!G63</f>
-        <v>RadioFSKBandWidth_t</v>
+        <v>RadioFSKShaping_t</v>
       </c>
       <c r="H61" s="5" t="str">
         <f>LoRa_System_Init!H63</f>
+        <v>fskDataShaping;</v>
+      </c>
+      <c r="I61" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G62" s="5" t="str">
+        <f>LoRa_System_Init!G64</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f>LoRa_System_Init!H64</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G63" s="5" t="str">
+        <f>LoRa_System_Init!G65</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f>LoRa_System_Init!H65</f>
         <v>afcBw;</v>
       </c>
-      <c r="I61" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="62" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G62" s="5">
-        <f>LoRa_System_Init!G64</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="5">
-        <f>LoRa_System_Init!H64</f>
-        <v>0</v>
-      </c>
-      <c r="I62" s="8">
-        <f>LoRa_System_Init!I64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G63" s="5">
-        <f>LoRa_System_Init!G65</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="5">
-        <f>LoRa_System_Init!H65</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="8">
-        <f>LoRa_System_Init!I65</f>
+      <c r="I63" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G64" s="5">
+        <f>LoRa_System_Init!G66</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <f>LoRa_System_Init!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="8">
+        <f>LoRa_System_Init!I66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65" s="5">
+        <f>LoRa_System_Init!G67</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="5">
+        <f>LoRa_System_Init!H67</f>
+        <v>0</v>
+      </c>
+      <c r="I65" s="8">
+        <f>LoRa_System_Init!I67</f>
         <v>0</v>
       </c>
     </row>
@@ -8125,43 +8228,43 @@
     <hyperlink ref="G12" location="enum!B2" display="enum!B2" xr:uid="{57E8C038-B59C-4317-AC91-6A7A9570F48A}"/>
     <hyperlink ref="G13" location="enum!B2" display="enum!B2" xr:uid="{425E5FA2-BBB1-4779-86F5-4EAAACFF0A6D}"/>
     <hyperlink ref="G14" location="enum!B2" display="enum!B2" xr:uid="{5AD7F062-C66D-415F-89CC-A0FBFB393DAC}"/>
-    <hyperlink ref="G27" location="enum!B2" display="enum!B2" xr:uid="{B8278220-5509-45A9-8268-2D513406C700}"/>
-    <hyperlink ref="G28" location="enum!B2" display="enum!B2" xr:uid="{F9BBFE8D-F574-48CC-80AB-2F3B649F275C}"/>
-    <hyperlink ref="G29" location="enum!B2" display="enum!B2" xr:uid="{361A6AD5-4270-49E4-892B-53E02F62405E}"/>
-    <hyperlink ref="G30" location="enum!B2" display="enum!B2" xr:uid="{8A7DE7DD-2994-4B8A-90B7-F6A911DBD168}"/>
-    <hyperlink ref="G31" location="enum!B2" display="enum!B2" xr:uid="{4F8D19F8-411D-4C38-B424-FD03DBE305F3}"/>
-    <hyperlink ref="G32" location="enum!B2" display="enum!B2" xr:uid="{E8A8A343-0230-496A-965B-484554B70DD9}"/>
-    <hyperlink ref="G33" location="enum!B2" display="enum!B2" xr:uid="{2A6EE534-5605-4E4A-8B25-622B609C07F7}"/>
-    <hyperlink ref="G34" location="enum!B2" display="enum!B2" xr:uid="{646E70E0-469C-4268-A7FF-09207B8F6AC7}"/>
-    <hyperlink ref="G35" location="enum!B2" display="enum!B2" xr:uid="{DA5439A6-FDAD-4DB4-86AD-7162AF8007FE}"/>
-    <hyperlink ref="G36" location="enum!B2" display="enum!B2" xr:uid="{8CAABEC6-31F0-408A-A388-3E4E30A8ADD5}"/>
-    <hyperlink ref="G37" location="enum!B2" display="enum!B2" xr:uid="{97FE5DD7-AA9E-4C2B-90C1-C5A3C15B3724}"/>
-    <hyperlink ref="G38" location="enum!B2" display="enum!B2" xr:uid="{2DE2D02C-8381-49F7-8C21-F4492D303854}"/>
-    <hyperlink ref="G39" location="enum!B2" display="enum!B2" xr:uid="{73E06DF2-5C32-45B6-B2C0-0E63E1025901}"/>
-    <hyperlink ref="G40" location="enum!B2" display="enum!B2" xr:uid="{14B25C1F-03B0-4F28-A8EF-48CAA90F1BD5}"/>
-    <hyperlink ref="G41" location="enum!B2" display="enum!B2" xr:uid="{F52BF964-148D-4A46-98A8-5FF5A7E3615B}"/>
-    <hyperlink ref="G42" location="enum!B2" display="enum!B2" xr:uid="{BE733531-4E08-43B5-B8BD-0DC22DC09137}"/>
-    <hyperlink ref="G43" location="enum!B2" display="enum!B2" xr:uid="{058CA484-1761-4BAB-A9C4-3DD2D2F4784C}"/>
-    <hyperlink ref="G44" location="enum!B2" display="enum!B2" xr:uid="{AED9DEBF-3DEA-47FB-BB6E-0D7C9AFCB901}"/>
-    <hyperlink ref="G45" location="enum!B2" display="enum!B2" xr:uid="{52F8C632-4A0C-475A-B692-4856F520BBB8}"/>
-    <hyperlink ref="G46" location="enum!B2" display="enum!B2" xr:uid="{33CB8282-9F67-47F4-90FD-A6F50DBF7EA0}"/>
-    <hyperlink ref="G47" location="enum!B2" display="enum!B2" xr:uid="{9539A6E8-C972-417B-A1AE-A7BD49ADEEB6}"/>
-    <hyperlink ref="G48" location="enum!B2" display="enum!B2" xr:uid="{D6B58876-FE5D-4382-B4F5-CF39F2DD8E06}"/>
-    <hyperlink ref="G49" location="enum!B2" display="enum!B2" xr:uid="{ACAEAE6E-06C4-4A5C-9049-3EAF22F951CF}"/>
-    <hyperlink ref="G50" location="enum!B2" display="enum!B2" xr:uid="{7AA2BAEB-A2EE-4CD5-AE96-2D76B29D8440}"/>
-    <hyperlink ref="G51" location="enum!B2" display="enum!B2" xr:uid="{93F3E4A5-9F7C-4C1D-B464-34FF47568093}"/>
-    <hyperlink ref="G52" location="enum!B2" display="enum!B2" xr:uid="{2CA2CE6E-ECCD-4932-913A-6C3070C61E45}"/>
-    <hyperlink ref="G53" location="enum!B2" display="enum!B2" xr:uid="{2B876B5D-B2FF-4B00-A72D-E9165E99DF3C}"/>
-    <hyperlink ref="G54" location="enum!B2" display="enum!B2" xr:uid="{BFE353F9-0F6E-4C2C-998E-429DA1024B47}"/>
-    <hyperlink ref="G55" location="enum!B2" display="enum!B2" xr:uid="{F9ECC802-11C8-4DE9-82AA-AF0EDB6C3DE6}"/>
-    <hyperlink ref="G56" location="enum!B2" display="enum!B2" xr:uid="{C8B9B7DE-2571-407C-AE22-0E387D2C7E4E}"/>
-    <hyperlink ref="G57" location="enum!B2" display="enum!B2" xr:uid="{C9687D48-D4B1-499F-80D4-2066712E4C4D}"/>
-    <hyperlink ref="G58" location="enum!B2" display="enum!B2" xr:uid="{5E81F543-4F96-41EB-A177-372B3C87C47E}"/>
-    <hyperlink ref="G59" location="enum!B2" display="enum!B2" xr:uid="{CB80BAD5-379B-4BB5-B85C-05074F8CD7EA}"/>
-    <hyperlink ref="G60" location="enum!B2" display="enum!B2" xr:uid="{4E115D1C-665B-4027-AA92-4B9422ADA91E}"/>
-    <hyperlink ref="G61" location="enum!B2" display="enum!B2" xr:uid="{9162F7FC-55C6-43A5-8E36-9066C9DF0AF6}"/>
-    <hyperlink ref="G62" location="enum!B2" display="enum!B2" xr:uid="{1155B14A-907E-4288-B705-8879EC0172DC}"/>
-    <hyperlink ref="G63" location="enum!B2" display="enum!B2" xr:uid="{E4C9D445-E35E-4F34-BB5C-CC968839CC80}"/>
+    <hyperlink ref="G29" location="enum!B2" display="enum!B2" xr:uid="{B8278220-5509-45A9-8268-2D513406C700}"/>
+    <hyperlink ref="G30" location="enum!B2" display="enum!B2" xr:uid="{F9BBFE8D-F574-48CC-80AB-2F3B649F275C}"/>
+    <hyperlink ref="G31" location="enum!B2" display="enum!B2" xr:uid="{361A6AD5-4270-49E4-892B-53E02F62405E}"/>
+    <hyperlink ref="G32" location="enum!B2" display="enum!B2" xr:uid="{8A7DE7DD-2994-4B8A-90B7-F6A911DBD168}"/>
+    <hyperlink ref="G33" location="enum!B2" display="enum!B2" xr:uid="{4F8D19F8-411D-4C38-B424-FD03DBE305F3}"/>
+    <hyperlink ref="G34" location="enum!B2" display="enum!B2" xr:uid="{E8A8A343-0230-496A-965B-484554B70DD9}"/>
+    <hyperlink ref="G35" location="enum!B2" display="enum!B2" xr:uid="{2A6EE534-5605-4E4A-8B25-622B609C07F7}"/>
+    <hyperlink ref="G36" location="enum!B2" display="enum!B2" xr:uid="{646E70E0-469C-4268-A7FF-09207B8F6AC7}"/>
+    <hyperlink ref="G37" location="enum!B2" display="enum!B2" xr:uid="{DA5439A6-FDAD-4DB4-86AD-7162AF8007FE}"/>
+    <hyperlink ref="G38" location="enum!B2" display="enum!B2" xr:uid="{8CAABEC6-31F0-408A-A388-3E4E30A8ADD5}"/>
+    <hyperlink ref="G39" location="enum!B2" display="enum!B2" xr:uid="{97FE5DD7-AA9E-4C2B-90C1-C5A3C15B3724}"/>
+    <hyperlink ref="G40" location="enum!B2" display="enum!B2" xr:uid="{2DE2D02C-8381-49F7-8C21-F4492D303854}"/>
+    <hyperlink ref="G41" location="enum!B2" display="enum!B2" xr:uid="{73E06DF2-5C32-45B6-B2C0-0E63E1025901}"/>
+    <hyperlink ref="G42" location="enum!B2" display="enum!B2" xr:uid="{14B25C1F-03B0-4F28-A8EF-48CAA90F1BD5}"/>
+    <hyperlink ref="G43" location="enum!B2" display="enum!B2" xr:uid="{F52BF964-148D-4A46-98A8-5FF5A7E3615B}"/>
+    <hyperlink ref="G44" location="enum!B2" display="enum!B2" xr:uid="{BE733531-4E08-43B5-B8BD-0DC22DC09137}"/>
+    <hyperlink ref="G45" location="enum!B2" display="enum!B2" xr:uid="{058CA484-1761-4BAB-A9C4-3DD2D2F4784C}"/>
+    <hyperlink ref="G46" location="enum!B2" display="enum!B2" xr:uid="{AED9DEBF-3DEA-47FB-BB6E-0D7C9AFCB901}"/>
+    <hyperlink ref="G47" location="enum!B2" display="enum!B2" xr:uid="{52F8C632-4A0C-475A-B692-4856F520BBB8}"/>
+    <hyperlink ref="G48" location="enum!B2" display="enum!B2" xr:uid="{33CB8282-9F67-47F4-90FD-A6F50DBF7EA0}"/>
+    <hyperlink ref="G49" location="enum!B2" display="enum!B2" xr:uid="{9539A6E8-C972-417B-A1AE-A7BD49ADEEB6}"/>
+    <hyperlink ref="G50" location="enum!B2" display="enum!B2" xr:uid="{D6B58876-FE5D-4382-B4F5-CF39F2DD8E06}"/>
+    <hyperlink ref="G51" location="enum!B2" display="enum!B2" xr:uid="{ACAEAE6E-06C4-4A5C-9049-3EAF22F951CF}"/>
+    <hyperlink ref="G52" location="enum!B2" display="enum!B2" xr:uid="{7AA2BAEB-A2EE-4CD5-AE96-2D76B29D8440}"/>
+    <hyperlink ref="G53" location="enum!B2" display="enum!B2" xr:uid="{93F3E4A5-9F7C-4C1D-B464-34FF47568093}"/>
+    <hyperlink ref="G54" location="enum!B2" display="enum!B2" xr:uid="{2CA2CE6E-ECCD-4932-913A-6C3070C61E45}"/>
+    <hyperlink ref="G55" location="enum!B2" display="enum!B2" xr:uid="{2B876B5D-B2FF-4B00-A72D-E9165E99DF3C}"/>
+    <hyperlink ref="G56" location="enum!B2" display="enum!B2" xr:uid="{BFE353F9-0F6E-4C2C-998E-429DA1024B47}"/>
+    <hyperlink ref="G57" location="enum!B2" display="enum!B2" xr:uid="{F9ECC802-11C8-4DE9-82AA-AF0EDB6C3DE6}"/>
+    <hyperlink ref="G58" location="enum!B2" display="enum!B2" xr:uid="{C8B9B7DE-2571-407C-AE22-0E387D2C7E4E}"/>
+    <hyperlink ref="G59" location="enum!B2" display="enum!B2" xr:uid="{C9687D48-D4B1-499F-80D4-2066712E4C4D}"/>
+    <hyperlink ref="G60" location="enum!B2" display="enum!B2" xr:uid="{5E81F543-4F96-41EB-A177-372B3C87C47E}"/>
+    <hyperlink ref="G61" location="enum!B2" display="enum!B2" xr:uid="{CB80BAD5-379B-4BB5-B85C-05074F8CD7EA}"/>
+    <hyperlink ref="G62" location="enum!B2" display="enum!B2" xr:uid="{4E115D1C-665B-4027-AA92-4B9422ADA91E}"/>
+    <hyperlink ref="G63" location="enum!B2" display="enum!B2" xr:uid="{9162F7FC-55C6-43A5-8E36-9066C9DF0AF6}"/>
+    <hyperlink ref="G64" location="enum!B2" display="enum!B2" xr:uid="{1155B14A-907E-4288-B705-8879EC0172DC}"/>
+    <hyperlink ref="G65" location="enum!B2" display="enum!B2" xr:uid="{E4C9D445-E35E-4F34-BB5C-CC968839CC80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -8170,10 +8273,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E95C79-6986-417D-BB03-2118CBD6BA06}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -8190,19 +8293,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>25</v>
@@ -8219,7 +8322,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="str">
         <f>LoRa_System_Init!C3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>LoRa_System_Init!E3</f>
@@ -8236,7 +8339,7 @@
       </c>
       <c r="H3" s="5" t="str">
         <f>LoRa_System_Init!H3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="I3" s="6" t="str">
         <f>enum!C3</f>
@@ -8259,7 +8362,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G5" s="5" t="str">
         <f>LoRa_System_Init!G5</f>
@@ -8276,16 +8379,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" t="s">
         <v>182</v>
-      </c>
-      <c r="F6" t="s">
-        <v>183</v>
       </c>
       <c r="G6" s="5" t="str">
         <f>LoRa_System_Init!G6</f>
@@ -8323,13 +8426,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>192</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G8" s="5" t="str">
         <f>LoRa_System_Init!G8</f>
@@ -8358,12 +8461,12 @@
         <v>LoRa_HeaderBufor</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C10" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>44</v>
@@ -8372,7 +8475,7 @@
         <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G10" s="5" t="str">
         <f>LoRa_System_Init!G10</f>
@@ -8383,7 +8486,7 @@
         <v>LoRa_HeaderLength</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -8396,7 +8499,7 @@
         <v>LoRa_Bufor</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8418,7 +8521,7 @@
         <v>LoRa_BuforLength</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -8459,7 +8562,7 @@
         <v>LoRa_receiveChannelParameters.frequency</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8517,11 +8620,11 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" t="str">
-        <f>H55</f>
+        <f>H57</f>
         <v>watchdogTimerId;</v>
       </c>
       <c r="E19" s="2" t="str">
-        <f>I55</f>
+        <f>I57</f>
         <v>watchdogTimerTimeout</v>
       </c>
       <c r="G19" s="5">
@@ -8643,41 +8746,39 @@
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G27" s="5">
+      <c r="G27" s="5" t="str">
         <f>LoRa_System_Init!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
+        <v>LoRaStatus_t</v>
+      </c>
+      <c r="H27" s="5" t="str">
         <f>LoRa_System_Init!H27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <f>LoRa_System_Init!I27</f>
-        <v>0</v>
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G28" s="5">
+      <c r="G28" s="5" t="str">
         <f>LoRa_System_Init!G28</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="5">
+        <v>FCnt_t</v>
+      </c>
+      <c r="H28" s="5" t="str">
         <f>LoRa_System_Init!H28</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="8">
-        <f>LoRa_System_Init!I28</f>
-        <v>0</v>
+        <v>LoRa_Counnter</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G29" s="5" t="str">
+      <c r="G29" s="5">
         <f>LoRa_System_Init!G29</f>
-        <v>RADIO_Transmit</v>
-      </c>
-      <c r="H29" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
         <f>LoRa_System_Init!H29</f>
-        <v>LoRa_TxDone</v>
+        <v>0</v>
       </c>
       <c r="I29" s="8">
         <f>LoRa_System_Init!I29</f>
@@ -8685,13 +8786,13 @@
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G30" s="5" t="str">
+      <c r="G30" s="5">
         <f>LoRa_System_Init!G30</f>
-        <v>RADIO_RxDone</v>
-      </c>
-      <c r="H30" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <f>LoRa_System_Init!H30</f>
-        <v>LoRa_RxDone</v>
+        <v>0</v>
       </c>
       <c r="I30" s="8">
         <f>LoRa_System_Init!I30</f>
@@ -8699,13 +8800,13 @@
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G31" s="5">
+      <c r="G31" s="5" t="str">
         <f>LoRa_System_Init!G31</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="5">
+        <v>RADIO_Transmit</v>
+      </c>
+      <c r="H31" s="5" t="str">
         <f>LoRa_System_Init!H31</f>
-        <v>0</v>
+        <v>LoRa_TxDone</v>
       </c>
       <c r="I31" s="8">
         <f>LoRa_System_Init!I31</f>
@@ -8713,13 +8814,13 @@
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G32" s="5">
+      <c r="G32" s="5" t="str">
         <f>LoRa_System_Init!G32</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="5">
+        <v>RADIO_RxDone</v>
+      </c>
+      <c r="H32" s="5" t="str">
         <f>LoRa_System_Init!H32</f>
-        <v>0</v>
+        <v>LoRa_RxDone</v>
       </c>
       <c r="I32" s="8">
         <f>LoRa_System_Init!I32</f>
@@ -8727,30 +8828,31 @@
       </c>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G33" s="5" t="str">
+      <c r="G33" s="5">
         <f>LoRa_System_Init!G33</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H33" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
         <f>LoRa_System_Init!H33</f>
-        <v>frequency;</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>196</v>
+        <v>0</v>
+      </c>
+      <c r="I33" s="8">
+        <f>LoRa_System_Init!I33</f>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="5" t="str">
+      <c r="G34" s="5">
         <f>LoRa_System_Init!G34</f>
-        <v>uint32_t</v>
-      </c>
-      <c r="H34" s="5" t="str">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
         <f>LoRa_System_Init!H34</f>
-        <v>frequencyDeviation;</v>
+        <v>0</v>
       </c>
       <c r="I34" s="8">
         <f>LoRa_System_Init!I34</f>
-        <v>25000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.25">
@@ -8760,52 +8862,52 @@
       </c>
       <c r="H35" s="5" t="str">
         <f>LoRa_System_Init!H35</f>
-        <v>bitRate;</v>
-      </c>
-      <c r="I35" s="8">
-        <f>LoRa_System_Init!I35</f>
-        <v>50000</v>
+        <v>frequency;</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G36" s="5" t="str">
         <f>LoRa_System_Init!G36</f>
-        <v>uint16_t</v>
+        <v>uint32_t</v>
       </c>
       <c r="H36" s="5" t="str">
         <f>LoRa_System_Init!H36</f>
-        <v>preambleLen;</v>
+        <v>frequencyDeviation;</v>
       </c>
       <c r="I36" s="8">
         <f>LoRa_System_Init!I36</f>
-        <v>8</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G37" s="5" t="str">
         <f>LoRa_System_Init!G37</f>
-        <v>uint8_t</v>
+        <v>uint32_t</v>
       </c>
       <c r="H37" s="5" t="str">
         <f>LoRa_System_Init!H37</f>
-        <v>syncWordLoRa;</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>158</v>
+        <v>bitRate;</v>
+      </c>
+      <c r="I37" s="8">
+        <f>LoRa_System_Init!I37</f>
+        <v>50000</v>
       </c>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G38" s="5" t="str">
         <f>LoRa_System_Init!G38</f>
-        <v>uint8_t</v>
+        <v>uint16_t</v>
       </c>
       <c r="H38" s="5" t="str">
         <f>LoRa_System_Init!H38</f>
-        <v>syncWord[8];</v>
-      </c>
-      <c r="I38" s="8" t="str">
+        <v>preambleLen;</v>
+      </c>
+      <c r="I38" s="8">
         <f>LoRa_System_Init!I38</f>
-        <v>0xc1 0x94 0xc1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.25">
@@ -8815,103 +8917,103 @@
       </c>
       <c r="H39" s="5" t="str">
         <f>LoRa_System_Init!H39</f>
-        <v>syncWordLen;</v>
-      </c>
-      <c r="I39" s="8">
-        <f>LoRa_System_Init!I39</f>
-        <v>3</v>
+        <v>syncWordLoRa;</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G40" s="5" t="str">
         <f>LoRa_System_Init!G40</f>
-        <v>RadioModulation_t</v>
+        <v>uint8_t</v>
       </c>
       <c r="H40" s="5" t="str">
         <f>LoRa_System_Init!H40</f>
-        <v>modulation;</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>195</v>
+        <v>syncWord[8];</v>
+      </c>
+      <c r="I40" s="8" t="str">
+        <f>LoRa_System_Init!I40</f>
+        <v>0xc1 0x94 0xc1</v>
       </c>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G41" s="5" t="str">
         <f>LoRa_System_Init!G41</f>
-        <v>RadioDataRate_t</v>
+        <v>uint8_t</v>
       </c>
       <c r="H41" s="5" t="str">
         <f>LoRa_System_Init!H41</f>
-        <v>dataRate;</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>198</v>
+        <v>syncWordLen;</v>
+      </c>
+      <c r="I41" s="8">
+        <f>LoRa_System_Init!I41</f>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G42" s="5" t="str">
         <f>LoRa_System_Init!G42</f>
-        <v>RadioLoRaBandWidth_t</v>
+        <v>RadioModulation_t</v>
       </c>
       <c r="H42" s="5" t="str">
         <f>LoRa_System_Init!H42</f>
-        <v>bandWidth;</v>
+        <v>modulation;</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G43" s="5" t="str">
         <f>LoRa_System_Init!G43</f>
-        <v>int8_t</v>
+        <v>RadioDataRate_t</v>
       </c>
       <c r="H43" s="5" t="str">
         <f>LoRa_System_Init!H43</f>
-        <v>outputPower;</v>
+        <v>dataRate;</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G44" s="5" t="str">
         <f>LoRa_System_Init!G44</f>
-        <v>uint8_t</v>
+        <v>RadioLoRaBandWidth_t</v>
       </c>
       <c r="H44" s="5" t="str">
         <f>LoRa_System_Init!H44</f>
-        <v>crcOn;</v>
+        <v>bandWidth;</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G45" s="5" t="str">
         <f>LoRa_System_Init!G45</f>
-        <v>uint8_t</v>
+        <v>int8_t</v>
       </c>
       <c r="H45" s="5" t="str">
         <f>LoRa_System_Init!H45</f>
-        <v>paBoost;</v>
-      </c>
-      <c r="I45" s="8" t="str">
-        <f>LoRa_System_Init!I45</f>
-        <v>0</v>
+        <v>outputPower;</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G46" s="5" t="str">
         <f>LoRa_System_Init!G46</f>
-        <v>uint16_t</v>
+        <v>uint8_t</v>
       </c>
       <c r="H46" s="5" t="str">
         <f>LoRa_System_Init!H46</f>
-        <v>frequencyHopPeriod;</v>
+        <v>crcOn;</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>194</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="7:9" x14ac:dyDescent="0.25">
@@ -8921,24 +9023,24 @@
       </c>
       <c r="H47" s="5" t="str">
         <f>LoRa_System_Init!H47</f>
-        <v>iqInverted;</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>194</v>
+        <v>paBoost;</v>
+      </c>
+      <c r="I47" s="8" t="str">
+        <f>LoRa_System_Init!I47</f>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G48" s="5" t="str">
         <f>LoRa_System_Init!G48</f>
-        <v>RadioErrorCodingRate_t</v>
+        <v>uint16_t</v>
       </c>
       <c r="H48" s="5" t="str">
         <f>LoRa_System_Init!H48</f>
-        <v>errorCodingRate;</v>
-      </c>
-      <c r="I48" s="8" t="str">
-        <f>LoRa_System_Init!I48</f>
-        <v>CR_4_5</v>
+        <v>frequencyHopPeriod;</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="7:9" x14ac:dyDescent="0.25">
@@ -8948,25 +9050,24 @@
       </c>
       <c r="H49" s="5" t="str">
         <f>LoRa_System_Init!H49</f>
-        <v>implicitHeaderMode;</v>
-      </c>
-      <c r="I49" s="8" t="str">
-        <f>LoRa_System_Init!I49</f>
-        <v>0</v>
+        <v>iqInverted;</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G50" s="5" t="str">
         <f>LoRa_System_Init!G50</f>
-        <v>uint8_t</v>
+        <v>RadioErrorCodingRate_t</v>
       </c>
       <c r="H50" s="5" t="str">
         <f>LoRa_System_Init!H50</f>
-        <v>flags;</v>
+        <v>errorCodingRate;</v>
       </c>
       <c r="I50" s="8" t="str">
         <f>LoRa_System_Init!I50</f>
-        <v>0</v>
+        <v>CR_4_5</v>
       </c>
     </row>
     <row r="51" spans="7:9" x14ac:dyDescent="0.25">
@@ -8976,7 +9077,7 @@
       </c>
       <c r="H51" s="5" t="str">
         <f>LoRa_System_Init!H51</f>
-        <v>dataBufferLen;</v>
+        <v>implicitHeaderMode;</v>
       </c>
       <c r="I51" s="8" t="str">
         <f>LoRa_System_Init!I51</f>
@@ -8990,11 +9091,11 @@
       </c>
       <c r="H52" s="5" t="str">
         <f>LoRa_System_Init!H52</f>
-        <v>*dataBuffer;</v>
+        <v>flags;</v>
       </c>
       <c r="I52" s="8" t="str">
         <f>LoRa_System_Init!I52</f>
-        <v>&amp;radioBuffer[16]</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="7:9" x14ac:dyDescent="0.25">
@@ -9004,10 +9105,11 @@
       </c>
       <c r="H53" s="5" t="str">
         <f>LoRa_System_Init!H53</f>
-        <v>timeOnAirTimerId;</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>27</v>
+        <v>dataBufferLen;</v>
+      </c>
+      <c r="I53" s="8" t="str">
+        <f>LoRa_System_Init!I53</f>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="7:9" x14ac:dyDescent="0.25">
@@ -9017,11 +9119,11 @@
       </c>
       <c r="H54" s="5" t="str">
         <f>LoRa_System_Init!H54</f>
-        <v>fskRxWindowTimerId;</v>
+        <v>*dataBuffer;</v>
       </c>
       <c r="I54" s="8" t="str">
         <f>LoRa_System_Init!I54</f>
-        <v>RADIO_RxFSKTimeout</v>
+        <v>&amp;radioBuffer[16]</v>
       </c>
     </row>
     <row r="55" spans="7:9" x14ac:dyDescent="0.25">
@@ -9031,24 +9133,24 @@
       </c>
       <c r="H55" s="5" t="str">
         <f>LoRa_System_Init!H55</f>
-        <v>watchdogTimerId;</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>209</v>
+        <v>timeOnAirTimerId;</v>
+      </c>
+      <c r="I55" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="56" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G56" s="5" t="str">
         <f>LoRa_System_Init!G56</f>
-        <v>uint32_t</v>
+        <v>uint8_t</v>
       </c>
       <c r="H56" s="5" t="str">
         <f>LoRa_System_Init!H56</f>
-        <v>watchdogTimerTimeout;</v>
+        <v>fskRxWindowTimerId;</v>
       </c>
       <c r="I56" s="8" t="str">
         <f>LoRa_System_Init!I56</f>
-        <v>WATCHDOG_DEFAULT_TIME</v>
+        <v>RADIO_RxFSKTimeout</v>
       </c>
     </row>
     <row r="57" spans="7:9" x14ac:dyDescent="0.25">
@@ -9058,11 +9160,10 @@
       </c>
       <c r="H57" s="5" t="str">
         <f>LoRa_System_Init!H57</f>
-        <v>initialized;</v>
-      </c>
-      <c r="I57" s="8">
-        <f>LoRa_System_Init!I57</f>
-        <v>1</v>
+        <v>watchdogTimerId;</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="58" spans="7:9" x14ac:dyDescent="0.25">
@@ -9072,11 +9173,11 @@
       </c>
       <c r="H58" s="5" t="str">
         <f>LoRa_System_Init!H58</f>
-        <v>(*fhssNextFrequency)(void);</v>
+        <v>watchdogTimerTimeout;</v>
       </c>
       <c r="I58" s="8" t="str">
         <f>LoRa_System_Init!I58</f>
-        <v>NULL</v>
+        <v>WATCHDOG_DEFAULT_TIME</v>
       </c>
     </row>
     <row r="59" spans="7:9" x14ac:dyDescent="0.25">
@@ -9086,95 +9187,95 @@
       </c>
       <c r="H59" s="5" t="str">
         <f>LoRa_System_Init!H59</f>
-        <v>regVersion;</v>
-      </c>
-      <c r="I59" s="8" t="str">
+        <v>initialized;</v>
+      </c>
+      <c r="I59" s="8">
         <f>LoRa_System_Init!I59</f>
-        <v>RADIO_RegisterRead(REG_VERSION)</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G60" s="5" t="str">
         <f>LoRa_System_Init!G60</f>
-        <v>int8_t</v>
+        <v>uint32_t</v>
       </c>
       <c r="H60" s="5" t="str">
         <f>LoRa_System_Init!H60</f>
-        <v>packetSNR;</v>
-      </c>
-      <c r="I60" s="8">
+        <v>(*fhssNextFrequency)(void);</v>
+      </c>
+      <c r="I60" s="8" t="str">
         <f>LoRa_System_Init!I60</f>
-        <v>-128</v>
+        <v>NULL</v>
       </c>
     </row>
     <row r="61" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G61" s="5" t="str">
         <f>LoRa_System_Init!G61</f>
-        <v>RadioFSKShaping_t</v>
+        <v>uint8_t</v>
       </c>
       <c r="H61" s="5" t="str">
         <f>LoRa_System_Init!H61</f>
-        <v>fskDataShaping;</v>
+        <v>regVersion;</v>
       </c>
       <c r="I61" s="8" t="str">
         <f>LoRa_System_Init!I61</f>
-        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+        <v>RADIO_RegisterRead(REG_VERSION)</v>
       </c>
     </row>
     <row r="62" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G62" s="5" t="str">
         <f>LoRa_System_Init!G62</f>
-        <v>RadioFSKBandWidth_t</v>
+        <v>int8_t</v>
       </c>
       <c r="H62" s="5" t="str">
         <f>LoRa_System_Init!H62</f>
-        <v>rxBw;</v>
-      </c>
-      <c r="I62" s="8" t="str">
+        <v>packetSNR;</v>
+      </c>
+      <c r="I62" s="8">
         <f>LoRa_System_Init!I62</f>
-        <v>FSKBW_50_0KHZ</v>
+        <v>-128</v>
       </c>
     </row>
     <row r="63" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G63" s="5" t="str">
         <f>LoRa_System_Init!G63</f>
-        <v>RadioFSKBandWidth_t</v>
+        <v>RadioFSKShaping_t</v>
       </c>
       <c r="H63" s="5" t="str">
         <f>LoRa_System_Init!H63</f>
-        <v>afcBw;</v>
+        <v>fskDataShaping;</v>
       </c>
       <c r="I63" s="8" t="str">
         <f>LoRa_System_Init!I63</f>
+        <v>FSK_SHAPING_GAUSS_BT_0_5</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G64" s="5" t="str">
+        <f>LoRa_System_Init!G64</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f>LoRa_System_Init!H64</f>
+        <v>rxBw;</v>
+      </c>
+      <c r="I64" s="8" t="str">
+        <f>LoRa_System_Init!I64</f>
+        <v>FSKBW_50_0KHZ</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65" s="5" t="str">
+        <f>LoRa_System_Init!G65</f>
+        <v>RadioFSKBandWidth_t</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f>LoRa_System_Init!H65</f>
+        <v>afcBw;</v>
+      </c>
+      <c r="I65" s="8" t="str">
+        <f>LoRa_System_Init!I65</f>
         <v>FSKBW_83_3KHZ</v>
-      </c>
-    </row>
-    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G64" s="5">
-        <f>LoRa_System_Init!G64</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="5">
-        <f>LoRa_System_Init!H64</f>
-        <v>0</v>
-      </c>
-      <c r="I64" s="8">
-        <f>LoRa_System_Init!I64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G65" s="5">
-        <f>LoRa_System_Init!G65</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="5">
-        <f>LoRa_System_Init!H65</f>
-        <v>0</v>
-      </c>
-      <c r="I65" s="8">
-        <f>LoRa_System_Init!I65</f>
-        <v>0</v>
       </c>
     </row>
     <row r="66" spans="7:9" x14ac:dyDescent="0.25">
@@ -9192,86 +9293,86 @@
       </c>
     </row>
     <row r="67" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G67" s="5" t="str">
+      <c r="G67" s="5">
         <f>LoRa_System_Init!G67</f>
+        <v>0</v>
+      </c>
+      <c r="H67" s="5">
+        <f>LoRa_System_Init!H67</f>
+        <v>0</v>
+      </c>
+      <c r="I67" s="8">
+        <f>LoRa_System_Init!I67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G68" s="5">
+        <f>LoRa_System_Init!G68</f>
+        <v>0</v>
+      </c>
+      <c r="H68" s="5">
+        <f>LoRa_System_Init!H68</f>
+        <v>0</v>
+      </c>
+      <c r="I68" s="8">
+        <f>LoRa_System_Init!I68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G69" s="5" t="str">
+        <f>LoRa_System_Init!G69</f>
         <v>ChannelParams_t</v>
       </c>
-      <c r="H67" s="5" t="str">
-        <f>LoRa_System_Init!H67</f>
+      <c r="H69" s="5" t="str">
+        <f>LoRa_System_Init!H69</f>
         <v>Channels</v>
       </c>
-      <c r="I67" s="8" t="str">
-        <f>LoRa_System_Init!I67</f>
+      <c r="I69" s="8" t="str">
+        <f>LoRa_System_Init!I69</f>
         <v>DefaultChannels868[]</v>
       </c>
     </row>
-    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G68" s="5" t="str">
-        <f>LoRa_System_Init!G68</f>
-        <v>uint8_t</v>
-      </c>
-      <c r="H68" s="5" t="str">
-        <f>LoRa_System_Init!H68</f>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G70" s="5" t="str">
+        <f>LoRa_System_Init!G70</f>
+        <v>uint8_t</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f>LoRa_System_Init!H70</f>
         <v>maxPayloadSize[]</v>
       </c>
-      <c r="I68" s="8" t="str">
-        <f>LoRa_System_Init!I68</f>
+      <c r="I70" s="8" t="str">
+        <f>LoRa_System_Init!I70</f>
         <v>array</v>
-      </c>
-    </row>
-    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G69" s="5">
-        <f>LoRa_System_Init!G69</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="5">
-        <f>LoRa_System_Init!H69</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="8">
-        <f>LoRa_System_Init!I69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G70" s="5">
-        <f>LoRa_System_Init!G70</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="5">
-        <f>LoRa_System_Init!H70</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="8">
-        <f>LoRa_System_Init!I70</f>
-        <v>0</v>
       </c>
     </row>
     <row r="71" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G71" s="5">
-        <f>LoRa_System_Init!G72</f>
+        <f>LoRa_System_Init!G71</f>
         <v>0</v>
       </c>
       <c r="H71" s="5">
-        <f>LoRa_System_Init!H72</f>
+        <f>LoRa_System_Init!H71</f>
         <v>0</v>
       </c>
       <c r="I71" s="8">
-        <f>LoRa_System_Init!I72</f>
+        <f>LoRa_System_Init!I71</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="7:9" x14ac:dyDescent="0.25">
       <c r="G72" s="5">
-        <f>LoRa_System_Init!G73</f>
+        <f>LoRa_System_Init!G72</f>
         <v>0</v>
       </c>
       <c r="H72" s="5">
-        <f>LoRa_System_Init!H73</f>
+        <f>LoRa_System_Init!H72</f>
         <v>0</v>
       </c>
       <c r="I72" s="8">
-        <f>LoRa_System_Init!I73</f>
+        <f>LoRa_System_Init!I72</f>
         <v>0</v>
       </c>
     </row>
@@ -9286,6 +9387,34 @@
       </c>
       <c r="I73" s="8">
         <f>LoRa_System_Init!I74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G74" s="5">
+        <f>LoRa_System_Init!G75</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="5">
+        <f>LoRa_System_Init!H75</f>
+        <v>0</v>
+      </c>
+      <c r="I74" s="8">
+        <f>LoRa_System_Init!I75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G75" s="5">
+        <f>LoRa_System_Init!G76</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="5">
+        <f>LoRa_System_Init!H76</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="8">
+        <f>LoRa_System_Init!I76</f>
         <v>0</v>
       </c>
     </row>
@@ -9344,7 +9473,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="str">
         <f>LoRa_System_Init!C3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>LoRa_Send!E3</f>
@@ -9361,7 +9490,7 @@
       </c>
       <c r="H3" s="5" t="str">
         <f>LoRa_Send!H3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="I3" s="6" t="str">
         <f>enum!C4</f>
@@ -9392,7 +9521,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G5" s="5" t="str">
         <f>LoRa_Send!G5</f>
@@ -9737,7 +9866,7 @@
         <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G21" s="5" t="str">
         <f>LoRa_Send!G21</f>
@@ -9847,17 +9976,17 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="5">
+      <c r="G27" s="5" t="str">
         <f>LoRa_Send!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
+        <v>LoRaStatus_t</v>
+      </c>
+      <c r="H27" s="5" t="str">
         <f>LoRa_Send!H27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="I27" s="8" t="str">
         <f>LoRa_Send!I27</f>
-        <v>0</v>
+        <v>LoRa_transmiting</v>
       </c>
       <c r="J27" s="5">
         <f>LoRa_Send!J27</f>
@@ -9866,824 +9995,824 @@
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G28" s="5">
-        <f>LoRa_Send!G28</f>
+        <f>LoRa_Send!G30</f>
         <v>0</v>
       </c>
       <c r="H28" s="5">
-        <f>LoRa_Send!H28</f>
+        <f>LoRa_Send!H30</f>
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <f>LoRa_Send!I28</f>
+        <f>LoRa_Send!I30</f>
         <v>0</v>
       </c>
       <c r="J28" s="5">
-        <f>LoRa_Send!J28</f>
+        <f>LoRa_Send!J30</f>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G29" s="5" t="str">
-        <f>LoRa_Send!G29</f>
+        <f>LoRa_Send!G31</f>
         <v>RADIO_Transmit</v>
       </c>
       <c r="H29" s="5" t="str">
-        <f>LoRa_Send!H29</f>
+        <f>LoRa_Send!H31</f>
         <v>LoRa_TxDone</v>
       </c>
       <c r="I29" s="8">
-        <f>LoRa_Send!I29</f>
+        <f>LoRa_Send!I31</f>
         <v>0</v>
       </c>
       <c r="J29" s="5">
-        <f>LoRa_Send!J29</f>
+        <f>LoRa_Send!J31</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G30" s="5" t="str">
-        <f>LoRa_Send!G30</f>
+        <f>LoRa_Send!G32</f>
         <v>RADIO_RxDone</v>
       </c>
       <c r="H30" s="5" t="str">
-        <f>LoRa_Send!H30</f>
+        <f>LoRa_Send!H32</f>
         <v>LoRa_RxDone</v>
       </c>
       <c r="I30" s="8">
-        <f>LoRa_Send!I30</f>
+        <f>LoRa_Send!I32</f>
         <v>0</v>
       </c>
       <c r="J30" s="5">
-        <f>LoRa_Send!J30</f>
+        <f>LoRa_Send!J32</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G31" s="5">
-        <f>LoRa_Send!G31</f>
+        <f>LoRa_Send!G33</f>
         <v>0</v>
       </c>
       <c r="H31" s="5">
-        <f>LoRa_Send!H31</f>
+        <f>LoRa_Send!H33</f>
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <f>LoRa_Send!I31</f>
+        <f>LoRa_Send!I33</f>
         <v>0</v>
       </c>
       <c r="J31" s="5">
-        <f>LoRa_Send!J31</f>
+        <f>LoRa_Send!J33</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G32" s="5">
-        <f>LoRa_Send!G32</f>
+        <f>LoRa_Send!G34</f>
         <v>0</v>
       </c>
       <c r="H32" s="5">
-        <f>LoRa_Send!H32</f>
+        <f>LoRa_Send!H34</f>
         <v>0</v>
       </c>
       <c r="I32" s="8">
-        <f>LoRa_Send!I32</f>
+        <f>LoRa_Send!I34</f>
         <v>0</v>
       </c>
       <c r="J32" s="5">
-        <f>LoRa_Send!J32</f>
+        <f>LoRa_Send!J34</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G33" s="5" t="str">
-        <f>LoRa_Send!G33</f>
+        <f>LoRa_Send!G35</f>
         <v>uint32_t</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f>LoRa_Send!H33</f>
+        <f>LoRa_Send!H35</f>
         <v>frequency;</v>
       </c>
       <c r="I33" s="8" t="str">
-        <f>LoRa_Send!I33</f>
+        <f>LoRa_Send!I35</f>
         <v>freq</v>
       </c>
       <c r="J33" s="5">
-        <f>LoRa_Send!J33</f>
+        <f>LoRa_Send!J35</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G34" s="5" t="str">
-        <f>LoRa_Send!G34</f>
+        <f>LoRa_Send!G36</f>
         <v>uint32_t</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f>LoRa_Send!H34</f>
+        <f>LoRa_Send!H36</f>
         <v>frequencyDeviation;</v>
       </c>
       <c r="I34" s="8">
-        <f>LoRa_Send!I34</f>
+        <f>LoRa_Send!I36</f>
         <v>25000</v>
       </c>
       <c r="J34" s="5">
-        <f>LoRa_Send!J34</f>
+        <f>LoRa_Send!J36</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G35" s="5" t="str">
-        <f>LoRa_Send!G35</f>
+        <f>LoRa_Send!G37</f>
         <v>uint32_t</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f>LoRa_Send!H35</f>
+        <f>LoRa_Send!H37</f>
         <v>bitRate;</v>
       </c>
       <c r="I35" s="8">
-        <f>LoRa_Send!I35</f>
+        <f>LoRa_Send!I37</f>
         <v>50000</v>
       </c>
       <c r="J35" s="5">
-        <f>LoRa_Send!J35</f>
+        <f>LoRa_Send!J37</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G36" s="5" t="str">
-        <f>LoRa_Send!G36</f>
+        <f>LoRa_Send!G38</f>
         <v>uint16_t</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f>LoRa_Send!H36</f>
+        <f>LoRa_Send!H38</f>
         <v>preambleLen;</v>
       </c>
       <c r="I36" s="8">
-        <f>LoRa_Send!I36</f>
+        <f>LoRa_Send!I38</f>
         <v>8</v>
       </c>
       <c r="J36" s="5">
-        <f>LoRa_Send!J36</f>
+        <f>LoRa_Send!J38</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G37" s="5" t="str">
-        <f>LoRa_Send!G37</f>
+        <f>LoRa_Send!G39</f>
         <v>uint8_t</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f>LoRa_Send!H37</f>
+        <f>LoRa_Send!H39</f>
         <v>syncWordLoRa;</v>
       </c>
       <c r="I37" s="8" t="str">
-        <f>LoRa_Send!I37</f>
+        <f>LoRa_Send!I39</f>
         <v>LoRa_syncWord</v>
       </c>
       <c r="J37" s="5">
-        <f>LoRa_Send!J37</f>
+        <f>LoRa_Send!J39</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G38" s="5" t="str">
-        <f>LoRa_Send!G38</f>
+        <f>LoRa_Send!G40</f>
         <v>uint8_t</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f>LoRa_Send!H38</f>
+        <f>LoRa_Send!H40</f>
         <v>syncWord[8];</v>
       </c>
       <c r="I38" s="8" t="str">
-        <f>LoRa_Send!I38</f>
+        <f>LoRa_Send!I40</f>
         <v>0xc1 0x94 0xc1</v>
       </c>
       <c r="J38" s="5">
-        <f>LoRa_Send!J38</f>
+        <f>LoRa_Send!J40</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G39" s="5" t="str">
-        <f>LoRa_Send!G39</f>
+        <f>LoRa_Send!G41</f>
         <v>uint8_t</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f>LoRa_Send!H39</f>
+        <f>LoRa_Send!H41</f>
         <v>syncWordLen;</v>
       </c>
       <c r="I39" s="8">
-        <f>LoRa_Send!I39</f>
+        <f>LoRa_Send!I41</f>
         <v>3</v>
       </c>
       <c r="J39" s="5">
-        <f>LoRa_Send!J39</f>
+        <f>LoRa_Send!J41</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G40" s="5" t="str">
-        <f>LoRa_Send!G40</f>
+        <f>LoRa_Send!G42</f>
         <v>RadioModulation_t</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f>LoRa_Send!H40</f>
+        <f>LoRa_Send!H42</f>
         <v>modulation;</v>
       </c>
       <c r="I40" s="8" t="str">
-        <f>LoRa_Send!I40</f>
+        <f>LoRa_Send!I42</f>
         <v>modulation[dataRate]</v>
       </c>
       <c r="J40" s="5">
-        <f>LoRa_Send!J40</f>
+        <f>LoRa_Send!J42</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G41" s="5" t="str">
-        <f>LoRa_Send!G41</f>
+        <f>LoRa_Send!G43</f>
         <v>RadioDataRate_t</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f>LoRa_Send!H41</f>
+        <f>LoRa_Send!H43</f>
         <v>dataRate;</v>
       </c>
       <c r="I41" s="8" t="str">
-        <f>LoRa_Send!I41</f>
+        <f>LoRa_Send!I43</f>
         <v>spreadingFactor[dataRate]</v>
       </c>
       <c r="J41" s="5">
-        <f>LoRa_Send!J41</f>
+        <f>LoRa_Send!J43</f>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G42" s="5" t="str">
-        <f>LoRa_Send!G42</f>
+        <f>LoRa_Send!G44</f>
         <v>RadioLoRaBandWidth_t</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f>LoRa_Send!H42</f>
+        <f>LoRa_Send!H44</f>
         <v>bandWidth;</v>
       </c>
       <c r="I42" s="8" t="str">
-        <f>LoRa_Send!I42</f>
+        <f>LoRa_Send!I44</f>
         <v>bandwidth[dataRate]</v>
       </c>
       <c r="J42" s="5">
-        <f>LoRa_Send!J42</f>
+        <f>LoRa_Send!J44</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G43" s="5" t="str">
-        <f>LoRa_Send!G43</f>
+        <f>LoRa_Send!G45</f>
         <v>int8_t</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f>LoRa_Send!H43</f>
+        <f>LoRa_Send!H45</f>
         <v>outputPower;</v>
       </c>
       <c r="I43" s="8" t="str">
-        <f>LoRa_Send!I43</f>
+        <f>LoRa_Send!I45</f>
         <v>txPower868[LoRa_txPower]</v>
       </c>
       <c r="J43" s="5">
-        <f>LoRa_Send!J43</f>
+        <f>LoRa_Send!J45</f>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G44" s="5" t="str">
-        <f>LoRa_Send!G44</f>
+        <f>LoRa_Send!G46</f>
         <v>uint8_t</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f>LoRa_Send!H44</f>
+        <f>LoRa_Send!H46</f>
         <v>crcOn;</v>
       </c>
       <c r="I44" s="8" t="str">
-        <f>LoRa_Send!I44</f>
+        <f>LoRa_Send!I46</f>
         <v>ENABLED</v>
       </c>
       <c r="J44" s="5">
-        <f>LoRa_Send!J44</f>
+        <f>LoRa_Send!J46</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G45" s="5" t="str">
-        <f>LoRa_Send!G45</f>
+        <f>LoRa_Send!G47</f>
         <v>uint8_t</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f>LoRa_Send!H45</f>
+        <f>LoRa_Send!H47</f>
         <v>paBoost;</v>
       </c>
       <c r="I45" s="8" t="str">
-        <f>LoRa_Send!I45</f>
+        <f>LoRa_Send!I47</f>
         <v>0</v>
       </c>
       <c r="J45" s="5">
-        <f>LoRa_Send!J45</f>
+        <f>LoRa_Send!J47</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G46" s="5" t="str">
-        <f>LoRa_Send!G46</f>
+        <f>LoRa_Send!G48</f>
         <v>uint16_t</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f>LoRa_Send!H46</f>
+        <f>LoRa_Send!H48</f>
         <v>frequencyHopPeriod;</v>
       </c>
       <c r="I46" s="8" t="str">
-        <f>LoRa_Send!I46</f>
+        <f>LoRa_Send!I48</f>
         <v>DISABLED</v>
       </c>
       <c r="J46" s="5">
-        <f>LoRa_Send!J46</f>
+        <f>LoRa_Send!J48</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G47" s="5" t="str">
-        <f>LoRa_Send!G47</f>
+        <f>LoRa_Send!G49</f>
         <v>uint8_t</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f>LoRa_Send!H47</f>
+        <f>LoRa_Send!H49</f>
         <v>iqInverted;</v>
       </c>
       <c r="I47" s="8" t="str">
-        <f>LoRa_Send!I47</f>
+        <f>LoRa_Send!I49</f>
         <v>DISABLED</v>
       </c>
       <c r="J47" s="5">
-        <f>LoRa_Send!J47</f>
+        <f>LoRa_Send!J49</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G48" s="5" t="str">
-        <f>LoRa_Send!G48</f>
+        <f>LoRa_Send!G50</f>
         <v>RadioErrorCodingRate_t</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f>LoRa_Send!H48</f>
+        <f>LoRa_Send!H50</f>
         <v>errorCodingRate;</v>
       </c>
       <c r="I48" s="8" t="str">
-        <f>LoRa_Send!I48</f>
+        <f>LoRa_Send!I50</f>
         <v>CR_4_5</v>
       </c>
       <c r="J48" s="5">
-        <f>LoRa_Send!J48</f>
+        <f>LoRa_Send!J50</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G49" s="5" t="str">
-        <f>LoRa_Send!G49</f>
+        <f>LoRa_Send!G51</f>
         <v>uint8_t</v>
       </c>
       <c r="H49" s="5" t="str">
-        <f>LoRa_Send!H49</f>
+        <f>LoRa_Send!H51</f>
         <v>implicitHeaderMode;</v>
       </c>
       <c r="I49" s="8" t="str">
-        <f>LoRa_Send!I49</f>
+        <f>LoRa_Send!I51</f>
         <v>0</v>
       </c>
       <c r="J49" s="5">
-        <f>LoRa_Send!J49</f>
+        <f>LoRa_Send!J51</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G50" s="5" t="str">
-        <f>LoRa_Send!G50</f>
+        <f>LoRa_Send!G52</f>
         <v>uint8_t</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f>LoRa_Send!H50</f>
+        <f>LoRa_Send!H52</f>
         <v>flags;</v>
       </c>
       <c r="I50" s="8" t="str">
-        <f>LoRa_Send!I50</f>
+        <f>LoRa_Send!I52</f>
         <v>0</v>
       </c>
       <c r="J50" s="5">
-        <f>LoRa_Send!J50</f>
+        <f>LoRa_Send!J52</f>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G51" s="5" t="str">
-        <f>LoRa_Send!G51</f>
+        <f>LoRa_Send!G53</f>
         <v>uint8_t</v>
       </c>
       <c r="H51" s="5" t="str">
-        <f>LoRa_Send!H51</f>
+        <f>LoRa_Send!H53</f>
         <v>dataBufferLen;</v>
       </c>
       <c r="I51" s="8" t="str">
-        <f>LoRa_Send!I51</f>
+        <f>LoRa_Send!I53</f>
         <v>0</v>
       </c>
       <c r="J51" s="5">
-        <f>LoRa_Send!J51</f>
+        <f>LoRa_Send!J53</f>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G52" s="5" t="str">
-        <f>LoRa_Send!G52</f>
+        <f>LoRa_Send!G54</f>
         <v>uint8_t</v>
       </c>
       <c r="H52" s="5" t="str">
-        <f>LoRa_Send!H52</f>
+        <f>LoRa_Send!H54</f>
         <v>*dataBuffer;</v>
       </c>
       <c r="I52" s="8" t="str">
-        <f>LoRa_Send!I52</f>
+        <f>LoRa_Send!I54</f>
         <v>&amp;radioBuffer[16]</v>
       </c>
       <c r="J52" s="5">
-        <f>LoRa_Send!J52</f>
+        <f>LoRa_Send!J54</f>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G53" s="5" t="str">
-        <f>LoRa_Send!G53</f>
+        <f>LoRa_Send!G55</f>
         <v>uint8_t</v>
       </c>
       <c r="H53" s="5" t="str">
-        <f>LoRa_Send!H53</f>
+        <f>LoRa_Send!H55</f>
         <v>timeOnAirTimerId;</v>
       </c>
       <c r="I53" s="8" t="str">
-        <f>LoRa_Send!I53</f>
+        <f>LoRa_Send!I55</f>
         <v>TIME_ON_AIR_LOAD_VALUE</v>
       </c>
       <c r="J53" s="5">
-        <f>LoRa_Send!J53</f>
+        <f>LoRa_Send!J55</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G54" s="5" t="str">
-        <f>LoRa_Send!G54</f>
+        <f>LoRa_Send!G56</f>
         <v>uint8_t</v>
       </c>
       <c r="H54" s="5" t="str">
-        <f>LoRa_Send!H54</f>
+        <f>LoRa_Send!H56</f>
         <v>fskRxWindowTimerId;</v>
       </c>
       <c r="I54" s="6" t="str">
-        <f>LoRa_Send!I54</f>
+        <f>LoRa_Send!I56</f>
         <v>RADIO_RxFSKTimeout</v>
       </c>
       <c r="J54" s="5">
-        <f>LoRa_Send!J54</f>
+        <f>LoRa_Send!J56</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G55" s="5" t="str">
-        <f>LoRa_Send!G55</f>
+        <f>LoRa_Send!G57</f>
         <v>uint8_t</v>
       </c>
       <c r="H55" s="5" t="str">
-        <f>LoRa_Send!H55</f>
+        <f>LoRa_Send!H57</f>
         <v>watchdogTimerId;</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J55" s="5">
-        <f>LoRa_Send!J55</f>
+        <f>LoRa_Send!J57</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G56" s="5" t="str">
-        <f>LoRa_Send!G56</f>
+        <f>LoRa_Send!G58</f>
         <v>uint32_t</v>
       </c>
       <c r="H56" s="5" t="str">
-        <f>LoRa_Send!H56</f>
+        <f>LoRa_Send!H58</f>
         <v>watchdogTimerTimeout;</v>
       </c>
       <c r="I56" s="8" t="str">
-        <f>LoRa_Send!I56</f>
+        <f>LoRa_Send!I58</f>
         <v>WATCHDOG_DEFAULT_TIME</v>
       </c>
       <c r="J56" s="5">
-        <f>LoRa_Send!J56</f>
+        <f>LoRa_Send!J58</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G57" s="5" t="str">
-        <f>LoRa_Send!G57</f>
+        <f>LoRa_Send!G59</f>
         <v>uint8_t</v>
       </c>
       <c r="H57" s="5" t="str">
-        <f>LoRa_Send!H57</f>
+        <f>LoRa_Send!H59</f>
         <v>initialized;</v>
       </c>
       <c r="I57" s="8">
-        <f>LoRa_Send!I57</f>
+        <f>LoRa_Send!I59</f>
         <v>1</v>
       </c>
       <c r="J57" s="5">
-        <f>LoRa_Send!J57</f>
+        <f>LoRa_Send!J59</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G58" s="5" t="str">
-        <f>LoRa_Send!G58</f>
+        <f>LoRa_Send!G60</f>
         <v>uint32_t</v>
       </c>
       <c r="H58" s="5" t="str">
-        <f>LoRa_Send!H58</f>
+        <f>LoRa_Send!H60</f>
         <v>(*fhssNextFrequency)(void);</v>
       </c>
       <c r="I58" s="8" t="str">
-        <f>LoRa_Send!I58</f>
+        <f>LoRa_Send!I60</f>
         <v>NULL</v>
       </c>
       <c r="J58" s="5">
-        <f>LoRa_Send!J58</f>
+        <f>LoRa_Send!J60</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G59" s="5" t="str">
-        <f>LoRa_Send!G59</f>
+        <f>LoRa_Send!G61</f>
         <v>uint8_t</v>
       </c>
       <c r="H59" s="5" t="str">
-        <f>LoRa_Send!H59</f>
+        <f>LoRa_Send!H61</f>
         <v>regVersion;</v>
       </c>
       <c r="I59" s="8" t="str">
-        <f>LoRa_Send!I59</f>
+        <f>LoRa_Send!I61</f>
         <v>RADIO_RegisterRead(REG_VERSION)</v>
       </c>
       <c r="J59" s="5">
-        <f>LoRa_Send!J59</f>
+        <f>LoRa_Send!J61</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G60" s="5" t="str">
-        <f>LoRa_Send!G60</f>
+        <f>LoRa_Send!G62</f>
         <v>int8_t</v>
       </c>
       <c r="H60" s="5" t="str">
-        <f>LoRa_Send!H60</f>
+        <f>LoRa_Send!H62</f>
         <v>packetSNR;</v>
       </c>
       <c r="I60" s="8">
-        <f>LoRa_Send!I60</f>
+        <f>LoRa_Send!I62</f>
         <v>-128</v>
       </c>
       <c r="J60" s="5">
-        <f>LoRa_Send!J60</f>
+        <f>LoRa_Send!J62</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G61" s="5" t="str">
-        <f>LoRa_Send!G61</f>
+        <f>LoRa_Send!G63</f>
         <v>RadioFSKShaping_t</v>
       </c>
       <c r="H61" s="5" t="str">
-        <f>LoRa_Send!H61</f>
+        <f>LoRa_Send!H63</f>
         <v>fskDataShaping;</v>
       </c>
       <c r="I61" s="8" t="str">
-        <f>LoRa_Send!I61</f>
+        <f>LoRa_Send!I63</f>
         <v>FSK_SHAPING_GAUSS_BT_0_5</v>
       </c>
       <c r="J61" s="5">
-        <f>LoRa_Send!J61</f>
+        <f>LoRa_Send!J63</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G62" s="5" t="str">
-        <f>LoRa_Send!G62</f>
+        <f>LoRa_Send!G64</f>
         <v>RadioFSKBandWidth_t</v>
       </c>
       <c r="H62" s="5" t="str">
-        <f>LoRa_Send!H62</f>
+        <f>LoRa_Send!H64</f>
         <v>rxBw;</v>
       </c>
       <c r="I62" s="8" t="str">
-        <f>LoRa_Send!I62</f>
+        <f>LoRa_Send!I64</f>
         <v>FSKBW_50_0KHZ</v>
       </c>
       <c r="J62" s="5">
-        <f>LoRa_Send!J62</f>
+        <f>LoRa_Send!J64</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G63" s="5" t="str">
-        <f>LoRa_Send!G63</f>
+        <f>LoRa_Send!G65</f>
         <v>RadioFSKBandWidth_t</v>
       </c>
       <c r="H63" s="5" t="str">
-        <f>LoRa_Send!H63</f>
+        <f>LoRa_Send!H65</f>
         <v>afcBw;</v>
       </c>
       <c r="I63" s="8" t="str">
-        <f>LoRa_Send!I63</f>
+        <f>LoRa_Send!I65</f>
         <v>FSKBW_83_3KHZ</v>
       </c>
       <c r="J63" s="5">
-        <f>LoRa_Send!J63</f>
+        <f>LoRa_Send!J65</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G64" s="5">
-        <f>LoRa_Send!G64</f>
+        <f>LoRa_Send!G66</f>
         <v>0</v>
       </c>
       <c r="H64" s="5">
-        <f>LoRa_Send!H64</f>
+        <f>LoRa_Send!H66</f>
         <v>0</v>
       </c>
       <c r="I64" s="8">
-        <f>LoRa_Send!I64</f>
+        <f>LoRa_Send!I66</f>
         <v>0</v>
       </c>
       <c r="J64" s="5">
-        <f>LoRa_Send!J64</f>
+        <f>LoRa_Send!J66</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G65" s="5">
-        <f>LoRa_Send!G65</f>
+        <f>LoRa_Send!G67</f>
         <v>0</v>
       </c>
       <c r="H65" s="5">
-        <f>LoRa_Send!H65</f>
+        <f>LoRa_Send!H67</f>
         <v>0</v>
       </c>
       <c r="I65" s="8">
-        <f>LoRa_Send!I65</f>
+        <f>LoRa_Send!I67</f>
         <v>0</v>
       </c>
       <c r="J65" s="5">
-        <f>LoRa_Send!J65</f>
+        <f>LoRa_Send!J67</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G66" s="5">
-        <f>LoRa_Send!G66</f>
+        <f>LoRa_Send!G68</f>
         <v>0</v>
       </c>
       <c r="H66" s="5">
-        <f>LoRa_Send!H66</f>
+        <f>LoRa_Send!H68</f>
         <v>0</v>
       </c>
       <c r="I66" s="8">
-        <f>LoRa_Send!I66</f>
+        <f>LoRa_Send!I68</f>
         <v>0</v>
       </c>
       <c r="J66" s="5">
-        <f>LoRa_Send!J66</f>
+        <f>LoRa_Send!J68</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G67" s="5" t="str">
-        <f>LoRa_Send!G67</f>
+        <f>LoRa_Send!G69</f>
         <v>ChannelParams_t</v>
       </c>
       <c r="H67" s="5" t="str">
-        <f>LoRa_Send!H67</f>
+        <f>LoRa_Send!H69</f>
         <v>Channels</v>
       </c>
       <c r="I67" s="8" t="str">
-        <f>LoRa_Send!I67</f>
+        <f>LoRa_Send!I69</f>
         <v>DefaultChannels868[]</v>
       </c>
       <c r="J67" s="5">
-        <f>LoRa_Send!J67</f>
+        <f>LoRa_Send!J69</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G68" s="5" t="str">
-        <f>LoRa_Send!G68</f>
+        <f>LoRa_Send!G70</f>
         <v>uint8_t</v>
       </c>
       <c r="H68" s="5" t="str">
-        <f>LoRa_Send!H68</f>
+        <f>LoRa_Send!H70</f>
         <v>maxPayloadSize[]</v>
       </c>
       <c r="I68" s="8" t="str">
-        <f>LoRa_Send!I68</f>
+        <f>LoRa_Send!I70</f>
         <v>array</v>
       </c>
       <c r="J68" s="5">
-        <f>LoRa_Send!J68</f>
+        <f>LoRa_Send!J70</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G69" s="5">
-        <f>LoRa_Send!G69</f>
+        <f>LoRa_Send!G71</f>
         <v>0</v>
       </c>
       <c r="H69" s="5">
-        <f>LoRa_Send!H69</f>
+        <f>LoRa_Send!H71</f>
         <v>0</v>
       </c>
       <c r="I69" s="8">
-        <f>LoRa_Send!I69</f>
+        <f>LoRa_Send!I71</f>
         <v>0</v>
       </c>
       <c r="J69" s="5">
-        <f>LoRa_Send!J69</f>
+        <f>LoRa_Send!J71</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G70" s="5">
-        <f>LoRa_Send!G70</f>
+        <f>LoRa_Send!G72</f>
         <v>0</v>
       </c>
       <c r="H70" s="5">
-        <f>LoRa_Send!H70</f>
+        <f>LoRa_Send!H72</f>
         <v>0</v>
       </c>
       <c r="I70" s="8">
-        <f>LoRa_Send!I70</f>
+        <f>LoRa_Send!I72</f>
         <v>0</v>
       </c>
       <c r="J70" s="5">
-        <f>LoRa_Send!J70</f>
+        <f>LoRa_Send!J72</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G71" s="5">
-        <f>LoRa_Send!G71</f>
+        <f>LoRa_Send!G73</f>
         <v>0</v>
       </c>
       <c r="H71" s="5">
-        <f>LoRa_Send!H71</f>
+        <f>LoRa_Send!H73</f>
         <v>0</v>
       </c>
       <c r="I71" s="8">
-        <f>LoRa_Send!I71</f>
+        <f>LoRa_Send!I73</f>
         <v>0</v>
       </c>
       <c r="J71" s="5">
-        <f>LoRa_Send!J71</f>
+        <f>LoRa_Send!J73</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72" s="5">
-        <f>LoRa_Send!G72</f>
+        <f>LoRa_Send!G74</f>
         <v>0</v>
       </c>
       <c r="H72" s="5">
-        <f>LoRa_Send!H72</f>
+        <f>LoRa_Send!H74</f>
         <v>0</v>
       </c>
       <c r="I72" s="8">
-        <f>LoRa_Send!I72</f>
+        <f>LoRa_Send!I74</f>
         <v>0</v>
       </c>
       <c r="J72" s="5">
-        <f>LoRa_Send!J72</f>
+        <f>LoRa_Send!J74</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73" s="5">
-        <f>LoRa_System_Init!G74</f>
+        <f>LoRa_System_Init!G76</f>
         <v>0</v>
       </c>
       <c r="H73" s="5">
-        <f>LoRa_System_Init!H74</f>
+        <f>LoRa_System_Init!H76</f>
         <v>0</v>
       </c>
       <c r="I73" s="8">
-        <f>LoRa_System_Init!I74</f>
+        <f>LoRa_System_Init!I76</f>
         <v>0</v>
       </c>
     </row>
@@ -10697,7 +10826,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E9F640-4FA3-4D7B-AC5B-3B8FA795E544}">
   <dimension ref="B1:J73"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -10715,7 +10844,7 @@
   <sheetData>
     <row r="1" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
         <v>37</v>
@@ -10727,7 +10856,7 @@
     <row r="3" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="str">
         <f>LoRa_System_Init!C3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>LoRa_TxDone_HTX!E3</f>
@@ -10744,7 +10873,7 @@
       </c>
       <c r="H3" s="5" t="str">
         <f>LoRa_TxDone_HTX!H3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="I3" s="6" t="str">
         <f>enum!C8</f>
@@ -10793,7 +10922,7 @@
     </row>
     <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C6" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D6" s="11"/>
       <c r="G6" s="5" t="str">
@@ -10805,7 +10934,7 @@
         <v>LoRa_TimerHandshaking</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" s="5" t="str">
         <f>LoRa_TxDone_HTX!J6</f>
@@ -10814,7 +10943,7 @@
     </row>
     <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G7" s="5" t="str">
         <f>LoRa_TxDone_HTX!G7</f>
@@ -10835,7 +10964,7 @@
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G8" s="5" t="str">
         <f>LoRa_TxDone_HTX!G8</f>
@@ -11204,17 +11333,17 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="5">
+      <c r="G27" s="5" t="str">
         <f>LoRa_TxDone_HTX!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
+        <v>LoRaStatus_t</v>
+      </c>
+      <c r="H27" s="5" t="str">
         <f>LoRa_TxDone_HTX!H27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="I27" s="8" t="str">
         <f>LoRa_TxDone_HTX!I27</f>
-        <v>0</v>
+        <v>LoRa_transmiting</v>
       </c>
       <c r="J27" s="5">
         <f>LoRa_TxDone_HTX!J27</f>
@@ -11717,7 +11846,7 @@
         <v>watchdogTimerId;</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J55" s="5">
         <f>LoRa_TxDone_HTX!J55</f>
@@ -12014,33 +12143,33 @@
     </row>
     <row r="72" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G72" s="5">
-        <f>LoRa_Send!G72</f>
+        <f>LoRa_Send!G74</f>
         <v>0</v>
       </c>
       <c r="H72" s="5">
-        <f>LoRa_Send!H72</f>
+        <f>LoRa_Send!H74</f>
         <v>0</v>
       </c>
       <c r="I72" s="8">
-        <f>LoRa_Send!I72</f>
+        <f>LoRa_Send!I74</f>
         <v>0</v>
       </c>
       <c r="J72" s="5">
-        <f>LoRa_Send!J72</f>
+        <f>LoRa_Send!J74</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73" s="5">
-        <f>LoRa_System_Init!G74</f>
+        <f>LoRa_System_Init!G76</f>
         <v>0</v>
       </c>
       <c r="H73" s="5">
-        <f>LoRa_System_Init!H74</f>
+        <f>LoRa_System_Init!H76</f>
         <v>0</v>
       </c>
       <c r="I73" s="8">
-        <f>LoRa_System_Init!I74</f>
+        <f>LoRa_System_Init!I76</f>
         <v>0</v>
       </c>
     </row>
@@ -12075,16 +12204,16 @@
         <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="F1" t="s">
         <v>34</v>
@@ -12108,14 +12237,14 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="str">
         <f>LoRa_System_Init!C3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="D3" s="5" t="str">
         <f>LoRa_TxDone_HTX!E3</f>
         <v>LoRa_Handshaking_RX</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5" t="str">
@@ -12124,7 +12253,7 @@
       </c>
       <c r="H3" s="5" t="str">
         <f>LoRa_TxDone_HTX!H3</f>
-        <v>LoRa_Status</v>
+        <v>LoRa_transmitStatus</v>
       </c>
       <c r="I3" s="6" t="str">
         <f>enum!C5</f>
@@ -12183,7 +12312,7 @@
         <v>LoRa_TimerHandshaking</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J6" s="5" t="str">
         <f>LoRa_TxDone_HTX!J6</f>
@@ -12220,7 +12349,7 @@
         <v>LoRa_TimerWaitAck</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J8" s="5" t="str">
         <f>LoRa_TxDone_HTX!J8</f>
@@ -12403,7 +12532,7 @@
         <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E18" s="5">
         <f>LoRa_Send!E18</f>
@@ -12594,17 +12723,17 @@
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G27" s="5">
+      <c r="G27" s="5" t="str">
         <f>LoRa_TxDone_HTX!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="5">
+        <v>LoRaStatus_t</v>
+      </c>
+      <c r="H27" s="5" t="str">
         <f>LoRa_TxDone_HTX!H27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
+        <v>LoRa_StatusDanych</v>
+      </c>
+      <c r="I27" s="8" t="str">
         <f>LoRa_TxDone_HTX!I27</f>
-        <v>0</v>
+        <v>LoRa_transmiting</v>
       </c>
       <c r="J27" s="5">
         <f>LoRa_TxDone_HTX!J27</f>
@@ -13052,7 +13181,7 @@
         <v>*dataBuffer;</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J52" s="5">
         <f>LoRa_TxDone_HTX!J52</f>
@@ -13420,15 +13549,15 @@
     </row>
     <row r="73" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G73" s="5">
-        <f>LoRa_System_Init!G74</f>
+        <f>LoRa_System_Init!G76</f>
         <v>0</v>
       </c>
       <c r="H73" s="5">
-        <f>LoRa_System_Init!H74</f>
+        <f>LoRa_System_Init!H76</f>
         <v>0</v>
       </c>
       <c r="I73" s="8">
-        <f>LoRa_System_Init!I74</f>
+        <f>LoRa_System_Init!I76</f>
         <v>0</v>
       </c>
     </row>

--- a/Lora 2019.xlsx
+++ b/Lora 2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\elektr_2019\LoRa_2019\LoRa_2019.X\Lora2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5CBF90-48EF-4206-8B09-7479C05C97E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B88E798-2D44-4801-92E5-7472917071CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47656" yWindow="4347" windowWidth="21084" windowHeight="13925" activeTab="5" xr2:uid="{CF74FFB2-BF4B-47C5-93C8-DE55957A940B}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="229">
   <si>
     <t>timer</t>
   </si>
@@ -8275,8 +8275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E95C79-6986-417D-BB03-2118CBD6BA06}">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
